--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37D3F9B-9726-4EFE-A1DB-F5A90F19B4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080DE4F-F1CE-4973-9149-20984FDB0CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukTitle" sheetId="1" r:id="rId1"/>
@@ -765,11 +765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2337,7 +2337,7 @@
         <v>1E+85</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C118" si="2">C74</f>
+        <f t="shared" ref="C75:C121" si="2">C74</f>
         <v>55</v>
       </c>
       <c r="D75">
@@ -3250,6 +3250,69 @@
       <c r="E118" t="str">
         <f>VLOOKUP(A118,Balance!B:I,8,FALSE)</f>
         <v>태극 117단</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <f>VLOOKUP(A119,Balance!B:C,2,FALSE)</f>
+        <v>1E+129</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D119">
+        <f>VLOOKUP(A119,Balance!B:I,7,FALSE)</f>
+        <v>3.36</v>
+      </c>
+      <c r="E119" t="str">
+        <f>VLOOKUP(A119,Balance!B:I,8,FALSE)</f>
+        <v>태극 118단</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <f>VLOOKUP(A120,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D120">
+        <f>VLOOKUP(A120,Balance!B:I,7,FALSE)</f>
+        <v>3.44</v>
+      </c>
+      <c r="E120" t="str">
+        <f>VLOOKUP(A120,Balance!B:I,8,FALSE)</f>
+        <v>태극 119단</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <f>VLOOKUP(A121,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D121">
+        <f>VLOOKUP(A121,Balance!B:I,7,FALSE)</f>
+        <v>3.52</v>
+      </c>
+      <c r="E121" t="str">
+        <f>VLOOKUP(A121,Balance!B:I,8,FALSE)</f>
+        <v>태극 120단</v>
       </c>
     </row>
   </sheetData>
@@ -3414,7 +3477,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="13" t="str">
-        <f>VLOOKUP(F9,M:P,4,FALSE)</f>
+        <f t="shared" ref="G9:G40" si="2">VLOOKUP(F9,M:P,4,FALSE)</f>
         <v>1000000000000</v>
       </c>
       <c r="H9" s="13">
@@ -3450,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="14">
-        <f t="shared" ref="C10:C66" si="2">E10*G10</f>
+        <f t="shared" ref="C10:C66" si="3">E10*G10</f>
         <v>10000000000000</v>
       </c>
       <c r="D10" s="14" t="str">
@@ -3466,14 +3529,14 @@
         <v>조</v>
       </c>
       <c r="G10" s="13" t="str">
-        <f>VLOOKUP(F10,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
       <c r="H10" s="13">
         <v>2E-3</v>
       </c>
       <c r="I10" s="13" t="str">
-        <f t="shared" ref="I10:I73" si="3">K10&amp;" "&amp;J10&amp;"단"</f>
+        <f t="shared" ref="I10:I73" si="4">K10&amp;" "&amp;J10&amp;"단"</f>
         <v>태극 2단</v>
       </c>
       <c r="J10" s="13">
@@ -3503,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100000000000000</v>
       </c>
       <c r="D11" s="14" t="str">
@@ -3511,7 +3574,7 @@
         <v>100조</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" ref="E11:E66" si="4">IF(E10=1000,1,E10*10)</f>
+        <f t="shared" ref="E11:E66" si="5">IF(E10=1000,1,E10*10)</f>
         <v>100</v>
       </c>
       <c r="F11" s="13" t="str" cm="1">
@@ -3519,18 +3582,18 @@
         <v>조</v>
       </c>
       <c r="G11" s="13" t="str">
-        <f>VLOOKUP(F11,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
       <c r="H11" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I11" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 3단</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" ref="J11:J74" si="5">J10+1</f>
+        <f t="shared" ref="J11:J74" si="6">J10+1</f>
         <v>3</v>
       </c>
       <c r="K11" s="13" t="s">
@@ -3556,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000000000000000</v>
       </c>
       <c r="D12" s="14" t="str">
@@ -3564,7 +3627,7 @@
         <v>1000조</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F12" s="13" t="str" cm="1">
@@ -3572,18 +3635,18 @@
         <v>조</v>
       </c>
       <c r="G12" s="13" t="str">
-        <f>VLOOKUP(F12,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
       <c r="H12" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I12" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 4단</v>
       </c>
       <c r="J12" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K12" s="13" t="s">
@@ -3600,7 +3663,7 @@
         <v>1E+20</v>
       </c>
       <c r="P12" s="14" t="str">
-        <f t="shared" ref="P12:P40" si="6">RIGHT(O12,N12)</f>
+        <f t="shared" ref="P12:P40" si="7">RIGHT(O12,N12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -3609,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+16</v>
       </c>
       <c r="D13" s="14" t="str">
@@ -3617,7 +3680,7 @@
         <v>1경</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F13" s="13" t="str" cm="1">
@@ -3625,18 +3688,18 @@
         <v>경</v>
       </c>
       <c r="G13" s="13" t="str">
-        <f>VLOOKUP(F13,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10000000000000000</v>
       </c>
       <c r="H13" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I13" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 5단</v>
       </c>
       <c r="J13" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K13" s="13" t="s">
@@ -3653,7 +3716,7 @@
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="P13" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -3662,7 +3725,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+17</v>
       </c>
       <c r="D14" s="14" t="str">
@@ -3670,7 +3733,7 @@
         <v>10경</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F14" s="13" t="str" cm="1">
@@ -3678,18 +3741,18 @@
         <v>경</v>
       </c>
       <c r="G14" s="13" t="str">
-        <f>VLOOKUP(F14,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10000000000000000</v>
       </c>
       <c r="H14" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I14" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 6단</v>
       </c>
       <c r="J14" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K14" s="13" t="s">
@@ -3706,7 +3769,7 @@
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="P14" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -3715,7 +3778,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+18</v>
       </c>
       <c r="D15" s="14" t="str">
@@ -3723,7 +3786,7 @@
         <v>100경</v>
       </c>
       <c r="E15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F15" s="13" t="str" cm="1">
@@ -3731,18 +3794,18 @@
         <v>경</v>
       </c>
       <c r="G15" s="13" t="str">
-        <f>VLOOKUP(F15,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10000000000000000</v>
       </c>
       <c r="H15" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I15" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 7단</v>
       </c>
       <c r="J15" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="K15" s="13" t="s">
@@ -3759,7 +3822,7 @@
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="P15" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -3768,7 +3831,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+19</v>
       </c>
       <c r="D16" s="14" t="str">
@@ -3776,7 +3839,7 @@
         <v>1000경</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F16" s="13" t="str" cm="1">
@@ -3784,18 +3847,18 @@
         <v>경</v>
       </c>
       <c r="G16" s="13" t="str">
-        <f>VLOOKUP(F16,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10000000000000000</v>
       </c>
       <c r="H16" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I16" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 8단</v>
       </c>
       <c r="J16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="K16" s="13" t="s">
@@ -3812,7 +3875,7 @@
         <v>1E+36</v>
       </c>
       <c r="P16" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -3821,7 +3884,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+20</v>
       </c>
       <c r="D17" s="14" t="str">
@@ -3829,7 +3892,7 @@
         <v>1해</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F17" s="13" t="str" cm="1">
@@ -3837,18 +3900,18 @@
         <v>해</v>
       </c>
       <c r="G17" s="13" t="str">
-        <f>VLOOKUP(F17,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+20</v>
       </c>
       <c r="H17" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I17" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 9단</v>
       </c>
       <c r="J17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="K17" s="13" t="s">
@@ -3865,7 +3928,7 @@
         <v>1E+40</v>
       </c>
       <c r="P17" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -3874,7 +3937,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+21</v>
       </c>
       <c r="D18" s="14" t="str">
@@ -3882,7 +3945,7 @@
         <v>10해</v>
       </c>
       <c r="E18" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F18" s="13" t="str" cm="1">
@@ -3890,18 +3953,18 @@
         <v>해</v>
       </c>
       <c r="G18" s="13" t="str">
-        <f>VLOOKUP(F18,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+20</v>
       </c>
       <c r="H18" s="13">
         <v>0.01</v>
       </c>
       <c r="I18" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 10단</v>
       </c>
       <c r="J18" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="K18" s="13" t="s">
@@ -3918,7 +3981,7 @@
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="P18" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -3927,7 +3990,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+22</v>
       </c>
       <c r="D19" s="14" t="str">
@@ -3935,7 +3998,7 @@
         <v>100해</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F19" s="13" t="str" cm="1">
@@ -3943,18 +4006,18 @@
         <v>해</v>
       </c>
       <c r="G19" s="13" t="str">
-        <f>VLOOKUP(F19,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+20</v>
       </c>
       <c r="H19" s="13">
         <v>1.2E-2</v>
       </c>
       <c r="I19" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 11단</v>
       </c>
       <c r="J19" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="K19" s="13" t="s">
@@ -3971,7 +4034,7 @@
         <v>1E+48</v>
       </c>
       <c r="P19" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -3980,7 +4043,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999992E+22</v>
       </c>
       <c r="D20" s="14" t="str">
@@ -3988,7 +4051,7 @@
         <v>1000해</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F20" s="13" t="str" cm="1">
@@ -3996,18 +4059,18 @@
         <v>해</v>
       </c>
       <c r="G20" s="13" t="str">
-        <f>VLOOKUP(F20,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+20</v>
       </c>
       <c r="H20" s="13">
         <v>1.4E-2</v>
       </c>
       <c r="I20" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 12단</v>
       </c>
       <c r="J20" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="K20" s="13" t="s">
@@ -4024,7 +4087,7 @@
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="P20" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -4033,7 +4096,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="D21" s="14" t="str">
@@ -4041,7 +4104,7 @@
         <v>1자</v>
       </c>
       <c r="E21" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F21" s="13" t="str" cm="1">
@@ -4049,18 +4112,18 @@
         <v>자</v>
       </c>
       <c r="G21" s="13" t="str">
-        <f>VLOOKUP(F21,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+24</v>
       </c>
       <c r="H21" s="13">
         <v>1.6E-2</v>
       </c>
       <c r="I21" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 13단</v>
       </c>
       <c r="J21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="K21" s="13" t="s">
@@ -4077,7 +4140,7 @@
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="P21" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -4086,7 +4149,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999988E+24</v>
       </c>
       <c r="D22" s="14" t="str">
@@ -4094,7 +4157,7 @@
         <v>10자</v>
       </c>
       <c r="E22" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F22" s="13" t="str" cm="1">
@@ -4102,18 +4165,18 @@
         <v>자</v>
       </c>
       <c r="G22" s="13" t="str">
-        <f>VLOOKUP(F22,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+24</v>
       </c>
       <c r="H22" s="13">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I22" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 14단</v>
       </c>
       <c r="J22" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="K22" s="13" t="s">
@@ -4130,7 +4193,7 @@
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="P22" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -4139,7 +4202,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+26</v>
       </c>
       <c r="D23" s="14" t="str">
@@ -4147,7 +4210,7 @@
         <v>100자</v>
       </c>
       <c r="E23" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F23" s="13" t="str" cm="1">
@@ -4155,18 +4218,18 @@
         <v>자</v>
       </c>
       <c r="G23" s="13" t="str">
-        <f>VLOOKUP(F23,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+24</v>
       </c>
       <c r="H23" s="13">
         <v>0.02</v>
       </c>
       <c r="I23" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 15단</v>
       </c>
       <c r="J23" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="K23" s="13" t="s">
@@ -4183,7 +4246,7 @@
         <v>1E+64</v>
       </c>
       <c r="P23" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -4192,7 +4255,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+27</v>
       </c>
       <c r="D24" s="14" t="str">
@@ -4200,7 +4263,7 @@
         <v>1000자</v>
       </c>
       <c r="E24" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F24" s="13" t="str" cm="1">
@@ -4208,18 +4271,18 @@
         <v>자</v>
       </c>
       <c r="G24" s="13" t="str">
-        <f>VLOOKUP(F24,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+24</v>
       </c>
       <c r="H24" s="13">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="I24" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 16단</v>
       </c>
       <c r="J24" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="K24" s="13" t="s">
@@ -4236,7 +4299,7 @@
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="P24" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -4245,7 +4308,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="D25" s="14" t="str">
@@ -4253,7 +4316,7 @@
         <v>1양</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F25" s="13" t="str" cm="1">
@@ -4261,18 +4324,18 @@
         <v>양</v>
       </c>
       <c r="G25" s="13" t="str">
-        <f>VLOOKUP(F25,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+28</v>
       </c>
       <c r="H25" s="13">
         <v>2.4E-2</v>
       </c>
       <c r="I25" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 17단</v>
       </c>
       <c r="J25" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="K25" s="13" t="s">
@@ -4289,7 +4352,7 @@
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="P25" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -4298,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999991E+28</v>
       </c>
       <c r="D26" s="14" t="str">
@@ -4306,7 +4369,7 @@
         <v>10양</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F26" s="13" t="str" cm="1">
@@ -4314,18 +4377,18 @@
         <v>양</v>
       </c>
       <c r="G26" s="13" t="str">
-        <f>VLOOKUP(F26,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+28</v>
       </c>
       <c r="H26" s="13">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I26" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 18단</v>
       </c>
       <c r="J26" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="K26" s="13" t="s">
@@ -4342,7 +4405,7 @@
         <v>1E+76</v>
       </c>
       <c r="P26" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -4351,7 +4414,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+30</v>
       </c>
       <c r="D27" s="14" t="str">
@@ -4359,7 +4422,7 @@
         <v>100양</v>
       </c>
       <c r="E27" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F27" s="13" t="str" cm="1">
@@ -4367,18 +4430,18 @@
         <v>양</v>
       </c>
       <c r="G27" s="13" t="str">
-        <f>VLOOKUP(F27,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+28</v>
       </c>
       <c r="H27" s="13">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I27" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 19단</v>
       </c>
       <c r="J27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="K27" s="13" t="s">
@@ -4395,7 +4458,7 @@
         <v>1E+80</v>
       </c>
       <c r="P27" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -4404,7 +4467,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999996E+30</v>
       </c>
       <c r="D28" s="14" t="str">
@@ -4412,7 +4475,7 @@
         <v>1000양</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F28" s="13" t="str" cm="1">
@@ -4420,18 +4483,18 @@
         <v>양</v>
       </c>
       <c r="G28" s="13" t="str">
-        <f>VLOOKUP(F28,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+28</v>
       </c>
       <c r="H28" s="13">
         <v>0.03</v>
       </c>
       <c r="I28" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 20단</v>
       </c>
       <c r="J28" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K28" s="13" t="s">
@@ -4448,7 +4511,7 @@
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="P28" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -4457,7 +4520,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="D29" s="14" t="str">
@@ -4465,7 +4528,7 @@
         <v>1구</v>
       </c>
       <c r="E29" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F29" s="13" t="str" cm="1">
@@ -4473,18 +4536,18 @@
         <v>구</v>
       </c>
       <c r="G29" s="13" t="str">
-        <f>VLOOKUP(F29,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+32</v>
       </c>
       <c r="H29" s="13">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I29" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 21단</v>
       </c>
       <c r="J29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="K29" s="13" t="s">
@@ -4501,7 +4564,7 @@
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="P29" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -4510,7 +4573,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+33</v>
       </c>
       <c r="D30" s="14" t="str">
@@ -4518,7 +4581,7 @@
         <v>10구</v>
       </c>
       <c r="E30" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F30" s="13" t="str" cm="1">
@@ -4526,18 +4589,18 @@
         <v>구</v>
       </c>
       <c r="G30" s="13" t="str">
-        <f>VLOOKUP(F30,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+32</v>
       </c>
       <c r="H30" s="13">
         <v>0.04</v>
       </c>
       <c r="I30" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 22단</v>
       </c>
       <c r="J30" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="K30" s="13" t="s">
@@ -4554,7 +4617,7 @@
         <v>1E+92</v>
       </c>
       <c r="P30" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -4563,7 +4626,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+34</v>
       </c>
       <c r="D31" s="14" t="str">
@@ -4571,7 +4634,7 @@
         <v>100구</v>
       </c>
       <c r="E31" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F31" s="13" t="str" cm="1">
@@ -4579,18 +4642,18 @@
         <v>구</v>
       </c>
       <c r="G31" s="13" t="str">
-        <f>VLOOKUP(F31,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+32</v>
       </c>
       <c r="H31" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I31" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 23단</v>
       </c>
       <c r="J31" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="K31" s="13" t="s">
@@ -4607,7 +4670,7 @@
         <v>1E+96</v>
       </c>
       <c r="P31" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -4616,7 +4679,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999997E+34</v>
       </c>
       <c r="D32" s="14" t="str">
@@ -4624,7 +4687,7 @@
         <v>1000구</v>
       </c>
       <c r="E32" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F32" s="13" t="str" cm="1">
@@ -4632,18 +4695,18 @@
         <v>구</v>
       </c>
       <c r="G32" s="13" t="str">
-        <f>VLOOKUP(F32,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+32</v>
       </c>
       <c r="H32" s="13">
         <v>0.05</v>
       </c>
       <c r="I32" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 24단</v>
       </c>
       <c r="J32" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="K32" s="13" t="s">
@@ -4660,7 +4723,7 @@
         <v>1E+100</v>
       </c>
       <c r="P32" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -4669,7 +4732,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+36</v>
       </c>
       <c r="D33" s="14" t="str">
@@ -4677,7 +4740,7 @@
         <v>1간</v>
       </c>
       <c r="E33" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F33" s="13" t="str" cm="1">
@@ -4685,18 +4748,18 @@
         <v>간</v>
       </c>
       <c r="G33" s="13" t="str">
-        <f>VLOOKUP(F33,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
       <c r="H33" s="13">
         <v>5.5E-2</v>
       </c>
       <c r="I33" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 25단</v>
       </c>
       <c r="J33" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="K33" s="13" t="s">
@@ -4713,7 +4776,7 @@
         <v>1E+104</v>
       </c>
       <c r="P33" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+104</v>
       </c>
       <c r="Q33" s="9"/>
@@ -4730,7 +4793,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+37</v>
       </c>
       <c r="D34" s="14" t="str">
@@ -4738,7 +4801,7 @@
         <v>10간</v>
       </c>
       <c r="E34" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F34" s="13" t="str" cm="1">
@@ -4746,18 +4809,18 @@
         <v>간</v>
       </c>
       <c r="G34" s="13" t="str">
-        <f>VLOOKUP(F34,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
       <c r="H34" s="13">
         <v>0.06</v>
       </c>
       <c r="I34" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 26단</v>
       </c>
       <c r="J34" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="K34" s="13" t="s">
@@ -4774,7 +4837,7 @@
         <v>1E+108</v>
       </c>
       <c r="P34" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+108</v>
       </c>
       <c r="Q34" s="9"/>
@@ -4791,7 +4854,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+37</v>
       </c>
       <c r="D35" s="14" t="str">
@@ -4799,7 +4862,7 @@
         <v>100간</v>
       </c>
       <c r="E35" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F35" s="13" t="str" cm="1">
@@ -4807,18 +4870,18 @@
         <v>간</v>
       </c>
       <c r="G35" s="13" t="str">
-        <f>VLOOKUP(F35,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
       <c r="H35" s="13">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="I35" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 27단</v>
       </c>
       <c r="J35" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="K35" s="13" t="s">
@@ -4835,7 +4898,7 @@
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="P35" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+112</v>
       </c>
       <c r="Q35" s="9"/>
@@ -4852,7 +4915,7 @@
         <v>27</v>
       </c>
       <c r="C36" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+39</v>
       </c>
       <c r="D36" s="14" t="str">
@@ -4860,7 +4923,7 @@
         <v>1000간</v>
       </c>
       <c r="E36" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F36" s="13" t="str" cm="1">
@@ -4868,18 +4931,18 @@
         <v>간</v>
       </c>
       <c r="G36" s="13" t="str">
-        <f>VLOOKUP(F36,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
       <c r="H36" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I36" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 28단</v>
       </c>
       <c r="J36" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="K36" s="13" t="s">
@@ -4896,7 +4959,7 @@
         <v>1E+116</v>
       </c>
       <c r="P36" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+116</v>
       </c>
       <c r="Q36" s="9"/>
@@ -4913,7 +4976,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+40</v>
       </c>
       <c r="D37" s="14" t="str">
@@ -4921,7 +4984,7 @@
         <v>1정</v>
       </c>
       <c r="E37" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F37" s="13" t="str" cm="1">
@@ -4929,18 +4992,18 @@
         <v>정</v>
       </c>
       <c r="G37" s="13" t="str">
-        <f>VLOOKUP(F37,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
       <c r="H37" s="13">
         <v>0.08</v>
       </c>
       <c r="I37" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 29단</v>
       </c>
       <c r="J37" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="K37" s="13" t="s">
@@ -4957,7 +5020,7 @@
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="P37" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+120</v>
       </c>
       <c r="Q37" s="9"/>
@@ -4974,7 +5037,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+41</v>
       </c>
       <c r="D38" s="14" t="str">
@@ -4982,7 +5045,7 @@
         <v>10정</v>
       </c>
       <c r="E38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F38" s="13" t="str" cm="1">
@@ -4990,18 +5053,18 @@
         <v>정</v>
       </c>
       <c r="G38" s="13" t="str">
-        <f>VLOOKUP(F38,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
       <c r="H38" s="13">
         <v>0.09</v>
       </c>
       <c r="I38" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 30단</v>
       </c>
       <c r="J38" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="K38" s="13" t="s">
@@ -5018,7 +5081,7 @@
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="P38" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+124</v>
       </c>
       <c r="Q38" s="9"/>
@@ -5035,7 +5098,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+42</v>
       </c>
       <c r="D39" s="14" t="str">
@@ -5043,7 +5106,7 @@
         <v>100정</v>
       </c>
       <c r="E39" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F39" s="13" t="str" cm="1">
@@ -5051,18 +5114,18 @@
         <v>정</v>
       </c>
       <c r="G39" s="13" t="str">
-        <f>VLOOKUP(F39,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
       <c r="H39" s="13">
         <v>0.1</v>
       </c>
       <c r="I39" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 31단</v>
       </c>
       <c r="J39" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="K39" s="13" t="s">
@@ -5079,7 +5142,7 @@
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="P39" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -5088,7 +5151,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+43</v>
       </c>
       <c r="D40" s="14" t="str">
@@ -5096,7 +5159,7 @@
         <v>1000정</v>
       </c>
       <c r="E40" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F40" s="13" t="str" cm="1">
@@ -5104,18 +5167,18 @@
         <v>정</v>
       </c>
       <c r="G40" s="13" t="str">
-        <f>VLOOKUP(F40,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
       <c r="H40" s="13">
         <v>0.11</v>
       </c>
       <c r="I40" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 32단</v>
       </c>
       <c r="J40" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K40" s="13" t="s">
@@ -5132,7 +5195,7 @@
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -5141,7 +5204,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="D41" s="14" t="str">
@@ -5149,7 +5212,7 @@
         <v>1재</v>
       </c>
       <c r="E41" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F41" s="13" t="str" cm="1">
@@ -5157,18 +5220,18 @@
         <v>재</v>
       </c>
       <c r="G41" s="13" t="str">
-        <f>VLOOKUP(F41,M:P,4,FALSE)</f>
+        <f t="shared" ref="G41:G72" si="8">VLOOKUP(F41,M:P,4,FALSE)</f>
         <v>1E+44</v>
       </c>
       <c r="H41" s="13">
         <v>0.12</v>
       </c>
       <c r="I41" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 33단</v>
       </c>
       <c r="J41" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="K41" s="13" t="s">
@@ -5180,7 +5243,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+45</v>
       </c>
       <c r="D42" s="14" t="str">
@@ -5188,7 +5251,7 @@
         <v>10재</v>
       </c>
       <c r="E42" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F42" s="13" t="str" cm="1">
@@ -5196,18 +5259,18 @@
         <v>재</v>
       </c>
       <c r="G42" s="13" t="str">
-        <f>VLOOKUP(F42,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+44</v>
       </c>
       <c r="H42" s="13">
         <v>0.13</v>
       </c>
       <c r="I42" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 34단</v>
       </c>
       <c r="J42" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="K42" s="13" t="s">
@@ -5219,7 +5282,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="D43" s="14" t="str">
@@ -5227,7 +5290,7 @@
         <v>100재</v>
       </c>
       <c r="E43" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F43" s="13" t="str" cm="1">
@@ -5235,18 +5298,18 @@
         <v>재</v>
       </c>
       <c r="G43" s="13" t="str">
-        <f>VLOOKUP(F43,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+44</v>
       </c>
       <c r="H43" s="13">
         <v>0.14000000000000001</v>
       </c>
       <c r="I43" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 35단</v>
       </c>
       <c r="J43" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="K43" s="13" t="s">
@@ -5258,7 +5321,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+47</v>
       </c>
       <c r="D44" s="14" t="str">
@@ -5266,7 +5329,7 @@
         <v>1000재</v>
       </c>
       <c r="E44" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F44" s="13" t="str" cm="1">
@@ -5274,18 +5337,18 @@
         <v>재</v>
       </c>
       <c r="G44" s="13" t="str">
-        <f>VLOOKUP(F44,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+44</v>
       </c>
       <c r="H44" s="13">
         <v>0.15</v>
       </c>
       <c r="I44" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 36단</v>
       </c>
       <c r="J44" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="K44" s="13" t="s">
@@ -5297,7 +5360,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+48</v>
       </c>
       <c r="D45" s="14" t="str">
@@ -5305,7 +5368,7 @@
         <v>1극</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F45" s="13" t="str" cm="1">
@@ -5313,18 +5376,18 @@
         <v>극</v>
       </c>
       <c r="G45" s="13" t="str">
-        <f>VLOOKUP(F45,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+48</v>
       </c>
       <c r="H45" s="13">
         <v>0.16</v>
       </c>
       <c r="I45" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 37단</v>
       </c>
       <c r="J45" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="K45" s="13" t="s">
@@ -5336,7 +5399,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+49</v>
       </c>
       <c r="D46" s="14" t="str">
@@ -5344,7 +5407,7 @@
         <v>10극</v>
       </c>
       <c r="E46" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F46" s="13" t="str" cm="1">
@@ -5352,18 +5415,18 @@
         <v>극</v>
       </c>
       <c r="G46" s="13" t="str">
-        <f>VLOOKUP(F46,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+48</v>
       </c>
       <c r="H46" s="13">
         <v>0.17</v>
       </c>
       <c r="I46" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 38단</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="K46" s="13" t="s">
@@ -5375,7 +5438,7 @@
         <v>38</v>
       </c>
       <c r="C47" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+50</v>
       </c>
       <c r="D47" s="14" t="str">
@@ -5383,7 +5446,7 @@
         <v>100극</v>
       </c>
       <c r="E47" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F47" s="13" t="str" cm="1">
@@ -5391,18 +5454,18 @@
         <v>극</v>
       </c>
       <c r="G47" s="13" t="str">
-        <f>VLOOKUP(F47,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+48</v>
       </c>
       <c r="H47" s="13">
         <v>0.18</v>
       </c>
       <c r="I47" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 39단</v>
       </c>
       <c r="J47" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="K47" s="13" t="s">
@@ -5414,7 +5477,7 @@
         <v>39</v>
       </c>
       <c r="C48" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999999E+50</v>
       </c>
       <c r="D48" s="14" t="str">
@@ -5422,7 +5485,7 @@
         <v>1000극</v>
       </c>
       <c r="E48" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F48" s="13" t="str" cm="1">
@@ -5430,18 +5493,18 @@
         <v>극</v>
       </c>
       <c r="G48" s="13" t="str">
-        <f>VLOOKUP(F48,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+48</v>
       </c>
       <c r="H48" s="13">
         <v>0.19</v>
       </c>
       <c r="I48" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 40단</v>
       </c>
       <c r="J48" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K48" s="13" t="s">
@@ -5453,7 +5516,7 @@
         <v>40</v>
       </c>
       <c r="C49" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="D49" s="14" t="str">
@@ -5461,7 +5524,7 @@
         <v>1항</v>
       </c>
       <c r="E49" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F49" s="13" t="str" cm="1">
@@ -5469,18 +5532,18 @@
         <v>항</v>
       </c>
       <c r="G49" s="13" t="str">
-        <f>VLOOKUP(F49,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+52</v>
       </c>
       <c r="H49" s="13">
         <v>0.2</v>
       </c>
       <c r="I49" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 41단</v>
       </c>
       <c r="J49" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="K49" s="13" t="s">
@@ -5492,7 +5555,7 @@
         <v>41</v>
       </c>
       <c r="C50" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999999E+52</v>
       </c>
       <c r="D50" s="14" t="str">
@@ -5500,7 +5563,7 @@
         <v>10항</v>
       </c>
       <c r="E50" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F50" s="13" t="str" cm="1">
@@ -5508,18 +5571,18 @@
         <v>항</v>
       </c>
       <c r="G50" s="13" t="str">
-        <f>VLOOKUP(F50,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+52</v>
       </c>
       <c r="H50" s="13">
         <v>0.22</v>
       </c>
       <c r="I50" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 42단</v>
       </c>
       <c r="J50" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="K50" s="13" t="s">
@@ -5531,7 +5594,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+54</v>
       </c>
       <c r="D51" s="14" t="str">
@@ -5539,7 +5602,7 @@
         <v>100항</v>
       </c>
       <c r="E51" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F51" s="13" t="str" cm="1">
@@ -5547,18 +5610,18 @@
         <v>항</v>
       </c>
       <c r="G51" s="13" t="str">
-        <f>VLOOKUP(F51,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+52</v>
       </c>
       <c r="H51" s="13">
         <v>0.24</v>
       </c>
       <c r="I51" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 43단</v>
       </c>
       <c r="J51" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="K51" s="13" t="s">
@@ -5570,7 +5633,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+55</v>
       </c>
       <c r="D52" s="14" t="str">
@@ -5578,7 +5641,7 @@
         <v>1000항</v>
       </c>
       <c r="E52" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F52" s="13" t="str" cm="1">
@@ -5586,18 +5649,18 @@
         <v>항</v>
       </c>
       <c r="G52" s="13" t="str">
-        <f>VLOOKUP(F52,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+52</v>
       </c>
       <c r="H52" s="13">
         <v>0.26</v>
       </c>
       <c r="I52" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 44단</v>
       </c>
       <c r="J52" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="K52" s="13" t="s">
@@ -5609,7 +5672,7 @@
         <v>44</v>
       </c>
       <c r="C53" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="D53" s="14" t="str">
@@ -5617,7 +5680,7 @@
         <v>1아</v>
       </c>
       <c r="E53" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F53" s="13" t="str" cm="1">
@@ -5625,18 +5688,18 @@
         <v>아</v>
       </c>
       <c r="G53" s="13" t="str">
-        <f>VLOOKUP(F53,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+56</v>
       </c>
       <c r="H53" s="13">
         <v>0.28000000000000003</v>
       </c>
       <c r="I53" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 45단</v>
       </c>
       <c r="J53" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="K53" s="13" t="s">
@@ -5648,7 +5711,7 @@
         <v>45</v>
       </c>
       <c r="C54" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+57</v>
       </c>
       <c r="D54" s="14" t="str">
@@ -5656,7 +5719,7 @@
         <v>10아</v>
       </c>
       <c r="E54" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F54" s="13" t="str" cm="1">
@@ -5664,18 +5727,18 @@
         <v>아</v>
       </c>
       <c r="G54" s="13" t="str">
-        <f>VLOOKUP(F54,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+56</v>
       </c>
       <c r="H54" s="13">
         <v>0.3</v>
       </c>
       <c r="I54" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 46단</v>
       </c>
       <c r="J54" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="K54" s="13" t="s">
@@ -5687,7 +5750,7 @@
         <v>46</v>
       </c>
       <c r="C55" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+58</v>
       </c>
       <c r="D55" s="14" t="str">
@@ -5695,7 +5758,7 @@
         <v>100아</v>
       </c>
       <c r="E55" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F55" s="13" t="str" cm="1">
@@ -5703,18 +5766,18 @@
         <v>아</v>
       </c>
       <c r="G55" s="13" t="str">
-        <f>VLOOKUP(F55,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+56</v>
       </c>
       <c r="H55" s="13">
         <v>0.32</v>
       </c>
       <c r="I55" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 47단</v>
       </c>
       <c r="J55" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="K55" s="13" t="s">
@@ -5726,7 +5789,7 @@
         <v>47</v>
       </c>
       <c r="C56" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+59</v>
       </c>
       <c r="D56" s="14" t="str">
@@ -5734,7 +5797,7 @@
         <v>1000아</v>
       </c>
       <c r="E56" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F56" s="13" t="str" cm="1">
@@ -5742,18 +5805,18 @@
         <v>아</v>
       </c>
       <c r="G56" s="13" t="str">
-        <f>VLOOKUP(F56,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+56</v>
       </c>
       <c r="H56" s="13">
         <v>0.34</v>
       </c>
       <c r="I56" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 48단</v>
       </c>
       <c r="J56" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="K56" s="13" t="s">
@@ -5765,7 +5828,7 @@
         <v>48</v>
       </c>
       <c r="C57" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="D57" s="14" t="str">
@@ -5773,7 +5836,7 @@
         <v>1나</v>
       </c>
       <c r="E57" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F57" s="13" t="str" cm="1">
@@ -5781,18 +5844,18 @@
         <v>나</v>
       </c>
       <c r="G57" s="13" t="str">
-        <f>VLOOKUP(F57,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+60</v>
       </c>
       <c r="H57" s="13">
         <v>0.36</v>
       </c>
       <c r="I57" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 49단</v>
       </c>
       <c r="J57" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="K57" s="13" t="s">
@@ -5804,7 +5867,7 @@
         <v>49</v>
       </c>
       <c r="C58" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+60</v>
       </c>
       <c r="D58" s="14" t="str">
@@ -5812,7 +5875,7 @@
         <v>10나</v>
       </c>
       <c r="E58" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F58" s="13" t="str" cm="1">
@@ -5820,18 +5883,18 @@
         <v>나</v>
       </c>
       <c r="G58" s="13" t="str">
-        <f>VLOOKUP(F58,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+60</v>
       </c>
       <c r="H58" s="13">
         <v>0.38</v>
       </c>
       <c r="I58" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 50단</v>
       </c>
       <c r="J58" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="K58" s="13" t="s">
@@ -5843,7 +5906,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999992E+61</v>
       </c>
       <c r="D59" s="14" t="str">
@@ -5851,7 +5914,7 @@
         <v>100나</v>
       </c>
       <c r="E59" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F59" s="13" t="str" cm="1">
@@ -5859,18 +5922,18 @@
         <v>나</v>
       </c>
       <c r="G59" s="13" t="str">
-        <f>VLOOKUP(F59,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+60</v>
       </c>
       <c r="H59" s="13">
         <v>0.4</v>
       </c>
       <c r="I59" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 51단</v>
       </c>
       <c r="J59" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="K59" s="13" t="s">
@@ -5882,7 +5945,7 @@
         <v>51</v>
       </c>
       <c r="C60" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999988E+62</v>
       </c>
       <c r="D60" s="14" t="str">
@@ -5890,7 +5953,7 @@
         <v>1000나</v>
       </c>
       <c r="E60" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F60" s="13" t="str" cm="1">
@@ -5898,18 +5961,18 @@
         <v>나</v>
       </c>
       <c r="G60" s="13" t="str">
-        <f>VLOOKUP(F60,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+60</v>
       </c>
       <c r="H60" s="13">
         <v>0.42</v>
       </c>
       <c r="I60" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 52단</v>
       </c>
       <c r="J60" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="K60" s="13" t="s">
@@ -5921,7 +5984,7 @@
         <v>52</v>
       </c>
       <c r="C61" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+64</v>
       </c>
       <c r="D61" s="14" t="str">
@@ -5929,7 +5992,7 @@
         <v>1불</v>
       </c>
       <c r="E61" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F61" s="13" t="str" cm="1">
@@ -5937,18 +6000,18 @@
         <v>불</v>
       </c>
       <c r="G61" s="13" t="str">
-        <f>VLOOKUP(F61,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+64</v>
       </c>
       <c r="H61" s="13">
         <v>0.44</v>
       </c>
       <c r="I61" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 53단</v>
       </c>
       <c r="J61" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="K61" s="13" t="s">
@@ -5960,7 +6023,7 @@
         <v>53</v>
       </c>
       <c r="C62" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999999E+64</v>
       </c>
       <c r="D62" s="14" t="str">
@@ -5968,7 +6031,7 @@
         <v>10불</v>
       </c>
       <c r="E62" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F62" s="13" t="str" cm="1">
@@ -5976,18 +6039,18 @@
         <v>불</v>
       </c>
       <c r="G62" s="13" t="str">
-        <f>VLOOKUP(F62,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+64</v>
       </c>
       <c r="H62" s="13">
         <v>0.46</v>
       </c>
       <c r="I62" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 54단</v>
       </c>
       <c r="J62" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="K62" s="13" t="s">
@@ -5999,7 +6062,7 @@
         <v>54</v>
       </c>
       <c r="C63" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+65</v>
       </c>
       <c r="D63" s="14" t="str">
@@ -6007,7 +6070,7 @@
         <v>100불</v>
       </c>
       <c r="E63" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F63" s="13" t="str" cm="1">
@@ -6015,18 +6078,18 @@
         <v>불</v>
       </c>
       <c r="G63" s="13" t="str">
-        <f>VLOOKUP(F63,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+64</v>
       </c>
       <c r="H63" s="13">
         <v>0.48</v>
       </c>
       <c r="I63" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 55단</v>
       </c>
       <c r="J63" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="K63" s="13" t="s">
@@ -6038,7 +6101,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+66</v>
       </c>
       <c r="D64" s="14" t="str">
@@ -6046,7 +6109,7 @@
         <v>1000불</v>
       </c>
       <c r="E64" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F64" s="13" t="str" cm="1">
@@ -6054,18 +6117,18 @@
         <v>불</v>
       </c>
       <c r="G64" s="13" t="str">
-        <f>VLOOKUP(F64,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+64</v>
       </c>
       <c r="H64" s="13">
         <v>0.5</v>
       </c>
       <c r="I64" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 56단</v>
       </c>
       <c r="J64" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="K64" s="13" t="s">
@@ -6077,7 +6140,7 @@
         <v>56</v>
       </c>
       <c r="C65" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="D65" s="14" t="str">
@@ -6085,7 +6148,7 @@
         <v>1무</v>
       </c>
       <c r="E65" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F65" s="13" t="str" cm="1">
@@ -6093,18 +6156,18 @@
         <v>무</v>
       </c>
       <c r="G65" s="13" t="str">
-        <f>VLOOKUP(F65,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+68</v>
       </c>
       <c r="H65" s="13">
         <v>0.52</v>
       </c>
       <c r="I65" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 57단</v>
       </c>
       <c r="J65" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="K65" s="13" t="s">
@@ -6116,7 +6179,7 @@
         <v>57</v>
       </c>
       <c r="C66" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999988E+68</v>
       </c>
       <c r="D66" s="14" t="str">
@@ -6124,7 +6187,7 @@
         <v>10무</v>
       </c>
       <c r="E66" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F66" s="13" t="str" cm="1">
@@ -6132,18 +6195,18 @@
         <v>무</v>
       </c>
       <c r="G66" s="13" t="str">
-        <f>VLOOKUP(F66,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+68</v>
       </c>
       <c r="H66" s="13">
         <v>0.54</v>
       </c>
       <c r="I66" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 58단</v>
       </c>
       <c r="J66" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="K66" s="13" t="s">
@@ -6155,15 +6218,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="7">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="9">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="8">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="10">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="9">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="11">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -6171,18 +6234,18 @@
         <v>무</v>
       </c>
       <c r="G67" s="13" t="str">
-        <f>VLOOKUP(F67,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+68</v>
       </c>
       <c r="H67" s="13">
         <v>0.56000000000000005</v>
       </c>
       <c r="I67" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 59단</v>
       </c>
       <c r="J67" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="K67" s="13" t="s">
@@ -6194,15 +6257,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -6210,18 +6273,18 @@
         <v>무</v>
       </c>
       <c r="G68" s="13" t="str">
-        <f>VLOOKUP(F68,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+68</v>
       </c>
       <c r="H68" s="13">
         <v>0.57999999999999996</v>
       </c>
       <c r="I68" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 60단</v>
       </c>
       <c r="J68" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="K68" s="13" t="s">
@@ -6233,15 +6296,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -6249,18 +6312,18 @@
         <v>대</v>
       </c>
       <c r="G69" s="13" t="str">
-        <f>VLOOKUP(F69,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+72</v>
       </c>
       <c r="H69" s="13">
         <v>0.6</v>
       </c>
       <c r="I69" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 61단</v>
       </c>
       <c r="J69" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="K69" s="13" t="s">
@@ -6272,15 +6335,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -6288,18 +6351,18 @@
         <v>대</v>
       </c>
       <c r="G70" s="13" t="str">
-        <f>VLOOKUP(F70,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+72</v>
       </c>
       <c r="H70" s="13">
         <v>0.62</v>
       </c>
       <c r="I70" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 62단</v>
       </c>
       <c r="J70" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="K70" s="13" t="s">
@@ -6311,15 +6374,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -6327,18 +6390,18 @@
         <v>대</v>
       </c>
       <c r="G71" s="13" t="str">
-        <f>VLOOKUP(F71,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+72</v>
       </c>
       <c r="H71" s="13">
         <v>0.64</v>
       </c>
       <c r="I71" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 63단</v>
       </c>
       <c r="J71" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="K71" s="13" t="s">
@@ -6350,15 +6413,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -6366,18 +6429,18 @@
         <v>대</v>
       </c>
       <c r="G72" s="13" t="str">
-        <f>VLOOKUP(F72,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+72</v>
       </c>
       <c r="H72" s="13">
         <v>0.66</v>
       </c>
       <c r="I72" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 64단</v>
       </c>
       <c r="J72" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="K72" s="13" t="s">
@@ -6389,15 +6452,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -6405,18 +6468,18 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f>VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="12">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
         <v>0.68</v>
       </c>
       <c r="I73" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 65단</v>
       </c>
       <c r="J73" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="K73" s="13" t="s">
@@ -6428,15 +6491,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -6444,18 +6507,18 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f>VLOOKUP(F74,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="10">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="13">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="K74" s="13" t="s">
@@ -6467,15 +6530,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -6483,18 +6546,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f>VLOOKUP(F75,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J132" si="11">J74+1</f>
+        <f t="shared" ref="J75:J132" si="14">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -6506,15 +6569,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -6522,18 +6585,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f>VLOOKUP(F76,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -6545,15 +6608,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -6561,18 +6624,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f>VLOOKUP(F77,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -6584,15 +6647,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -6600,18 +6663,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f>VLOOKUP(F78,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -6623,15 +6686,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -6639,18 +6702,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f>VLOOKUP(F79,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -6662,15 +6725,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -6678,18 +6741,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f>VLOOKUP(F80,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -6701,15 +6764,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -6717,18 +6780,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f>VLOOKUP(F81,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -6740,15 +6803,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -6756,18 +6819,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f>VLOOKUP(F82,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -6779,15 +6842,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -6795,18 +6858,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f>VLOOKUP(F83,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -6818,15 +6881,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -6834,18 +6897,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f>VLOOKUP(F84,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -6857,15 +6920,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -6873,18 +6936,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f>VLOOKUP(F85,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -6896,15 +6959,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -6912,18 +6975,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f>VLOOKUP(F86,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -6935,15 +6998,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -6951,18 +7014,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f>VLOOKUP(F87,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -6974,15 +7037,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -6990,18 +7053,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f>VLOOKUP(F88,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -7013,15 +7076,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -7029,18 +7092,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f>VLOOKUP(F89,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -7052,15 +7115,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -7068,18 +7131,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f>VLOOKUP(F90,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -7091,15 +7154,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -7107,18 +7170,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f>VLOOKUP(F91,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -7130,15 +7193,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -7146,18 +7209,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f>VLOOKUP(F92,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -7169,15 +7232,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -7185,18 +7248,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f>VLOOKUP(F93,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -7208,15 +7271,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -7224,18 +7287,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f>VLOOKUP(F94,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -7247,15 +7310,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -7263,18 +7326,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f>VLOOKUP(F95,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -7286,15 +7349,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -7302,18 +7365,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f>VLOOKUP(F96,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -7325,15 +7388,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -7341,18 +7404,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f>VLOOKUP(F97,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -7364,15 +7427,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -7380,18 +7443,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f>VLOOKUP(F98,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -7403,15 +7466,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -7419,18 +7482,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f>VLOOKUP(F99,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -7442,15 +7505,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -7458,18 +7521,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f>VLOOKUP(F100,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -7481,15 +7544,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -7497,18 +7560,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f>VLOOKUP(F101,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -7520,15 +7583,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -7536,18 +7599,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f>VLOOKUP(F102,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -7559,15 +7622,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -7575,18 +7638,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f>VLOOKUP(F103,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -7598,15 +7661,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -7614,18 +7677,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f>VLOOKUP(F104,M:P,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -7637,15 +7700,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -7653,18 +7716,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f>VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G136" si="15">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -7676,15 +7739,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -7692,18 +7755,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f>VLOOKUP(F106,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -7715,15 +7778,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -7731,18 +7794,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f>VLOOKUP(F107,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -7754,15 +7817,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -7770,18 +7833,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f>VLOOKUP(F108,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -7793,15 +7856,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -7809,18 +7872,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f>VLOOKUP(F109,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -7832,15 +7895,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -7848,18 +7911,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f>VLOOKUP(F110,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -7871,15 +7934,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -7887,18 +7950,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f>VLOOKUP(F111,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -7910,15 +7973,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="12">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="16">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="13">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="17">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E132" si="14">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E132" si="18">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -7926,18 +7989,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f>VLOOKUP(F112,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="15">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="19">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -7949,15 +8012,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -7965,18 +8028,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f>VLOOKUP(F113,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -7988,15 +8051,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -8004,18 +8067,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f>VLOOKUP(F114,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -8027,15 +8090,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -8043,18 +8106,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f>VLOOKUP(F115,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -8066,15 +8129,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -8082,18 +8145,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f>VLOOKUP(F116,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -8105,15 +8168,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -8121,18 +8184,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f>VLOOKUP(F117,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -8144,15 +8207,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -8160,18 +8223,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f>VLOOKUP(F118,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -8183,15 +8246,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -8199,18 +8262,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f>VLOOKUP(F119,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -8222,15 +8285,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -8238,18 +8301,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f>VLOOKUP(F120,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -8261,15 +8324,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -8277,18 +8340,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f>VLOOKUP(F121,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -8300,15 +8363,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -8316,18 +8379,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f>VLOOKUP(F122,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -8339,15 +8402,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -8355,18 +8418,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f>VLOOKUP(F123,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -8378,15 +8441,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -8394,18 +8457,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f>VLOOKUP(F124,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -8417,15 +8480,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="16">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="20">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="17">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="21">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -8433,18 +8496,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f>VLOOKUP(F125,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="18">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="22">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -8456,15 +8519,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1E+129</v>
       </c>
       <c r="D126" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10위</v>
       </c>
       <c r="E126" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -8472,18 +8535,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f>VLOOKUP(F126,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -8495,15 +8558,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="D127" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>100위</v>
       </c>
       <c r="E127" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -8511,18 +8574,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f>VLOOKUP(F127,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -8534,15 +8597,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="D128" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1000위</v>
       </c>
       <c r="E128" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -8550,18 +8613,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f>VLOOKUP(F128,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -8573,15 +8636,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="D129" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1d</v>
       </c>
       <c r="E129" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -8589,18 +8652,18 @@
         <v>d</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f>VLOOKUP(F129,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -8612,15 +8675,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1E+133</v>
       </c>
       <c r="D130" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10d</v>
       </c>
       <c r="E130" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -8628,18 +8691,18 @@
         <v>d</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f>VLOOKUP(F130,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -8651,15 +8714,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C132" si="19">E131*G131</f>
+        <f t="shared" ref="C131:C132" si="23">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D132" si="20">E131&amp;F131</f>
+        <f t="shared" ref="D131:D132" si="24">E131&amp;F131</f>
         <v>100d</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -8667,18 +8730,18 @@
         <v>d</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f>VLOOKUP(F131,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I132" si="21">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I132" si="25">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -8690,15 +8753,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1000d</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -8706,18 +8769,18 @@
         <v>d</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f>VLOOKUP(F132,M:P,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080DE4F-F1CE-4973-9149-20984FDB0CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A346716-51CD-4699-9EF0-D14102920BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>칭호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +256,10 @@
   </si>
   <si>
     <t>위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,11 +765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -793,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2337,7 +2337,7 @@
         <v>1E+85</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C121" si="2">C74</f>
+        <f t="shared" ref="C75:C125" si="2">C74</f>
         <v>55</v>
       </c>
       <c r="D75">
@@ -3313,6 +3313,90 @@
       <c r="E121" t="str">
         <f>VLOOKUP(A121,Balance!B:I,8,FALSE)</f>
         <v>태극 120단</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <f>VLOOKUP(A122,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D122">
+        <f>VLOOKUP(A122,Balance!B:I,7,FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="E122" t="str">
+        <f>VLOOKUP(A122,Balance!B:I,8,FALSE)</f>
+        <v>태극 121단</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <f>VLOOKUP(A123,Balance!B:C,2,FALSE)</f>
+        <v>1E+133</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D123">
+        <f>VLOOKUP(A123,Balance!B:I,7,FALSE)</f>
+        <v>3.68</v>
+      </c>
+      <c r="E123" t="str">
+        <f>VLOOKUP(A123,Balance!B:I,8,FALSE)</f>
+        <v>태극 122단</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <f>VLOOKUP(A124,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999992E+133</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D124">
+        <f>VLOOKUP(A124,Balance!B:I,7,FALSE)</f>
+        <v>3.76</v>
+      </c>
+      <c r="E124" t="str">
+        <f>VLOOKUP(A124,Balance!B:I,8,FALSE)</f>
+        <v>태극 123단</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <f>VLOOKUP(A125,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999996E+134</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D125">
+        <f>VLOOKUP(A125,Balance!B:I,7,FALSE)</f>
+        <v>3.84</v>
+      </c>
+      <c r="E125" t="str">
+        <f>VLOOKUP(A125,Balance!B:I,8,FALSE)</f>
+        <v>태극 124단</v>
       </c>
     </row>
   </sheetData>
@@ -3326,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
   <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3418,10 +3502,10 @@
         <v>4</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>12</v>
@@ -3491,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>16</v>
@@ -3544,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>17</v>
@@ -3597,7 +3681,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>18</v>
@@ -3650,7 +3734,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>19</v>
@@ -3703,7 +3787,7 @@
         <v>5</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>20</v>
@@ -3756,7 +3840,7 @@
         <v>6</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>21</v>
@@ -3809,7 +3893,7 @@
         <v>7</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>22</v>
@@ -3862,7 +3946,7 @@
         <v>8</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>23</v>
@@ -3915,7 +3999,7 @@
         <v>9</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>24</v>
@@ -3968,7 +4052,7 @@
         <v>10</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>25</v>
@@ -4021,7 +4105,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>26</v>
@@ -4074,7 +4158,7 @@
         <v>12</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>27</v>
@@ -4127,7 +4211,7 @@
         <v>13</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>28</v>
@@ -4180,7 +4264,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>29</v>
@@ -4233,7 +4317,7 @@
         <v>15</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>30</v>
@@ -4286,7 +4370,7 @@
         <v>16</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>31</v>
@@ -4339,7 +4423,7 @@
         <v>17</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>32</v>
@@ -4392,7 +4476,7 @@
         <v>18</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>33</v>
@@ -4445,7 +4529,7 @@
         <v>19</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>34</v>
@@ -4498,7 +4582,7 @@
         <v>20</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>35</v>
@@ -4551,7 +4635,7 @@
         <v>21</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>15</v>
@@ -4604,7 +4688,7 @@
         <v>22</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>36</v>
@@ -4657,7 +4741,7 @@
         <v>23</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>37</v>
@@ -4710,7 +4794,7 @@
         <v>24</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M32" s="13" t="s">
         <v>38</v>
@@ -4763,7 +4847,7 @@
         <v>25</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M33" s="13" t="s">
         <v>39</v>
@@ -4824,7 +4908,7 @@
         <v>26</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M34" s="13" t="s">
         <v>40</v>
@@ -4885,7 +4969,7 @@
         <v>27</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M35" s="13" t="s">
         <v>41</v>
@@ -4946,7 +5030,7 @@
         <v>28</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M36" s="13" t="s">
         <v>42</v>
@@ -5007,10 +5091,10 @@
         <v>29</v>
       </c>
       <c r="K37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="N37" s="13">
         <v>120</v>
@@ -5068,10 +5152,10 @@
         <v>30</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N38" s="13">
         <v>124</v>
@@ -5129,10 +5213,10 @@
         <v>31</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N39" s="13">
         <v>128</v>
@@ -5182,10 +5266,10 @@
         <v>32</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N40" s="13">
         <v>132</v>
@@ -5235,7 +5319,7 @@
         <v>33</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.3">
@@ -5274,7 +5358,7 @@
         <v>34</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.3">
@@ -5313,7 +5397,7 @@
         <v>35</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.3">
@@ -5352,7 +5436,7 @@
         <v>36</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.3">
@@ -5391,7 +5475,7 @@
         <v>37</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.3">
@@ -5430,7 +5514,7 @@
         <v>38</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.3">
@@ -5469,7 +5553,7 @@
         <v>39</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.3">
@@ -5508,7 +5592,7 @@
         <v>40</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
@@ -5547,7 +5631,7 @@
         <v>41</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
@@ -5586,7 +5670,7 @@
         <v>42</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
@@ -5625,7 +5709,7 @@
         <v>43</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
@@ -5664,7 +5748,7 @@
         <v>44</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
@@ -5703,7 +5787,7 @@
         <v>45</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
@@ -5742,7 +5826,7 @@
         <v>46</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
@@ -5781,7 +5865,7 @@
         <v>47</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
@@ -5820,7 +5904,7 @@
         <v>48</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
@@ -5859,7 +5943,7 @@
         <v>49</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
@@ -5898,7 +5982,7 @@
         <v>50</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
@@ -5937,7 +6021,7 @@
         <v>51</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
@@ -5976,7 +6060,7 @@
         <v>52</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
@@ -6015,7 +6099,7 @@
         <v>53</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
@@ -6054,7 +6138,7 @@
         <v>54</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
@@ -6093,7 +6177,7 @@
         <v>55</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
@@ -6132,7 +6216,7 @@
         <v>56</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
@@ -6171,7 +6255,7 @@
         <v>57</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
@@ -6210,7 +6294,7 @@
         <v>58</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
@@ -6249,7 +6333,7 @@
         <v>59</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
@@ -6288,7 +6372,7 @@
         <v>60</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
@@ -6327,7 +6411,7 @@
         <v>61</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
@@ -6366,7 +6450,7 @@
         <v>62</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
@@ -6405,7 +6489,7 @@
         <v>63</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
@@ -6444,7 +6528,7 @@
         <v>64</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
@@ -6483,7 +6567,7 @@
         <v>65</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
@@ -6522,7 +6606,7 @@
         <v>66</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
@@ -6561,7 +6645,7 @@
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
@@ -6600,7 +6684,7 @@
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
@@ -6639,7 +6723,7 @@
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
@@ -6678,7 +6762,7 @@
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
@@ -6717,7 +6801,7 @@
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
@@ -6756,7 +6840,7 @@
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
@@ -6795,7 +6879,7 @@
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
@@ -6834,7 +6918,7 @@
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
@@ -6873,7 +6957,7 @@
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
@@ -6912,7 +6996,7 @@
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
@@ -6951,7 +7035,7 @@
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
@@ -6990,7 +7074,7 @@
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
@@ -7029,7 +7113,7 @@
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
@@ -7068,7 +7152,7 @@
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
@@ -7107,7 +7191,7 @@
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
@@ -7146,7 +7230,7 @@
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
@@ -7185,7 +7269,7 @@
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
@@ -7224,7 +7308,7 @@
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
@@ -7263,7 +7347,7 @@
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
@@ -7302,7 +7386,7 @@
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
@@ -7341,7 +7425,7 @@
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
@@ -7380,7 +7464,7 @@
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
@@ -7419,7 +7503,7 @@
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
@@ -7458,7 +7542,7 @@
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
@@ -7497,7 +7581,7 @@
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
@@ -7536,7 +7620,7 @@
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
@@ -7575,7 +7659,7 @@
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
@@ -7614,7 +7698,7 @@
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
@@ -7653,7 +7737,7 @@
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
@@ -7692,7 +7776,7 @@
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
@@ -7716,7 +7800,7 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G136" si="15">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G132" si="15">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
@@ -7731,7 +7815,7 @@
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
@@ -7770,7 +7854,7 @@
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
@@ -7809,7 +7893,7 @@
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
@@ -7848,7 +7932,7 @@
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
@@ -7887,7 +7971,7 @@
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
@@ -7926,7 +8010,7 @@
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
@@ -7965,7 +8049,7 @@
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
@@ -8004,7 +8088,7 @@
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
@@ -8043,7 +8127,7 @@
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
@@ -8082,7 +8166,7 @@
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
@@ -8121,7 +8205,7 @@
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
@@ -8160,7 +8244,7 @@
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
@@ -8199,7 +8283,7 @@
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
@@ -8238,7 +8322,7 @@
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
@@ -8277,7 +8361,7 @@
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
@@ -8316,7 +8400,7 @@
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.3">
@@ -8355,7 +8439,7 @@
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.3">
@@ -8394,7 +8478,7 @@
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.3">
@@ -8433,7 +8517,7 @@
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.3">
@@ -8472,7 +8556,7 @@
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.3">
@@ -8511,7 +8595,7 @@
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.3">
@@ -8550,7 +8634,7 @@
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.3">
@@ -8589,7 +8673,7 @@
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.3">
@@ -8628,7 +8712,7 @@
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.3">
@@ -8641,7 +8725,7 @@
       </c>
       <c r="D129" s="14" t="str">
         <f t="shared" si="21"/>
-        <v>1d</v>
+        <v>1설</v>
       </c>
       <c r="E129" s="14">
         <f t="shared" si="18"/>
@@ -8649,7 +8733,7 @@
       </c>
       <c r="F129" s="13" t="str" cm="1">
         <f t="array" ref="F129">IF(AND(E128&gt;100,E129&lt;100),INDEX(M:M,MATCH(F128,M:M,0)+1,0),F128)</f>
-        <v>d</v>
+        <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
         <f t="shared" si="15"/>
@@ -8667,7 +8751,7 @@
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.3">
@@ -8680,7 +8764,7 @@
       </c>
       <c r="D130" s="14" t="str">
         <f t="shared" si="21"/>
-        <v>10d</v>
+        <v>10설</v>
       </c>
       <c r="E130" s="14">
         <f t="shared" si="18"/>
@@ -8688,7 +8772,7 @@
       </c>
       <c r="F130" s="13" t="str" cm="1">
         <f t="array" ref="F130">IF(AND(E129&gt;100,E130&lt;100),INDEX(M:M,MATCH(F129,M:M,0)+1,0),F129)</f>
-        <v>d</v>
+        <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
         <f t="shared" si="15"/>
@@ -8706,7 +8790,7 @@
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.3">
@@ -8719,7 +8803,7 @@
       </c>
       <c r="D131" s="14" t="str">
         <f t="shared" ref="D131:D132" si="24">E131&amp;F131</f>
-        <v>100d</v>
+        <v>100설</v>
       </c>
       <c r="E131" s="14">
         <f t="shared" si="18"/>
@@ -8727,7 +8811,7 @@
       </c>
       <c r="F131" s="13" t="str" cm="1">
         <f t="array" ref="F131">IF(AND(E130&gt;100,E131&lt;100),INDEX(M:M,MATCH(F130,M:M,0)+1,0),F130)</f>
-        <v>d</v>
+        <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
         <f t="shared" si="15"/>
@@ -8745,7 +8829,7 @@
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.3">
@@ -8758,7 +8842,7 @@
       </c>
       <c r="D132" s="14" t="str">
         <f t="shared" si="24"/>
-        <v>1000d</v>
+        <v>1000설</v>
       </c>
       <c r="E132" s="14">
         <f t="shared" si="18"/>
@@ -8766,7 +8850,7 @@
       </c>
       <c r="F132" s="13" t="str" cm="1">
         <f t="array" ref="F132">IF(AND(E131&gt;100,E132&lt;100),INDEX(M:M,MATCH(F131,M:M,0)+1,0),F131)</f>
-        <v>d</v>
+        <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
         <f t="shared" si="15"/>
@@ -8784,7 +8868,7 @@
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A346716-51CD-4699-9EF0-D14102920BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3061F805-5799-4ADC-9411-72C082CE79AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukTitle" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,10 @@
   </si>
   <si>
     <t>설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,11 +769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2337,7 +2341,7 @@
         <v>1E+85</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C125" si="2">C74</f>
+        <f t="shared" ref="C75:C129" si="2">C74</f>
         <v>55</v>
       </c>
       <c r="D75">
@@ -3397,6 +3401,90 @@
       <c r="E125" t="str">
         <f>VLOOKUP(A125,Balance!B:I,8,FALSE)</f>
         <v>태극 124단</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <f>VLOOKUP(A126,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D126">
+        <f>VLOOKUP(A126,Balance!B:I,7,FALSE)</f>
+        <v>3.92</v>
+      </c>
+      <c r="E126" t="str">
+        <f>VLOOKUP(A126,Balance!B:I,8,FALSE)</f>
+        <v>태극 125단</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <f>VLOOKUP(A127,Balance!B:C,2,FALSE)</f>
+        <v>1E+137</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D127">
+        <f>VLOOKUP(A127,Balance!B:I,7,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E127" t="str">
+        <f>VLOOKUP(A127,Balance!B:I,8,FALSE)</f>
+        <v>태극 126단</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <f>VLOOKUP(A128,Balance!B:C,2,FALSE)</f>
+        <v>1E+138</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D128">
+        <f>VLOOKUP(A128,Balance!B:I,7,FALSE)</f>
+        <v>4.08</v>
+      </c>
+      <c r="E128" t="str">
+        <f>VLOOKUP(A128,Balance!B:I,8,FALSE)</f>
+        <v>태극 127단</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <f>VLOOKUP(A129,Balance!B:C,2,FALSE)</f>
+        <v>1E+139</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D129">
+        <f>VLOOKUP(A129,Balance!B:I,7,FALSE)</f>
+        <v>4.16</v>
+      </c>
+      <c r="E129" t="str">
+        <f>VLOOKUP(A129,Balance!B:I,8,FALSE)</f>
+        <v>태극 128단</v>
       </c>
     </row>
   </sheetData>
@@ -3408,10 +3496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X132"/>
+  <dimension ref="A1:X136"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5321,6 +5409,20 @@
       <c r="K41" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M41" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N41" s="13">
+        <v>136</v>
+      </c>
+      <c r="O41" s="14">
+        <f t="shared" ref="O41" si="9">POWER(10,N41)</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="P41" s="14" t="str">
+        <f t="shared" ref="P41" si="10">RIGHT(O41,N41)</f>
+        <v>1E+136</v>
+      </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B42" s="13">
@@ -6302,15 +6404,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="9">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="11">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="10">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="12">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="11">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="13">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -6341,15 +6443,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -6380,15 +6482,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -6419,15 +6521,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -6458,15 +6560,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -6497,15 +6599,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -6536,15 +6638,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -6552,7 +6654,7 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="12">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="14">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
@@ -6575,15 +6677,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -6591,14 +6693,14 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="13">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="15">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
@@ -6614,15 +6716,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -6630,18 +6732,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J132" si="14">J74+1</f>
+        <f t="shared" ref="J75:J136" si="16">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -6653,15 +6755,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -6669,18 +6771,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -6692,15 +6794,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -6708,18 +6810,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -6731,15 +6833,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -6747,18 +6849,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -6770,15 +6872,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -6786,18 +6888,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -6809,15 +6911,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -6825,18 +6927,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -6848,15 +6950,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -6864,18 +6966,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -6887,15 +6989,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -6903,18 +7005,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -6926,15 +7028,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -6942,18 +7044,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -6965,15 +7067,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -6981,18 +7083,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -7004,15 +7106,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -7020,18 +7122,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -7043,15 +7145,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -7059,18 +7161,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -7082,15 +7184,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -7098,18 +7200,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -7121,15 +7223,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -7137,18 +7239,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -7160,15 +7262,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -7176,18 +7278,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -7199,15 +7301,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -7215,18 +7317,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -7238,15 +7340,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -7254,18 +7356,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -7277,15 +7379,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -7293,18 +7395,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -7316,15 +7418,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -7332,18 +7434,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -7355,15 +7457,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -7371,18 +7473,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -7394,15 +7496,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -7410,18 +7512,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -7433,15 +7535,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -7449,18 +7551,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -7472,15 +7574,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -7488,18 +7590,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -7511,15 +7613,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -7527,18 +7629,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -7550,15 +7652,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -7566,18 +7668,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -7589,15 +7691,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -7605,18 +7707,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -7628,15 +7730,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -7644,18 +7746,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -7667,15 +7769,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -7683,18 +7785,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -7706,15 +7808,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -7722,18 +7824,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -7745,15 +7847,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -7761,18 +7863,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -7784,15 +7886,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -7800,18 +7902,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G132" si="15">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G132" si="17">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -7823,15 +7925,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -7839,18 +7941,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -7862,15 +7964,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -7878,18 +7980,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -7901,15 +8003,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -7917,18 +8019,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -7940,15 +8042,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -7956,18 +8058,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -7979,15 +8081,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -7995,18 +8097,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -8018,15 +8120,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -8034,18 +8136,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -8057,15 +8159,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="16">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="18">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="17">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="19">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E132" si="18">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E136" si="20">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -8073,18 +8175,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="19">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="21">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -8096,15 +8198,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -8112,18 +8214,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -8135,15 +8237,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -8151,18 +8253,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -8174,15 +8276,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -8190,18 +8292,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -8213,15 +8315,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -8229,18 +8331,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -8252,15 +8354,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -8268,18 +8370,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -8291,15 +8393,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -8307,18 +8409,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -8330,15 +8432,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -8346,18 +8448,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -8369,15 +8471,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -8385,18 +8487,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -8408,15 +8510,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -8424,18 +8526,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -8447,15 +8549,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -8463,18 +8565,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -8486,15 +8588,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -8502,18 +8604,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -8525,15 +8627,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -8541,18 +8643,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -8564,15 +8666,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="20">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="22">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="21">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="23">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -8580,18 +8682,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="22">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="24">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -8603,15 +8705,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
+        <f t="shared" si="22"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="23"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
         <f t="shared" si="20"/>
-        <v>1E+129</v>
-      </c>
-      <c r="D126" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v>10위</v>
-      </c>
-      <c r="E126" s="14">
-        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -8619,18 +8721,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -8642,15 +8744,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
+        <f t="shared" si="22"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="23"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
         <f t="shared" si="20"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="D127" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v>100위</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -8658,18 +8760,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -8681,15 +8783,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
+        <f t="shared" si="22"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="23"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
         <f t="shared" si="20"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="D128" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v>1000위</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -8697,18 +8799,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -8720,15 +8822,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
+        <f t="shared" si="22"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="23"/>
+        <v>1설</v>
+      </c>
+      <c r="E129" s="14">
         <f t="shared" si="20"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="D129" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v>1설</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -8736,18 +8838,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -8759,15 +8861,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
+        <f t="shared" si="22"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="23"/>
+        <v>10설</v>
+      </c>
+      <c r="E130" s="14">
         <f t="shared" si="20"/>
-        <v>1E+133</v>
-      </c>
-      <c r="D130" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v>10설</v>
-      </c>
-      <c r="E130" s="14">
-        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -8775,18 +8877,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -8798,15 +8900,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C132" si="23">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="25">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D132" si="24">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="26">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -8814,18 +8916,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I132" si="25">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="27">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -8837,15 +8939,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -8853,21 +8955,177 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
+        <f t="shared" si="27"/>
+        <v>태극 124단</v>
+      </c>
+      <c r="J132" s="13">
+        <f t="shared" si="16"/>
+        <v>124</v>
+      </c>
+      <c r="K132" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B133" s="13">
+        <v>124</v>
+      </c>
+      <c r="C133" s="14">
         <f t="shared" si="25"/>
-        <v>태극 124단</v>
-      </c>
-      <c r="J132" s="13">
-        <f t="shared" si="14"/>
-        <v>124</v>
-      </c>
-      <c r="K132" s="13" t="s">
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="D133" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>1적</v>
+      </c>
+      <c r="E133" s="14">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="F133" s="13" t="str" cm="1">
+        <f t="array" ref="F133">IF(AND(E132&gt;100,E133&lt;100),INDEX(M:M,MATCH(F132,M:M,0)+1,0),F132)</f>
+        <v>적</v>
+      </c>
+      <c r="G133" s="13" t="str">
+        <f t="shared" ref="G133:G136" si="28">VLOOKUP(F133,M:P,4,FALSE)</f>
+        <v>1E+136</v>
+      </c>
+      <c r="H133" s="13">
+        <v>3.92</v>
+      </c>
+      <c r="I133" s="13" t="str">
+        <f t="shared" si="27"/>
+        <v>태극 125단</v>
+      </c>
+      <c r="J133" s="13">
+        <f t="shared" si="16"/>
+        <v>125</v>
+      </c>
+      <c r="K133" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B134" s="13">
+        <v>125</v>
+      </c>
+      <c r="C134" s="14">
+        <f t="shared" si="25"/>
+        <v>1E+137</v>
+      </c>
+      <c r="D134" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>10적</v>
+      </c>
+      <c r="E134" s="14">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="F134" s="13" t="str" cm="1">
+        <f t="array" ref="F134">IF(AND(E133&gt;100,E134&lt;100),INDEX(M:M,MATCH(F133,M:M,0)+1,0),F133)</f>
+        <v>적</v>
+      </c>
+      <c r="G134" s="13" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+136</v>
+      </c>
+      <c r="H134" s="13">
+        <v>4</v>
+      </c>
+      <c r="I134" s="13" t="str">
+        <f t="shared" si="27"/>
+        <v>태극 126단</v>
+      </c>
+      <c r="J134" s="13">
+        <f t="shared" si="16"/>
+        <v>126</v>
+      </c>
+      <c r="K134" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B135" s="13">
+        <v>126</v>
+      </c>
+      <c r="C135" s="14">
+        <f t="shared" ref="C135:C136" si="29">E135*G135</f>
+        <v>1E+138</v>
+      </c>
+      <c r="D135" s="14" t="str">
+        <f t="shared" ref="D135:D136" si="30">E135&amp;F135</f>
+        <v>100적</v>
+      </c>
+      <c r="E135" s="14">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+      <c r="F135" s="13" t="str" cm="1">
+        <f t="array" ref="F135">IF(AND(E134&gt;100,E135&lt;100),INDEX(M:M,MATCH(F134,M:M,0)+1,0),F134)</f>
+        <v>적</v>
+      </c>
+      <c r="G135" s="13" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+136</v>
+      </c>
+      <c r="H135" s="13">
+        <v>4.08</v>
+      </c>
+      <c r="I135" s="13" t="str">
+        <f t="shared" ref="I135:I136" si="31">K135&amp;" "&amp;J135&amp;"단"</f>
+        <v>태극 127단</v>
+      </c>
+      <c r="J135" s="13">
+        <f t="shared" si="16"/>
+        <v>127</v>
+      </c>
+      <c r="K135" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B136" s="13">
+        <v>127</v>
+      </c>
+      <c r="C136" s="14">
+        <f t="shared" si="29"/>
+        <v>1E+139</v>
+      </c>
+      <c r="D136" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>1000적</v>
+      </c>
+      <c r="E136" s="14">
+        <f t="shared" si="20"/>
+        <v>1000</v>
+      </c>
+      <c r="F136" s="13" t="str" cm="1">
+        <f t="array" ref="F136">IF(AND(E135&gt;100,E136&lt;100),INDEX(M:M,MATCH(F135,M:M,0)+1,0),F135)</f>
+        <v>적</v>
+      </c>
+      <c r="G136" s="13" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+136</v>
+      </c>
+      <c r="H136" s="13">
+        <v>4.16</v>
+      </c>
+      <c r="I136" s="13" t="str">
+        <f t="shared" si="31"/>
+        <v>태극 128단</v>
+      </c>
+      <c r="J136" s="13">
+        <f t="shared" si="16"/>
+        <v>128</v>
+      </c>
+      <c r="K136" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3061F805-5799-4ADC-9411-72C082CE79AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1E0E5D-668D-467F-8D83-FCE54C1CFD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukTitle" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="53">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,11 +773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2341,7 +2345,7 @@
         <v>1E+85</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C129" si="2">C74</f>
+        <f t="shared" ref="C75:C133" si="2">C74</f>
         <v>55</v>
       </c>
       <c r="D75">
@@ -3485,6 +3489,90 @@
       <c r="E129" t="str">
         <f>VLOOKUP(A129,Balance!B:I,8,FALSE)</f>
         <v>태극 128단</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <f>VLOOKUP(A130,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D130">
+        <f>VLOOKUP(A130,Balance!B:I,7,FALSE)</f>
+        <v>4.24</v>
+      </c>
+      <c r="E130" t="str">
+        <f>VLOOKUP(A130,Balance!B:I,8,FALSE)</f>
+        <v>태극 129단</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <f>VLOOKUP(A131,Balance!B:C,2,FALSE)</f>
+        <v>1E+141</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D131">
+        <f>VLOOKUP(A131,Balance!B:I,7,FALSE)</f>
+        <v>4.32</v>
+      </c>
+      <c r="E131" t="str">
+        <f>VLOOKUP(A131,Balance!B:I,8,FALSE)</f>
+        <v>태극 130단</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <f>VLOOKUP(A132,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+142</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D132">
+        <f>VLOOKUP(A132,Balance!B:I,7,FALSE)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E132" t="str">
+        <f>VLOOKUP(A132,Balance!B:I,8,FALSE)</f>
+        <v>태극 131단</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <f>VLOOKUP(A133,Balance!B:C,2,FALSE)</f>
+        <v>1E+143</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D133">
+        <f>VLOOKUP(A133,Balance!B:I,7,FALSE)</f>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E133" t="str">
+        <f>VLOOKUP(A133,Balance!B:I,8,FALSE)</f>
+        <v>태극 132단</v>
       </c>
     </row>
   </sheetData>
@@ -3496,10 +3584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X136"/>
+  <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5462,6 +5550,20 @@
       <c r="K42" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M42" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N42" s="13">
+        <v>140</v>
+      </c>
+      <c r="O42" s="14">
+        <f t="shared" ref="O42" si="11">POWER(10,N42)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="P42" s="14" t="str">
+        <f t="shared" ref="P42" si="12">RIGHT(O42,N42)</f>
+        <v>1E+140</v>
+      </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B43" s="13">
@@ -6404,15 +6506,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="11">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="13">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="12">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="14">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="13">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="15">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -6443,15 +6545,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -6482,15 +6584,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -6521,15 +6623,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -6560,15 +6662,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -6599,15 +6701,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -6638,15 +6740,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -6654,7 +6756,7 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="14">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="16">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
@@ -6677,15 +6779,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -6693,14 +6795,14 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="15">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="17">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
@@ -6716,15 +6818,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -6732,18 +6834,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J136" si="16">J74+1</f>
+        <f t="shared" ref="J75:J140" si="18">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -6755,15 +6857,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -6771,18 +6873,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -6794,15 +6896,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -6810,18 +6912,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -6833,15 +6935,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -6849,18 +6951,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -6872,15 +6974,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -6888,18 +6990,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -6911,15 +7013,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -6927,18 +7029,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -6950,15 +7052,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -6966,18 +7068,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -6989,15 +7091,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -7005,18 +7107,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -7028,15 +7130,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -7044,18 +7146,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -7067,15 +7169,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -7083,18 +7185,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -7106,15 +7208,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -7122,18 +7224,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -7145,15 +7247,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -7161,18 +7263,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -7184,15 +7286,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -7200,18 +7302,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -7223,15 +7325,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -7239,18 +7341,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -7262,15 +7364,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -7278,18 +7380,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -7301,15 +7403,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -7317,18 +7419,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -7340,15 +7442,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -7356,18 +7458,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -7379,15 +7481,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -7395,18 +7497,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -7418,15 +7520,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -7434,18 +7536,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -7457,15 +7559,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -7473,18 +7575,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -7496,15 +7598,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -7512,18 +7614,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -7535,15 +7637,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -7551,18 +7653,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -7574,15 +7676,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -7590,18 +7692,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -7613,15 +7715,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -7629,18 +7731,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -7652,15 +7754,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -7668,18 +7770,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -7691,15 +7793,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -7707,18 +7809,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -7730,15 +7832,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -7746,18 +7848,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -7769,15 +7871,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -7785,18 +7887,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -7808,15 +7910,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -7824,18 +7926,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -7847,15 +7949,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -7863,18 +7965,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -7886,15 +7988,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -7902,18 +8004,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G132" si="17">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G132" si="19">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -7925,15 +8027,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -7941,18 +8043,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -7964,15 +8066,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -7980,18 +8082,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -8003,15 +8105,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -8019,18 +8121,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -8042,15 +8144,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -8058,18 +8160,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -8081,15 +8183,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -8097,18 +8199,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -8120,15 +8222,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -8136,18 +8238,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -8159,15 +8261,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="18">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="20">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="19">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="21">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E136" si="20">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E140" si="22">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -8175,18 +8277,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="21">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="23">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -8198,15 +8300,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -8214,18 +8316,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -8237,15 +8339,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -8253,18 +8355,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -8276,15 +8378,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -8292,18 +8394,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -8315,15 +8417,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -8331,18 +8433,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -8354,15 +8456,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -8370,18 +8472,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -8393,15 +8495,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -8409,18 +8511,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -8432,15 +8534,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -8448,18 +8550,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -8471,15 +8573,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -8487,18 +8589,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -8510,15 +8612,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -8526,18 +8628,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -8549,15 +8651,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -8565,18 +8667,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -8588,15 +8690,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -8604,18 +8706,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -8627,15 +8729,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -8643,18 +8745,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -8666,15 +8768,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="22">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="24">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="23">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="25">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -8682,18 +8784,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="24">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="26">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -8705,15 +8807,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
+        <f t="shared" si="24"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
         <f t="shared" si="22"/>
-        <v>1E+129</v>
-      </c>
-      <c r="D126" s="14" t="str">
-        <f t="shared" si="23"/>
-        <v>10위</v>
-      </c>
-      <c r="E126" s="14">
-        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -8721,18 +8823,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -8744,15 +8846,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
+        <f t="shared" si="24"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
         <f t="shared" si="22"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="D127" s="14" t="str">
-        <f t="shared" si="23"/>
-        <v>100위</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -8760,18 +8862,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -8783,15 +8885,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
+        <f t="shared" si="24"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
         <f t="shared" si="22"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="D128" s="14" t="str">
-        <f t="shared" si="23"/>
-        <v>1000위</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -8799,18 +8901,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -8822,15 +8924,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
+        <f t="shared" si="24"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>1설</v>
+      </c>
+      <c r="E129" s="14">
         <f t="shared" si="22"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="D129" s="14" t="str">
-        <f t="shared" si="23"/>
-        <v>1설</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -8838,18 +8940,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -8861,15 +8963,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
+        <f t="shared" si="24"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>10설</v>
+      </c>
+      <c r="E130" s="14">
         <f t="shared" si="22"/>
-        <v>1E+133</v>
-      </c>
-      <c r="D130" s="14" t="str">
-        <f t="shared" si="23"/>
-        <v>10설</v>
-      </c>
-      <c r="E130" s="14">
-        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -8877,18 +8979,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -8900,15 +9002,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C134" si="25">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="27">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D134" si="26">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="28">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -8916,18 +9018,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I134" si="27">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="29">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -8939,15 +9041,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -8955,18 +9057,18 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
@@ -8978,15 +9080,15 @@
         <v>124</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D133" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1적</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F133" s="13" t="str" cm="1">
@@ -8994,18 +9096,18 @@
         <v>적</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" ref="G133:G136" si="28">VLOOKUP(F133,M:P,4,FALSE)</f>
+        <f t="shared" ref="G133:G136" si="30">VLOOKUP(F133,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="H133" s="13">
         <v>3.92</v>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 125단</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>125</v>
       </c>
       <c r="K133" s="13" t="s">
@@ -9017,15 +9119,15 @@
         <v>125</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+137</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10적</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="F134" s="13" t="str" cm="1">
@@ -9033,18 +9135,18 @@
         <v>적</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+136</v>
       </c>
       <c r="H134" s="13">
         <v>4</v>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 126단</v>
       </c>
       <c r="J134" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>126</v>
       </c>
       <c r="K134" s="13" t="s">
@@ -9056,15 +9158,15 @@
         <v>126</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" ref="C135:C136" si="29">E135*G135</f>
+        <f t="shared" ref="C135:C138" si="31">E135*G135</f>
         <v>1E+138</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f t="shared" ref="D135:D136" si="30">E135&amp;F135</f>
+        <f t="shared" ref="D135:D138" si="32">E135&amp;F135</f>
         <v>100적</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="F135" s="13" t="str" cm="1">
@@ -9072,18 +9174,18 @@
         <v>적</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+136</v>
       </c>
       <c r="H135" s="13">
         <v>4.08</v>
       </c>
       <c r="I135" s="13" t="str">
-        <f t="shared" ref="I135:I136" si="31">K135&amp;" "&amp;J135&amp;"단"</f>
+        <f t="shared" ref="I135:I138" si="33">K135&amp;" "&amp;J135&amp;"단"</f>
         <v>태극 127단</v>
       </c>
       <c r="J135" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>127</v>
       </c>
       <c r="K135" s="13" t="s">
@@ -9095,15 +9197,15 @@
         <v>127</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+139</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000적</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="F136" s="13" t="str" cm="1">
@@ -9111,21 +9213,177 @@
         <v>적</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+136</v>
       </c>
       <c r="H136" s="13">
         <v>4.16</v>
       </c>
       <c r="I136" s="13" t="str">
+        <f t="shared" si="33"/>
+        <v>태극 128단</v>
+      </c>
+      <c r="J136" s="13">
+        <f t="shared" si="18"/>
+        <v>128</v>
+      </c>
+      <c r="K136" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B137" s="13">
+        <v>128</v>
+      </c>
+      <c r="C137" s="14">
         <f t="shared" si="31"/>
-        <v>태극 128단</v>
-      </c>
-      <c r="J136" s="13">
-        <f t="shared" si="16"/>
-        <v>128</v>
-      </c>
-      <c r="K136" s="13" t="s">
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="D137" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>1고</v>
+      </c>
+      <c r="E137" s="14">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="F137" s="13" t="str" cm="1">
+        <f t="array" ref="F137">IF(AND(E136&gt;100,E137&lt;100),INDEX(M:M,MATCH(F136,M:M,0)+1,0),F136)</f>
+        <v>고</v>
+      </c>
+      <c r="G137" s="13" t="str">
+        <f t="shared" ref="G137:G140" si="34">VLOOKUP(F137,M:P,4,FALSE)</f>
+        <v>1E+140</v>
+      </c>
+      <c r="H137" s="13">
+        <v>4.24</v>
+      </c>
+      <c r="I137" s="13" t="str">
+        <f t="shared" si="33"/>
+        <v>태극 129단</v>
+      </c>
+      <c r="J137" s="13">
+        <f t="shared" si="18"/>
+        <v>129</v>
+      </c>
+      <c r="K137" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B138" s="13">
+        <v>129</v>
+      </c>
+      <c r="C138" s="14">
+        <f t="shared" si="31"/>
+        <v>1E+141</v>
+      </c>
+      <c r="D138" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>10고</v>
+      </c>
+      <c r="E138" s="14">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="F138" s="13" t="str" cm="1">
+        <f t="array" ref="F138">IF(AND(E137&gt;100,E138&lt;100),INDEX(M:M,MATCH(F137,M:M,0)+1,0),F137)</f>
+        <v>고</v>
+      </c>
+      <c r="G138" s="13" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+140</v>
+      </c>
+      <c r="H138" s="13">
+        <v>4.32</v>
+      </c>
+      <c r="I138" s="13" t="str">
+        <f t="shared" si="33"/>
+        <v>태극 130단</v>
+      </c>
+      <c r="J138" s="13">
+        <f t="shared" si="18"/>
+        <v>130</v>
+      </c>
+      <c r="K138" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B139" s="13">
+        <v>130</v>
+      </c>
+      <c r="C139" s="14">
+        <f t="shared" ref="C139:C140" si="35">E139*G139</f>
+        <v>1.0000000000000001E+142</v>
+      </c>
+      <c r="D139" s="14" t="str">
+        <f t="shared" ref="D139:D140" si="36">E139&amp;F139</f>
+        <v>100고</v>
+      </c>
+      <c r="E139" s="14">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="F139" s="13" t="str" cm="1">
+        <f t="array" ref="F139">IF(AND(E138&gt;100,E139&lt;100),INDEX(M:M,MATCH(F138,M:M,0)+1,0),F138)</f>
+        <v>고</v>
+      </c>
+      <c r="G139" s="13" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+140</v>
+      </c>
+      <c r="H139" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I139" s="13" t="str">
+        <f t="shared" ref="I139:I140" si="37">K139&amp;" "&amp;J139&amp;"단"</f>
+        <v>태극 131단</v>
+      </c>
+      <c r="J139" s="13">
+        <f t="shared" si="18"/>
+        <v>131</v>
+      </c>
+      <c r="K139" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B140" s="13">
+        <v>131</v>
+      </c>
+      <c r="C140" s="14">
+        <f t="shared" si="35"/>
+        <v>1E+143</v>
+      </c>
+      <c r="D140" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>1000고</v>
+      </c>
+      <c r="E140" s="14">
+        <f t="shared" si="22"/>
+        <v>1000</v>
+      </c>
+      <c r="F140" s="13" t="str" cm="1">
+        <f t="array" ref="F140">IF(AND(E139&gt;100,E140&lt;100),INDEX(M:M,MATCH(F139,M:M,0)+1,0),F139)</f>
+        <v>고</v>
+      </c>
+      <c r="G140" s="13" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+140</v>
+      </c>
+      <c r="H140" s="13">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="I140" s="13" t="str">
+        <f t="shared" si="37"/>
+        <v>태극 132단</v>
+      </c>
+      <c r="J140" s="13">
+        <f t="shared" si="18"/>
+        <v>132</v>
+      </c>
+      <c r="K140" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1E0E5D-668D-467F-8D83-FCE54C1CFD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC24C0-ED30-45D7-806B-81A79ADC9A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukTitle" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="54">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,10 @@
   </si>
   <si>
     <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,11 +777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2345,7 +2349,7 @@
         <v>1E+85</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C133" si="2">C74</f>
+        <f t="shared" ref="C75:C137" si="2">C74</f>
         <v>55</v>
       </c>
       <c r="D75">
@@ -3573,6 +3577,90 @@
       <c r="E133" t="str">
         <f>VLOOKUP(A133,Balance!B:I,8,FALSE)</f>
         <v>태극 132단</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <f>VLOOKUP(A134,Balance!B:C,2,FALSE)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D134">
+        <f>VLOOKUP(A134,Balance!B:I,7,FALSE)</f>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E134" t="str">
+        <f>VLOOKUP(A134,Balance!B:I,8,FALSE)</f>
+        <v>태극 133단</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <f>VLOOKUP(A135,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999999E+144</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D135">
+        <f>VLOOKUP(A135,Balance!B:I,7,FALSE)</f>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E135" t="str">
+        <f>VLOOKUP(A135,Balance!B:I,8,FALSE)</f>
+        <v>태극 134단</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <f>VLOOKUP(A136,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999993E+145</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D136">
+        <f>VLOOKUP(A136,Balance!B:I,7,FALSE)</f>
+        <v>4.72</v>
+      </c>
+      <c r="E136" t="str">
+        <f>VLOOKUP(A136,Balance!B:I,8,FALSE)</f>
+        <v>태극 135단</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <f>VLOOKUP(A137,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999998E+146</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D137">
+        <f>VLOOKUP(A137,Balance!B:I,7,FALSE)</f>
+        <v>4.8</v>
+      </c>
+      <c r="E137" t="str">
+        <f>VLOOKUP(A137,Balance!B:I,8,FALSE)</f>
+        <v>태극 136단</v>
       </c>
     </row>
   </sheetData>
@@ -3584,10 +3672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X140"/>
+  <dimension ref="A1:X144"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5603,6 +5691,20 @@
       <c r="K43" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M43" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N43" s="13">
+        <v>144</v>
+      </c>
+      <c r="O43" s="14">
+        <f t="shared" ref="O43" si="13">POWER(10,N43)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="P43" s="14" t="str">
+        <f t="shared" ref="P43" si="14">RIGHT(O43,N43)</f>
+        <v>1E+144</v>
+      </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
@@ -6506,15 +6608,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="13">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="15">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="14">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="16">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="15">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="17">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -6545,15 +6647,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -6584,15 +6686,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -6623,15 +6725,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -6662,15 +6764,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -6701,15 +6803,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -6740,15 +6842,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -6756,7 +6858,7 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="16">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="18">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
@@ -6779,15 +6881,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -6795,14 +6897,14 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="17">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="19">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
@@ -6818,15 +6920,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -6834,18 +6936,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J140" si="18">J74+1</f>
+        <f t="shared" ref="J75:J144" si="20">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -6857,15 +6959,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -6873,18 +6975,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -6896,15 +6998,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -6912,18 +7014,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -6935,15 +7037,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -6951,18 +7053,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -6974,15 +7076,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -6990,18 +7092,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -7013,15 +7115,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -7029,18 +7131,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -7052,15 +7154,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -7068,18 +7170,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -7091,15 +7193,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -7107,18 +7209,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -7130,15 +7232,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -7146,18 +7248,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -7169,15 +7271,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -7185,18 +7287,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -7208,15 +7310,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -7224,18 +7326,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -7247,15 +7349,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -7263,18 +7365,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -7286,15 +7388,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -7302,18 +7404,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -7325,15 +7427,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -7341,18 +7443,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -7364,15 +7466,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -7380,18 +7482,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -7403,15 +7505,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -7419,18 +7521,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -7442,15 +7544,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -7458,18 +7560,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -7481,15 +7583,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -7497,18 +7599,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -7520,15 +7622,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -7536,18 +7638,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -7559,15 +7661,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -7575,18 +7677,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -7598,15 +7700,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -7614,18 +7716,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -7637,15 +7739,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -7653,18 +7755,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -7676,15 +7778,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -7692,18 +7794,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -7715,15 +7817,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -7731,18 +7833,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -7754,15 +7856,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -7770,18 +7872,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -7793,15 +7895,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -7809,18 +7911,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -7832,15 +7934,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -7848,18 +7950,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -7871,15 +7973,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -7887,18 +7989,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -7910,15 +8012,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -7926,18 +8028,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -7949,15 +8051,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -7965,18 +8067,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -7988,15 +8090,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -8004,18 +8106,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G132" si="19">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G132" si="21">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -8027,15 +8129,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -8043,18 +8145,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -8066,15 +8168,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -8082,18 +8184,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -8105,15 +8207,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -8121,18 +8223,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -8144,15 +8246,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -8160,18 +8262,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -8183,15 +8285,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -8199,18 +8301,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -8222,15 +8324,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -8238,18 +8340,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -8261,15 +8363,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="20">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="22">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="21">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="23">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E140" si="22">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E144" si="24">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -8277,18 +8379,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="23">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="25">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -8300,15 +8402,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -8316,18 +8418,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -8339,15 +8441,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -8355,18 +8457,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -8378,15 +8480,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -8394,18 +8496,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -8417,15 +8519,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -8433,18 +8535,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -8456,15 +8558,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -8472,18 +8574,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -8495,15 +8597,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -8511,18 +8613,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -8534,15 +8636,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -8550,18 +8652,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -8573,15 +8675,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -8589,18 +8691,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -8612,15 +8714,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -8628,18 +8730,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -8651,15 +8753,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -8667,18 +8769,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -8690,15 +8792,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -8706,18 +8808,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -8729,15 +8831,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -8745,18 +8847,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -8768,15 +8870,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="24">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="26">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="25">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="27">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -8784,18 +8886,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="26">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="28">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -8807,15 +8909,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
+        <f t="shared" si="26"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
         <f t="shared" si="24"/>
-        <v>1E+129</v>
-      </c>
-      <c r="D126" s="14" t="str">
-        <f t="shared" si="25"/>
-        <v>10위</v>
-      </c>
-      <c r="E126" s="14">
-        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -8823,18 +8925,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -8846,15 +8948,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
+        <f t="shared" si="26"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
         <f t="shared" si="24"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="D127" s="14" t="str">
-        <f t="shared" si="25"/>
-        <v>100위</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -8862,18 +8964,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -8885,15 +8987,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
+        <f t="shared" si="26"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
         <f t="shared" si="24"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="D128" s="14" t="str">
-        <f t="shared" si="25"/>
-        <v>1000위</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -8901,18 +9003,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -8924,15 +9026,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>1설</v>
+      </c>
+      <c r="E129" s="14">
         <f t="shared" si="24"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="D129" s="14" t="str">
-        <f t="shared" si="25"/>
-        <v>1설</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -8940,18 +9042,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -8963,15 +9065,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
+        <f t="shared" si="26"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>10설</v>
+      </c>
+      <c r="E130" s="14">
         <f t="shared" si="24"/>
-        <v>1E+133</v>
-      </c>
-      <c r="D130" s="14" t="str">
-        <f t="shared" si="25"/>
-        <v>10설</v>
-      </c>
-      <c r="E130" s="14">
-        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -8979,18 +9081,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -9002,15 +9104,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C134" si="27">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="29">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D134" si="28">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="30">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -9018,18 +9120,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I134" si="29">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="31">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -9041,15 +9143,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -9057,18 +9159,18 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
@@ -9080,15 +9182,15 @@
         <v>124</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D133" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1적</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F133" s="13" t="str" cm="1">
@@ -9096,18 +9198,18 @@
         <v>적</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" ref="G133:G136" si="30">VLOOKUP(F133,M:P,4,FALSE)</f>
+        <f t="shared" ref="G133:G136" si="32">VLOOKUP(F133,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="H133" s="13">
         <v>3.92</v>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 125단</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>125</v>
       </c>
       <c r="K133" s="13" t="s">
@@ -9119,15 +9221,15 @@
         <v>125</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+137</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10적</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="F134" s="13" t="str" cm="1">
@@ -9135,18 +9237,18 @@
         <v>적</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+136</v>
       </c>
       <c r="H134" s="13">
         <v>4</v>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 126단</v>
       </c>
       <c r="J134" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>126</v>
       </c>
       <c r="K134" s="13" t="s">
@@ -9158,15 +9260,15 @@
         <v>126</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" ref="C135:C138" si="31">E135*G135</f>
+        <f t="shared" ref="C135:C138" si="33">E135*G135</f>
         <v>1E+138</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f t="shared" ref="D135:D138" si="32">E135&amp;F135</f>
+        <f t="shared" ref="D135:D138" si="34">E135&amp;F135</f>
         <v>100적</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="F135" s="13" t="str" cm="1">
@@ -9174,18 +9276,18 @@
         <v>적</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+136</v>
       </c>
       <c r="H135" s="13">
         <v>4.08</v>
       </c>
       <c r="I135" s="13" t="str">
-        <f t="shared" ref="I135:I138" si="33">K135&amp;" "&amp;J135&amp;"단"</f>
+        <f t="shared" ref="I135:I138" si="35">K135&amp;" "&amp;J135&amp;"단"</f>
         <v>태극 127단</v>
       </c>
       <c r="J135" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>127</v>
       </c>
       <c r="K135" s="13" t="s">
@@ -9197,15 +9299,15 @@
         <v>127</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+139</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000적</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="F136" s="13" t="str" cm="1">
@@ -9213,18 +9315,18 @@
         <v>적</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+136</v>
       </c>
       <c r="H136" s="13">
         <v>4.16</v>
       </c>
       <c r="I136" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 128단</v>
       </c>
       <c r="J136" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>128</v>
       </c>
       <c r="K136" s="13" t="s">
@@ -9236,15 +9338,15 @@
         <v>128</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D137" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1고</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F137" s="13" t="str" cm="1">
@@ -9252,18 +9354,18 @@
         <v>고</v>
       </c>
       <c r="G137" s="13" t="str">
-        <f t="shared" ref="G137:G140" si="34">VLOOKUP(F137,M:P,4,FALSE)</f>
+        <f t="shared" ref="G137:G140" si="36">VLOOKUP(F137,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H137" s="13">
         <v>4.24</v>
       </c>
       <c r="I137" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 129단</v>
       </c>
       <c r="J137" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>129</v>
       </c>
       <c r="K137" s="13" t="s">
@@ -9275,15 +9377,15 @@
         <v>129</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+141</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10고</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="F138" s="13" t="str" cm="1">
@@ -9291,18 +9393,18 @@
         <v>고</v>
       </c>
       <c r="G138" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+140</v>
       </c>
       <c r="H138" s="13">
         <v>4.32</v>
       </c>
       <c r="I138" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 130단</v>
       </c>
       <c r="J138" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>130</v>
       </c>
       <c r="K138" s="13" t="s">
@@ -9314,15 +9416,15 @@
         <v>130</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" ref="C139:C140" si="35">E139*G139</f>
+        <f t="shared" ref="C139:C142" si="37">E139*G139</f>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="D139" s="14" t="str">
-        <f t="shared" ref="D139:D140" si="36">E139&amp;F139</f>
+        <f t="shared" ref="D139:D142" si="38">E139&amp;F139</f>
         <v>100고</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="F139" s="13" t="str" cm="1">
@@ -9330,18 +9432,18 @@
         <v>고</v>
       </c>
       <c r="G139" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+140</v>
       </c>
       <c r="H139" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="I139" s="13" t="str">
-        <f t="shared" ref="I139:I140" si="37">K139&amp;" "&amp;J139&amp;"단"</f>
+        <f t="shared" ref="I139:I142" si="39">K139&amp;" "&amp;J139&amp;"단"</f>
         <v>태극 131단</v>
       </c>
       <c r="J139" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>131</v>
       </c>
       <c r="K139" s="13" t="s">
@@ -9353,15 +9455,15 @@
         <v>131</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+143</v>
       </c>
       <c r="D140" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000고</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="F140" s="13" t="str" cm="1">
@@ -9369,21 +9471,177 @@
         <v>고</v>
       </c>
       <c r="G140" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+140</v>
       </c>
       <c r="H140" s="13">
         <v>4.4800000000000004</v>
       </c>
       <c r="I140" s="13" t="str">
+        <f t="shared" si="39"/>
+        <v>태극 132단</v>
+      </c>
+      <c r="J140" s="13">
+        <f t="shared" si="20"/>
+        <v>132</v>
+      </c>
+      <c r="K140" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B141" s="13">
+        <v>132</v>
+      </c>
+      <c r="C141" s="14">
         <f t="shared" si="37"/>
-        <v>태극 132단</v>
-      </c>
-      <c r="J140" s="13">
-        <f t="shared" si="18"/>
-        <v>132</v>
-      </c>
-      <c r="K140" s="13" t="s">
+        <v>1E+144</v>
+      </c>
+      <c r="D141" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v>1화</v>
+      </c>
+      <c r="E141" s="14">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F141" s="13" t="str" cm="1">
+        <f t="array" ref="F141">IF(AND(E140&gt;100,E141&lt;100),INDEX(M:M,MATCH(F140,M:M,0)+1,0),F140)</f>
+        <v>화</v>
+      </c>
+      <c r="G141" s="13" t="str">
+        <f t="shared" ref="G141:G144" si="40">VLOOKUP(F141,M:P,4,FALSE)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="H141" s="13">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I141" s="13" t="str">
+        <f t="shared" si="39"/>
+        <v>태극 133단</v>
+      </c>
+      <c r="J141" s="13">
+        <f t="shared" si="20"/>
+        <v>133</v>
+      </c>
+      <c r="K141" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B142" s="13">
+        <v>133</v>
+      </c>
+      <c r="C142" s="14">
+        <f t="shared" si="37"/>
+        <v>9.9999999999999999E+144</v>
+      </c>
+      <c r="D142" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v>10화</v>
+      </c>
+      <c r="E142" s="14">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="F142" s="13" t="str" cm="1">
+        <f t="array" ref="F142">IF(AND(E141&gt;100,E142&lt;100),INDEX(M:M,MATCH(F141,M:M,0)+1,0),F141)</f>
+        <v>화</v>
+      </c>
+      <c r="G142" s="13" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+144</v>
+      </c>
+      <c r="H142" s="13">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="I142" s="13" t="str">
+        <f t="shared" si="39"/>
+        <v>태극 134단</v>
+      </c>
+      <c r="J142" s="13">
+        <f t="shared" si="20"/>
+        <v>134</v>
+      </c>
+      <c r="K142" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B143" s="13">
+        <v>134</v>
+      </c>
+      <c r="C143" s="14">
+        <f t="shared" ref="C143:C144" si="41">E143*G143</f>
+        <v>9.9999999999999993E+145</v>
+      </c>
+      <c r="D143" s="14" t="str">
+        <f t="shared" ref="D143:D144" si="42">E143&amp;F143</f>
+        <v>100화</v>
+      </c>
+      <c r="E143" s="14">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="F143" s="13" t="str" cm="1">
+        <f t="array" ref="F143">IF(AND(E142&gt;100,E143&lt;100),INDEX(M:M,MATCH(F142,M:M,0)+1,0),F142)</f>
+        <v>화</v>
+      </c>
+      <c r="G143" s="13" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+144</v>
+      </c>
+      <c r="H143" s="13">
+        <v>4.72</v>
+      </c>
+      <c r="I143" s="13" t="str">
+        <f t="shared" ref="I143:I144" si="43">K143&amp;" "&amp;J143&amp;"단"</f>
+        <v>태극 135단</v>
+      </c>
+      <c r="J143" s="13">
+        <f t="shared" si="20"/>
+        <v>135</v>
+      </c>
+      <c r="K143" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B144" s="13">
+        <v>135</v>
+      </c>
+      <c r="C144" s="14">
+        <f t="shared" si="41"/>
+        <v>9.9999999999999998E+146</v>
+      </c>
+      <c r="D144" s="14" t="str">
+        <f t="shared" si="42"/>
+        <v>1000화</v>
+      </c>
+      <c r="E144" s="14">
+        <f t="shared" si="24"/>
+        <v>1000</v>
+      </c>
+      <c r="F144" s="13" t="str" cm="1">
+        <f t="array" ref="F144">IF(AND(E143&gt;100,E144&lt;100),INDEX(M:M,MATCH(F143,M:M,0)+1,0),F143)</f>
+        <v>화</v>
+      </c>
+      <c r="G144" s="13" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+144</v>
+      </c>
+      <c r="H144" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="I144" s="13" t="str">
+        <f t="shared" si="43"/>
+        <v>태극 136단</v>
+      </c>
+      <c r="J144" s="13">
+        <f t="shared" si="20"/>
+        <v>136</v>
+      </c>
+      <c r="K144" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC24C0-ED30-45D7-806B-81A79ADC9A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164EE32E-2E80-4A9D-921C-7CA80E2878CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukTitle" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="55">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,10 @@
   </si>
   <si>
     <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,11 +781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2349,7 +2353,7 @@
         <v>1E+85</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C137" si="2">C74</f>
+        <f t="shared" ref="C75:C138" si="2">C74</f>
         <v>55</v>
       </c>
       <c r="D75">
@@ -3661,6 +3665,90 @@
       <c r="E137" t="str">
         <f>VLOOKUP(A137,Balance!B:I,8,FALSE)</f>
         <v>태극 136단</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <f>VLOOKUP(A138,Balance!B:C,2,FALSE)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D138">
+        <f>VLOOKUP(A138,Balance!B:I,7,FALSE)</f>
+        <v>4.88</v>
+      </c>
+      <c r="E138" t="str">
+        <f>VLOOKUP(A138,Balance!B:I,8,FALSE)</f>
+        <v>태극 137단</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <f>VLOOKUP(A139,Balance!B:C,2,FALSE)</f>
+        <v>1E+149</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ref="C139:C141" si="3">C138</f>
+        <v>55</v>
+      </c>
+      <c r="D139">
+        <f>VLOOKUP(A139,Balance!B:I,7,FALSE)</f>
+        <v>4.96</v>
+      </c>
+      <c r="E139" t="str">
+        <f>VLOOKUP(A139,Balance!B:I,8,FALSE)</f>
+        <v>태극 138단</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <f>VLOOKUP(A140,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999998E+149</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D140">
+        <f>VLOOKUP(A140,Balance!B:I,7,FALSE)</f>
+        <v>5.04</v>
+      </c>
+      <c r="E140" t="str">
+        <f>VLOOKUP(A140,Balance!B:I,8,FALSE)</f>
+        <v>태극 139단</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <f>VLOOKUP(A141,Balance!B:C,2,FALSE)</f>
+        <v>1E+151</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D141">
+        <f>VLOOKUP(A141,Balance!B:I,7,FALSE)</f>
+        <v>5.12</v>
+      </c>
+      <c r="E141" t="str">
+        <f>VLOOKUP(A141,Balance!B:I,8,FALSE)</f>
+        <v>태극 140단</v>
       </c>
     </row>
   </sheetData>
@@ -3672,10 +3760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X144"/>
+  <dimension ref="A1:X148"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5744,6 +5832,20 @@
       <c r="K44" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M44" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N44" s="13">
+        <v>148</v>
+      </c>
+      <c r="O44" s="14">
+        <f t="shared" ref="O44" si="15">POWER(10,N44)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="P44" s="14" t="str">
+        <f t="shared" ref="P44" si="16">RIGHT(O44,N44)</f>
+        <v>1E+148</v>
+      </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B45" s="13">
@@ -6608,15 +6710,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="15">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="17">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="16">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="18">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="17">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="19">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -6647,15 +6749,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -6686,15 +6788,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -6725,15 +6827,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -6764,15 +6866,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -6803,15 +6905,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -6842,15 +6944,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -6858,7 +6960,7 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="18">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="20">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
@@ -6881,15 +6983,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -6897,14 +6999,14 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="19">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="21">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
@@ -6920,15 +7022,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -6936,18 +7038,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J144" si="20">J74+1</f>
+        <f t="shared" ref="J75:J148" si="22">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -6959,15 +7061,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -6975,18 +7077,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -6998,15 +7100,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -7014,18 +7116,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -7037,15 +7139,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -7053,18 +7155,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -7076,15 +7178,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -7092,18 +7194,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -7115,15 +7217,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -7131,18 +7233,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -7154,15 +7256,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -7170,18 +7272,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -7193,15 +7295,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -7209,18 +7311,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -7232,15 +7334,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -7248,18 +7350,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -7271,15 +7373,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -7287,18 +7389,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -7310,15 +7412,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -7326,18 +7428,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -7349,15 +7451,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -7365,18 +7467,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -7388,15 +7490,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -7404,18 +7506,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -7427,15 +7529,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -7443,18 +7545,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -7466,15 +7568,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -7482,18 +7584,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -7505,15 +7607,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -7521,18 +7623,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -7544,15 +7646,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -7560,18 +7662,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -7583,15 +7685,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -7599,18 +7701,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -7622,15 +7724,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -7638,18 +7740,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -7661,15 +7763,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -7677,18 +7779,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -7700,15 +7802,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -7716,18 +7818,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -7739,15 +7841,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -7755,18 +7857,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -7778,15 +7880,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -7794,18 +7896,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -7817,15 +7919,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -7833,18 +7935,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -7856,15 +7958,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -7872,18 +7974,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -7895,15 +7997,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -7911,18 +8013,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -7934,15 +8036,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -7950,18 +8052,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -7973,15 +8075,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -7989,18 +8091,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -8012,15 +8114,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -8028,18 +8130,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -8051,15 +8153,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -8067,18 +8169,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -8090,15 +8192,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -8106,18 +8208,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G132" si="21">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G132" si="23">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -8129,15 +8231,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -8145,18 +8247,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -8168,15 +8270,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -8184,18 +8286,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -8207,15 +8309,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -8223,18 +8325,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -8246,15 +8348,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -8262,18 +8364,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -8285,15 +8387,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -8301,18 +8403,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -8324,15 +8426,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -8340,18 +8442,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -8363,15 +8465,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="22">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="24">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="23">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="25">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E144" si="24">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E148" si="26">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -8379,18 +8481,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="25">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="27">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -8402,15 +8504,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -8418,18 +8520,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -8441,15 +8543,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -8457,18 +8559,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -8480,15 +8582,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -8496,18 +8598,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -8519,15 +8621,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -8535,18 +8637,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -8558,15 +8660,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -8574,18 +8676,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -8597,15 +8699,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -8613,18 +8715,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -8636,15 +8738,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -8652,18 +8754,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -8675,15 +8777,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -8691,18 +8793,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -8714,15 +8816,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -8730,18 +8832,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -8753,15 +8855,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -8769,18 +8871,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -8792,15 +8894,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -8808,18 +8910,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -8831,15 +8933,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -8847,18 +8949,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -8870,15 +8972,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="26">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="28">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="27">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="29">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -8886,18 +8988,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="28">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="30">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -8909,15 +9011,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
+        <f t="shared" si="28"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
         <f t="shared" si="26"/>
-        <v>1E+129</v>
-      </c>
-      <c r="D126" s="14" t="str">
-        <f t="shared" si="27"/>
-        <v>10위</v>
-      </c>
-      <c r="E126" s="14">
-        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -8925,18 +9027,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -8948,15 +9050,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
+        <f t="shared" si="28"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
         <f t="shared" si="26"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="D127" s="14" t="str">
-        <f t="shared" si="27"/>
-        <v>100위</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -8964,18 +9066,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -8987,15 +9089,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
+        <f t="shared" si="28"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
         <f t="shared" si="26"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="D128" s="14" t="str">
-        <f t="shared" si="27"/>
-        <v>1000위</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -9003,18 +9105,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -9026,15 +9128,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>1설</v>
+      </c>
+      <c r="E129" s="14">
         <f t="shared" si="26"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="D129" s="14" t="str">
-        <f t="shared" si="27"/>
-        <v>1설</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -9042,18 +9144,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -9065,15 +9167,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
+        <f t="shared" si="28"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>10설</v>
+      </c>
+      <c r="E130" s="14">
         <f t="shared" si="26"/>
-        <v>1E+133</v>
-      </c>
-      <c r="D130" s="14" t="str">
-        <f t="shared" si="27"/>
-        <v>10설</v>
-      </c>
-      <c r="E130" s="14">
-        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -9081,18 +9183,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -9104,15 +9206,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C134" si="29">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="31">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D134" si="30">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="32">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -9120,18 +9222,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I134" si="31">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="33">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -9143,15 +9245,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -9159,18 +9261,18 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
@@ -9182,15 +9284,15 @@
         <v>124</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D133" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1적</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="F133" s="13" t="str" cm="1">
@@ -9198,18 +9300,18 @@
         <v>적</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" ref="G133:G136" si="32">VLOOKUP(F133,M:P,4,FALSE)</f>
+        <f t="shared" ref="G133:G136" si="34">VLOOKUP(F133,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="H133" s="13">
         <v>3.92</v>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 125단</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>125</v>
       </c>
       <c r="K133" s="13" t="s">
@@ -9221,15 +9323,15 @@
         <v>125</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+137</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10적</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="F134" s="13" t="str" cm="1">
@@ -9237,18 +9339,18 @@
         <v>적</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+136</v>
       </c>
       <c r="H134" s="13">
         <v>4</v>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 126단</v>
       </c>
       <c r="J134" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>126</v>
       </c>
       <c r="K134" s="13" t="s">
@@ -9260,15 +9362,15 @@
         <v>126</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" ref="C135:C138" si="33">E135*G135</f>
+        <f t="shared" ref="C135:C138" si="35">E135*G135</f>
         <v>1E+138</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f t="shared" ref="D135:D138" si="34">E135&amp;F135</f>
+        <f t="shared" ref="D135:D138" si="36">E135&amp;F135</f>
         <v>100적</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="F135" s="13" t="str" cm="1">
@@ -9276,18 +9378,18 @@
         <v>적</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+136</v>
       </c>
       <c r="H135" s="13">
         <v>4.08</v>
       </c>
       <c r="I135" s="13" t="str">
-        <f t="shared" ref="I135:I138" si="35">K135&amp;" "&amp;J135&amp;"단"</f>
+        <f t="shared" ref="I135:I138" si="37">K135&amp;" "&amp;J135&amp;"단"</f>
         <v>태극 127단</v>
       </c>
       <c r="J135" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>127</v>
       </c>
       <c r="K135" s="13" t="s">
@@ -9299,15 +9401,15 @@
         <v>127</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+139</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000적</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="F136" s="13" t="str" cm="1">
@@ -9315,18 +9417,18 @@
         <v>적</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+136</v>
       </c>
       <c r="H136" s="13">
         <v>4.16</v>
       </c>
       <c r="I136" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 128단</v>
       </c>
       <c r="J136" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>128</v>
       </c>
       <c r="K136" s="13" t="s">
@@ -9338,15 +9440,15 @@
         <v>128</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D137" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1고</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="F137" s="13" t="str" cm="1">
@@ -9354,18 +9456,18 @@
         <v>고</v>
       </c>
       <c r="G137" s="13" t="str">
-        <f t="shared" ref="G137:G140" si="36">VLOOKUP(F137,M:P,4,FALSE)</f>
+        <f t="shared" ref="G137:G140" si="38">VLOOKUP(F137,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H137" s="13">
         <v>4.24</v>
       </c>
       <c r="I137" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 129단</v>
       </c>
       <c r="J137" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>129</v>
       </c>
       <c r="K137" s="13" t="s">
@@ -9377,15 +9479,15 @@
         <v>129</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+141</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10고</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="F138" s="13" t="str" cm="1">
@@ -9393,18 +9495,18 @@
         <v>고</v>
       </c>
       <c r="G138" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+140</v>
       </c>
       <c r="H138" s="13">
         <v>4.32</v>
       </c>
       <c r="I138" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 130단</v>
       </c>
       <c r="J138" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>130</v>
       </c>
       <c r="K138" s="13" t="s">
@@ -9416,15 +9518,15 @@
         <v>130</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" ref="C139:C142" si="37">E139*G139</f>
+        <f t="shared" ref="C139:C142" si="39">E139*G139</f>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="D139" s="14" t="str">
-        <f t="shared" ref="D139:D142" si="38">E139&amp;F139</f>
+        <f t="shared" ref="D139:D142" si="40">E139&amp;F139</f>
         <v>100고</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="F139" s="13" t="str" cm="1">
@@ -9432,18 +9534,18 @@
         <v>고</v>
       </c>
       <c r="G139" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+140</v>
       </c>
       <c r="H139" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="I139" s="13" t="str">
-        <f t="shared" ref="I139:I142" si="39">K139&amp;" "&amp;J139&amp;"단"</f>
+        <f t="shared" ref="I139:I142" si="41">K139&amp;" "&amp;J139&amp;"단"</f>
         <v>태극 131단</v>
       </c>
       <c r="J139" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>131</v>
       </c>
       <c r="K139" s="13" t="s">
@@ -9455,15 +9557,15 @@
         <v>131</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+143</v>
       </c>
       <c r="D140" s="14" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000고</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="F140" s="13" t="str" cm="1">
@@ -9471,18 +9573,18 @@
         <v>고</v>
       </c>
       <c r="G140" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+140</v>
       </c>
       <c r="H140" s="13">
         <v>4.4800000000000004</v>
       </c>
       <c r="I140" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 132단</v>
       </c>
       <c r="J140" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>132</v>
       </c>
       <c r="K140" s="13" t="s">
@@ -9494,15 +9596,15 @@
         <v>132</v>
       </c>
       <c r="C141" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+144</v>
       </c>
       <c r="D141" s="14" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1화</v>
       </c>
       <c r="E141" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="F141" s="13" t="str" cm="1">
@@ -9510,18 +9612,18 @@
         <v>화</v>
       </c>
       <c r="G141" s="13" t="str">
-        <f t="shared" ref="G141:G144" si="40">VLOOKUP(F141,M:P,4,FALSE)</f>
+        <f t="shared" ref="G141:G144" si="42">VLOOKUP(F141,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="H141" s="13">
         <v>4.5599999999999996</v>
       </c>
       <c r="I141" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 133단</v>
       </c>
       <c r="J141" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>133</v>
       </c>
       <c r="K141" s="13" t="s">
@@ -9533,15 +9635,15 @@
         <v>133</v>
       </c>
       <c r="C142" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10화</v>
       </c>
       <c r="E142" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="F142" s="13" t="str" cm="1">
@@ -9549,18 +9651,18 @@
         <v>화</v>
       </c>
       <c r="G142" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+144</v>
       </c>
       <c r="H142" s="13">
         <v>4.6399999999999997</v>
       </c>
       <c r="I142" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 134단</v>
       </c>
       <c r="J142" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>134</v>
       </c>
       <c r="K142" s="13" t="s">
@@ -9572,15 +9674,15 @@
         <v>134</v>
       </c>
       <c r="C143" s="14">
-        <f t="shared" ref="C143:C144" si="41">E143*G143</f>
+        <f t="shared" ref="C143:C146" si="43">E143*G143</f>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="D143" s="14" t="str">
-        <f t="shared" ref="D143:D144" si="42">E143&amp;F143</f>
+        <f t="shared" ref="D143:D146" si="44">E143&amp;F143</f>
         <v>100화</v>
       </c>
       <c r="E143" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="F143" s="13" t="str" cm="1">
@@ -9588,18 +9690,18 @@
         <v>화</v>
       </c>
       <c r="G143" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+144</v>
       </c>
       <c r="H143" s="13">
         <v>4.72</v>
       </c>
       <c r="I143" s="13" t="str">
-        <f t="shared" ref="I143:I144" si="43">K143&amp;" "&amp;J143&amp;"단"</f>
+        <f t="shared" ref="I143:I146" si="45">K143&amp;" "&amp;J143&amp;"단"</f>
         <v>태극 135단</v>
       </c>
       <c r="J143" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>135</v>
       </c>
       <c r="K143" s="13" t="s">
@@ -9611,15 +9713,15 @@
         <v>135</v>
       </c>
       <c r="C144" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="D144" s="14" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000화</v>
       </c>
       <c r="E144" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="F144" s="13" t="str" cm="1">
@@ -9627,21 +9729,177 @@
         <v>화</v>
       </c>
       <c r="G144" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+144</v>
       </c>
       <c r="H144" s="13">
         <v>4.8</v>
       </c>
       <c r="I144" s="13" t="str">
+        <f t="shared" si="45"/>
+        <v>태극 136단</v>
+      </c>
+      <c r="J144" s="13">
+        <f t="shared" si="22"/>
+        <v>136</v>
+      </c>
+      <c r="K144" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B145" s="13">
+        <v>136</v>
+      </c>
+      <c r="C145" s="14">
         <f t="shared" si="43"/>
-        <v>태극 136단</v>
-      </c>
-      <c r="J144" s="13">
-        <f t="shared" si="20"/>
-        <v>136</v>
-      </c>
-      <c r="K144" s="13" t="s">
+        <v>1E+148</v>
+      </c>
+      <c r="D145" s="14" t="str">
+        <f t="shared" si="44"/>
+        <v>1명</v>
+      </c>
+      <c r="E145" s="14">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F145" s="13" t="str" cm="1">
+        <f t="array" ref="F145">IF(AND(E144&gt;100,E145&lt;100),INDEX(M:M,MATCH(F144,M:M,0)+1,0),F144)</f>
+        <v>명</v>
+      </c>
+      <c r="G145" s="13" t="str">
+        <f t="shared" ref="G145:G148" si="46">VLOOKUP(F145,M:P,4,FALSE)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="H145" s="13">
+        <v>4.88</v>
+      </c>
+      <c r="I145" s="13" t="str">
+        <f t="shared" si="45"/>
+        <v>태극 137단</v>
+      </c>
+      <c r="J145" s="13">
+        <f t="shared" si="22"/>
+        <v>137</v>
+      </c>
+      <c r="K145" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B146" s="13">
+        <v>137</v>
+      </c>
+      <c r="C146" s="14">
+        <f t="shared" si="43"/>
+        <v>1E+149</v>
+      </c>
+      <c r="D146" s="14" t="str">
+        <f t="shared" si="44"/>
+        <v>10명</v>
+      </c>
+      <c r="E146" s="14">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="F146" s="13" t="str" cm="1">
+        <f t="array" ref="F146">IF(AND(E145&gt;100,E146&lt;100),INDEX(M:M,MATCH(F145,M:M,0)+1,0),F145)</f>
+        <v>명</v>
+      </c>
+      <c r="G146" s="13" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+148</v>
+      </c>
+      <c r="H146" s="13">
+        <v>4.96</v>
+      </c>
+      <c r="I146" s="13" t="str">
+        <f t="shared" si="45"/>
+        <v>태극 138단</v>
+      </c>
+      <c r="J146" s="13">
+        <f t="shared" si="22"/>
+        <v>138</v>
+      </c>
+      <c r="K146" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B147" s="13">
+        <v>138</v>
+      </c>
+      <c r="C147" s="14">
+        <f t="shared" ref="C147:C148" si="47">E147*G147</f>
+        <v>9.9999999999999998E+149</v>
+      </c>
+      <c r="D147" s="14" t="str">
+        <f t="shared" ref="D147:D148" si="48">E147&amp;F147</f>
+        <v>100명</v>
+      </c>
+      <c r="E147" s="14">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="F147" s="13" t="str" cm="1">
+        <f t="array" ref="F147">IF(AND(E146&gt;100,E147&lt;100),INDEX(M:M,MATCH(F146,M:M,0)+1,0),F146)</f>
+        <v>명</v>
+      </c>
+      <c r="G147" s="13" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+148</v>
+      </c>
+      <c r="H147" s="13">
+        <v>5.04</v>
+      </c>
+      <c r="I147" s="13" t="str">
+        <f t="shared" ref="I147:I148" si="49">K147&amp;" "&amp;J147&amp;"단"</f>
+        <v>태극 139단</v>
+      </c>
+      <c r="J147" s="13">
+        <f t="shared" si="22"/>
+        <v>139</v>
+      </c>
+      <c r="K147" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B148" s="13">
+        <v>139</v>
+      </c>
+      <c r="C148" s="14">
+        <f t="shared" si="47"/>
+        <v>1E+151</v>
+      </c>
+      <c r="D148" s="14" t="str">
+        <f t="shared" si="48"/>
+        <v>1000명</v>
+      </c>
+      <c r="E148" s="14">
+        <f t="shared" si="26"/>
+        <v>1000</v>
+      </c>
+      <c r="F148" s="13" t="str" cm="1">
+        <f t="array" ref="F148">IF(AND(E147&gt;100,E148&lt;100),INDEX(M:M,MATCH(F147,M:M,0)+1,0),F147)</f>
+        <v>명</v>
+      </c>
+      <c r="G148" s="13" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+148</v>
+      </c>
+      <c r="H148" s="13">
+        <v>5.12</v>
+      </c>
+      <c r="I148" s="13" t="str">
+        <f t="shared" si="49"/>
+        <v>태극 140단</v>
+      </c>
+      <c r="J148" s="13">
+        <f t="shared" si="22"/>
+        <v>140</v>
+      </c>
+      <c r="K148" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164EE32E-2E80-4A9D-921C-7CA80E2878CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9EFD74-935B-4910-8D2A-F512BB87224E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,14 @@
   </si>
   <si>
     <t>명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,11 +789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3697,7 +3705,7 @@
         <v>1E+149</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C141" si="3">C138</f>
+        <f t="shared" ref="C139:C145" si="3">C138</f>
         <v>55</v>
       </c>
       <c r="D139">
@@ -3749,6 +3757,90 @@
       <c r="E141" t="str">
         <f>VLOOKUP(A141,Balance!B:I,8,FALSE)</f>
         <v>태극 140단</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <f>VLOOKUP(A142,Balance!B:C,2,FALSE)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D142">
+        <f>VLOOKUP(A142,Balance!B:I,7,FALSE)</f>
+        <v>5.2</v>
+      </c>
+      <c r="E142" t="str">
+        <f>VLOOKUP(A142,Balance!B:I,8,FALSE)</f>
+        <v>태극 141단</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <f>VLOOKUP(A143,Balance!B:C,2,FALSE)</f>
+        <v>1E+153</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D143">
+        <f>VLOOKUP(A143,Balance!B:I,7,FALSE)</f>
+        <v>5.28</v>
+      </c>
+      <c r="E143" t="str">
+        <f>VLOOKUP(A143,Balance!B:I,8,FALSE)</f>
+        <v>태극 142단</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <f>VLOOKUP(A144,Balance!B:C,2,FALSE)</f>
+        <v>1E+154</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D144">
+        <f>VLOOKUP(A144,Balance!B:I,7,FALSE)</f>
+        <v>5.36</v>
+      </c>
+      <c r="E144" t="str">
+        <f>VLOOKUP(A144,Balance!B:I,8,FALSE)</f>
+        <v>태극 143단</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <f>VLOOKUP(A145,Balance!B:C,2,FALSE)</f>
+        <v>1E+155</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D145">
+        <f>VLOOKUP(A145,Balance!B:I,7,FALSE)</f>
+        <v>5.44</v>
+      </c>
+      <c r="E145" t="str">
+        <f>VLOOKUP(A145,Balance!B:I,8,FALSE)</f>
+        <v>태극 144단</v>
       </c>
     </row>
   </sheetData>
@@ -3760,10 +3852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X148"/>
+  <dimension ref="A1:X152"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5885,6 +5977,20 @@
       <c r="K45" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N45" s="13">
+        <v>152</v>
+      </c>
+      <c r="O45" s="14">
+        <f t="shared" ref="O45:O46" si="17">POWER(10,N45)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="P45" s="14" t="str">
+        <f t="shared" ref="P45:P46" si="18">RIGHT(O45,N45)</f>
+        <v>1E+152</v>
+      </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B46" s="13">
@@ -5924,6 +6030,20 @@
       <c r="K46" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M46" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N46" s="13">
+        <v>156</v>
+      </c>
+      <c r="O46" s="14">
+        <f t="shared" si="17"/>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="P46" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+156</v>
+      </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B47" s="13">
@@ -6710,15 +6830,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="17">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="19">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="18">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="20">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="19">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="21">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -6749,15 +6869,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -6788,15 +6908,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -6827,15 +6947,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -6866,15 +6986,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -6905,15 +7025,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -6944,15 +7064,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -6960,7 +7080,7 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="20">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="22">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
@@ -6983,15 +7103,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -6999,14 +7119,14 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="21">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="23">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
@@ -7022,15 +7142,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -7038,18 +7158,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J148" si="22">J74+1</f>
+        <f t="shared" ref="J75:J152" si="24">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -7061,15 +7181,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -7077,18 +7197,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -7100,15 +7220,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -7116,18 +7236,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -7139,15 +7259,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -7155,18 +7275,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -7178,15 +7298,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -7194,18 +7314,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -7217,15 +7337,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -7233,18 +7353,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -7256,15 +7376,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -7272,18 +7392,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -7295,15 +7415,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -7311,18 +7431,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -7334,15 +7454,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -7350,18 +7470,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -7373,15 +7493,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -7389,18 +7509,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -7412,15 +7532,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -7428,18 +7548,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -7451,15 +7571,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -7467,18 +7587,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -7490,15 +7610,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -7506,18 +7626,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -7529,15 +7649,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -7545,18 +7665,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -7568,15 +7688,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -7584,18 +7704,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -7607,15 +7727,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -7623,18 +7743,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -7646,15 +7766,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -7662,18 +7782,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -7685,15 +7805,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -7701,18 +7821,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -7724,15 +7844,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -7740,18 +7860,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -7763,15 +7883,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -7779,18 +7899,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -7802,15 +7922,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -7818,18 +7938,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -7841,15 +7961,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -7857,18 +7977,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -7880,15 +8000,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -7896,18 +8016,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -7919,15 +8039,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -7935,18 +8055,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -7958,15 +8078,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -7974,18 +8094,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -7997,15 +8117,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -8013,18 +8133,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -8036,15 +8156,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -8052,18 +8172,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -8075,15 +8195,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -8091,18 +8211,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -8114,15 +8234,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -8130,18 +8250,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -8153,15 +8273,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -8169,18 +8289,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -8192,15 +8312,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -8208,18 +8328,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G132" si="23">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G132" si="25">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -8231,15 +8351,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -8247,18 +8367,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -8270,15 +8390,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -8286,18 +8406,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -8309,15 +8429,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -8325,18 +8445,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -8348,15 +8468,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -8364,18 +8484,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -8387,15 +8507,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -8403,18 +8523,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -8426,15 +8546,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -8442,18 +8562,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -8465,15 +8585,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="24">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="26">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="25">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="27">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E148" si="26">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E152" si="28">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -8481,18 +8601,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="27">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="29">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -8504,15 +8624,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -8520,18 +8640,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -8543,15 +8663,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -8559,18 +8679,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -8582,15 +8702,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -8598,18 +8718,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -8621,15 +8741,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -8637,18 +8757,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -8660,15 +8780,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -8676,18 +8796,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -8699,15 +8819,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -8715,18 +8835,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -8738,15 +8858,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -8754,18 +8874,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -8777,15 +8897,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -8793,18 +8913,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -8816,15 +8936,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -8832,18 +8952,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -8855,15 +8975,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -8871,18 +8991,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -8894,15 +9014,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -8910,18 +9030,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -8933,15 +9053,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -8949,18 +9069,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -8972,15 +9092,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="28">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="30">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="29">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="31">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -8988,18 +9108,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="30">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="32">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -9011,15 +9131,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
+        <f t="shared" si="30"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
         <f t="shared" si="28"/>
-        <v>1E+129</v>
-      </c>
-      <c r="D126" s="14" t="str">
-        <f t="shared" si="29"/>
-        <v>10위</v>
-      </c>
-      <c r="E126" s="14">
-        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -9027,18 +9147,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -9050,15 +9170,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
+        <f t="shared" si="30"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
         <f t="shared" si="28"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="D127" s="14" t="str">
-        <f t="shared" si="29"/>
-        <v>100위</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -9066,18 +9186,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -9089,15 +9209,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
+        <f t="shared" si="30"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
         <f t="shared" si="28"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="D128" s="14" t="str">
-        <f t="shared" si="29"/>
-        <v>1000위</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -9105,18 +9225,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -9128,15 +9248,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>1설</v>
+      </c>
+      <c r="E129" s="14">
         <f t="shared" si="28"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="D129" s="14" t="str">
-        <f t="shared" si="29"/>
-        <v>1설</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -9144,18 +9264,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -9167,15 +9287,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
+        <f t="shared" si="30"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>10설</v>
+      </c>
+      <c r="E130" s="14">
         <f t="shared" si="28"/>
-        <v>1E+133</v>
-      </c>
-      <c r="D130" s="14" t="str">
-        <f t="shared" si="29"/>
-        <v>10설</v>
-      </c>
-      <c r="E130" s="14">
-        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -9183,18 +9303,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -9206,15 +9326,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C134" si="31">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="33">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D134" si="32">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="34">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -9222,18 +9342,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I134" si="33">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="35">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -9245,15 +9365,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -9261,18 +9381,18 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
@@ -9284,15 +9404,15 @@
         <v>124</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D133" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1적</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F133" s="13" t="str" cm="1">
@@ -9300,18 +9420,18 @@
         <v>적</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" ref="G133:G136" si="34">VLOOKUP(F133,M:P,4,FALSE)</f>
+        <f t="shared" ref="G133:G136" si="36">VLOOKUP(F133,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="H133" s="13">
         <v>3.92</v>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 125단</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>125</v>
       </c>
       <c r="K133" s="13" t="s">
@@ -9323,15 +9443,15 @@
         <v>125</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+137</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10적</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F134" s="13" t="str" cm="1">
@@ -9339,18 +9459,18 @@
         <v>적</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+136</v>
       </c>
       <c r="H134" s="13">
         <v>4</v>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 126단</v>
       </c>
       <c r="J134" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>126</v>
       </c>
       <c r="K134" s="13" t="s">
@@ -9362,15 +9482,15 @@
         <v>126</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" ref="C135:C138" si="35">E135*G135</f>
+        <f t="shared" ref="C135:C138" si="37">E135*G135</f>
         <v>1E+138</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f t="shared" ref="D135:D138" si="36">E135&amp;F135</f>
+        <f t="shared" ref="D135:D138" si="38">E135&amp;F135</f>
         <v>100적</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F135" s="13" t="str" cm="1">
@@ -9378,18 +9498,18 @@
         <v>적</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+136</v>
       </c>
       <c r="H135" s="13">
         <v>4.08</v>
       </c>
       <c r="I135" s="13" t="str">
-        <f t="shared" ref="I135:I138" si="37">K135&amp;" "&amp;J135&amp;"단"</f>
+        <f t="shared" ref="I135:I138" si="39">K135&amp;" "&amp;J135&amp;"단"</f>
         <v>태극 127단</v>
       </c>
       <c r="J135" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>127</v>
       </c>
       <c r="K135" s="13" t="s">
@@ -9401,15 +9521,15 @@
         <v>127</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+139</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000적</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F136" s="13" t="str" cm="1">
@@ -9417,18 +9537,18 @@
         <v>적</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+136</v>
       </c>
       <c r="H136" s="13">
         <v>4.16</v>
       </c>
       <c r="I136" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 128단</v>
       </c>
       <c r="J136" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>128</v>
       </c>
       <c r="K136" s="13" t="s">
@@ -9440,15 +9560,15 @@
         <v>128</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D137" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1고</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F137" s="13" t="str" cm="1">
@@ -9456,18 +9576,18 @@
         <v>고</v>
       </c>
       <c r="G137" s="13" t="str">
-        <f t="shared" ref="G137:G140" si="38">VLOOKUP(F137,M:P,4,FALSE)</f>
+        <f t="shared" ref="G137:G140" si="40">VLOOKUP(F137,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H137" s="13">
         <v>4.24</v>
       </c>
       <c r="I137" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 129단</v>
       </c>
       <c r="J137" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>129</v>
       </c>
       <c r="K137" s="13" t="s">
@@ -9479,15 +9599,15 @@
         <v>129</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+141</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10고</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F138" s="13" t="str" cm="1">
@@ -9495,18 +9615,18 @@
         <v>고</v>
       </c>
       <c r="G138" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+140</v>
       </c>
       <c r="H138" s="13">
         <v>4.32</v>
       </c>
       <c r="I138" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 130단</v>
       </c>
       <c r="J138" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>130</v>
       </c>
       <c r="K138" s="13" t="s">
@@ -9518,15 +9638,15 @@
         <v>130</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" ref="C139:C142" si="39">E139*G139</f>
+        <f t="shared" ref="C139:C142" si="41">E139*G139</f>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="D139" s="14" t="str">
-        <f t="shared" ref="D139:D142" si="40">E139&amp;F139</f>
+        <f t="shared" ref="D139:D142" si="42">E139&amp;F139</f>
         <v>100고</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F139" s="13" t="str" cm="1">
@@ -9534,18 +9654,18 @@
         <v>고</v>
       </c>
       <c r="G139" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+140</v>
       </c>
       <c r="H139" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="I139" s="13" t="str">
-        <f t="shared" ref="I139:I142" si="41">K139&amp;" "&amp;J139&amp;"단"</f>
+        <f t="shared" ref="I139:I142" si="43">K139&amp;" "&amp;J139&amp;"단"</f>
         <v>태극 131단</v>
       </c>
       <c r="J139" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>131</v>
       </c>
       <c r="K139" s="13" t="s">
@@ -9557,15 +9677,15 @@
         <v>131</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+143</v>
       </c>
       <c r="D140" s="14" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000고</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F140" s="13" t="str" cm="1">
@@ -9573,18 +9693,18 @@
         <v>고</v>
       </c>
       <c r="G140" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+140</v>
       </c>
       <c r="H140" s="13">
         <v>4.4800000000000004</v>
       </c>
       <c r="I140" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 132단</v>
       </c>
       <c r="J140" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>132</v>
       </c>
       <c r="K140" s="13" t="s">
@@ -9596,15 +9716,15 @@
         <v>132</v>
       </c>
       <c r="C141" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+144</v>
       </c>
       <c r="D141" s="14" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1화</v>
       </c>
       <c r="E141" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F141" s="13" t="str" cm="1">
@@ -9612,18 +9732,18 @@
         <v>화</v>
       </c>
       <c r="G141" s="13" t="str">
-        <f t="shared" ref="G141:G144" si="42">VLOOKUP(F141,M:P,4,FALSE)</f>
+        <f t="shared" ref="G141:G144" si="44">VLOOKUP(F141,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="H141" s="13">
         <v>4.5599999999999996</v>
       </c>
       <c r="I141" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 133단</v>
       </c>
       <c r="J141" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>133</v>
       </c>
       <c r="K141" s="13" t="s">
@@ -9635,15 +9755,15 @@
         <v>133</v>
       </c>
       <c r="C142" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10화</v>
       </c>
       <c r="E142" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F142" s="13" t="str" cm="1">
@@ -9651,18 +9771,18 @@
         <v>화</v>
       </c>
       <c r="G142" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+144</v>
       </c>
       <c r="H142" s="13">
         <v>4.6399999999999997</v>
       </c>
       <c r="I142" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 134단</v>
       </c>
       <c r="J142" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>134</v>
       </c>
       <c r="K142" s="13" t="s">
@@ -9674,15 +9794,15 @@
         <v>134</v>
       </c>
       <c r="C143" s="14">
-        <f t="shared" ref="C143:C146" si="43">E143*G143</f>
+        <f t="shared" ref="C143:C146" si="45">E143*G143</f>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="D143" s="14" t="str">
-        <f t="shared" ref="D143:D146" si="44">E143&amp;F143</f>
+        <f t="shared" ref="D143:D146" si="46">E143&amp;F143</f>
         <v>100화</v>
       </c>
       <c r="E143" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F143" s="13" t="str" cm="1">
@@ -9690,18 +9810,18 @@
         <v>화</v>
       </c>
       <c r="G143" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+144</v>
       </c>
       <c r="H143" s="13">
         <v>4.72</v>
       </c>
       <c r="I143" s="13" t="str">
-        <f t="shared" ref="I143:I146" si="45">K143&amp;" "&amp;J143&amp;"단"</f>
+        <f t="shared" ref="I143:I146" si="47">K143&amp;" "&amp;J143&amp;"단"</f>
         <v>태극 135단</v>
       </c>
       <c r="J143" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>135</v>
       </c>
       <c r="K143" s="13" t="s">
@@ -9713,15 +9833,15 @@
         <v>135</v>
       </c>
       <c r="C144" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="D144" s="14" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000화</v>
       </c>
       <c r="E144" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F144" s="13" t="str" cm="1">
@@ -9729,18 +9849,18 @@
         <v>화</v>
       </c>
       <c r="G144" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+144</v>
       </c>
       <c r="H144" s="13">
         <v>4.8</v>
       </c>
       <c r="I144" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 136단</v>
       </c>
       <c r="J144" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>136</v>
       </c>
       <c r="K144" s="13" t="s">
@@ -9752,15 +9872,15 @@
         <v>136</v>
       </c>
       <c r="C145" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+148</v>
       </c>
       <c r="D145" s="14" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1명</v>
       </c>
       <c r="E145" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F145" s="13" t="str" cm="1">
@@ -9768,18 +9888,18 @@
         <v>명</v>
       </c>
       <c r="G145" s="13" t="str">
-        <f t="shared" ref="G145:G148" si="46">VLOOKUP(F145,M:P,4,FALSE)</f>
+        <f t="shared" ref="G145:G148" si="48">VLOOKUP(F145,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="H145" s="13">
         <v>4.88</v>
       </c>
       <c r="I145" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 137단</v>
       </c>
       <c r="J145" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>137</v>
       </c>
       <c r="K145" s="13" t="s">
@@ -9791,15 +9911,15 @@
         <v>137</v>
       </c>
       <c r="C146" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+149</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10명</v>
       </c>
       <c r="E146" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F146" s="13" t="str" cm="1">
@@ -9807,18 +9927,18 @@
         <v>명</v>
       </c>
       <c r="G146" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+148</v>
       </c>
       <c r="H146" s="13">
         <v>4.96</v>
       </c>
       <c r="I146" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 138단</v>
       </c>
       <c r="J146" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>138</v>
       </c>
       <c r="K146" s="13" t="s">
@@ -9830,15 +9950,15 @@
         <v>138</v>
       </c>
       <c r="C147" s="14">
-        <f t="shared" ref="C147:C148" si="47">E147*G147</f>
+        <f t="shared" ref="C147:C150" si="49">E147*G147</f>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="D147" s="14" t="str">
-        <f t="shared" ref="D147:D148" si="48">E147&amp;F147</f>
+        <f t="shared" ref="D147:D150" si="50">E147&amp;F147</f>
         <v>100명</v>
       </c>
       <c r="E147" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F147" s="13" t="str" cm="1">
@@ -9846,18 +9966,18 @@
         <v>명</v>
       </c>
       <c r="G147" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+148</v>
       </c>
       <c r="H147" s="13">
         <v>5.04</v>
       </c>
       <c r="I147" s="13" t="str">
-        <f t="shared" ref="I147:I148" si="49">K147&amp;" "&amp;J147&amp;"단"</f>
+        <f t="shared" ref="I147:I150" si="51">K147&amp;" "&amp;J147&amp;"단"</f>
         <v>태극 139단</v>
       </c>
       <c r="J147" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>139</v>
       </c>
       <c r="K147" s="13" t="s">
@@ -9869,15 +9989,15 @@
         <v>139</v>
       </c>
       <c r="C148" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+151</v>
       </c>
       <c r="D148" s="14" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1000명</v>
       </c>
       <c r="E148" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F148" s="13" t="str" cm="1">
@@ -9885,21 +10005,177 @@
         <v>명</v>
       </c>
       <c r="G148" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+148</v>
       </c>
       <c r="H148" s="13">
         <v>5.12</v>
       </c>
       <c r="I148" s="13" t="str">
+        <f t="shared" si="51"/>
+        <v>태극 140단</v>
+      </c>
+      <c r="J148" s="13">
+        <f t="shared" si="24"/>
+        <v>140</v>
+      </c>
+      <c r="K148" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B149" s="13">
+        <v>140</v>
+      </c>
+      <c r="C149" s="14">
         <f t="shared" si="49"/>
-        <v>태극 140단</v>
-      </c>
-      <c r="J148" s="13">
-        <f t="shared" si="22"/>
-        <v>140</v>
-      </c>
-      <c r="K148" s="13" t="s">
+        <v>1E+152</v>
+      </c>
+      <c r="D149" s="14" t="str">
+        <f t="shared" si="50"/>
+        <v>1월</v>
+      </c>
+      <c r="E149" s="14">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F149" s="13" t="str" cm="1">
+        <f t="array" ref="F149">IF(AND(E148&gt;100,E149&lt;100),INDEX(M:M,MATCH(F148,M:M,0)+1,0),F148)</f>
+        <v>월</v>
+      </c>
+      <c r="G149" s="13" t="str">
+        <f t="shared" ref="G149:G152" si="52">VLOOKUP(F149,M:P,4,FALSE)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="H149" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="I149" s="13" t="str">
+        <f t="shared" si="51"/>
+        <v>태극 141단</v>
+      </c>
+      <c r="J149" s="13">
+        <f t="shared" si="24"/>
+        <v>141</v>
+      </c>
+      <c r="K149" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B150" s="13">
+        <v>141</v>
+      </c>
+      <c r="C150" s="14">
+        <f t="shared" si="49"/>
+        <v>1E+153</v>
+      </c>
+      <c r="D150" s="14" t="str">
+        <f t="shared" si="50"/>
+        <v>10월</v>
+      </c>
+      <c r="E150" s="14">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="F150" s="13" t="str" cm="1">
+        <f t="array" ref="F150">IF(AND(E149&gt;100,E150&lt;100),INDEX(M:M,MATCH(F149,M:M,0)+1,0),F149)</f>
+        <v>월</v>
+      </c>
+      <c r="G150" s="13" t="str">
+        <f t="shared" si="52"/>
+        <v>1E+152</v>
+      </c>
+      <c r="H150" s="13">
+        <v>5.28</v>
+      </c>
+      <c r="I150" s="13" t="str">
+        <f t="shared" si="51"/>
+        <v>태극 142단</v>
+      </c>
+      <c r="J150" s="13">
+        <f t="shared" si="24"/>
+        <v>142</v>
+      </c>
+      <c r="K150" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B151" s="13">
+        <v>142</v>
+      </c>
+      <c r="C151" s="14">
+        <f t="shared" ref="C151:C152" si="53">E151*G151</f>
+        <v>1E+154</v>
+      </c>
+      <c r="D151" s="14" t="str">
+        <f t="shared" ref="D151:D152" si="54">E151&amp;F151</f>
+        <v>100월</v>
+      </c>
+      <c r="E151" s="14">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="F151" s="13" t="str" cm="1">
+        <f t="array" ref="F151">IF(AND(E150&gt;100,E151&lt;100),INDEX(M:M,MATCH(F150,M:M,0)+1,0),F150)</f>
+        <v>월</v>
+      </c>
+      <c r="G151" s="13" t="str">
+        <f t="shared" si="52"/>
+        <v>1E+152</v>
+      </c>
+      <c r="H151" s="13">
+        <v>5.36</v>
+      </c>
+      <c r="I151" s="13" t="str">
+        <f t="shared" ref="I151:I152" si="55">K151&amp;" "&amp;J151&amp;"단"</f>
+        <v>태극 143단</v>
+      </c>
+      <c r="J151" s="13">
+        <f t="shared" si="24"/>
+        <v>143</v>
+      </c>
+      <c r="K151" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B152" s="13">
+        <v>143</v>
+      </c>
+      <c r="C152" s="14">
+        <f t="shared" si="53"/>
+        <v>1E+155</v>
+      </c>
+      <c r="D152" s="14" t="str">
+        <f t="shared" si="54"/>
+        <v>1000월</v>
+      </c>
+      <c r="E152" s="14">
+        <f t="shared" si="28"/>
+        <v>1000</v>
+      </c>
+      <c r="F152" s="13" t="str" cm="1">
+        <f t="array" ref="F152">IF(AND(E151&gt;100,E152&lt;100),INDEX(M:M,MATCH(F151,M:M,0)+1,0),F151)</f>
+        <v>월</v>
+      </c>
+      <c r="G152" s="13" t="str">
+        <f t="shared" si="52"/>
+        <v>1E+152</v>
+      </c>
+      <c r="H152" s="13">
+        <v>5.44</v>
+      </c>
+      <c r="I152" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>태극 144단</v>
+      </c>
+      <c r="J152" s="13">
+        <f t="shared" si="24"/>
+        <v>144</v>
+      </c>
+      <c r="K152" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9EFD74-935B-4910-8D2A-F512BB87224E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09FAC53-9427-4D3B-9E4C-B479BDA1BA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukTitle" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="59">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,14 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,11 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3705,7 +3713,7 @@
         <v>1E+149</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C145" si="3">C138</f>
+        <f t="shared" ref="C139:C149" si="3">C138</f>
         <v>55</v>
       </c>
       <c r="D139">
@@ -3841,6 +3849,90 @@
       <c r="E145" t="str">
         <f>VLOOKUP(A145,Balance!B:I,8,FALSE)</f>
         <v>태극 144단</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <f>VLOOKUP(A146,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D146">
+        <f>VLOOKUP(A146,Balance!B:I,7,FALSE)</f>
+        <v>5.52</v>
+      </c>
+      <c r="E146" t="str">
+        <f>VLOOKUP(A146,Balance!B:I,8,FALSE)</f>
+        <v>태극 145단</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <f>VLOOKUP(A147,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999998E+156</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D147">
+        <f>VLOOKUP(A147,Balance!B:I,7,FALSE)</f>
+        <v>5.6</v>
+      </c>
+      <c r="E147" t="str">
+        <f>VLOOKUP(A147,Balance!B:I,8,FALSE)</f>
+        <v>태극 146단</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <f>VLOOKUP(A148,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999995E+157</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D148">
+        <f>VLOOKUP(A148,Balance!B:I,7,FALSE)</f>
+        <v>5.68</v>
+      </c>
+      <c r="E148" t="str">
+        <f>VLOOKUP(A148,Balance!B:I,8,FALSE)</f>
+        <v>태극 147단</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <f>VLOOKUP(A149,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D149">
+        <f>VLOOKUP(A149,Balance!B:I,7,FALSE)</f>
+        <v>5.76</v>
+      </c>
+      <c r="E149" t="str">
+        <f>VLOOKUP(A149,Balance!B:I,8,FALSE)</f>
+        <v>태극 148단</v>
       </c>
     </row>
   </sheetData>
@@ -3852,10 +3944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X152"/>
+  <dimension ref="A1:X156"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6031,7 +6123,7 @@
         <v>46</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N46" s="13">
         <v>156</v>
@@ -6083,6 +6175,20 @@
       <c r="K47" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M47" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N47" s="13">
+        <v>160</v>
+      </c>
+      <c r="O47" s="14">
+        <f t="shared" ref="O47:O48" si="19">POWER(10,N47)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="P47" s="14" t="str">
+        <f t="shared" ref="P47:P48" si="20">RIGHT(O47,N47)</f>
+        <v>1E+160</v>
+      </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B48" s="13">
@@ -6122,6 +6228,20 @@
       <c r="K48" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M48" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N48" s="13">
+        <v>164</v>
+      </c>
+      <c r="O48" s="14">
+        <f t="shared" si="19"/>
+        <v>1E+164</v>
+      </c>
+      <c r="P48" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+164</v>
+      </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="13">
@@ -6830,15 +6950,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="19">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="21">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="20">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="22">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="21">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="23">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -6869,15 +6989,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -6908,15 +7028,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -6947,15 +7067,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -6986,15 +7106,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -7025,15 +7145,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -7064,15 +7184,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -7080,7 +7200,7 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="22">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="24">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
@@ -7103,15 +7223,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -7119,14 +7239,14 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="23">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="25">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
@@ -7142,15 +7262,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -7158,18 +7278,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J152" si="24">J74+1</f>
+        <f t="shared" ref="J75:J156" si="26">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -7181,15 +7301,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -7197,18 +7317,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -7220,15 +7340,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -7236,18 +7356,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -7259,15 +7379,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -7275,18 +7395,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -7298,15 +7418,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -7314,18 +7434,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -7337,15 +7457,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -7353,18 +7473,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -7376,15 +7496,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -7392,18 +7512,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -7415,15 +7535,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -7431,18 +7551,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -7454,15 +7574,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -7470,18 +7590,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -7493,15 +7613,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -7509,18 +7629,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -7532,15 +7652,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -7548,18 +7668,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -7571,15 +7691,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -7587,18 +7707,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -7610,15 +7730,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -7626,18 +7746,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -7649,15 +7769,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -7665,18 +7785,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -7688,15 +7808,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -7704,18 +7824,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -7727,15 +7847,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -7743,18 +7863,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -7766,15 +7886,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -7782,18 +7902,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -7805,15 +7925,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -7821,18 +7941,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -7844,15 +7964,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -7860,18 +7980,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -7883,15 +8003,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -7899,18 +8019,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -7922,15 +8042,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -7938,18 +8058,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -7961,15 +8081,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -7977,18 +8097,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -8000,15 +8120,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -8016,18 +8136,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -8039,15 +8159,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -8055,18 +8175,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -8078,15 +8198,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -8094,18 +8214,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -8117,15 +8237,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -8133,18 +8253,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -8156,15 +8276,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -8172,18 +8292,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -8195,15 +8315,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -8211,18 +8331,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -8234,15 +8354,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -8250,18 +8370,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -8273,15 +8393,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -8289,18 +8409,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -8312,15 +8432,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -8328,18 +8448,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G132" si="25">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G132" si="27">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -8351,15 +8471,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -8367,18 +8487,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -8390,15 +8510,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -8406,18 +8526,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -8429,15 +8549,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -8445,18 +8565,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -8468,15 +8588,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -8484,18 +8604,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -8507,15 +8627,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -8523,18 +8643,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -8546,15 +8666,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -8562,18 +8682,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -8585,15 +8705,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="26">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="28">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="27">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="29">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E152" si="28">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E156" si="30">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -8601,18 +8721,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="29">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="31">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -8624,15 +8744,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -8640,18 +8760,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -8663,15 +8783,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -8679,18 +8799,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -8702,15 +8822,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -8718,18 +8838,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -8741,15 +8861,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -8757,18 +8877,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -8780,15 +8900,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -8796,18 +8916,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -8819,15 +8939,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -8835,18 +8955,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -8858,15 +8978,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -8874,18 +8994,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -8897,15 +9017,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -8913,18 +9033,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -8936,15 +9056,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -8952,18 +9072,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -8975,15 +9095,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -8991,18 +9111,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -9014,15 +9134,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -9030,18 +9150,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -9053,15 +9173,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -9069,18 +9189,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -9092,15 +9212,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="30">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="32">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="31">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="33">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -9108,18 +9228,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="32">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="34">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -9131,15 +9251,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
+        <f t="shared" si="32"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="33"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
         <f t="shared" si="30"/>
-        <v>1E+129</v>
-      </c>
-      <c r="D126" s="14" t="str">
-        <f t="shared" si="31"/>
-        <v>10위</v>
-      </c>
-      <c r="E126" s="14">
-        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -9147,18 +9267,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -9170,15 +9290,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
+        <f t="shared" si="32"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="33"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
         <f t="shared" si="30"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="D127" s="14" t="str">
-        <f t="shared" si="31"/>
-        <v>100위</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -9186,18 +9306,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -9209,15 +9329,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
+        <f t="shared" si="32"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="33"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
         <f t="shared" si="30"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="D128" s="14" t="str">
-        <f t="shared" si="31"/>
-        <v>1000위</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -9225,18 +9345,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -9248,15 +9368,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="33"/>
+        <v>1설</v>
+      </c>
+      <c r="E129" s="14">
         <f t="shared" si="30"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="D129" s="14" t="str">
-        <f t="shared" si="31"/>
-        <v>1설</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -9264,18 +9384,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -9287,15 +9407,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
+        <f t="shared" si="32"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="33"/>
+        <v>10설</v>
+      </c>
+      <c r="E130" s="14">
         <f t="shared" si="30"/>
-        <v>1E+133</v>
-      </c>
-      <c r="D130" s="14" t="str">
-        <f t="shared" si="31"/>
-        <v>10설</v>
-      </c>
-      <c r="E130" s="14">
-        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -9303,18 +9423,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -9326,15 +9446,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C134" si="33">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="35">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D134" si="34">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="36">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -9342,18 +9462,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I134" si="35">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="37">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -9365,15 +9485,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -9381,18 +9501,18 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
@@ -9404,15 +9524,15 @@
         <v>124</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D133" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1적</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F133" s="13" t="str" cm="1">
@@ -9420,18 +9540,18 @@
         <v>적</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" ref="G133:G136" si="36">VLOOKUP(F133,M:P,4,FALSE)</f>
+        <f t="shared" ref="G133:G136" si="38">VLOOKUP(F133,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="H133" s="13">
         <v>3.92</v>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 125단</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>125</v>
       </c>
       <c r="K133" s="13" t="s">
@@ -9443,15 +9563,15 @@
         <v>125</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+137</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10적</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="F134" s="13" t="str" cm="1">
@@ -9459,18 +9579,18 @@
         <v>적</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+136</v>
       </c>
       <c r="H134" s="13">
         <v>4</v>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 126단</v>
       </c>
       <c r="J134" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>126</v>
       </c>
       <c r="K134" s="13" t="s">
@@ -9482,15 +9602,15 @@
         <v>126</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" ref="C135:C138" si="37">E135*G135</f>
+        <f t="shared" ref="C135:C138" si="39">E135*G135</f>
         <v>1E+138</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f t="shared" ref="D135:D138" si="38">E135&amp;F135</f>
+        <f t="shared" ref="D135:D138" si="40">E135&amp;F135</f>
         <v>100적</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="F135" s="13" t="str" cm="1">
@@ -9498,18 +9618,18 @@
         <v>적</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+136</v>
       </c>
       <c r="H135" s="13">
         <v>4.08</v>
       </c>
       <c r="I135" s="13" t="str">
-        <f t="shared" ref="I135:I138" si="39">K135&amp;" "&amp;J135&amp;"단"</f>
+        <f t="shared" ref="I135:I138" si="41">K135&amp;" "&amp;J135&amp;"단"</f>
         <v>태극 127단</v>
       </c>
       <c r="J135" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>127</v>
       </c>
       <c r="K135" s="13" t="s">
@@ -9521,15 +9641,15 @@
         <v>127</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+139</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000적</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="F136" s="13" t="str" cm="1">
@@ -9537,18 +9657,18 @@
         <v>적</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+136</v>
       </c>
       <c r="H136" s="13">
         <v>4.16</v>
       </c>
       <c r="I136" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 128단</v>
       </c>
       <c r="J136" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>128</v>
       </c>
       <c r="K136" s="13" t="s">
@@ -9560,15 +9680,15 @@
         <v>128</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D137" s="14" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1고</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F137" s="13" t="str" cm="1">
@@ -9576,18 +9696,18 @@
         <v>고</v>
       </c>
       <c r="G137" s="13" t="str">
-        <f t="shared" ref="G137:G140" si="40">VLOOKUP(F137,M:P,4,FALSE)</f>
+        <f t="shared" ref="G137:G140" si="42">VLOOKUP(F137,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H137" s="13">
         <v>4.24</v>
       </c>
       <c r="I137" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 129단</v>
       </c>
       <c r="J137" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>129</v>
       </c>
       <c r="K137" s="13" t="s">
@@ -9599,15 +9719,15 @@
         <v>129</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+141</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10고</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="F138" s="13" t="str" cm="1">
@@ -9615,18 +9735,18 @@
         <v>고</v>
       </c>
       <c r="G138" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+140</v>
       </c>
       <c r="H138" s="13">
         <v>4.32</v>
       </c>
       <c r="I138" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 130단</v>
       </c>
       <c r="J138" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>130</v>
       </c>
       <c r="K138" s="13" t="s">
@@ -9638,15 +9758,15 @@
         <v>130</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" ref="C139:C142" si="41">E139*G139</f>
+        <f t="shared" ref="C139:C142" si="43">E139*G139</f>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="D139" s="14" t="str">
-        <f t="shared" ref="D139:D142" si="42">E139&amp;F139</f>
+        <f t="shared" ref="D139:D142" si="44">E139&amp;F139</f>
         <v>100고</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="F139" s="13" t="str" cm="1">
@@ -9654,18 +9774,18 @@
         <v>고</v>
       </c>
       <c r="G139" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+140</v>
       </c>
       <c r="H139" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="I139" s="13" t="str">
-        <f t="shared" ref="I139:I142" si="43">K139&amp;" "&amp;J139&amp;"단"</f>
+        <f t="shared" ref="I139:I142" si="45">K139&amp;" "&amp;J139&amp;"단"</f>
         <v>태극 131단</v>
       </c>
       <c r="J139" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>131</v>
       </c>
       <c r="K139" s="13" t="s">
@@ -9677,15 +9797,15 @@
         <v>131</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+143</v>
       </c>
       <c r="D140" s="14" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000고</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="F140" s="13" t="str" cm="1">
@@ -9693,18 +9813,18 @@
         <v>고</v>
       </c>
       <c r="G140" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+140</v>
       </c>
       <c r="H140" s="13">
         <v>4.4800000000000004</v>
       </c>
       <c r="I140" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 132단</v>
       </c>
       <c r="J140" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>132</v>
       </c>
       <c r="K140" s="13" t="s">
@@ -9716,15 +9836,15 @@
         <v>132</v>
       </c>
       <c r="C141" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+144</v>
       </c>
       <c r="D141" s="14" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1화</v>
       </c>
       <c r="E141" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F141" s="13" t="str" cm="1">
@@ -9732,18 +9852,18 @@
         <v>화</v>
       </c>
       <c r="G141" s="13" t="str">
-        <f t="shared" ref="G141:G144" si="44">VLOOKUP(F141,M:P,4,FALSE)</f>
+        <f t="shared" ref="G141:G144" si="46">VLOOKUP(F141,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="H141" s="13">
         <v>4.5599999999999996</v>
       </c>
       <c r="I141" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 133단</v>
       </c>
       <c r="J141" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>133</v>
       </c>
       <c r="K141" s="13" t="s">
@@ -9755,15 +9875,15 @@
         <v>133</v>
       </c>
       <c r="C142" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10화</v>
       </c>
       <c r="E142" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="F142" s="13" t="str" cm="1">
@@ -9771,18 +9891,18 @@
         <v>화</v>
       </c>
       <c r="G142" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+144</v>
       </c>
       <c r="H142" s="13">
         <v>4.6399999999999997</v>
       </c>
       <c r="I142" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 134단</v>
       </c>
       <c r="J142" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>134</v>
       </c>
       <c r="K142" s="13" t="s">
@@ -9794,15 +9914,15 @@
         <v>134</v>
       </c>
       <c r="C143" s="14">
-        <f t="shared" ref="C143:C146" si="45">E143*G143</f>
+        <f t="shared" ref="C143:C146" si="47">E143*G143</f>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="D143" s="14" t="str">
-        <f t="shared" ref="D143:D146" si="46">E143&amp;F143</f>
+        <f t="shared" ref="D143:D146" si="48">E143&amp;F143</f>
         <v>100화</v>
       </c>
       <c r="E143" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="F143" s="13" t="str" cm="1">
@@ -9810,18 +9930,18 @@
         <v>화</v>
       </c>
       <c r="G143" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+144</v>
       </c>
       <c r="H143" s="13">
         <v>4.72</v>
       </c>
       <c r="I143" s="13" t="str">
-        <f t="shared" ref="I143:I146" si="47">K143&amp;" "&amp;J143&amp;"단"</f>
+        <f t="shared" ref="I143:I146" si="49">K143&amp;" "&amp;J143&amp;"단"</f>
         <v>태극 135단</v>
       </c>
       <c r="J143" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>135</v>
       </c>
       <c r="K143" s="13" t="s">
@@ -9833,15 +9953,15 @@
         <v>135</v>
       </c>
       <c r="C144" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="D144" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000화</v>
       </c>
       <c r="E144" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="F144" s="13" t="str" cm="1">
@@ -9849,18 +9969,18 @@
         <v>화</v>
       </c>
       <c r="G144" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+144</v>
       </c>
       <c r="H144" s="13">
         <v>4.8</v>
       </c>
       <c r="I144" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>태극 136단</v>
       </c>
       <c r="J144" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>136</v>
       </c>
       <c r="K144" s="13" t="s">
@@ -9872,15 +9992,15 @@
         <v>136</v>
       </c>
       <c r="C145" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+148</v>
       </c>
       <c r="D145" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1명</v>
       </c>
       <c r="E145" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F145" s="13" t="str" cm="1">
@@ -9888,18 +10008,18 @@
         <v>명</v>
       </c>
       <c r="G145" s="13" t="str">
-        <f t="shared" ref="G145:G148" si="48">VLOOKUP(F145,M:P,4,FALSE)</f>
+        <f t="shared" ref="G145:G148" si="50">VLOOKUP(F145,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="H145" s="13">
         <v>4.88</v>
       </c>
       <c r="I145" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>태극 137단</v>
       </c>
       <c r="J145" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>137</v>
       </c>
       <c r="K145" s="13" t="s">
@@ -9911,15 +10031,15 @@
         <v>137</v>
       </c>
       <c r="C146" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+149</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10명</v>
       </c>
       <c r="E146" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="F146" s="13" t="str" cm="1">
@@ -9927,18 +10047,18 @@
         <v>명</v>
       </c>
       <c r="G146" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+148</v>
       </c>
       <c r="H146" s="13">
         <v>4.96</v>
       </c>
       <c r="I146" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>태극 138단</v>
       </c>
       <c r="J146" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>138</v>
       </c>
       <c r="K146" s="13" t="s">
@@ -9950,15 +10070,15 @@
         <v>138</v>
       </c>
       <c r="C147" s="14">
-        <f t="shared" ref="C147:C150" si="49">E147*G147</f>
+        <f t="shared" ref="C147:C150" si="51">E147*G147</f>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="D147" s="14" t="str">
-        <f t="shared" ref="D147:D150" si="50">E147&amp;F147</f>
+        <f t="shared" ref="D147:D150" si="52">E147&amp;F147</f>
         <v>100명</v>
       </c>
       <c r="E147" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="F147" s="13" t="str" cm="1">
@@ -9966,18 +10086,18 @@
         <v>명</v>
       </c>
       <c r="G147" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+148</v>
       </c>
       <c r="H147" s="13">
         <v>5.04</v>
       </c>
       <c r="I147" s="13" t="str">
-        <f t="shared" ref="I147:I150" si="51">K147&amp;" "&amp;J147&amp;"단"</f>
+        <f t="shared" ref="I147:I150" si="53">K147&amp;" "&amp;J147&amp;"단"</f>
         <v>태극 139단</v>
       </c>
       <c r="J147" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>139</v>
       </c>
       <c r="K147" s="13" t="s">
@@ -9989,15 +10109,15 @@
         <v>139</v>
       </c>
       <c r="C148" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+151</v>
       </c>
       <c r="D148" s="14" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1000명</v>
       </c>
       <c r="E148" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="F148" s="13" t="str" cm="1">
@@ -10005,18 +10125,18 @@
         <v>명</v>
       </c>
       <c r="G148" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+148</v>
       </c>
       <c r="H148" s="13">
         <v>5.12</v>
       </c>
       <c r="I148" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>태극 140단</v>
       </c>
       <c r="J148" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>140</v>
       </c>
       <c r="K148" s="13" t="s">
@@ -10028,15 +10148,15 @@
         <v>140</v>
       </c>
       <c r="C149" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+152</v>
       </c>
       <c r="D149" s="14" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1월</v>
       </c>
       <c r="E149" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F149" s="13" t="str" cm="1">
@@ -10044,18 +10164,18 @@
         <v>월</v>
       </c>
       <c r="G149" s="13" t="str">
-        <f t="shared" ref="G149:G152" si="52">VLOOKUP(F149,M:P,4,FALSE)</f>
+        <f t="shared" ref="G149:G152" si="54">VLOOKUP(F149,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="H149" s="13">
         <v>5.2</v>
       </c>
       <c r="I149" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>태극 141단</v>
       </c>
       <c r="J149" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>141</v>
       </c>
       <c r="K149" s="13" t="s">
@@ -10067,15 +10187,15 @@
         <v>141</v>
       </c>
       <c r="C150" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+153</v>
       </c>
       <c r="D150" s="14" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>10월</v>
       </c>
       <c r="E150" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="F150" s="13" t="str" cm="1">
@@ -10083,18 +10203,18 @@
         <v>월</v>
       </c>
       <c r="G150" s="13" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+152</v>
       </c>
       <c r="H150" s="13">
         <v>5.28</v>
       </c>
       <c r="I150" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>태극 142단</v>
       </c>
       <c r="J150" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>142</v>
       </c>
       <c r="K150" s="13" t="s">
@@ -10106,15 +10226,15 @@
         <v>142</v>
       </c>
       <c r="C151" s="14">
-        <f t="shared" ref="C151:C152" si="53">E151*G151</f>
+        <f t="shared" ref="C151:C154" si="55">E151*G151</f>
         <v>1E+154</v>
       </c>
       <c r="D151" s="14" t="str">
-        <f t="shared" ref="D151:D152" si="54">E151&amp;F151</f>
+        <f t="shared" ref="D151:D154" si="56">E151&amp;F151</f>
         <v>100월</v>
       </c>
       <c r="E151" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="F151" s="13" t="str" cm="1">
@@ -10122,18 +10242,18 @@
         <v>월</v>
       </c>
       <c r="G151" s="13" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+152</v>
       </c>
       <c r="H151" s="13">
         <v>5.36</v>
       </c>
       <c r="I151" s="13" t="str">
-        <f t="shared" ref="I151:I152" si="55">K151&amp;" "&amp;J151&amp;"단"</f>
+        <f t="shared" ref="I151:I154" si="57">K151&amp;" "&amp;J151&amp;"단"</f>
         <v>태극 143단</v>
       </c>
       <c r="J151" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>143</v>
       </c>
       <c r="K151" s="13" t="s">
@@ -10145,15 +10265,15 @@
         <v>143</v>
       </c>
       <c r="C152" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+155</v>
       </c>
       <c r="D152" s="14" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1000월</v>
       </c>
       <c r="E152" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="F152" s="13" t="str" cm="1">
@@ -10161,21 +10281,177 @@
         <v>월</v>
       </c>
       <c r="G152" s="13" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+152</v>
       </c>
       <c r="H152" s="13">
         <v>5.44</v>
       </c>
       <c r="I152" s="13" t="str">
+        <f t="shared" si="57"/>
+        <v>태극 144단</v>
+      </c>
+      <c r="J152" s="13">
+        <f t="shared" si="26"/>
+        <v>144</v>
+      </c>
+      <c r="K152" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B153" s="13">
+        <v>144</v>
+      </c>
+      <c r="C153" s="14">
         <f t="shared" si="55"/>
-        <v>태극 144단</v>
-      </c>
-      <c r="J152" s="13">
-        <f t="shared" si="24"/>
-        <v>144</v>
-      </c>
-      <c r="K152" s="13" t="s">
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="D153" s="14" t="str">
+        <f t="shared" si="56"/>
+        <v>1후</v>
+      </c>
+      <c r="E153" s="14">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="F153" s="13" t="str" cm="1">
+        <f t="array" ref="F153">IF(AND(E152&gt;100,E153&lt;100),INDEX(M:M,MATCH(F152,M:M,0)+1,0),F152)</f>
+        <v>후</v>
+      </c>
+      <c r="G153" s="13" t="str">
+        <f t="shared" ref="G153:G156" si="58">VLOOKUP(F153,M:P,4,FALSE)</f>
+        <v>1E+156</v>
+      </c>
+      <c r="H153" s="13">
+        <v>5.52</v>
+      </c>
+      <c r="I153" s="13" t="str">
+        <f t="shared" si="57"/>
+        <v>태극 145단</v>
+      </c>
+      <c r="J153" s="13">
+        <f t="shared" si="26"/>
+        <v>145</v>
+      </c>
+      <c r="K153" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B154" s="13">
+        <v>145</v>
+      </c>
+      <c r="C154" s="14">
+        <f t="shared" si="55"/>
+        <v>9.9999999999999998E+156</v>
+      </c>
+      <c r="D154" s="14" t="str">
+        <f t="shared" si="56"/>
+        <v>10후</v>
+      </c>
+      <c r="E154" s="14">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="F154" s="13" t="str" cm="1">
+        <f t="array" ref="F154">IF(AND(E153&gt;100,E154&lt;100),INDEX(M:M,MATCH(F153,M:M,0)+1,0),F153)</f>
+        <v>후</v>
+      </c>
+      <c r="G154" s="13" t="str">
+        <f t="shared" si="58"/>
+        <v>1E+156</v>
+      </c>
+      <c r="H154" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="I154" s="13" t="str">
+        <f t="shared" si="57"/>
+        <v>태극 146단</v>
+      </c>
+      <c r="J154" s="13">
+        <f t="shared" si="26"/>
+        <v>146</v>
+      </c>
+      <c r="K154" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B155" s="13">
+        <v>146</v>
+      </c>
+      <c r="C155" s="14">
+        <f t="shared" ref="C155:C156" si="59">E155*G155</f>
+        <v>9.9999999999999995E+157</v>
+      </c>
+      <c r="D155" s="14" t="str">
+        <f t="shared" ref="D155:D156" si="60">E155&amp;F155</f>
+        <v>100후</v>
+      </c>
+      <c r="E155" s="14">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="F155" s="13" t="str" cm="1">
+        <f t="array" ref="F155">IF(AND(E154&gt;100,E155&lt;100),INDEX(M:M,MATCH(F154,M:M,0)+1,0),F154)</f>
+        <v>후</v>
+      </c>
+      <c r="G155" s="13" t="str">
+        <f t="shared" si="58"/>
+        <v>1E+156</v>
+      </c>
+      <c r="H155" s="13">
+        <v>5.68</v>
+      </c>
+      <c r="I155" s="13" t="str">
+        <f t="shared" ref="I155:I156" si="61">K155&amp;" "&amp;J155&amp;"단"</f>
+        <v>태극 147단</v>
+      </c>
+      <c r="J155" s="13">
+        <f t="shared" si="26"/>
+        <v>147</v>
+      </c>
+      <c r="K155" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B156" s="13">
+        <v>147</v>
+      </c>
+      <c r="C156" s="14">
+        <f t="shared" si="59"/>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="D156" s="14" t="str">
+        <f t="shared" si="60"/>
+        <v>1000후</v>
+      </c>
+      <c r="E156" s="14">
+        <f t="shared" si="30"/>
+        <v>1000</v>
+      </c>
+      <c r="F156" s="13" t="str" cm="1">
+        <f t="array" ref="F156">IF(AND(E155&gt;100,E156&lt;100),INDEX(M:M,MATCH(F155,M:M,0)+1,0),F155)</f>
+        <v>후</v>
+      </c>
+      <c r="G156" s="13" t="str">
+        <f t="shared" si="58"/>
+        <v>1E+156</v>
+      </c>
+      <c r="H156" s="13">
+        <v>5.76</v>
+      </c>
+      <c r="I156" s="13" t="str">
+        <f t="shared" si="61"/>
+        <v>태극 148단</v>
+      </c>
+      <c r="J156" s="13">
+        <f t="shared" si="26"/>
+        <v>148</v>
+      </c>
+      <c r="K156" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09FAC53-9427-4D3B-9E4C-B479BDA1BA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F03E23-A1F7-4A55-A4E8-4E886355513E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15585" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukTitle" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="60">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,10 @@
   </si>
   <si>
     <t>단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,11 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E149" sqref="E149"/>
+      <selection pane="bottomLeft" activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3713,7 +3717,7 @@
         <v>1E+149</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C149" si="3">C138</f>
+        <f t="shared" ref="C139:C153" si="3">C138</f>
         <v>55</v>
       </c>
       <c r="D139">
@@ -3933,6 +3937,90 @@
       <c r="E149" t="str">
         <f>VLOOKUP(A149,Balance!B:I,8,FALSE)</f>
         <v>태극 148단</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <f>VLOOKUP(A150,Balance!B:C,2,FALSE)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D150">
+        <f>VLOOKUP(A150,Balance!B:I,7,FALSE)</f>
+        <v>5.84</v>
+      </c>
+      <c r="E150" t="str">
+        <f>VLOOKUP(A150,Balance!B:I,8,FALSE)</f>
+        <v>태극 149단</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <f>VLOOKUP(A151,Balance!B:C,2,FALSE)</f>
+        <v>1E+161</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D151">
+        <f>VLOOKUP(A151,Balance!B:I,7,FALSE)</f>
+        <v>5.92</v>
+      </c>
+      <c r="E151" t="str">
+        <f>VLOOKUP(A151,Balance!B:I,8,FALSE)</f>
+        <v>태극 150단</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <f>VLOOKUP(A152,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D152">
+        <f>VLOOKUP(A152,Balance!B:I,7,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E152" t="str">
+        <f>VLOOKUP(A152,Balance!B:I,8,FALSE)</f>
+        <v>태극 151단</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <f>VLOOKUP(A153,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D153">
+        <f>VLOOKUP(A153,Balance!B:I,7,FALSE)</f>
+        <v>6.08</v>
+      </c>
+      <c r="E153" t="str">
+        <f>VLOOKUP(A153,Balance!B:I,8,FALSE)</f>
+        <v>태극 152단</v>
       </c>
     </row>
   </sheetData>
@@ -3944,10 +4032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X156"/>
+  <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="J152" sqref="J152"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6243,7 +6331,7 @@
         <v>1E+164</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="13">
         <v>40</v>
       </c>
@@ -6281,8 +6369,22 @@
       <c r="K49" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M49" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N49" s="13">
+        <v>168</v>
+      </c>
+      <c r="O49" s="14">
+        <f t="shared" ref="O49" si="21">POWER(10,N49)</f>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="P49" s="14" t="str">
+        <f t="shared" ref="P49" si="22">RIGHT(O49,N49)</f>
+        <v>1E+168</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="13">
         <v>41</v>
       </c>
@@ -6321,7 +6423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="13">
         <v>42</v>
       </c>
@@ -6360,7 +6462,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="13">
         <v>43</v>
       </c>
@@ -6399,7 +6501,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="13">
         <v>44</v>
       </c>
@@ -6438,7 +6540,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="13">
         <v>45</v>
       </c>
@@ -6477,7 +6579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="13">
         <v>46</v>
       </c>
@@ -6516,7 +6618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="13">
         <v>47</v>
       </c>
@@ -6555,7 +6657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="13">
         <v>48</v>
       </c>
@@ -6594,7 +6696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="13">
         <v>49</v>
       </c>
@@ -6633,7 +6735,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="13">
         <v>50</v>
       </c>
@@ -6672,7 +6774,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" s="13">
         <v>51</v>
       </c>
@@ -6711,7 +6813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="13">
         <v>52</v>
       </c>
@@ -6750,7 +6852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="13">
         <v>53</v>
       </c>
@@ -6789,7 +6891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="13">
         <v>54</v>
       </c>
@@ -6828,7 +6930,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="13">
         <v>55</v>
       </c>
@@ -6950,15 +7052,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="21">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="23">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="22">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="24">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="23">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="25">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -6989,15 +7091,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -7028,15 +7130,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -7067,15 +7169,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -7106,15 +7208,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -7145,15 +7247,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -7184,15 +7286,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -7200,7 +7302,7 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="24">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="26">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
@@ -7223,15 +7325,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -7239,14 +7341,14 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="25">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="27">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
@@ -7262,15 +7364,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -7278,18 +7380,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J156" si="26">J74+1</f>
+        <f t="shared" ref="J75:J160" si="28">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -7301,15 +7403,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -7317,18 +7419,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -7340,15 +7442,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -7356,18 +7458,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -7379,15 +7481,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -7395,18 +7497,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -7418,15 +7520,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -7434,18 +7536,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -7457,15 +7559,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -7473,18 +7575,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -7496,15 +7598,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -7512,18 +7614,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -7535,15 +7637,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -7551,18 +7653,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -7574,15 +7676,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -7590,18 +7692,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -7613,15 +7715,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -7629,18 +7731,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -7652,15 +7754,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -7668,18 +7770,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -7691,15 +7793,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -7707,18 +7809,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -7730,15 +7832,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -7746,18 +7848,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -7769,15 +7871,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -7785,18 +7887,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -7808,15 +7910,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -7824,18 +7926,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -7847,15 +7949,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -7863,18 +7965,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -7886,15 +7988,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -7902,18 +8004,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -7925,15 +8027,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -7941,18 +8043,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -7964,15 +8066,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -7980,18 +8082,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -8003,15 +8105,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -8019,18 +8121,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -8042,15 +8144,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -8058,18 +8160,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -8081,15 +8183,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -8097,18 +8199,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -8120,15 +8222,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -8136,18 +8238,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -8159,15 +8261,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -8175,18 +8277,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -8198,15 +8300,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -8214,18 +8316,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -8237,15 +8339,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -8253,18 +8355,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -8276,15 +8378,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -8292,18 +8394,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -8315,15 +8417,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -8331,18 +8433,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -8354,15 +8456,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -8370,18 +8472,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -8393,15 +8495,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -8409,18 +8511,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -8432,15 +8534,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -8448,18 +8550,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G132" si="27">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G132" si="29">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -8471,15 +8573,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -8487,18 +8589,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -8510,15 +8612,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -8526,18 +8628,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -8549,15 +8651,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -8565,18 +8667,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -8588,15 +8690,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -8604,18 +8706,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -8627,15 +8729,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -8643,18 +8745,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -8666,15 +8768,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -8682,18 +8784,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -8705,15 +8807,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="28">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="30">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="29">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="31">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E156" si="30">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E160" si="32">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -8721,18 +8823,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="31">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="33">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -8744,15 +8846,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -8760,18 +8862,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -8783,15 +8885,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -8799,18 +8901,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -8822,15 +8924,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -8838,18 +8940,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -8861,15 +8963,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -8877,18 +8979,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -8900,15 +9002,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -8916,18 +9018,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -8939,15 +9041,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -8955,18 +9057,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -8978,15 +9080,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -8994,18 +9096,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -9017,15 +9119,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -9033,18 +9135,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -9056,15 +9158,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -9072,18 +9174,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -9095,15 +9197,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -9111,18 +9213,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -9134,15 +9236,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -9150,18 +9252,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -9173,15 +9275,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -9189,18 +9291,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -9212,15 +9314,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="32">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="34">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="33">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="35">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -9228,18 +9330,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="34">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="36">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -9251,15 +9353,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
+        <f t="shared" si="34"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="35"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
         <f t="shared" si="32"/>
-        <v>1E+129</v>
-      </c>
-      <c r="D126" s="14" t="str">
-        <f t="shared" si="33"/>
-        <v>10위</v>
-      </c>
-      <c r="E126" s="14">
-        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -9267,18 +9369,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -9290,15 +9392,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
+        <f t="shared" si="34"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="35"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
         <f t="shared" si="32"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="D127" s="14" t="str">
-        <f t="shared" si="33"/>
-        <v>100위</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -9306,18 +9408,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -9329,15 +9431,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
+        <f t="shared" si="34"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="35"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
         <f t="shared" si="32"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="D128" s="14" t="str">
-        <f t="shared" si="33"/>
-        <v>1000위</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -9345,18 +9447,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -9368,15 +9470,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
+        <f t="shared" si="34"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="35"/>
+        <v>1설</v>
+      </c>
+      <c r="E129" s="14">
         <f t="shared" si="32"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="D129" s="14" t="str">
-        <f t="shared" si="33"/>
-        <v>1설</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -9384,18 +9486,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -9407,15 +9509,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
+        <f t="shared" si="34"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="35"/>
+        <v>10설</v>
+      </c>
+      <c r="E130" s="14">
         <f t="shared" si="32"/>
-        <v>1E+133</v>
-      </c>
-      <c r="D130" s="14" t="str">
-        <f t="shared" si="33"/>
-        <v>10설</v>
-      </c>
-      <c r="E130" s="14">
-        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -9423,18 +9525,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -9446,15 +9548,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C134" si="35">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="37">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D134" si="36">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="38">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -9462,18 +9564,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I134" si="37">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="39">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -9485,15 +9587,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -9501,18 +9603,18 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
@@ -9524,15 +9626,15 @@
         <v>124</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D133" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1적</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="F133" s="13" t="str" cm="1">
@@ -9540,18 +9642,18 @@
         <v>적</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" ref="G133:G136" si="38">VLOOKUP(F133,M:P,4,FALSE)</f>
+        <f t="shared" ref="G133:G136" si="40">VLOOKUP(F133,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="H133" s="13">
         <v>3.92</v>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 125단</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>125</v>
       </c>
       <c r="K133" s="13" t="s">
@@ -9563,15 +9665,15 @@
         <v>125</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+137</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10적</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="F134" s="13" t="str" cm="1">
@@ -9579,18 +9681,18 @@
         <v>적</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+136</v>
       </c>
       <c r="H134" s="13">
         <v>4</v>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 126단</v>
       </c>
       <c r="J134" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>126</v>
       </c>
       <c r="K134" s="13" t="s">
@@ -9602,15 +9704,15 @@
         <v>126</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" ref="C135:C138" si="39">E135*G135</f>
+        <f t="shared" ref="C135:C138" si="41">E135*G135</f>
         <v>1E+138</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f t="shared" ref="D135:D138" si="40">E135&amp;F135</f>
+        <f t="shared" ref="D135:D138" si="42">E135&amp;F135</f>
         <v>100적</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="F135" s="13" t="str" cm="1">
@@ -9618,18 +9720,18 @@
         <v>적</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+136</v>
       </c>
       <c r="H135" s="13">
         <v>4.08</v>
       </c>
       <c r="I135" s="13" t="str">
-        <f t="shared" ref="I135:I138" si="41">K135&amp;" "&amp;J135&amp;"단"</f>
+        <f t="shared" ref="I135:I138" si="43">K135&amp;" "&amp;J135&amp;"단"</f>
         <v>태극 127단</v>
       </c>
       <c r="J135" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>127</v>
       </c>
       <c r="K135" s="13" t="s">
@@ -9641,15 +9743,15 @@
         <v>127</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+139</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000적</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="F136" s="13" t="str" cm="1">
@@ -9657,18 +9759,18 @@
         <v>적</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+136</v>
       </c>
       <c r="H136" s="13">
         <v>4.16</v>
       </c>
       <c r="I136" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 128단</v>
       </c>
       <c r="J136" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>128</v>
       </c>
       <c r="K136" s="13" t="s">
@@ -9680,15 +9782,15 @@
         <v>128</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D137" s="14" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1고</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="F137" s="13" t="str" cm="1">
@@ -9696,18 +9798,18 @@
         <v>고</v>
       </c>
       <c r="G137" s="13" t="str">
-        <f t="shared" ref="G137:G140" si="42">VLOOKUP(F137,M:P,4,FALSE)</f>
+        <f t="shared" ref="G137:G140" si="44">VLOOKUP(F137,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H137" s="13">
         <v>4.24</v>
       </c>
       <c r="I137" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 129단</v>
       </c>
       <c r="J137" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>129</v>
       </c>
       <c r="K137" s="13" t="s">
@@ -9719,15 +9821,15 @@
         <v>129</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+141</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10고</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="F138" s="13" t="str" cm="1">
@@ -9735,18 +9837,18 @@
         <v>고</v>
       </c>
       <c r="G138" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+140</v>
       </c>
       <c r="H138" s="13">
         <v>4.32</v>
       </c>
       <c r="I138" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 130단</v>
       </c>
       <c r="J138" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>130</v>
       </c>
       <c r="K138" s="13" t="s">
@@ -9758,15 +9860,15 @@
         <v>130</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" ref="C139:C142" si="43">E139*G139</f>
+        <f t="shared" ref="C139:C142" si="45">E139*G139</f>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="D139" s="14" t="str">
-        <f t="shared" ref="D139:D142" si="44">E139&amp;F139</f>
+        <f t="shared" ref="D139:D142" si="46">E139&amp;F139</f>
         <v>100고</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="F139" s="13" t="str" cm="1">
@@ -9774,18 +9876,18 @@
         <v>고</v>
       </c>
       <c r="G139" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+140</v>
       </c>
       <c r="H139" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="I139" s="13" t="str">
-        <f t="shared" ref="I139:I142" si="45">K139&amp;" "&amp;J139&amp;"단"</f>
+        <f t="shared" ref="I139:I142" si="47">K139&amp;" "&amp;J139&amp;"단"</f>
         <v>태극 131단</v>
       </c>
       <c r="J139" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>131</v>
       </c>
       <c r="K139" s="13" t="s">
@@ -9797,15 +9899,15 @@
         <v>131</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+143</v>
       </c>
       <c r="D140" s="14" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000고</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="F140" s="13" t="str" cm="1">
@@ -9813,18 +9915,18 @@
         <v>고</v>
       </c>
       <c r="G140" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+140</v>
       </c>
       <c r="H140" s="13">
         <v>4.4800000000000004</v>
       </c>
       <c r="I140" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 132단</v>
       </c>
       <c r="J140" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>132</v>
       </c>
       <c r="K140" s="13" t="s">
@@ -9836,15 +9938,15 @@
         <v>132</v>
       </c>
       <c r="C141" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+144</v>
       </c>
       <c r="D141" s="14" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1화</v>
       </c>
       <c r="E141" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="F141" s="13" t="str" cm="1">
@@ -9852,18 +9954,18 @@
         <v>화</v>
       </c>
       <c r="G141" s="13" t="str">
-        <f t="shared" ref="G141:G144" si="46">VLOOKUP(F141,M:P,4,FALSE)</f>
+        <f t="shared" ref="G141:G144" si="48">VLOOKUP(F141,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="H141" s="13">
         <v>4.5599999999999996</v>
       </c>
       <c r="I141" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 133단</v>
       </c>
       <c r="J141" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>133</v>
       </c>
       <c r="K141" s="13" t="s">
@@ -9875,15 +9977,15 @@
         <v>133</v>
       </c>
       <c r="C142" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10화</v>
       </c>
       <c r="E142" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="F142" s="13" t="str" cm="1">
@@ -9891,18 +9993,18 @@
         <v>화</v>
       </c>
       <c r="G142" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="H142" s="13">
         <v>4.6399999999999997</v>
       </c>
       <c r="I142" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 134단</v>
       </c>
       <c r="J142" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>134</v>
       </c>
       <c r="K142" s="13" t="s">
@@ -9914,15 +10016,15 @@
         <v>134</v>
       </c>
       <c r="C143" s="14">
-        <f t="shared" ref="C143:C146" si="47">E143*G143</f>
+        <f t="shared" ref="C143:C146" si="49">E143*G143</f>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="D143" s="14" t="str">
-        <f t="shared" ref="D143:D146" si="48">E143&amp;F143</f>
+        <f t="shared" ref="D143:D146" si="50">E143&amp;F143</f>
         <v>100화</v>
       </c>
       <c r="E143" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="F143" s="13" t="str" cm="1">
@@ -9930,18 +10032,18 @@
         <v>화</v>
       </c>
       <c r="G143" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="H143" s="13">
         <v>4.72</v>
       </c>
       <c r="I143" s="13" t="str">
-        <f t="shared" ref="I143:I146" si="49">K143&amp;" "&amp;J143&amp;"단"</f>
+        <f t="shared" ref="I143:I146" si="51">K143&amp;" "&amp;J143&amp;"단"</f>
         <v>태극 135단</v>
       </c>
       <c r="J143" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>135</v>
       </c>
       <c r="K143" s="13" t="s">
@@ -9953,15 +10055,15 @@
         <v>135</v>
       </c>
       <c r="C144" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="D144" s="14" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1000화</v>
       </c>
       <c r="E144" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="F144" s="13" t="str" cm="1">
@@ -9969,18 +10071,18 @@
         <v>화</v>
       </c>
       <c r="G144" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="H144" s="13">
         <v>4.8</v>
       </c>
       <c r="I144" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>태극 136단</v>
       </c>
       <c r="J144" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>136</v>
       </c>
       <c r="K144" s="13" t="s">
@@ -9992,15 +10094,15 @@
         <v>136</v>
       </c>
       <c r="C145" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+148</v>
       </c>
       <c r="D145" s="14" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1명</v>
       </c>
       <c r="E145" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="F145" s="13" t="str" cm="1">
@@ -10008,18 +10110,18 @@
         <v>명</v>
       </c>
       <c r="G145" s="13" t="str">
-        <f t="shared" ref="G145:G148" si="50">VLOOKUP(F145,M:P,4,FALSE)</f>
+        <f t="shared" ref="G145:G148" si="52">VLOOKUP(F145,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="H145" s="13">
         <v>4.88</v>
       </c>
       <c r="I145" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>태극 137단</v>
       </c>
       <c r="J145" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>137</v>
       </c>
       <c r="K145" s="13" t="s">
@@ -10031,15 +10133,15 @@
         <v>137</v>
       </c>
       <c r="C146" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+149</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>10명</v>
       </c>
       <c r="E146" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="F146" s="13" t="str" cm="1">
@@ -10047,18 +10149,18 @@
         <v>명</v>
       </c>
       <c r="G146" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+148</v>
       </c>
       <c r="H146" s="13">
         <v>4.96</v>
       </c>
       <c r="I146" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>태극 138단</v>
       </c>
       <c r="J146" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>138</v>
       </c>
       <c r="K146" s="13" t="s">
@@ -10070,15 +10172,15 @@
         <v>138</v>
       </c>
       <c r="C147" s="14">
-        <f t="shared" ref="C147:C150" si="51">E147*G147</f>
+        <f t="shared" ref="C147:C150" si="53">E147*G147</f>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="D147" s="14" t="str">
-        <f t="shared" ref="D147:D150" si="52">E147&amp;F147</f>
+        <f t="shared" ref="D147:D150" si="54">E147&amp;F147</f>
         <v>100명</v>
       </c>
       <c r="E147" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="F147" s="13" t="str" cm="1">
@@ -10086,18 +10188,18 @@
         <v>명</v>
       </c>
       <c r="G147" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+148</v>
       </c>
       <c r="H147" s="13">
         <v>5.04</v>
       </c>
       <c r="I147" s="13" t="str">
-        <f t="shared" ref="I147:I150" si="53">K147&amp;" "&amp;J147&amp;"단"</f>
+        <f t="shared" ref="I147:I150" si="55">K147&amp;" "&amp;J147&amp;"단"</f>
         <v>태극 139단</v>
       </c>
       <c r="J147" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>139</v>
       </c>
       <c r="K147" s="13" t="s">
@@ -10109,15 +10211,15 @@
         <v>139</v>
       </c>
       <c r="C148" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+151</v>
       </c>
       <c r="D148" s="14" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1000명</v>
       </c>
       <c r="E148" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="F148" s="13" t="str" cm="1">
@@ -10125,18 +10227,18 @@
         <v>명</v>
       </c>
       <c r="G148" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+148</v>
       </c>
       <c r="H148" s="13">
         <v>5.12</v>
       </c>
       <c r="I148" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>태극 140단</v>
       </c>
       <c r="J148" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>140</v>
       </c>
       <c r="K148" s="13" t="s">
@@ -10148,15 +10250,15 @@
         <v>140</v>
       </c>
       <c r="C149" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+152</v>
       </c>
       <c r="D149" s="14" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1월</v>
       </c>
       <c r="E149" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="F149" s="13" t="str" cm="1">
@@ -10164,18 +10266,18 @@
         <v>월</v>
       </c>
       <c r="G149" s="13" t="str">
-        <f t="shared" ref="G149:G152" si="54">VLOOKUP(F149,M:P,4,FALSE)</f>
+        <f t="shared" ref="G149:G152" si="56">VLOOKUP(F149,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="H149" s="13">
         <v>5.2</v>
       </c>
       <c r="I149" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>태극 141단</v>
       </c>
       <c r="J149" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>141</v>
       </c>
       <c r="K149" s="13" t="s">
@@ -10187,15 +10289,15 @@
         <v>141</v>
       </c>
       <c r="C150" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+153</v>
       </c>
       <c r="D150" s="14" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>10월</v>
       </c>
       <c r="E150" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="F150" s="13" t="str" cm="1">
@@ -10203,18 +10305,18 @@
         <v>월</v>
       </c>
       <c r="G150" s="13" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+152</v>
       </c>
       <c r="H150" s="13">
         <v>5.28</v>
       </c>
       <c r="I150" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>태극 142단</v>
       </c>
       <c r="J150" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>142</v>
       </c>
       <c r="K150" s="13" t="s">
@@ -10226,15 +10328,15 @@
         <v>142</v>
       </c>
       <c r="C151" s="14">
-        <f t="shared" ref="C151:C154" si="55">E151*G151</f>
+        <f t="shared" ref="C151:C154" si="57">E151*G151</f>
         <v>1E+154</v>
       </c>
       <c r="D151" s="14" t="str">
-        <f t="shared" ref="D151:D154" si="56">E151&amp;F151</f>
+        <f t="shared" ref="D151:D154" si="58">E151&amp;F151</f>
         <v>100월</v>
       </c>
       <c r="E151" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="F151" s="13" t="str" cm="1">
@@ -10242,18 +10344,18 @@
         <v>월</v>
       </c>
       <c r="G151" s="13" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+152</v>
       </c>
       <c r="H151" s="13">
         <v>5.36</v>
       </c>
       <c r="I151" s="13" t="str">
-        <f t="shared" ref="I151:I154" si="57">K151&amp;" "&amp;J151&amp;"단"</f>
+        <f t="shared" ref="I151:I154" si="59">K151&amp;" "&amp;J151&amp;"단"</f>
         <v>태극 143단</v>
       </c>
       <c r="J151" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>143</v>
       </c>
       <c r="K151" s="13" t="s">
@@ -10265,15 +10367,15 @@
         <v>143</v>
       </c>
       <c r="C152" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+155</v>
       </c>
       <c r="D152" s="14" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1000월</v>
       </c>
       <c r="E152" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="F152" s="13" t="str" cm="1">
@@ -10281,18 +10383,18 @@
         <v>월</v>
       </c>
       <c r="G152" s="13" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+152</v>
       </c>
       <c r="H152" s="13">
         <v>5.44</v>
       </c>
       <c r="I152" s="13" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>태극 144단</v>
       </c>
       <c r="J152" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>144</v>
       </c>
       <c r="K152" s="13" t="s">
@@ -10304,15 +10406,15 @@
         <v>144</v>
       </c>
       <c r="C153" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="D153" s="14" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1후</v>
       </c>
       <c r="E153" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="F153" s="13" t="str" cm="1">
@@ -10320,18 +10422,18 @@
         <v>후</v>
       </c>
       <c r="G153" s="13" t="str">
-        <f t="shared" ref="G153:G156" si="58">VLOOKUP(F153,M:P,4,FALSE)</f>
+        <f t="shared" ref="G153:G156" si="60">VLOOKUP(F153,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="H153" s="13">
         <v>5.52</v>
       </c>
       <c r="I153" s="13" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>태극 145단</v>
       </c>
       <c r="J153" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>145</v>
       </c>
       <c r="K153" s="13" t="s">
@@ -10343,15 +10445,15 @@
         <v>145</v>
       </c>
       <c r="C154" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="D154" s="14" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>10후</v>
       </c>
       <c r="E154" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="F154" s="13" t="str" cm="1">
@@ -10359,18 +10461,18 @@
         <v>후</v>
       </c>
       <c r="G154" s="13" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+156</v>
       </c>
       <c r="H154" s="13">
         <v>5.6</v>
       </c>
       <c r="I154" s="13" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>태극 146단</v>
       </c>
       <c r="J154" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>146</v>
       </c>
       <c r="K154" s="13" t="s">
@@ -10382,15 +10484,15 @@
         <v>146</v>
       </c>
       <c r="C155" s="14">
-        <f t="shared" ref="C155:C156" si="59">E155*G155</f>
+        <f t="shared" ref="C155:C158" si="61">E155*G155</f>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="D155" s="14" t="str">
-        <f t="shared" ref="D155:D156" si="60">E155&amp;F155</f>
+        <f t="shared" ref="D155:D158" si="62">E155&amp;F155</f>
         <v>100후</v>
       </c>
       <c r="E155" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="F155" s="13" t="str" cm="1">
@@ -10398,18 +10500,18 @@
         <v>후</v>
       </c>
       <c r="G155" s="13" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+156</v>
       </c>
       <c r="H155" s="13">
         <v>5.68</v>
       </c>
       <c r="I155" s="13" t="str">
-        <f t="shared" ref="I155:I156" si="61">K155&amp;" "&amp;J155&amp;"단"</f>
+        <f t="shared" ref="I155:I158" si="63">K155&amp;" "&amp;J155&amp;"단"</f>
         <v>태극 147단</v>
       </c>
       <c r="J155" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>147</v>
       </c>
       <c r="K155" s="13" t="s">
@@ -10421,15 +10523,15 @@
         <v>147</v>
       </c>
       <c r="C156" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="D156" s="14" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1000후</v>
       </c>
       <c r="E156" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="F156" s="13" t="str" cm="1">
@@ -10437,21 +10539,177 @@
         <v>후</v>
       </c>
       <c r="G156" s="13" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+156</v>
       </c>
       <c r="H156" s="13">
         <v>5.76</v>
       </c>
       <c r="I156" s="13" t="str">
+        <f t="shared" si="63"/>
+        <v>태극 148단</v>
+      </c>
+      <c r="J156" s="13">
+        <f t="shared" si="28"/>
+        <v>148</v>
+      </c>
+      <c r="K156" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B157" s="13">
+        <v>148</v>
+      </c>
+      <c r="C157" s="14">
         <f t="shared" si="61"/>
-        <v>태극 148단</v>
-      </c>
-      <c r="J156" s="13">
-        <f t="shared" si="26"/>
-        <v>148</v>
-      </c>
-      <c r="K156" s="13" t="s">
+        <v>1E+160</v>
+      </c>
+      <c r="D157" s="14" t="str">
+        <f t="shared" si="62"/>
+        <v>1단</v>
+      </c>
+      <c r="E157" s="14">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="F157" s="13" t="str" cm="1">
+        <f t="array" ref="F157">IF(AND(E156&gt;100,E157&lt;100),INDEX(M:M,MATCH(F156,M:M,0)+1,0),F156)</f>
+        <v>단</v>
+      </c>
+      <c r="G157" s="13" t="str">
+        <f t="shared" ref="G157:G160" si="64">VLOOKUP(F157,M:P,4,FALSE)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="H157" s="13">
+        <v>5.84</v>
+      </c>
+      <c r="I157" s="13" t="str">
+        <f t="shared" si="63"/>
+        <v>태극 149단</v>
+      </c>
+      <c r="J157" s="13">
+        <f t="shared" si="28"/>
+        <v>149</v>
+      </c>
+      <c r="K157" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B158" s="13">
+        <v>149</v>
+      </c>
+      <c r="C158" s="14">
+        <f t="shared" si="61"/>
+        <v>1E+161</v>
+      </c>
+      <c r="D158" s="14" t="str">
+        <f t="shared" si="62"/>
+        <v>10단</v>
+      </c>
+      <c r="E158" s="14">
+        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="F158" s="13" t="str" cm="1">
+        <f t="array" ref="F158">IF(AND(E157&gt;100,E158&lt;100),INDEX(M:M,MATCH(F157,M:M,0)+1,0),F157)</f>
+        <v>단</v>
+      </c>
+      <c r="G158" s="13" t="str">
+        <f t="shared" si="64"/>
+        <v>1E+160</v>
+      </c>
+      <c r="H158" s="13">
+        <v>5.92</v>
+      </c>
+      <c r="I158" s="13" t="str">
+        <f t="shared" si="63"/>
+        <v>태극 150단</v>
+      </c>
+      <c r="J158" s="13">
+        <f t="shared" si="28"/>
+        <v>150</v>
+      </c>
+      <c r="K158" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B159" s="13">
+        <v>150</v>
+      </c>
+      <c r="C159" s="14">
+        <f t="shared" ref="C159:C160" si="65">E159*G159</f>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="D159" s="14" t="str">
+        <f t="shared" ref="D159:D160" si="66">E159&amp;F159</f>
+        <v>100단</v>
+      </c>
+      <c r="E159" s="14">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="F159" s="13" t="str" cm="1">
+        <f t="array" ref="F159">IF(AND(E158&gt;100,E159&lt;100),INDEX(M:M,MATCH(F158,M:M,0)+1,0),F158)</f>
+        <v>단</v>
+      </c>
+      <c r="G159" s="13" t="str">
+        <f t="shared" si="64"/>
+        <v>1E+160</v>
+      </c>
+      <c r="H159" s="13">
+        <v>6</v>
+      </c>
+      <c r="I159" s="13" t="str">
+        <f t="shared" ref="I159:I160" si="67">K159&amp;" "&amp;J159&amp;"단"</f>
+        <v>태극 151단</v>
+      </c>
+      <c r="J159" s="13">
+        <f t="shared" si="28"/>
+        <v>151</v>
+      </c>
+      <c r="K159" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B160" s="13">
+        <v>151</v>
+      </c>
+      <c r="C160" s="14">
+        <f t="shared" si="65"/>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="D160" s="14" t="str">
+        <f t="shared" si="66"/>
+        <v>1000단</v>
+      </c>
+      <c r="E160" s="14">
+        <f t="shared" si="32"/>
+        <v>1000</v>
+      </c>
+      <c r="F160" s="13" t="str" cm="1">
+        <f t="array" ref="F160">IF(AND(E159&gt;100,E160&lt;100),INDEX(M:M,MATCH(F159,M:M,0)+1,0),F159)</f>
+        <v>단</v>
+      </c>
+      <c r="G160" s="13" t="str">
+        <f t="shared" si="64"/>
+        <v>1E+160</v>
+      </c>
+      <c r="H160" s="13">
+        <v>6.08</v>
+      </c>
+      <c r="I160" s="13" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 152단</v>
+      </c>
+      <c r="J160" s="13">
+        <f t="shared" si="28"/>
+        <v>152</v>
+      </c>
+      <c r="K160" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F03E23-A1F7-4A55-A4E8-4E886355513E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8460A854-E99E-4D8A-8D14-A7169FD23881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15585" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukTitle" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="60">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,6 +292,10 @@
   </si>
   <si>
     <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,11 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B152" sqref="B152"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3717,7 +3717,7 @@
         <v>1E+149</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C153" si="3">C138</f>
+        <f t="shared" ref="C139:C157" si="3">C138</f>
         <v>55</v>
       </c>
       <c r="D139">
@@ -4021,6 +4021,90 @@
       <c r="E153" t="str">
         <f>VLOOKUP(A153,Balance!B:I,8,FALSE)</f>
         <v>태극 152단</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <f>VLOOKUP(A154,Balance!B:C,2,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D154">
+        <f>VLOOKUP(A154,Balance!B:I,7,FALSE)</f>
+        <v>6.16</v>
+      </c>
+      <c r="E154" t="str">
+        <f>VLOOKUP(A154,Balance!B:I,8,FALSE)</f>
+        <v>태극 153단</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <f>VLOOKUP(A155,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D155">
+        <f>VLOOKUP(A155,Balance!B:I,7,FALSE)</f>
+        <v>6.24</v>
+      </c>
+      <c r="E155" t="str">
+        <f>VLOOKUP(A155,Balance!B:I,8,FALSE)</f>
+        <v>태극 154단</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <f>VLOOKUP(A156,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D156">
+        <f>VLOOKUP(A156,Balance!B:I,7,FALSE)</f>
+        <v>6.32</v>
+      </c>
+      <c r="E156" t="str">
+        <f>VLOOKUP(A156,Balance!B:I,8,FALSE)</f>
+        <v>태극 155단</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <f>VLOOKUP(A157,Balance!B:C,2,FALSE)</f>
+        <v>1E+167</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D157">
+        <f>VLOOKUP(A157,Balance!B:I,7,FALSE)</f>
+        <v>6.4</v>
+      </c>
+      <c r="E157" t="str">
+        <f>VLOOKUP(A157,Balance!B:I,8,FALSE)</f>
+        <v>태극 156단</v>
       </c>
     </row>
   </sheetData>
@@ -4032,10 +4116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X160"/>
+  <dimension ref="A1:X164"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6211,7 +6295,7 @@
         <v>46</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N46" s="13">
         <v>156</v>
@@ -6264,7 +6348,7 @@
         <v>46</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N47" s="13">
         <v>160</v>
@@ -6317,7 +6401,7 @@
         <v>46</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N48" s="13">
         <v>164</v>
@@ -6370,7 +6454,7 @@
         <v>46</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N49" s="13">
         <v>168</v>
@@ -7391,7 +7475,7 @@
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J160" si="28">J74+1</f>
+        <f t="shared" ref="J75:J164" si="28">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -8815,7 +8899,7 @@
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E160" si="32">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E164" si="32">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -10640,11 +10724,11 @@
         <v>150</v>
       </c>
       <c r="C159" s="14">
-        <f t="shared" ref="C159:C160" si="65">E159*G159</f>
+        <f t="shared" ref="C159:C162" si="65">E159*G159</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="D159" s="14" t="str">
-        <f t="shared" ref="D159:D160" si="66">E159&amp;F159</f>
+        <f t="shared" ref="D159:D162" si="66">E159&amp;F159</f>
         <v>100단</v>
       </c>
       <c r="E159" s="14">
@@ -10663,7 +10747,7 @@
         <v>6</v>
       </c>
       <c r="I159" s="13" t="str">
-        <f t="shared" ref="I159:I160" si="67">K159&amp;" "&amp;J159&amp;"단"</f>
+        <f t="shared" ref="I159:I162" si="67">K159&amp;" "&amp;J159&amp;"단"</f>
         <v>태극 151단</v>
       </c>
       <c r="J159" s="13">
@@ -10710,6 +10794,162 @@
         <v>152</v>
       </c>
       <c r="K160" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B161" s="13">
+        <v>152</v>
+      </c>
+      <c r="C161" s="14">
+        <f t="shared" si="65"/>
+        <v>1E+164</v>
+      </c>
+      <c r="D161" s="14" t="str">
+        <f t="shared" si="66"/>
+        <v>1절</v>
+      </c>
+      <c r="E161" s="14">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="F161" s="13" t="str" cm="1">
+        <f t="array" ref="F161">IF(AND(E160&gt;100,E161&lt;100),INDEX(M:M,MATCH(F160,M:M,0)+1,0),F160)</f>
+        <v>절</v>
+      </c>
+      <c r="G161" s="13" t="str">
+        <f t="shared" ref="G161:G164" si="68">VLOOKUP(F161,M:P,4,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="H161" s="13">
+        <v>6.16</v>
+      </c>
+      <c r="I161" s="13" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 153단</v>
+      </c>
+      <c r="J161" s="13">
+        <f t="shared" si="28"/>
+        <v>153</v>
+      </c>
+      <c r="K161" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B162" s="13">
+        <v>153</v>
+      </c>
+      <c r="C162" s="14">
+        <f t="shared" si="65"/>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="D162" s="14" t="str">
+        <f t="shared" si="66"/>
+        <v>10절</v>
+      </c>
+      <c r="E162" s="14">
+        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="F162" s="13" t="str" cm="1">
+        <f t="array" ref="F162">IF(AND(E161&gt;100,E162&lt;100),INDEX(M:M,MATCH(F161,M:M,0)+1,0),F161)</f>
+        <v>절</v>
+      </c>
+      <c r="G162" s="13" t="str">
+        <f t="shared" si="68"/>
+        <v>1E+164</v>
+      </c>
+      <c r="H162" s="13">
+        <v>6.24</v>
+      </c>
+      <c r="I162" s="13" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 154단</v>
+      </c>
+      <c r="J162" s="13">
+        <f t="shared" si="28"/>
+        <v>154</v>
+      </c>
+      <c r="K162" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B163" s="13">
+        <v>154</v>
+      </c>
+      <c r="C163" s="14">
+        <f t="shared" ref="C163:C164" si="69">E163*G163</f>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="D163" s="14" t="str">
+        <f t="shared" ref="D163:D164" si="70">E163&amp;F163</f>
+        <v>100절</v>
+      </c>
+      <c r="E163" s="14">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="F163" s="13" t="str" cm="1">
+        <f t="array" ref="F163">IF(AND(E162&gt;100,E163&lt;100),INDEX(M:M,MATCH(F162,M:M,0)+1,0),F162)</f>
+        <v>절</v>
+      </c>
+      <c r="G163" s="13" t="str">
+        <f t="shared" si="68"/>
+        <v>1E+164</v>
+      </c>
+      <c r="H163" s="13">
+        <v>6.32</v>
+      </c>
+      <c r="I163" s="13" t="str">
+        <f t="shared" ref="I163:I164" si="71">K163&amp;" "&amp;J163&amp;"단"</f>
+        <v>태극 155단</v>
+      </c>
+      <c r="J163" s="13">
+        <f t="shared" si="28"/>
+        <v>155</v>
+      </c>
+      <c r="K163" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B164" s="13">
+        <v>155</v>
+      </c>
+      <c r="C164" s="14">
+        <f t="shared" si="69"/>
+        <v>1E+167</v>
+      </c>
+      <c r="D164" s="14" t="str">
+        <f t="shared" si="70"/>
+        <v>1000절</v>
+      </c>
+      <c r="E164" s="14">
+        <f t="shared" si="32"/>
+        <v>1000</v>
+      </c>
+      <c r="F164" s="13" t="str" cm="1">
+        <f t="array" ref="F164">IF(AND(E163&gt;100,E164&lt;100),INDEX(M:M,MATCH(F163,M:M,0)+1,0),F163)</f>
+        <v>절</v>
+      </c>
+      <c r="G164" s="13" t="str">
+        <f t="shared" si="68"/>
+        <v>1E+164</v>
+      </c>
+      <c r="H164" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="I164" s="13" t="str">
+        <f t="shared" si="71"/>
+        <v>태극 156단</v>
+      </c>
+      <c r="J164" s="13">
+        <f t="shared" si="28"/>
+        <v>156</v>
+      </c>
+      <c r="K164" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8460A854-E99E-4D8A-8D14-A7169FD23881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B3DE0A-4E24-4A35-8DCE-0E811E2304F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukTitle" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="60">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,11 +291,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>절</t>
+    <t>격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,11 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
+      <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3717,7 +3717,7 @@
         <v>1E+149</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C157" si="3">C138</f>
+        <f t="shared" ref="C139:C161" si="3">C138</f>
         <v>55</v>
       </c>
       <c r="D139">
@@ -4105,6 +4105,90 @@
       <c r="E157" t="str">
         <f>VLOOKUP(A157,Balance!B:I,8,FALSE)</f>
         <v>태극 156단</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <f>VLOOKUP(A158,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D158">
+        <f>VLOOKUP(A158,Balance!B:I,7,FALSE)</f>
+        <v>6.48</v>
+      </c>
+      <c r="E158" t="str">
+        <f>VLOOKUP(A158,Balance!B:I,8,FALSE)</f>
+        <v>태극 157단</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <f>VLOOKUP(A159,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999993E+168</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D159">
+        <f>VLOOKUP(A159,Balance!B:I,7,FALSE)</f>
+        <v>6.56</v>
+      </c>
+      <c r="E159" t="str">
+        <f>VLOOKUP(A159,Balance!B:I,8,FALSE)</f>
+        <v>태극 158단</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <f>VLOOKUP(A160,Balance!B:C,2,FALSE)</f>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D160">
+        <f>VLOOKUP(A160,Balance!B:I,7,FALSE)</f>
+        <v>6.64</v>
+      </c>
+      <c r="E160" t="str">
+        <f>VLOOKUP(A160,Balance!B:I,8,FALSE)</f>
+        <v>태극 159단</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <f>VLOOKUP(A161,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999995E+170</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D161">
+        <f>VLOOKUP(A161,Balance!B:I,7,FALSE)</f>
+        <v>6.72</v>
+      </c>
+      <c r="E161" t="str">
+        <f>VLOOKUP(A161,Balance!B:I,8,FALSE)</f>
+        <v>태극 160단</v>
       </c>
     </row>
   </sheetData>
@@ -4116,10 +4200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X164"/>
+  <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4269,7 +4353,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="13" t="str">
-        <f t="shared" ref="G9:G40" si="2">VLOOKUP(F9,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F9,M:P,4,FALSE)</f>
         <v>1000000000000</v>
       </c>
       <c r="H9" s="13">
@@ -4305,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="14">
-        <f t="shared" ref="C10:C66" si="3">E10*G10</f>
+        <f t="shared" ref="C10:C66" si="2">E10*G10</f>
         <v>10000000000000</v>
       </c>
       <c r="D10" s="14" t="str">
@@ -4321,14 +4405,14 @@
         <v>조</v>
       </c>
       <c r="G10" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F10,M:P,4,FALSE)</f>
         <v>1000000000000</v>
       </c>
       <c r="H10" s="13">
         <v>2E-3</v>
       </c>
       <c r="I10" s="13" t="str">
-        <f t="shared" ref="I10:I73" si="4">K10&amp;" "&amp;J10&amp;"단"</f>
+        <f t="shared" ref="I10:I73" si="3">K10&amp;" "&amp;J10&amp;"단"</f>
         <v>태극 2단</v>
       </c>
       <c r="J10" s="13">
@@ -4358,7 +4442,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100000000000000</v>
       </c>
       <c r="D11" s="14" t="str">
@@ -4366,7 +4450,7 @@
         <v>100조</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" ref="E11:E66" si="5">IF(E10=1000,1,E10*10)</f>
+        <f t="shared" ref="E11:E66" si="4">IF(E10=1000,1,E10*10)</f>
         <v>100</v>
       </c>
       <c r="F11" s="13" t="str" cm="1">
@@ -4374,18 +4458,18 @@
         <v>조</v>
       </c>
       <c r="G11" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F11,M:P,4,FALSE)</f>
         <v>1000000000000</v>
       </c>
       <c r="H11" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I11" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 3단</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" ref="J11:J74" si="6">J10+1</f>
+        <f t="shared" ref="J11:J74" si="5">J10+1</f>
         <v>3</v>
       </c>
       <c r="K11" s="13" t="s">
@@ -4411,7 +4495,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000000</v>
       </c>
       <c r="D12" s="14" t="str">
@@ -4419,7 +4503,7 @@
         <v>1000조</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F12" s="13" t="str" cm="1">
@@ -4427,18 +4511,18 @@
         <v>조</v>
       </c>
       <c r="G12" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F12,M:P,4,FALSE)</f>
         <v>1000000000000</v>
       </c>
       <c r="H12" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I12" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 4단</v>
       </c>
       <c r="J12" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K12" s="13" t="s">
@@ -4455,7 +4539,7 @@
         <v>1E+20</v>
       </c>
       <c r="P12" s="14" t="str">
-        <f t="shared" ref="P12:P40" si="7">RIGHT(O12,N12)</f>
+        <f t="shared" ref="P12:P40" si="6">RIGHT(O12,N12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -4464,7 +4548,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+16</v>
       </c>
       <c r="D13" s="14" t="str">
@@ -4472,7 +4556,7 @@
         <v>1경</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F13" s="13" t="str" cm="1">
@@ -4480,18 +4564,18 @@
         <v>경</v>
       </c>
       <c r="G13" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F13,M:P,4,FALSE)</f>
         <v>10000000000000000</v>
       </c>
       <c r="H13" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I13" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 5단</v>
       </c>
       <c r="J13" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K13" s="13" t="s">
@@ -4508,7 +4592,7 @@
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="P13" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -4517,7 +4601,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+17</v>
       </c>
       <c r="D14" s="14" t="str">
@@ -4525,7 +4609,7 @@
         <v>10경</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F14" s="13" t="str" cm="1">
@@ -4533,18 +4617,18 @@
         <v>경</v>
       </c>
       <c r="G14" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F14,M:P,4,FALSE)</f>
         <v>10000000000000000</v>
       </c>
       <c r="H14" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I14" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 6단</v>
       </c>
       <c r="J14" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K14" s="13" t="s">
@@ -4561,7 +4645,7 @@
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="P14" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -4570,7 +4654,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+18</v>
       </c>
       <c r="D15" s="14" t="str">
@@ -4578,7 +4662,7 @@
         <v>100경</v>
       </c>
       <c r="E15" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F15" s="13" t="str" cm="1">
@@ -4586,18 +4670,18 @@
         <v>경</v>
       </c>
       <c r="G15" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F15,M:P,4,FALSE)</f>
         <v>10000000000000000</v>
       </c>
       <c r="H15" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I15" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 7단</v>
       </c>
       <c r="J15" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="K15" s="13" t="s">
@@ -4614,7 +4698,7 @@
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="P15" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -4623,7 +4707,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+19</v>
       </c>
       <c r="D16" s="14" t="str">
@@ -4631,7 +4715,7 @@
         <v>1000경</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F16" s="13" t="str" cm="1">
@@ -4639,18 +4723,18 @@
         <v>경</v>
       </c>
       <c r="G16" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F16,M:P,4,FALSE)</f>
         <v>10000000000000000</v>
       </c>
       <c r="H16" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I16" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 8단</v>
       </c>
       <c r="J16" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="K16" s="13" t="s">
@@ -4667,7 +4751,7 @@
         <v>1E+36</v>
       </c>
       <c r="P16" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -4676,7 +4760,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+20</v>
       </c>
       <c r="D17" s="14" t="str">
@@ -4684,7 +4768,7 @@
         <v>1해</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F17" s="13" t="str" cm="1">
@@ -4692,18 +4776,18 @@
         <v>해</v>
       </c>
       <c r="G17" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F17,M:P,4,FALSE)</f>
         <v>1E+20</v>
       </c>
       <c r="H17" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I17" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 9단</v>
       </c>
       <c r="J17" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="K17" s="13" t="s">
@@ -4720,7 +4804,7 @@
         <v>1E+40</v>
       </c>
       <c r="P17" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -4729,7 +4813,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+21</v>
       </c>
       <c r="D18" s="14" t="str">
@@ -4737,7 +4821,7 @@
         <v>10해</v>
       </c>
       <c r="E18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F18" s="13" t="str" cm="1">
@@ -4745,18 +4829,18 @@
         <v>해</v>
       </c>
       <c r="G18" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F18,M:P,4,FALSE)</f>
         <v>1E+20</v>
       </c>
       <c r="H18" s="13">
         <v>0.01</v>
       </c>
       <c r="I18" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 10단</v>
       </c>
       <c r="J18" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K18" s="13" t="s">
@@ -4773,7 +4857,7 @@
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="P18" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -4782,7 +4866,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+22</v>
       </c>
       <c r="D19" s="14" t="str">
@@ -4790,7 +4874,7 @@
         <v>100해</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F19" s="13" t="str" cm="1">
@@ -4798,18 +4882,18 @@
         <v>해</v>
       </c>
       <c r="G19" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F19,M:P,4,FALSE)</f>
         <v>1E+20</v>
       </c>
       <c r="H19" s="13">
         <v>1.2E-2</v>
       </c>
       <c r="I19" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 11단</v>
       </c>
       <c r="J19" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="K19" s="13" t="s">
@@ -4826,7 +4910,7 @@
         <v>1E+48</v>
       </c>
       <c r="P19" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -4835,7 +4919,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+22</v>
       </c>
       <c r="D20" s="14" t="str">
@@ -4843,7 +4927,7 @@
         <v>1000해</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F20" s="13" t="str" cm="1">
@@ -4851,18 +4935,18 @@
         <v>해</v>
       </c>
       <c r="G20" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F20,M:P,4,FALSE)</f>
         <v>1E+20</v>
       </c>
       <c r="H20" s="13">
         <v>1.4E-2</v>
       </c>
       <c r="I20" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 12단</v>
       </c>
       <c r="J20" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="K20" s="13" t="s">
@@ -4879,7 +4963,7 @@
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="P20" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -4888,7 +4972,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="D21" s="14" t="str">
@@ -4896,7 +4980,7 @@
         <v>1자</v>
       </c>
       <c r="E21" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F21" s="13" t="str" cm="1">
@@ -4904,18 +4988,18 @@
         <v>자</v>
       </c>
       <c r="G21" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F21,M:P,4,FALSE)</f>
         <v>1E+24</v>
       </c>
       <c r="H21" s="13">
         <v>1.6E-2</v>
       </c>
       <c r="I21" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 13단</v>
       </c>
       <c r="J21" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="K21" s="13" t="s">
@@ -4932,7 +5016,7 @@
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="P21" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -4941,7 +5025,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999988E+24</v>
       </c>
       <c r="D22" s="14" t="str">
@@ -4949,7 +5033,7 @@
         <v>10자</v>
       </c>
       <c r="E22" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F22" s="13" t="str" cm="1">
@@ -4957,18 +5041,18 @@
         <v>자</v>
       </c>
       <c r="G22" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F22,M:P,4,FALSE)</f>
         <v>1E+24</v>
       </c>
       <c r="H22" s="13">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I22" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 14단</v>
       </c>
       <c r="J22" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="K22" s="13" t="s">
@@ -4985,7 +5069,7 @@
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="P22" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -4994,7 +5078,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+26</v>
       </c>
       <c r="D23" s="14" t="str">
@@ -5002,7 +5086,7 @@
         <v>100자</v>
       </c>
       <c r="E23" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F23" s="13" t="str" cm="1">
@@ -5010,18 +5094,18 @@
         <v>자</v>
       </c>
       <c r="G23" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F23,M:P,4,FALSE)</f>
         <v>1E+24</v>
       </c>
       <c r="H23" s="13">
         <v>0.02</v>
       </c>
       <c r="I23" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 15단</v>
       </c>
       <c r="J23" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="K23" s="13" t="s">
@@ -5038,7 +5122,7 @@
         <v>1E+64</v>
       </c>
       <c r="P23" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -5047,7 +5131,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+27</v>
       </c>
       <c r="D24" s="14" t="str">
@@ -5055,7 +5139,7 @@
         <v>1000자</v>
       </c>
       <c r="E24" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F24" s="13" t="str" cm="1">
@@ -5063,18 +5147,18 @@
         <v>자</v>
       </c>
       <c r="G24" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F24,M:P,4,FALSE)</f>
         <v>1E+24</v>
       </c>
       <c r="H24" s="13">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="I24" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 16단</v>
       </c>
       <c r="J24" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="K24" s="13" t="s">
@@ -5091,7 +5175,7 @@
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="P24" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -5100,7 +5184,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="D25" s="14" t="str">
@@ -5108,7 +5192,7 @@
         <v>1양</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F25" s="13" t="str" cm="1">
@@ -5116,18 +5200,18 @@
         <v>양</v>
       </c>
       <c r="G25" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F25,M:P,4,FALSE)</f>
         <v>1E+28</v>
       </c>
       <c r="H25" s="13">
         <v>2.4E-2</v>
       </c>
       <c r="I25" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 17단</v>
       </c>
       <c r="J25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="K25" s="13" t="s">
@@ -5144,7 +5228,7 @@
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="P25" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -5153,7 +5237,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999991E+28</v>
       </c>
       <c r="D26" s="14" t="str">
@@ -5161,7 +5245,7 @@
         <v>10양</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F26" s="13" t="str" cm="1">
@@ -5169,18 +5253,18 @@
         <v>양</v>
       </c>
       <c r="G26" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F26,M:P,4,FALSE)</f>
         <v>1E+28</v>
       </c>
       <c r="H26" s="13">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I26" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 18단</v>
       </c>
       <c r="J26" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="K26" s="13" t="s">
@@ -5197,7 +5281,7 @@
         <v>1E+76</v>
       </c>
       <c r="P26" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -5206,7 +5290,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+30</v>
       </c>
       <c r="D27" s="14" t="str">
@@ -5214,7 +5298,7 @@
         <v>100양</v>
       </c>
       <c r="E27" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F27" s="13" t="str" cm="1">
@@ -5222,18 +5306,18 @@
         <v>양</v>
       </c>
       <c r="G27" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F27,M:P,4,FALSE)</f>
         <v>1E+28</v>
       </c>
       <c r="H27" s="13">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I27" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 19단</v>
       </c>
       <c r="J27" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="K27" s="13" t="s">
@@ -5250,7 +5334,7 @@
         <v>1E+80</v>
       </c>
       <c r="P27" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -5259,7 +5343,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+30</v>
       </c>
       <c r="D28" s="14" t="str">
@@ -5267,7 +5351,7 @@
         <v>1000양</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F28" s="13" t="str" cm="1">
@@ -5275,18 +5359,18 @@
         <v>양</v>
       </c>
       <c r="G28" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F28,M:P,4,FALSE)</f>
         <v>1E+28</v>
       </c>
       <c r="H28" s="13">
         <v>0.03</v>
       </c>
       <c r="I28" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 20단</v>
       </c>
       <c r="J28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="K28" s="13" t="s">
@@ -5303,7 +5387,7 @@
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="P28" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -5312,7 +5396,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="D29" s="14" t="str">
@@ -5320,7 +5404,7 @@
         <v>1구</v>
       </c>
       <c r="E29" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F29" s="13" t="str" cm="1">
@@ -5328,18 +5412,18 @@
         <v>구</v>
       </c>
       <c r="G29" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F29,M:P,4,FALSE)</f>
         <v>1E+32</v>
       </c>
       <c r="H29" s="13">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I29" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 21단</v>
       </c>
       <c r="J29" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="K29" s="13" t="s">
@@ -5356,7 +5440,7 @@
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="P29" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -5365,7 +5449,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+33</v>
       </c>
       <c r="D30" s="14" t="str">
@@ -5373,7 +5457,7 @@
         <v>10구</v>
       </c>
       <c r="E30" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F30" s="13" t="str" cm="1">
@@ -5381,18 +5465,18 @@
         <v>구</v>
       </c>
       <c r="G30" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F30,M:P,4,FALSE)</f>
         <v>1E+32</v>
       </c>
       <c r="H30" s="13">
         <v>0.04</v>
       </c>
       <c r="I30" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 22단</v>
       </c>
       <c r="J30" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="K30" s="13" t="s">
@@ -5409,7 +5493,7 @@
         <v>1E+92</v>
       </c>
       <c r="P30" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -5418,7 +5502,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+34</v>
       </c>
       <c r="D31" s="14" t="str">
@@ -5426,7 +5510,7 @@
         <v>100구</v>
       </c>
       <c r="E31" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F31" s="13" t="str" cm="1">
@@ -5434,18 +5518,18 @@
         <v>구</v>
       </c>
       <c r="G31" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F31,M:P,4,FALSE)</f>
         <v>1E+32</v>
       </c>
       <c r="H31" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I31" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 23단</v>
       </c>
       <c r="J31" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="K31" s="13" t="s">
@@ -5462,7 +5546,7 @@
         <v>1E+96</v>
       </c>
       <c r="P31" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -5471,7 +5555,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999997E+34</v>
       </c>
       <c r="D32" s="14" t="str">
@@ -5479,7 +5563,7 @@
         <v>1000구</v>
       </c>
       <c r="E32" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F32" s="13" t="str" cm="1">
@@ -5487,18 +5571,18 @@
         <v>구</v>
       </c>
       <c r="G32" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F32,M:P,4,FALSE)</f>
         <v>1E+32</v>
       </c>
       <c r="H32" s="13">
         <v>0.05</v>
       </c>
       <c r="I32" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 24단</v>
       </c>
       <c r="J32" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="K32" s="13" t="s">
@@ -5515,7 +5599,7 @@
         <v>1E+100</v>
       </c>
       <c r="P32" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -5524,7 +5608,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
       <c r="D33" s="14" t="str">
@@ -5532,7 +5616,7 @@
         <v>1간</v>
       </c>
       <c r="E33" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F33" s="13" t="str" cm="1">
@@ -5540,18 +5624,18 @@
         <v>간</v>
       </c>
       <c r="G33" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F33,M:P,4,FALSE)</f>
         <v>1E+36</v>
       </c>
       <c r="H33" s="13">
         <v>5.5E-2</v>
       </c>
       <c r="I33" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 25단</v>
       </c>
       <c r="J33" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K33" s="13" t="s">
@@ -5568,7 +5652,7 @@
         <v>1E+104</v>
       </c>
       <c r="P33" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+104</v>
       </c>
       <c r="Q33" s="9"/>
@@ -5585,7 +5669,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+37</v>
       </c>
       <c r="D34" s="14" t="str">
@@ -5593,7 +5677,7 @@
         <v>10간</v>
       </c>
       <c r="E34" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F34" s="13" t="str" cm="1">
@@ -5601,18 +5685,18 @@
         <v>간</v>
       </c>
       <c r="G34" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F34,M:P,4,FALSE)</f>
         <v>1E+36</v>
       </c>
       <c r="H34" s="13">
         <v>0.06</v>
       </c>
       <c r="I34" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 26단</v>
       </c>
       <c r="J34" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="K34" s="13" t="s">
@@ -5629,7 +5713,7 @@
         <v>1E+108</v>
       </c>
       <c r="P34" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+108</v>
       </c>
       <c r="Q34" s="9"/>
@@ -5646,7 +5730,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+37</v>
       </c>
       <c r="D35" s="14" t="str">
@@ -5654,7 +5738,7 @@
         <v>100간</v>
       </c>
       <c r="E35" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F35" s="13" t="str" cm="1">
@@ -5662,18 +5746,18 @@
         <v>간</v>
       </c>
       <c r="G35" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F35,M:P,4,FALSE)</f>
         <v>1E+36</v>
       </c>
       <c r="H35" s="13">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="I35" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 27단</v>
       </c>
       <c r="J35" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="K35" s="13" t="s">
@@ -5690,7 +5774,7 @@
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="P35" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+112</v>
       </c>
       <c r="Q35" s="9"/>
@@ -5707,7 +5791,7 @@
         <v>27</v>
       </c>
       <c r="C36" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+39</v>
       </c>
       <c r="D36" s="14" t="str">
@@ -5715,7 +5799,7 @@
         <v>1000간</v>
       </c>
       <c r="E36" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F36" s="13" t="str" cm="1">
@@ -5723,18 +5807,18 @@
         <v>간</v>
       </c>
       <c r="G36" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F36,M:P,4,FALSE)</f>
         <v>1E+36</v>
       </c>
       <c r="H36" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I36" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 28단</v>
       </c>
       <c r="J36" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="K36" s="13" t="s">
@@ -5751,7 +5835,7 @@
         <v>1E+116</v>
       </c>
       <c r="P36" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+116</v>
       </c>
       <c r="Q36" s="9"/>
@@ -5768,7 +5852,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
       <c r="D37" s="14" t="str">
@@ -5776,7 +5860,7 @@
         <v>1정</v>
       </c>
       <c r="E37" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F37" s="13" t="str" cm="1">
@@ -5784,18 +5868,18 @@
         <v>정</v>
       </c>
       <c r="G37" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F37,M:P,4,FALSE)</f>
         <v>1E+40</v>
       </c>
       <c r="H37" s="13">
         <v>0.08</v>
       </c>
       <c r="I37" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 29단</v>
       </c>
       <c r="J37" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="K37" s="13" t="s">
@@ -5812,7 +5896,7 @@
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="P37" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+120</v>
       </c>
       <c r="Q37" s="9"/>
@@ -5829,7 +5913,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+41</v>
       </c>
       <c r="D38" s="14" t="str">
@@ -5837,7 +5921,7 @@
         <v>10정</v>
       </c>
       <c r="E38" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F38" s="13" t="str" cm="1">
@@ -5845,18 +5929,18 @@
         <v>정</v>
       </c>
       <c r="G38" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F38,M:P,4,FALSE)</f>
         <v>1E+40</v>
       </c>
       <c r="H38" s="13">
         <v>0.09</v>
       </c>
       <c r="I38" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 30단</v>
       </c>
       <c r="J38" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="K38" s="13" t="s">
@@ -5873,7 +5957,7 @@
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="P38" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+124</v>
       </c>
       <c r="Q38" s="9"/>
@@ -5890,7 +5974,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+42</v>
       </c>
       <c r="D39" s="14" t="str">
@@ -5898,7 +5982,7 @@
         <v>100정</v>
       </c>
       <c r="E39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F39" s="13" t="str" cm="1">
@@ -5906,18 +5990,18 @@
         <v>정</v>
       </c>
       <c r="G39" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F39,M:P,4,FALSE)</f>
         <v>1E+40</v>
       </c>
       <c r="H39" s="13">
         <v>0.1</v>
       </c>
       <c r="I39" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 31단</v>
       </c>
       <c r="J39" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="K39" s="13" t="s">
@@ -5934,7 +6018,7 @@
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="P39" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -5943,7 +6027,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+43</v>
       </c>
       <c r="D40" s="14" t="str">
@@ -5951,7 +6035,7 @@
         <v>1000정</v>
       </c>
       <c r="E40" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F40" s="13" t="str" cm="1">
@@ -5959,18 +6043,18 @@
         <v>정</v>
       </c>
       <c r="G40" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F40,M:P,4,FALSE)</f>
         <v>1E+40</v>
       </c>
       <c r="H40" s="13">
         <v>0.11</v>
       </c>
       <c r="I40" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 32단</v>
       </c>
       <c r="J40" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="K40" s="13" t="s">
@@ -5987,7 +6071,7 @@
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -5996,7 +6080,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="D41" s="14" t="str">
@@ -6004,7 +6088,7 @@
         <v>1재</v>
       </c>
       <c r="E41" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F41" s="13" t="str" cm="1">
@@ -6012,18 +6096,18 @@
         <v>재</v>
       </c>
       <c r="G41" s="13" t="str">
-        <f t="shared" ref="G41:G72" si="8">VLOOKUP(F41,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F41,M:P,4,FALSE)</f>
         <v>1E+44</v>
       </c>
       <c r="H41" s="13">
         <v>0.12</v>
       </c>
       <c r="I41" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 33단</v>
       </c>
       <c r="J41" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="K41" s="13" t="s">
@@ -6036,11 +6120,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="14">
-        <f t="shared" ref="O41" si="9">POWER(10,N41)</f>
+        <f t="shared" ref="O41" si="7">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="14" t="str">
-        <f t="shared" ref="P41" si="10">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41" si="8">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
     </row>
@@ -6049,7 +6133,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+45</v>
       </c>
       <c r="D42" s="14" t="str">
@@ -6057,7 +6141,7 @@
         <v>10재</v>
       </c>
       <c r="E42" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F42" s="13" t="str" cm="1">
@@ -6065,18 +6149,18 @@
         <v>재</v>
       </c>
       <c r="G42" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F42,M:P,4,FALSE)</f>
         <v>1E+44</v>
       </c>
       <c r="H42" s="13">
         <v>0.13</v>
       </c>
       <c r="I42" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 34단</v>
       </c>
       <c r="J42" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K42" s="13" t="s">
@@ -6089,11 +6173,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="14">
-        <f t="shared" ref="O42" si="11">POWER(10,N42)</f>
+        <f t="shared" ref="O42" si="9">POWER(10,N42)</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="14" t="str">
-        <f t="shared" ref="P42" si="12">RIGHT(O42,N42)</f>
+        <f t="shared" ref="P42" si="10">RIGHT(O42,N42)</f>
         <v>1E+140</v>
       </c>
     </row>
@@ -6102,7 +6186,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="D43" s="14" t="str">
@@ -6110,7 +6194,7 @@
         <v>100재</v>
       </c>
       <c r="E43" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F43" s="13" t="str" cm="1">
@@ -6118,18 +6202,18 @@
         <v>재</v>
       </c>
       <c r="G43" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F43,M:P,4,FALSE)</f>
         <v>1E+44</v>
       </c>
       <c r="H43" s="13">
         <v>0.14000000000000001</v>
       </c>
       <c r="I43" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 35단</v>
       </c>
       <c r="J43" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="K43" s="13" t="s">
@@ -6142,11 +6226,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="14">
-        <f t="shared" ref="O43" si="13">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="11">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="14" t="str">
-        <f t="shared" ref="P43" si="14">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="12">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
     </row>
@@ -6155,7 +6239,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+47</v>
       </c>
       <c r="D44" s="14" t="str">
@@ -6163,7 +6247,7 @@
         <v>1000재</v>
       </c>
       <c r="E44" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F44" s="13" t="str" cm="1">
@@ -6171,18 +6255,18 @@
         <v>재</v>
       </c>
       <c r="G44" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F44,M:P,4,FALSE)</f>
         <v>1E+44</v>
       </c>
       <c r="H44" s="13">
         <v>0.15</v>
       </c>
       <c r="I44" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 36단</v>
       </c>
       <c r="J44" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="K44" s="13" t="s">
@@ -6195,11 +6279,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="14">
-        <f t="shared" ref="O44" si="15">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="13">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="14" t="str">
-        <f t="shared" ref="P44" si="16">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="14">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
     </row>
@@ -6208,7 +6292,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+48</v>
       </c>
       <c r="D45" s="14" t="str">
@@ -6216,7 +6300,7 @@
         <v>1극</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F45" s="13" t="str" cm="1">
@@ -6224,18 +6308,18 @@
         <v>극</v>
       </c>
       <c r="G45" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F45,M:P,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="H45" s="13">
         <v>0.16</v>
       </c>
       <c r="I45" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 37단</v>
       </c>
       <c r="J45" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="K45" s="13" t="s">
@@ -6248,11 +6332,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="14">
-        <f t="shared" ref="O45:O46" si="17">POWER(10,N45)</f>
+        <f t="shared" ref="O45:O46" si="15">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="14" t="str">
-        <f t="shared" ref="P45:P46" si="18">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45:P46" si="16">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
     </row>
@@ -6261,7 +6345,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+49</v>
       </c>
       <c r="D46" s="14" t="str">
@@ -6269,7 +6353,7 @@
         <v>10극</v>
       </c>
       <c r="E46" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F46" s="13" t="str" cm="1">
@@ -6277,18 +6361,18 @@
         <v>극</v>
       </c>
       <c r="G46" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F46,M:P,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="H46" s="13">
         <v>0.17</v>
       </c>
       <c r="I46" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 38단</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="K46" s="13" t="s">
@@ -6301,11 +6385,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1E+156</v>
       </c>
     </row>
@@ -6314,7 +6398,7 @@
         <v>38</v>
       </c>
       <c r="C47" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+50</v>
       </c>
       <c r="D47" s="14" t="str">
@@ -6322,7 +6406,7 @@
         <v>100극</v>
       </c>
       <c r="E47" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F47" s="13" t="str" cm="1">
@@ -6330,18 +6414,18 @@
         <v>극</v>
       </c>
       <c r="G47" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F47,M:P,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="H47" s="13">
         <v>0.18</v>
       </c>
       <c r="I47" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 39단</v>
       </c>
       <c r="J47" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="K47" s="13" t="s">
@@ -6354,11 +6438,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="14">
-        <f t="shared" ref="O47:O48" si="19">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="17">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="14" t="str">
-        <f t="shared" ref="P47:P48" si="20">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="18">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
     </row>
@@ -6367,7 +6451,7 @@
         <v>39</v>
       </c>
       <c r="C48" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+50</v>
       </c>
       <c r="D48" s="14" t="str">
@@ -6375,7 +6459,7 @@
         <v>1000극</v>
       </c>
       <c r="E48" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F48" s="13" t="str" cm="1">
@@ -6383,35 +6467,35 @@
         <v>극</v>
       </c>
       <c r="G48" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F48,M:P,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="H48" s="13">
         <v>0.19</v>
       </c>
       <c r="I48" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 40단</v>
       </c>
       <c r="J48" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="K48" s="13" t="s">
         <v>46</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N48" s="13">
         <v>164</v>
       </c>
       <c r="O48" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1E+164</v>
       </c>
       <c r="P48" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1E+164</v>
       </c>
     </row>
@@ -6420,7 +6504,7 @@
         <v>40</v>
       </c>
       <c r="C49" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="D49" s="14" t="str">
@@ -6428,7 +6512,7 @@
         <v>1항</v>
       </c>
       <c r="E49" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F49" s="13" t="str" cm="1">
@@ -6436,35 +6520,35 @@
         <v>항</v>
       </c>
       <c r="G49" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F49,M:P,4,FALSE)</f>
         <v>1E+52</v>
       </c>
       <c r="H49" s="13">
         <v>0.2</v>
       </c>
       <c r="I49" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 41단</v>
       </c>
       <c r="J49" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="K49" s="13" t="s">
         <v>46</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N49" s="13">
         <v>168</v>
       </c>
       <c r="O49" s="14">
-        <f t="shared" ref="O49" si="21">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="19">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="14" t="str">
-        <f t="shared" ref="P49" si="22">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="20">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
     </row>
@@ -6473,7 +6557,7 @@
         <v>41</v>
       </c>
       <c r="C50" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+52</v>
       </c>
       <c r="D50" s="14" t="str">
@@ -6481,7 +6565,7 @@
         <v>10항</v>
       </c>
       <c r="E50" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F50" s="13" t="str" cm="1">
@@ -6489,18 +6573,18 @@
         <v>항</v>
       </c>
       <c r="G50" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F50,M:P,4,FALSE)</f>
         <v>1E+52</v>
       </c>
       <c r="H50" s="13">
         <v>0.22</v>
       </c>
       <c r="I50" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 42단</v>
       </c>
       <c r="J50" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="K50" s="13" t="s">
@@ -6512,7 +6596,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+54</v>
       </c>
       <c r="D51" s="14" t="str">
@@ -6520,7 +6604,7 @@
         <v>100항</v>
       </c>
       <c r="E51" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F51" s="13" t="str" cm="1">
@@ -6528,18 +6612,18 @@
         <v>항</v>
       </c>
       <c r="G51" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F51,M:P,4,FALSE)</f>
         <v>1E+52</v>
       </c>
       <c r="H51" s="13">
         <v>0.24</v>
       </c>
       <c r="I51" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 43단</v>
       </c>
       <c r="J51" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="K51" s="13" t="s">
@@ -6551,7 +6635,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+55</v>
       </c>
       <c r="D52" s="14" t="str">
@@ -6559,7 +6643,7 @@
         <v>1000항</v>
       </c>
       <c r="E52" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F52" s="13" t="str" cm="1">
@@ -6567,18 +6651,18 @@
         <v>항</v>
       </c>
       <c r="G52" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F52,M:P,4,FALSE)</f>
         <v>1E+52</v>
       </c>
       <c r="H52" s="13">
         <v>0.26</v>
       </c>
       <c r="I52" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 44단</v>
       </c>
       <c r="J52" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="K52" s="13" t="s">
@@ -6590,7 +6674,7 @@
         <v>44</v>
       </c>
       <c r="C53" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="D53" s="14" t="str">
@@ -6598,7 +6682,7 @@
         <v>1아</v>
       </c>
       <c r="E53" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F53" s="13" t="str" cm="1">
@@ -6606,18 +6690,18 @@
         <v>아</v>
       </c>
       <c r="G53" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F53,M:P,4,FALSE)</f>
         <v>1E+56</v>
       </c>
       <c r="H53" s="13">
         <v>0.28000000000000003</v>
       </c>
       <c r="I53" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 45단</v>
       </c>
       <c r="J53" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="K53" s="13" t="s">
@@ -6629,7 +6713,7 @@
         <v>45</v>
       </c>
       <c r="C54" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+57</v>
       </c>
       <c r="D54" s="14" t="str">
@@ -6637,7 +6721,7 @@
         <v>10아</v>
       </c>
       <c r="E54" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F54" s="13" t="str" cm="1">
@@ -6645,18 +6729,18 @@
         <v>아</v>
       </c>
       <c r="G54" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F54,M:P,4,FALSE)</f>
         <v>1E+56</v>
       </c>
       <c r="H54" s="13">
         <v>0.3</v>
       </c>
       <c r="I54" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 46단</v>
       </c>
       <c r="J54" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="K54" s="13" t="s">
@@ -6668,7 +6752,7 @@
         <v>46</v>
       </c>
       <c r="C55" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+58</v>
       </c>
       <c r="D55" s="14" t="str">
@@ -6676,7 +6760,7 @@
         <v>100아</v>
       </c>
       <c r="E55" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F55" s="13" t="str" cm="1">
@@ -6684,18 +6768,18 @@
         <v>아</v>
       </c>
       <c r="G55" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F55,M:P,4,FALSE)</f>
         <v>1E+56</v>
       </c>
       <c r="H55" s="13">
         <v>0.32</v>
       </c>
       <c r="I55" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 47단</v>
       </c>
       <c r="J55" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="K55" s="13" t="s">
@@ -6707,7 +6791,7 @@
         <v>47</v>
       </c>
       <c r="C56" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+59</v>
       </c>
       <c r="D56" s="14" t="str">
@@ -6715,7 +6799,7 @@
         <v>1000아</v>
       </c>
       <c r="E56" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F56" s="13" t="str" cm="1">
@@ -6723,18 +6807,18 @@
         <v>아</v>
       </c>
       <c r="G56" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F56,M:P,4,FALSE)</f>
         <v>1E+56</v>
       </c>
       <c r="H56" s="13">
         <v>0.34</v>
       </c>
       <c r="I56" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 48단</v>
       </c>
       <c r="J56" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="K56" s="13" t="s">
@@ -6746,7 +6830,7 @@
         <v>48</v>
       </c>
       <c r="C57" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="D57" s="14" t="str">
@@ -6754,7 +6838,7 @@
         <v>1나</v>
       </c>
       <c r="E57" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F57" s="13" t="str" cm="1">
@@ -6762,18 +6846,18 @@
         <v>나</v>
       </c>
       <c r="G57" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F57,M:P,4,FALSE)</f>
         <v>1E+60</v>
       </c>
       <c r="H57" s="13">
         <v>0.36</v>
       </c>
       <c r="I57" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 49단</v>
       </c>
       <c r="J57" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="K57" s="13" t="s">
@@ -6785,7 +6869,7 @@
         <v>49</v>
       </c>
       <c r="C58" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+60</v>
       </c>
       <c r="D58" s="14" t="str">
@@ -6793,7 +6877,7 @@
         <v>10나</v>
       </c>
       <c r="E58" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F58" s="13" t="str" cm="1">
@@ -6801,18 +6885,18 @@
         <v>나</v>
       </c>
       <c r="G58" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F58,M:P,4,FALSE)</f>
         <v>1E+60</v>
       </c>
       <c r="H58" s="13">
         <v>0.38</v>
       </c>
       <c r="I58" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 50단</v>
       </c>
       <c r="J58" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K58" s="13" t="s">
@@ -6824,7 +6908,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+61</v>
       </c>
       <c r="D59" s="14" t="str">
@@ -6832,7 +6916,7 @@
         <v>100나</v>
       </c>
       <c r="E59" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F59" s="13" t="str" cm="1">
@@ -6840,18 +6924,18 @@
         <v>나</v>
       </c>
       <c r="G59" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F59,M:P,4,FALSE)</f>
         <v>1E+60</v>
       </c>
       <c r="H59" s="13">
         <v>0.4</v>
       </c>
       <c r="I59" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 51단</v>
       </c>
       <c r="J59" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="K59" s="13" t="s">
@@ -6863,7 +6947,7 @@
         <v>51</v>
       </c>
       <c r="C60" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999988E+62</v>
       </c>
       <c r="D60" s="14" t="str">
@@ -6871,7 +6955,7 @@
         <v>1000나</v>
       </c>
       <c r="E60" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F60" s="13" t="str" cm="1">
@@ -6879,18 +6963,18 @@
         <v>나</v>
       </c>
       <c r="G60" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F60,M:P,4,FALSE)</f>
         <v>1E+60</v>
       </c>
       <c r="H60" s="13">
         <v>0.42</v>
       </c>
       <c r="I60" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 52단</v>
       </c>
       <c r="J60" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="K60" s="13" t="s">
@@ -6902,7 +6986,7 @@
         <v>52</v>
       </c>
       <c r="C61" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+64</v>
       </c>
       <c r="D61" s="14" t="str">
@@ -6910,7 +6994,7 @@
         <v>1불</v>
       </c>
       <c r="E61" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F61" s="13" t="str" cm="1">
@@ -6918,18 +7002,18 @@
         <v>불</v>
       </c>
       <c r="G61" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F61,M:P,4,FALSE)</f>
         <v>1E+64</v>
       </c>
       <c r="H61" s="13">
         <v>0.44</v>
       </c>
       <c r="I61" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 53단</v>
       </c>
       <c r="J61" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="K61" s="13" t="s">
@@ -6941,7 +7025,7 @@
         <v>53</v>
       </c>
       <c r="C62" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+64</v>
       </c>
       <c r="D62" s="14" t="str">
@@ -6949,7 +7033,7 @@
         <v>10불</v>
       </c>
       <c r="E62" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F62" s="13" t="str" cm="1">
@@ -6957,18 +7041,18 @@
         <v>불</v>
       </c>
       <c r="G62" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F62,M:P,4,FALSE)</f>
         <v>1E+64</v>
       </c>
       <c r="H62" s="13">
         <v>0.46</v>
       </c>
       <c r="I62" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 54단</v>
       </c>
       <c r="J62" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="K62" s="13" t="s">
@@ -6980,7 +7064,7 @@
         <v>54</v>
       </c>
       <c r="C63" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+65</v>
       </c>
       <c r="D63" s="14" t="str">
@@ -6988,7 +7072,7 @@
         <v>100불</v>
       </c>
       <c r="E63" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F63" s="13" t="str" cm="1">
@@ -6996,18 +7080,18 @@
         <v>불</v>
       </c>
       <c r="G63" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F63,M:P,4,FALSE)</f>
         <v>1E+64</v>
       </c>
       <c r="H63" s="13">
         <v>0.48</v>
       </c>
       <c r="I63" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 55단</v>
       </c>
       <c r="J63" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="K63" s="13" t="s">
@@ -7019,7 +7103,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+66</v>
       </c>
       <c r="D64" s="14" t="str">
@@ -7027,7 +7111,7 @@
         <v>1000불</v>
       </c>
       <c r="E64" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F64" s="13" t="str" cm="1">
@@ -7035,18 +7119,18 @@
         <v>불</v>
       </c>
       <c r="G64" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F64,M:P,4,FALSE)</f>
         <v>1E+64</v>
       </c>
       <c r="H64" s="13">
         <v>0.5</v>
       </c>
       <c r="I64" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 56단</v>
       </c>
       <c r="J64" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="K64" s="13" t="s">
@@ -7058,7 +7142,7 @@
         <v>56</v>
       </c>
       <c r="C65" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="D65" s="14" t="str">
@@ -7066,7 +7150,7 @@
         <v>1무</v>
       </c>
       <c r="E65" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F65" s="13" t="str" cm="1">
@@ -7074,18 +7158,18 @@
         <v>무</v>
       </c>
       <c r="G65" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F65,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="H65" s="13">
         <v>0.52</v>
       </c>
       <c r="I65" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 57단</v>
       </c>
       <c r="J65" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="K65" s="13" t="s">
@@ -7097,7 +7181,7 @@
         <v>57</v>
       </c>
       <c r="C66" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999988E+68</v>
       </c>
       <c r="D66" s="14" t="str">
@@ -7105,7 +7189,7 @@
         <v>10무</v>
       </c>
       <c r="E66" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F66" s="13" t="str" cm="1">
@@ -7113,18 +7197,18 @@
         <v>무</v>
       </c>
       <c r="G66" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F66,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="H66" s="13">
         <v>0.54</v>
       </c>
       <c r="I66" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 58단</v>
       </c>
       <c r="J66" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="K66" s="13" t="s">
@@ -7136,15 +7220,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="23">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="21">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="24">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="22">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="25">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="23">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -7152,18 +7236,18 @@
         <v>무</v>
       </c>
       <c r="G67" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F67,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="H67" s="13">
         <v>0.56000000000000005</v>
       </c>
       <c r="I67" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 59단</v>
       </c>
       <c r="J67" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="K67" s="13" t="s">
@@ -7175,15 +7259,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999992E+70</v>
+      </c>
+      <c r="D68" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1000무</v>
+      </c>
+      <c r="E68" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999992E+70</v>
-      </c>
-      <c r="D68" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1000무</v>
-      </c>
-      <c r="E68" s="14">
-        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -7191,18 +7275,18 @@
         <v>무</v>
       </c>
       <c r="G68" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F68,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="H68" s="13">
         <v>0.57999999999999996</v>
       </c>
       <c r="I68" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 60단</v>
       </c>
       <c r="J68" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="K68" s="13" t="s">
@@ -7214,15 +7298,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999994E+71</v>
+      </c>
+      <c r="D69" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1대</v>
+      </c>
+      <c r="E69" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999994E+71</v>
-      </c>
-      <c r="D69" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1대</v>
-      </c>
-      <c r="E69" s="14">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -7230,18 +7314,18 @@
         <v>대</v>
       </c>
       <c r="G69" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F69,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="H69" s="13">
         <v>0.6</v>
       </c>
       <c r="I69" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 61단</v>
       </c>
       <c r="J69" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="K69" s="13" t="s">
@@ -7253,15 +7337,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999998E+72</v>
+      </c>
+      <c r="D70" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>10대</v>
+      </c>
+      <c r="E70" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999998E+72</v>
-      </c>
-      <c r="D70" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>10대</v>
-      </c>
-      <c r="E70" s="14">
-        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -7269,18 +7353,18 @@
         <v>대</v>
       </c>
       <c r="G70" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F70,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="H70" s="13">
         <v>0.62</v>
       </c>
       <c r="I70" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 62단</v>
       </c>
       <c r="J70" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="K70" s="13" t="s">
@@ -7292,15 +7376,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999995E+73</v>
+      </c>
+      <c r="D71" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>100대</v>
+      </c>
+      <c r="E71" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999995E+73</v>
-      </c>
-      <c r="D71" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>100대</v>
-      </c>
-      <c r="E71" s="14">
-        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -7308,18 +7392,18 @@
         <v>대</v>
       </c>
       <c r="G71" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F71,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="H71" s="13">
         <v>0.64</v>
       </c>
       <c r="I71" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 63단</v>
       </c>
       <c r="J71" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="K71" s="13" t="s">
@@ -7331,15 +7415,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999993E+74</v>
+      </c>
+      <c r="D72" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1000대</v>
+      </c>
+      <c r="E72" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999993E+74</v>
-      </c>
-      <c r="D72" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1000대</v>
-      </c>
-      <c r="E72" s="14">
-        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -7347,18 +7431,18 @@
         <v>대</v>
       </c>
       <c r="G72" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F72,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="H72" s="13">
         <v>0.66</v>
       </c>
       <c r="I72" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 64단</v>
       </c>
       <c r="J72" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="K72" s="13" t="s">
@@ -7370,15 +7454,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+76</v>
+      </c>
+      <c r="D73" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1겁</v>
+      </c>
+      <c r="E73" s="14">
         <f t="shared" si="23"/>
-        <v>1E+76</v>
-      </c>
-      <c r="D73" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1겁</v>
-      </c>
-      <c r="E73" s="14">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -7386,18 +7470,18 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="26">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
         <v>0.68</v>
       </c>
       <c r="I73" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 65단</v>
       </c>
       <c r="J73" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="K73" s="13" t="s">
@@ -7409,15 +7493,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
+        <f t="shared" si="21"/>
+        <v>1.0000000000000001E+77</v>
+      </c>
+      <c r="D74" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>10겁</v>
+      </c>
+      <c r="E74" s="14">
         <f t="shared" si="23"/>
-        <v>1.0000000000000001E+77</v>
-      </c>
-      <c r="D74" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>10겁</v>
-      </c>
-      <c r="E74" s="14">
-        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -7425,18 +7509,18 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F74,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="27">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="24">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="K74" s="13" t="s">
@@ -7448,15 +7532,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+78</v>
+      </c>
+      <c r="D75" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>100겁</v>
+      </c>
+      <c r="E75" s="14">
         <f t="shared" si="23"/>
-        <v>1E+78</v>
-      </c>
-      <c r="D75" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>100겁</v>
-      </c>
-      <c r="E75" s="14">
-        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -7464,18 +7548,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F75,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J164" si="28">J74+1</f>
+        <f t="shared" ref="J75:J168" si="25">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -7487,15 +7571,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999997E+78</v>
+      </c>
+      <c r="D76" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1000겁</v>
+      </c>
+      <c r="E76" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999997E+78</v>
-      </c>
-      <c r="D76" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1000겁</v>
-      </c>
-      <c r="E76" s="14">
-        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -7503,18 +7587,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F76,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -7526,15 +7610,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+80</v>
+      </c>
+      <c r="D77" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1업</v>
+      </c>
+      <c r="E77" s="14">
         <f t="shared" si="23"/>
-        <v>1E+80</v>
-      </c>
-      <c r="D77" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1업</v>
-      </c>
-      <c r="E77" s="14">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -7542,18 +7626,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F77,M:P,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -7565,15 +7649,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999992E+80</v>
+      </c>
+      <c r="D78" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>10업</v>
+      </c>
+      <c r="E78" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999992E+80</v>
-      </c>
-      <c r="D78" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>10업</v>
-      </c>
-      <c r="E78" s="14">
-        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -7581,18 +7665,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F78,M:P,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -7604,15 +7688,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999996E+81</v>
+      </c>
+      <c r="D79" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>100업</v>
+      </c>
+      <c r="E79" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999996E+81</v>
-      </c>
-      <c r="D79" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>100업</v>
-      </c>
-      <c r="E79" s="14">
-        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -7620,18 +7704,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F79,M:P,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -7643,15 +7727,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+83</v>
+      </c>
+      <c r="D80" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1000업</v>
+      </c>
+      <c r="E80" s="14">
         <f t="shared" si="23"/>
-        <v>1E+83</v>
-      </c>
-      <c r="D80" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1000업</v>
-      </c>
-      <c r="E80" s="14">
-        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -7659,18 +7743,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F80,M:P,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -7682,15 +7766,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
+        <f t="shared" si="21"/>
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="D81" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1긍</v>
+      </c>
+      <c r="E81" s="14">
         <f t="shared" si="23"/>
-        <v>1.0000000000000001E+84</v>
-      </c>
-      <c r="D81" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1긍</v>
-      </c>
-      <c r="E81" s="14">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -7698,18 +7782,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F81,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -7721,15 +7805,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+85</v>
+      </c>
+      <c r="D82" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>10긍</v>
+      </c>
+      <c r="E82" s="14">
         <f t="shared" si="23"/>
-        <v>1E+85</v>
-      </c>
-      <c r="D82" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>10긍</v>
-      </c>
-      <c r="E82" s="14">
-        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -7737,18 +7821,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F82,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -7760,15 +7844,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+86</v>
+      </c>
+      <c r="D83" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>100긍</v>
+      </c>
+      <c r="E83" s="14">
         <f t="shared" si="23"/>
-        <v>1E+86</v>
-      </c>
-      <c r="D83" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>100긍</v>
-      </c>
-      <c r="E83" s="14">
-        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -7776,18 +7860,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F83,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -7799,15 +7883,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999996E+86</v>
+      </c>
+      <c r="D84" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1000긍</v>
+      </c>
+      <c r="E84" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999996E+86</v>
-      </c>
-      <c r="D84" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1000긍</v>
-      </c>
-      <c r="E84" s="14">
-        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -7815,18 +7899,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F84,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -7838,15 +7922,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="D85" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1갈</v>
+      </c>
+      <c r="E85" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999996E+87</v>
-      </c>
-      <c r="D85" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1갈</v>
-      </c>
-      <c r="E85" s="14">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -7854,18 +7938,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F85,M:P,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -7877,15 +7961,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999999E+88</v>
+      </c>
+      <c r="D86" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>10갈</v>
+      </c>
+      <c r="E86" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999999E+88</v>
-      </c>
-      <c r="D86" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>10갈</v>
-      </c>
-      <c r="E86" s="14">
-        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -7893,18 +7977,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F86,M:P,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -7916,15 +8000,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999997E+89</v>
+      </c>
+      <c r="D87" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>100갈</v>
+      </c>
+      <c r="E87" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999997E+89</v>
-      </c>
-      <c r="D87" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>100갈</v>
-      </c>
-      <c r="E87" s="14">
-        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -7932,18 +8016,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F87,M:P,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -7955,15 +8039,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
+        <f t="shared" si="21"/>
+        <v>9.999999999999999E+90</v>
+      </c>
+      <c r="D88" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1000갈</v>
+      </c>
+      <c r="E88" s="14">
         <f t="shared" si="23"/>
-        <v>9.999999999999999E+90</v>
-      </c>
-      <c r="D88" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1000갈</v>
-      </c>
-      <c r="E88" s="14">
-        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -7971,18 +8055,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F88,M:P,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -7994,15 +8078,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+92</v>
+      </c>
+      <c r="D89" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1라</v>
+      </c>
+      <c r="E89" s="14">
         <f t="shared" si="23"/>
-        <v>1E+92</v>
-      </c>
-      <c r="D89" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1라</v>
-      </c>
-      <c r="E89" s="14">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -8010,18 +8094,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F89,M:P,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -8033,15 +8117,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+93</v>
+      </c>
+      <c r="D90" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>10라</v>
+      </c>
+      <c r="E90" s="14">
         <f t="shared" si="23"/>
-        <v>1E+93</v>
-      </c>
-      <c r="D90" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>10라</v>
-      </c>
-      <c r="E90" s="14">
-        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -8049,18 +8133,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F90,M:P,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -8072,15 +8156,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+94</v>
+      </c>
+      <c r="D91" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>100라</v>
+      </c>
+      <c r="E91" s="14">
         <f t="shared" si="23"/>
-        <v>1E+94</v>
-      </c>
-      <c r="D91" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>100라</v>
-      </c>
-      <c r="E91" s="14">
-        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -8088,18 +8172,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F91,M:P,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -8111,15 +8195,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+95</v>
+      </c>
+      <c r="D92" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1000라</v>
+      </c>
+      <c r="E92" s="14">
         <f t="shared" si="23"/>
-        <v>1E+95</v>
-      </c>
-      <c r="D92" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1000라</v>
-      </c>
-      <c r="E92" s="14">
-        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -8127,18 +8211,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F92,M:P,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -8150,15 +8234,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+96</v>
+      </c>
+      <c r="D93" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1가</v>
+      </c>
+      <c r="E93" s="14">
         <f t="shared" si="23"/>
-        <v>1E+96</v>
-      </c>
-      <c r="D93" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1가</v>
-      </c>
-      <c r="E93" s="14">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -8166,18 +8250,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F93,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -8189,15 +8273,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
+        <f t="shared" si="21"/>
+        <v>1.0000000000000001E+97</v>
+      </c>
+      <c r="D94" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>10가</v>
+      </c>
+      <c r="E94" s="14">
         <f t="shared" si="23"/>
-        <v>1.0000000000000001E+97</v>
-      </c>
-      <c r="D94" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>10가</v>
-      </c>
-      <c r="E94" s="14">
-        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -8205,18 +8289,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F94,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -8228,15 +8312,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+98</v>
+      </c>
+      <c r="D95" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>100가</v>
+      </c>
+      <c r="E95" s="14">
         <f t="shared" si="23"/>
-        <v>1E+98</v>
-      </c>
-      <c r="D95" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>100가</v>
-      </c>
-      <c r="E95" s="14">
-        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -8244,18 +8328,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F95,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -8267,15 +8351,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
+        <f t="shared" si="21"/>
+        <v>1.0000000000000001E+99</v>
+      </c>
+      <c r="D96" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1000가</v>
+      </c>
+      <c r="E96" s="14">
         <f t="shared" si="23"/>
-        <v>1.0000000000000001E+99</v>
-      </c>
-      <c r="D96" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1000가</v>
-      </c>
-      <c r="E96" s="14">
-        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -8283,18 +8367,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F96,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -8306,15 +8390,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+100</v>
+      </c>
+      <c r="D97" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1언</v>
+      </c>
+      <c r="E97" s="14">
         <f t="shared" si="23"/>
-        <v>1E+100</v>
-      </c>
-      <c r="D97" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1언</v>
-      </c>
-      <c r="E97" s="14">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -8322,18 +8406,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F97,M:P,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -8345,15 +8429,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999998E+100</v>
+      </c>
+      <c r="D98" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>10언</v>
+      </c>
+      <c r="E98" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999998E+100</v>
-      </c>
-      <c r="D98" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>10언</v>
-      </c>
-      <c r="E98" s="14">
-        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -8361,18 +8445,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F98,M:P,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -8384,15 +8468,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999998E+101</v>
+      </c>
+      <c r="D99" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>100언</v>
+      </c>
+      <c r="E99" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999998E+101</v>
-      </c>
-      <c r="D99" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>100언</v>
-      </c>
-      <c r="E99" s="14">
-        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -8400,18 +8484,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F99,M:P,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -8423,15 +8507,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+103</v>
+      </c>
+      <c r="D100" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1000언</v>
+      </c>
+      <c r="E100" s="14">
         <f t="shared" si="23"/>
-        <v>1E+103</v>
-      </c>
-      <c r="D100" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1000언</v>
-      </c>
-      <c r="E100" s="14">
-        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -8439,18 +8523,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F100,M:P,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -8462,15 +8546,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+104</v>
+      </c>
+      <c r="D101" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1승</v>
+      </c>
+      <c r="E101" s="14">
         <f t="shared" si="23"/>
-        <v>1E+104</v>
-      </c>
-      <c r="D101" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1승</v>
-      </c>
-      <c r="E101" s="14">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -8478,18 +8562,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F101,M:P,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -8501,15 +8585,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999994E+104</v>
+      </c>
+      <c r="D102" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>10승</v>
+      </c>
+      <c r="E102" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999994E+104</v>
-      </c>
-      <c r="D102" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>10승</v>
-      </c>
-      <c r="E102" s="14">
-        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -8517,18 +8601,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F102,M:P,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -8540,15 +8624,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
+        <f t="shared" si="21"/>
+        <v>1.0000000000000001E+106</v>
+      </c>
+      <c r="D103" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>100승</v>
+      </c>
+      <c r="E103" s="14">
         <f t="shared" si="23"/>
-        <v>1.0000000000000001E+106</v>
-      </c>
-      <c r="D103" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>100승</v>
-      </c>
-      <c r="E103" s="14">
-        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -8556,18 +8640,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F103,M:P,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -8579,15 +8663,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999997E+106</v>
+      </c>
+      <c r="D104" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1000승</v>
+      </c>
+      <c r="E104" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999997E+106</v>
-      </c>
-      <c r="D104" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1000승</v>
-      </c>
-      <c r="E104" s="14">
-        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -8595,18 +8679,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(F104,M:P,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -8618,15 +8702,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+108</v>
+      </c>
+      <c r="D105" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1마</v>
+      </c>
+      <c r="E105" s="14">
         <f t="shared" si="23"/>
-        <v>1E+108</v>
-      </c>
-      <c r="D105" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1마</v>
-      </c>
-      <c r="E105" s="14">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -8634,18 +8718,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G132" si="29">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -8657,15 +8741,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="D106" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>10마</v>
+      </c>
+      <c r="E106" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999998E+108</v>
-      </c>
-      <c r="D106" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>10마</v>
-      </c>
-      <c r="E106" s="14">
-        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -8673,18 +8757,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F106,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -8696,15 +8780,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+110</v>
+      </c>
+      <c r="D107" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>100마</v>
+      </c>
+      <c r="E107" s="14">
         <f t="shared" si="23"/>
-        <v>1E+110</v>
-      </c>
-      <c r="D107" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>100마</v>
-      </c>
-      <c r="E107" s="14">
-        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -8712,18 +8796,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F107,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -8735,15 +8819,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
+        <f t="shared" si="21"/>
+        <v>1.0000000000000001E+111</v>
+      </c>
+      <c r="D108" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1000마</v>
+      </c>
+      <c r="E108" s="14">
         <f t="shared" si="23"/>
-        <v>1.0000000000000001E+111</v>
-      </c>
-      <c r="D108" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1000마</v>
-      </c>
-      <c r="E108" s="14">
-        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -8751,18 +8835,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F108,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -8774,15 +8858,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="D109" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>1살</v>
+      </c>
+      <c r="E109" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999993E+111</v>
-      </c>
-      <c r="D109" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>1살</v>
-      </c>
-      <c r="E109" s="14">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -8790,18 +8874,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F109,M:P,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -8813,15 +8897,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
+        <f t="shared" si="21"/>
+        <v>1E+113</v>
+      </c>
+      <c r="D110" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>10살</v>
+      </c>
+      <c r="E110" s="14">
         <f t="shared" si="23"/>
-        <v>1E+113</v>
-      </c>
-      <c r="D110" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>10살</v>
-      </c>
-      <c r="E110" s="14">
-        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -8829,18 +8913,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F110,M:P,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -8852,15 +8936,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999988E+113</v>
+      </c>
+      <c r="D111" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>100살</v>
+      </c>
+      <c r="E111" s="14">
         <f t="shared" si="23"/>
-        <v>9.9999999999999988E+113</v>
-      </c>
-      <c r="D111" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v>100살</v>
-      </c>
-      <c r="E111" s="14">
-        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -8868,18 +8952,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F111,M:P,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -8891,15 +8975,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="30">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="26">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="31">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="27">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E164" si="32">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E168" si="28">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -8907,18 +8991,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F112,M:P,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="33">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="29">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -8930,15 +9014,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -8946,18 +9030,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F113,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -8969,15 +9053,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -8985,18 +9069,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F114,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -9008,15 +9092,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -9024,18 +9108,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F115,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -9047,15 +9131,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -9063,18 +9147,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F116,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -9086,15 +9170,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -9102,18 +9186,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F117,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -9125,15 +9209,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -9141,18 +9225,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F118,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -9164,15 +9248,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -9180,18 +9264,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F119,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -9203,15 +9287,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -9219,18 +9303,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F120,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -9242,15 +9326,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -9258,18 +9342,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F121,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -9281,15 +9365,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -9297,18 +9381,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F122,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -9320,15 +9404,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -9336,18 +9420,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F123,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -9359,15 +9443,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -9375,18 +9459,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F124,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -9398,15 +9482,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="34">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="30">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="35">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="31">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -9414,18 +9498,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F125,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="36">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="32">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -9437,15 +9521,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>1E+129</v>
       </c>
       <c r="D126" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>10위</v>
       </c>
       <c r="E126" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -9453,18 +9537,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F126,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -9476,15 +9560,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="D127" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>100위</v>
       </c>
       <c r="E127" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -9492,18 +9576,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F127,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -9515,15 +9599,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="D128" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>1000위</v>
       </c>
       <c r="E128" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -9531,18 +9615,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F128,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -9554,15 +9638,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="D129" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>1설</v>
       </c>
       <c r="E129" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -9570,18 +9654,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F129,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -9593,15 +9677,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>1E+133</v>
       </c>
       <c r="D130" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>10설</v>
       </c>
       <c r="E130" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -9609,18 +9693,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F130,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -9632,15 +9716,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C134" si="37">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="33">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D134" si="38">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="34">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -9648,18 +9732,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F131,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I134" si="39">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="35">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -9671,15 +9755,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -9687,18 +9771,18 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(F132,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
@@ -9710,15 +9794,15 @@
         <v>124</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D133" s="14" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>1적</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F133" s="13" t="str" cm="1">
@@ -9726,18 +9810,18 @@
         <v>적</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" ref="G133:G136" si="40">VLOOKUP(F133,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F133,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="H133" s="13">
         <v>3.92</v>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>태극 125단</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>125</v>
       </c>
       <c r="K133" s="13" t="s">
@@ -9749,15 +9833,15 @@
         <v>125</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>1E+137</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>10적</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F134" s="13" t="str" cm="1">
@@ -9765,18 +9849,18 @@
         <v>적</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f>VLOOKUP(F134,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="H134" s="13">
         <v>4</v>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>태극 126단</v>
       </c>
       <c r="J134" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>126</v>
       </c>
       <c r="K134" s="13" t="s">
@@ -9788,15 +9872,15 @@
         <v>126</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" ref="C135:C138" si="41">E135*G135</f>
+        <f t="shared" ref="C135:C138" si="36">E135*G135</f>
         <v>1E+138</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f t="shared" ref="D135:D138" si="42">E135&amp;F135</f>
+        <f t="shared" ref="D135:D138" si="37">E135&amp;F135</f>
         <v>100적</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F135" s="13" t="str" cm="1">
@@ -9804,18 +9888,18 @@
         <v>적</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f>VLOOKUP(F135,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="H135" s="13">
         <v>4.08</v>
       </c>
       <c r="I135" s="13" t="str">
-        <f t="shared" ref="I135:I138" si="43">K135&amp;" "&amp;J135&amp;"단"</f>
+        <f t="shared" ref="I135:I138" si="38">K135&amp;" "&amp;J135&amp;"단"</f>
         <v>태극 127단</v>
       </c>
       <c r="J135" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>127</v>
       </c>
       <c r="K135" s="13" t="s">
@@ -9827,15 +9911,15 @@
         <v>127</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>1E+139</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>1000적</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F136" s="13" t="str" cm="1">
@@ -9843,18 +9927,18 @@
         <v>적</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f>VLOOKUP(F136,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="H136" s="13">
         <v>4.16</v>
       </c>
       <c r="I136" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>태극 128단</v>
       </c>
       <c r="J136" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>128</v>
       </c>
       <c r="K136" s="13" t="s">
@@ -9866,15 +9950,15 @@
         <v>128</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D137" s="14" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>1고</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F137" s="13" t="str" cm="1">
@@ -9882,18 +9966,18 @@
         <v>고</v>
       </c>
       <c r="G137" s="13" t="str">
-        <f t="shared" ref="G137:G140" si="44">VLOOKUP(F137,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F137,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H137" s="13">
         <v>4.24</v>
       </c>
       <c r="I137" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>태극 129단</v>
       </c>
       <c r="J137" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>129</v>
       </c>
       <c r="K137" s="13" t="s">
@@ -9905,15 +9989,15 @@
         <v>129</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>1E+141</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>10고</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F138" s="13" t="str" cm="1">
@@ -9921,18 +10005,18 @@
         <v>고</v>
       </c>
       <c r="G138" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f>VLOOKUP(F138,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H138" s="13">
         <v>4.32</v>
       </c>
       <c r="I138" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>태극 130단</v>
       </c>
       <c r="J138" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>130</v>
       </c>
       <c r="K138" s="13" t="s">
@@ -9944,15 +10028,15 @@
         <v>130</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" ref="C139:C142" si="45">E139*G139</f>
+        <f t="shared" ref="C139:C142" si="39">E139*G139</f>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="D139" s="14" t="str">
-        <f t="shared" ref="D139:D142" si="46">E139&amp;F139</f>
+        <f t="shared" ref="D139:D142" si="40">E139&amp;F139</f>
         <v>100고</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F139" s="13" t="str" cm="1">
@@ -9960,18 +10044,18 @@
         <v>고</v>
       </c>
       <c r="G139" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f>VLOOKUP(F139,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H139" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="I139" s="13" t="str">
-        <f t="shared" ref="I139:I142" si="47">K139&amp;" "&amp;J139&amp;"단"</f>
+        <f t="shared" ref="I139:I142" si="41">K139&amp;" "&amp;J139&amp;"단"</f>
         <v>태극 131단</v>
       </c>
       <c r="J139" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>131</v>
       </c>
       <c r="K139" s="13" t="s">
@@ -9983,15 +10067,15 @@
         <v>131</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>1E+143</v>
       </c>
       <c r="D140" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>1000고</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F140" s="13" t="str" cm="1">
@@ -9999,18 +10083,18 @@
         <v>고</v>
       </c>
       <c r="G140" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f>VLOOKUP(F140,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H140" s="13">
         <v>4.4800000000000004</v>
       </c>
       <c r="I140" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>태극 132단</v>
       </c>
       <c r="J140" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>132</v>
       </c>
       <c r="K140" s="13" t="s">
@@ -10022,15 +10106,15 @@
         <v>132</v>
       </c>
       <c r="C141" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>1E+144</v>
       </c>
       <c r="D141" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>1화</v>
       </c>
       <c r="E141" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F141" s="13" t="str" cm="1">
@@ -10038,18 +10122,18 @@
         <v>화</v>
       </c>
       <c r="G141" s="13" t="str">
-        <f t="shared" ref="G141:G144" si="48">VLOOKUP(F141,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F141,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="H141" s="13">
         <v>4.5599999999999996</v>
       </c>
       <c r="I141" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>태극 133단</v>
       </c>
       <c r="J141" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>133</v>
       </c>
       <c r="K141" s="13" t="s">
@@ -10061,15 +10145,15 @@
         <v>133</v>
       </c>
       <c r="C142" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>10화</v>
       </c>
       <c r="E142" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F142" s="13" t="str" cm="1">
@@ -10077,18 +10161,18 @@
         <v>화</v>
       </c>
       <c r="G142" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f>VLOOKUP(F142,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="H142" s="13">
         <v>4.6399999999999997</v>
       </c>
       <c r="I142" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>태극 134단</v>
       </c>
       <c r="J142" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>134</v>
       </c>
       <c r="K142" s="13" t="s">
@@ -10100,15 +10184,15 @@
         <v>134</v>
       </c>
       <c r="C143" s="14">
-        <f t="shared" ref="C143:C146" si="49">E143*G143</f>
+        <f t="shared" ref="C143:C146" si="42">E143*G143</f>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="D143" s="14" t="str">
-        <f t="shared" ref="D143:D146" si="50">E143&amp;F143</f>
+        <f t="shared" ref="D143:D146" si="43">E143&amp;F143</f>
         <v>100화</v>
       </c>
       <c r="E143" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F143" s="13" t="str" cm="1">
@@ -10116,18 +10200,18 @@
         <v>화</v>
       </c>
       <c r="G143" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f>VLOOKUP(F143,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="H143" s="13">
         <v>4.72</v>
       </c>
       <c r="I143" s="13" t="str">
-        <f t="shared" ref="I143:I146" si="51">K143&amp;" "&amp;J143&amp;"단"</f>
+        <f t="shared" ref="I143:I146" si="44">K143&amp;" "&amp;J143&amp;"단"</f>
         <v>태극 135단</v>
       </c>
       <c r="J143" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>135</v>
       </c>
       <c r="K143" s="13" t="s">
@@ -10139,15 +10223,15 @@
         <v>135</v>
       </c>
       <c r="C144" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="D144" s="14" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>1000화</v>
       </c>
       <c r="E144" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F144" s="13" t="str" cm="1">
@@ -10155,18 +10239,18 @@
         <v>화</v>
       </c>
       <c r="G144" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f>VLOOKUP(F144,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="H144" s="13">
         <v>4.8</v>
       </c>
       <c r="I144" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>태극 136단</v>
       </c>
       <c r="J144" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>136</v>
       </c>
       <c r="K144" s="13" t="s">
@@ -10178,15 +10262,15 @@
         <v>136</v>
       </c>
       <c r="C145" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>1E+148</v>
       </c>
       <c r="D145" s="14" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>1명</v>
       </c>
       <c r="E145" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F145" s="13" t="str" cm="1">
@@ -10194,18 +10278,18 @@
         <v>명</v>
       </c>
       <c r="G145" s="13" t="str">
-        <f t="shared" ref="G145:G148" si="52">VLOOKUP(F145,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F145,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="H145" s="13">
         <v>4.88</v>
       </c>
       <c r="I145" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>태극 137단</v>
       </c>
       <c r="J145" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>137</v>
       </c>
       <c r="K145" s="13" t="s">
@@ -10217,15 +10301,15 @@
         <v>137</v>
       </c>
       <c r="C146" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>1E+149</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>10명</v>
       </c>
       <c r="E146" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F146" s="13" t="str" cm="1">
@@ -10233,18 +10317,18 @@
         <v>명</v>
       </c>
       <c r="G146" s="13" t="str">
-        <f t="shared" si="52"/>
+        <f>VLOOKUP(F146,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="H146" s="13">
         <v>4.96</v>
       </c>
       <c r="I146" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>태극 138단</v>
       </c>
       <c r="J146" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>138</v>
       </c>
       <c r="K146" s="13" t="s">
@@ -10256,15 +10340,15 @@
         <v>138</v>
       </c>
       <c r="C147" s="14">
-        <f t="shared" ref="C147:C150" si="53">E147*G147</f>
+        <f t="shared" ref="C147:C150" si="45">E147*G147</f>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="D147" s="14" t="str">
-        <f t="shared" ref="D147:D150" si="54">E147&amp;F147</f>
+        <f t="shared" ref="D147:D150" si="46">E147&amp;F147</f>
         <v>100명</v>
       </c>
       <c r="E147" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F147" s="13" t="str" cm="1">
@@ -10272,18 +10356,18 @@
         <v>명</v>
       </c>
       <c r="G147" s="13" t="str">
-        <f t="shared" si="52"/>
+        <f>VLOOKUP(F147,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="H147" s="13">
         <v>5.04</v>
       </c>
       <c r="I147" s="13" t="str">
-        <f t="shared" ref="I147:I150" si="55">K147&amp;" "&amp;J147&amp;"단"</f>
+        <f t="shared" ref="I147:I150" si="47">K147&amp;" "&amp;J147&amp;"단"</f>
         <v>태극 139단</v>
       </c>
       <c r="J147" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>139</v>
       </c>
       <c r="K147" s="13" t="s">
@@ -10295,15 +10379,15 @@
         <v>139</v>
       </c>
       <c r="C148" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>1E+151</v>
       </c>
       <c r="D148" s="14" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>1000명</v>
       </c>
       <c r="E148" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F148" s="13" t="str" cm="1">
@@ -10311,18 +10395,18 @@
         <v>명</v>
       </c>
       <c r="G148" s="13" t="str">
-        <f t="shared" si="52"/>
+        <f>VLOOKUP(F148,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="H148" s="13">
         <v>5.12</v>
       </c>
       <c r="I148" s="13" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>태극 140단</v>
       </c>
       <c r="J148" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>140</v>
       </c>
       <c r="K148" s="13" t="s">
@@ -10334,15 +10418,15 @@
         <v>140</v>
       </c>
       <c r="C149" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>1E+152</v>
       </c>
       <c r="D149" s="14" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>1월</v>
       </c>
       <c r="E149" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F149" s="13" t="str" cm="1">
@@ -10350,18 +10434,18 @@
         <v>월</v>
       </c>
       <c r="G149" s="13" t="str">
-        <f t="shared" ref="G149:G152" si="56">VLOOKUP(F149,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F149,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="H149" s="13">
         <v>5.2</v>
       </c>
       <c r="I149" s="13" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>태극 141단</v>
       </c>
       <c r="J149" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>141</v>
       </c>
       <c r="K149" s="13" t="s">
@@ -10373,15 +10457,15 @@
         <v>141</v>
       </c>
       <c r="C150" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>1E+153</v>
       </c>
       <c r="D150" s="14" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>10월</v>
       </c>
       <c r="E150" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F150" s="13" t="str" cm="1">
@@ -10389,18 +10473,18 @@
         <v>월</v>
       </c>
       <c r="G150" s="13" t="str">
-        <f t="shared" si="56"/>
+        <f>VLOOKUP(F150,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="H150" s="13">
         <v>5.28</v>
       </c>
       <c r="I150" s="13" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>태극 142단</v>
       </c>
       <c r="J150" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>142</v>
       </c>
       <c r="K150" s="13" t="s">
@@ -10412,15 +10496,15 @@
         <v>142</v>
       </c>
       <c r="C151" s="14">
-        <f t="shared" ref="C151:C154" si="57">E151*G151</f>
+        <f t="shared" ref="C151:C154" si="48">E151*G151</f>
         <v>1E+154</v>
       </c>
       <c r="D151" s="14" t="str">
-        <f t="shared" ref="D151:D154" si="58">E151&amp;F151</f>
+        <f t="shared" ref="D151:D154" si="49">E151&amp;F151</f>
         <v>100월</v>
       </c>
       <c r="E151" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F151" s="13" t="str" cm="1">
@@ -10428,18 +10512,18 @@
         <v>월</v>
       </c>
       <c r="G151" s="13" t="str">
-        <f t="shared" si="56"/>
+        <f>VLOOKUP(F151,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="H151" s="13">
         <v>5.36</v>
       </c>
       <c r="I151" s="13" t="str">
-        <f t="shared" ref="I151:I154" si="59">K151&amp;" "&amp;J151&amp;"단"</f>
+        <f t="shared" ref="I151:I154" si="50">K151&amp;" "&amp;J151&amp;"단"</f>
         <v>태극 143단</v>
       </c>
       <c r="J151" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>143</v>
       </c>
       <c r="K151" s="13" t="s">
@@ -10451,15 +10535,15 @@
         <v>143</v>
       </c>
       <c r="C152" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="48"/>
         <v>1E+155</v>
       </c>
       <c r="D152" s="14" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>1000월</v>
       </c>
       <c r="E152" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F152" s="13" t="str" cm="1">
@@ -10467,18 +10551,18 @@
         <v>월</v>
       </c>
       <c r="G152" s="13" t="str">
-        <f t="shared" si="56"/>
+        <f>VLOOKUP(F152,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="H152" s="13">
         <v>5.44</v>
       </c>
       <c r="I152" s="13" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="50"/>
         <v>태극 144단</v>
       </c>
       <c r="J152" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>144</v>
       </c>
       <c r="K152" s="13" t="s">
@@ -10490,15 +10574,15 @@
         <v>144</v>
       </c>
       <c r="C153" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="D153" s="14" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>1후</v>
       </c>
       <c r="E153" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F153" s="13" t="str" cm="1">
@@ -10506,18 +10590,18 @@
         <v>후</v>
       </c>
       <c r="G153" s="13" t="str">
-        <f t="shared" ref="G153:G156" si="60">VLOOKUP(F153,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F153,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="H153" s="13">
         <v>5.52</v>
       </c>
       <c r="I153" s="13" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="50"/>
         <v>태극 145단</v>
       </c>
       <c r="J153" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>145</v>
       </c>
       <c r="K153" s="13" t="s">
@@ -10529,15 +10613,15 @@
         <v>145</v>
       </c>
       <c r="C154" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="D154" s="14" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>10후</v>
       </c>
       <c r="E154" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F154" s="13" t="str" cm="1">
@@ -10545,18 +10629,18 @@
         <v>후</v>
       </c>
       <c r="G154" s="13" t="str">
-        <f t="shared" si="60"/>
+        <f>VLOOKUP(F154,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="H154" s="13">
         <v>5.6</v>
       </c>
       <c r="I154" s="13" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="50"/>
         <v>태극 146단</v>
       </c>
       <c r="J154" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>146</v>
       </c>
       <c r="K154" s="13" t="s">
@@ -10568,15 +10652,15 @@
         <v>146</v>
       </c>
       <c r="C155" s="14">
-        <f t="shared" ref="C155:C158" si="61">E155*G155</f>
+        <f t="shared" ref="C155:C158" si="51">E155*G155</f>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="D155" s="14" t="str">
-        <f t="shared" ref="D155:D158" si="62">E155&amp;F155</f>
+        <f t="shared" ref="D155:D158" si="52">E155&amp;F155</f>
         <v>100후</v>
       </c>
       <c r="E155" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F155" s="13" t="str" cm="1">
@@ -10584,18 +10668,18 @@
         <v>후</v>
       </c>
       <c r="G155" s="13" t="str">
-        <f t="shared" si="60"/>
+        <f>VLOOKUP(F155,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="H155" s="13">
         <v>5.68</v>
       </c>
       <c r="I155" s="13" t="str">
-        <f t="shared" ref="I155:I158" si="63">K155&amp;" "&amp;J155&amp;"단"</f>
+        <f t="shared" ref="I155:I158" si="53">K155&amp;" "&amp;J155&amp;"단"</f>
         <v>태극 147단</v>
       </c>
       <c r="J155" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>147</v>
       </c>
       <c r="K155" s="13" t="s">
@@ -10607,15 +10691,15 @@
         <v>147</v>
       </c>
       <c r="C156" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="D156" s="14" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v>1000후</v>
       </c>
       <c r="E156" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F156" s="13" t="str" cm="1">
@@ -10623,18 +10707,18 @@
         <v>후</v>
       </c>
       <c r="G156" s="13" t="str">
-        <f t="shared" si="60"/>
+        <f>VLOOKUP(F156,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="H156" s="13">
         <v>5.76</v>
       </c>
       <c r="I156" s="13" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>태극 148단</v>
       </c>
       <c r="J156" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>148</v>
       </c>
       <c r="K156" s="13" t="s">
@@ -10646,15 +10730,15 @@
         <v>148</v>
       </c>
       <c r="C157" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>1E+160</v>
       </c>
       <c r="D157" s="14" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v>1단</v>
       </c>
       <c r="E157" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F157" s="13" t="str" cm="1">
@@ -10662,18 +10746,18 @@
         <v>단</v>
       </c>
       <c r="G157" s="13" t="str">
-        <f t="shared" ref="G157:G160" si="64">VLOOKUP(F157,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F157,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="H157" s="13">
         <v>5.84</v>
       </c>
       <c r="I157" s="13" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>태극 149단</v>
       </c>
       <c r="J157" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>149</v>
       </c>
       <c r="K157" s="13" t="s">
@@ -10685,15 +10769,15 @@
         <v>149</v>
       </c>
       <c r="C158" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>1E+161</v>
       </c>
       <c r="D158" s="14" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v>10단</v>
       </c>
       <c r="E158" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F158" s="13" t="str" cm="1">
@@ -10701,18 +10785,18 @@
         <v>단</v>
       </c>
       <c r="G158" s="13" t="str">
-        <f t="shared" si="64"/>
+        <f>VLOOKUP(F158,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="H158" s="13">
         <v>5.92</v>
       </c>
       <c r="I158" s="13" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>태극 150단</v>
       </c>
       <c r="J158" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>150</v>
       </c>
       <c r="K158" s="13" t="s">
@@ -10724,15 +10808,15 @@
         <v>150</v>
       </c>
       <c r="C159" s="14">
-        <f t="shared" ref="C159:C162" si="65">E159*G159</f>
+        <f t="shared" ref="C159:C162" si="54">E159*G159</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="D159" s="14" t="str">
-        <f t="shared" ref="D159:D162" si="66">E159&amp;F159</f>
+        <f t="shared" ref="D159:D162" si="55">E159&amp;F159</f>
         <v>100단</v>
       </c>
       <c r="E159" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F159" s="13" t="str" cm="1">
@@ -10740,18 +10824,18 @@
         <v>단</v>
       </c>
       <c r="G159" s="13" t="str">
-        <f t="shared" si="64"/>
+        <f>VLOOKUP(F159,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="H159" s="13">
         <v>6</v>
       </c>
       <c r="I159" s="13" t="str">
-        <f t="shared" ref="I159:I162" si="67">K159&amp;" "&amp;J159&amp;"단"</f>
+        <f t="shared" ref="I159:I162" si="56">K159&amp;" "&amp;J159&amp;"단"</f>
         <v>태극 151단</v>
       </c>
       <c r="J159" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>151</v>
       </c>
       <c r="K159" s="13" t="s">
@@ -10763,15 +10847,15 @@
         <v>151</v>
       </c>
       <c r="C160" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="D160" s="14" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="55"/>
         <v>1000단</v>
       </c>
       <c r="E160" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F160" s="13" t="str" cm="1">
@@ -10779,18 +10863,18 @@
         <v>단</v>
       </c>
       <c r="G160" s="13" t="str">
-        <f t="shared" si="64"/>
+        <f>VLOOKUP(F160,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="H160" s="13">
         <v>6.08</v>
       </c>
       <c r="I160" s="13" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="56"/>
         <v>태극 152단</v>
       </c>
       <c r="J160" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>152</v>
       </c>
       <c r="K160" s="13" t="s">
@@ -10802,15 +10886,15 @@
         <v>152</v>
       </c>
       <c r="C161" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="54"/>
         <v>1E+164</v>
       </c>
       <c r="D161" s="14" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="55"/>
         <v>1절</v>
       </c>
       <c r="E161" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F161" s="13" t="str" cm="1">
@@ -10818,18 +10902,18 @@
         <v>절</v>
       </c>
       <c r="G161" s="13" t="str">
-        <f t="shared" ref="G161:G164" si="68">VLOOKUP(F161,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F161,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="H161" s="13">
         <v>6.16</v>
       </c>
       <c r="I161" s="13" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="56"/>
         <v>태극 153단</v>
       </c>
       <c r="J161" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>153</v>
       </c>
       <c r="K161" s="13" t="s">
@@ -10841,15 +10925,15 @@
         <v>153</v>
       </c>
       <c r="C162" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="54"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="D162" s="14" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="55"/>
         <v>10절</v>
       </c>
       <c r="E162" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F162" s="13" t="str" cm="1">
@@ -10857,18 +10941,18 @@
         <v>절</v>
       </c>
       <c r="G162" s="13" t="str">
-        <f t="shared" si="68"/>
+        <f>VLOOKUP(F162,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="H162" s="13">
         <v>6.24</v>
       </c>
       <c r="I162" s="13" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="56"/>
         <v>태극 154단</v>
       </c>
       <c r="J162" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>154</v>
       </c>
       <c r="K162" s="13" t="s">
@@ -10880,15 +10964,15 @@
         <v>154</v>
       </c>
       <c r="C163" s="14">
-        <f t="shared" ref="C163:C164" si="69">E163*G163</f>
+        <f t="shared" ref="C163:C166" si="57">E163*G163</f>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="D163" s="14" t="str">
-        <f t="shared" ref="D163:D164" si="70">E163&amp;F163</f>
+        <f t="shared" ref="D163:D166" si="58">E163&amp;F163</f>
         <v>100절</v>
       </c>
       <c r="E163" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="F163" s="13" t="str" cm="1">
@@ -10896,18 +10980,18 @@
         <v>절</v>
       </c>
       <c r="G163" s="13" t="str">
-        <f t="shared" si="68"/>
+        <f>VLOOKUP(F163,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="H163" s="13">
         <v>6.32</v>
       </c>
       <c r="I163" s="13" t="str">
-        <f t="shared" ref="I163:I164" si="71">K163&amp;" "&amp;J163&amp;"단"</f>
+        <f t="shared" ref="I163:I166" si="59">K163&amp;" "&amp;J163&amp;"단"</f>
         <v>태극 155단</v>
       </c>
       <c r="J163" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>155</v>
       </c>
       <c r="K163" s="13" t="s">
@@ -10919,15 +11003,15 @@
         <v>155</v>
       </c>
       <c r="C164" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>1E+167</v>
       </c>
       <c r="D164" s="14" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>1000절</v>
       </c>
       <c r="E164" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F164" s="13" t="str" cm="1">
@@ -10935,21 +11019,177 @@
         <v>절</v>
       </c>
       <c r="G164" s="13" t="str">
-        <f t="shared" si="68"/>
+        <f>VLOOKUP(F164,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="H164" s="13">
         <v>6.4</v>
       </c>
       <c r="I164" s="13" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>태극 156단</v>
       </c>
       <c r="J164" s="13">
+        <f t="shared" si="25"/>
+        <v>156</v>
+      </c>
+      <c r="K164" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B165" s="13">
+        <v>156</v>
+      </c>
+      <c r="C165" s="14">
+        <f t="shared" si="57"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="D165" s="14" t="str">
+        <f t="shared" si="58"/>
+        <v>1격</v>
+      </c>
+      <c r="E165" s="14">
         <f t="shared" si="28"/>
-        <v>156</v>
-      </c>
-      <c r="K164" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F165" s="13" t="str" cm="1">
+        <f t="array" ref="F165">IF(AND(E164&gt;100,E165&lt;100),INDEX(M:M,MATCH(F164,M:M,0)+1,0),F164)</f>
+        <v>격</v>
+      </c>
+      <c r="G165" s="13" t="str">
+        <f>VLOOKUP(F165,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="H165" s="13">
+        <v>6.48</v>
+      </c>
+      <c r="I165" s="13" t="str">
+        <f t="shared" si="59"/>
+        <v>태극 157단</v>
+      </c>
+      <c r="J165" s="13">
+        <f t="shared" si="25"/>
+        <v>157</v>
+      </c>
+      <c r="K165" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B166" s="13">
+        <v>157</v>
+      </c>
+      <c r="C166" s="14">
+        <f t="shared" si="57"/>
+        <v>9.9999999999999993E+168</v>
+      </c>
+      <c r="D166" s="14" t="str">
+        <f t="shared" si="58"/>
+        <v>10격</v>
+      </c>
+      <c r="E166" s="14">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="F166" s="13" t="str" cm="1">
+        <f t="array" ref="F166">IF(AND(E165&gt;100,E166&lt;100),INDEX(M:M,MATCH(F165,M:M,0)+1,0),F165)</f>
+        <v>격</v>
+      </c>
+      <c r="G166" s="13" t="str">
+        <f>VLOOKUP(F166,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="H166" s="13">
+        <v>6.56</v>
+      </c>
+      <c r="I166" s="13" t="str">
+        <f t="shared" si="59"/>
+        <v>태극 158단</v>
+      </c>
+      <c r="J166" s="13">
+        <f t="shared" si="25"/>
+        <v>158</v>
+      </c>
+      <c r="K166" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B167" s="13">
+        <v>158</v>
+      </c>
+      <c r="C167" s="14">
+        <f t="shared" ref="C167:C168" si="60">E167*G167</f>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="D167" s="14" t="str">
+        <f t="shared" ref="D167:D168" si="61">E167&amp;F167</f>
+        <v>100격</v>
+      </c>
+      <c r="E167" s="14">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="F167" s="13" t="str" cm="1">
+        <f t="array" ref="F167">IF(AND(E166&gt;100,E167&lt;100),INDEX(M:M,MATCH(F166,M:M,0)+1,0),F166)</f>
+        <v>격</v>
+      </c>
+      <c r="G167" s="13" t="str">
+        <f>VLOOKUP(F167,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="H167" s="13">
+        <v>6.64</v>
+      </c>
+      <c r="I167" s="13" t="str">
+        <f t="shared" ref="I167:I168" si="62">K167&amp;" "&amp;J167&amp;"단"</f>
+        <v>태극 159단</v>
+      </c>
+      <c r="J167" s="13">
+        <f t="shared" si="25"/>
+        <v>159</v>
+      </c>
+      <c r="K167" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B168" s="13">
+        <v>159</v>
+      </c>
+      <c r="C168" s="14">
+        <f t="shared" si="60"/>
+        <v>9.9999999999999995E+170</v>
+      </c>
+      <c r="D168" s="14" t="str">
+        <f t="shared" si="61"/>
+        <v>1000격</v>
+      </c>
+      <c r="E168" s="14">
+        <f t="shared" si="28"/>
+        <v>1000</v>
+      </c>
+      <c r="F168" s="13" t="str" cm="1">
+        <f t="array" ref="F168">IF(AND(E167&gt;100,E168&lt;100),INDEX(M:M,MATCH(F167,M:M,0)+1,0),F167)</f>
+        <v>격</v>
+      </c>
+      <c r="G168" s="13" t="str">
+        <f>VLOOKUP(F168,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="H168" s="13">
+        <v>6.72</v>
+      </c>
+      <c r="I168" s="13" t="str">
+        <f t="shared" si="62"/>
+        <v>태극 160단</v>
+      </c>
+      <c r="J168" s="13">
+        <f t="shared" si="25"/>
+        <v>160</v>
+      </c>
+      <c r="K168" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B3DE0A-4E24-4A35-8DCE-0E811E2304F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50403CA8-34D4-4422-950B-EB6A35EB1085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukTitle" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="62">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,14 @@
   </si>
   <si>
     <t>격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,11 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3717,7 +3725,7 @@
         <v>1E+149</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C161" si="3">C138</f>
+        <f t="shared" ref="C139:C169" si="3">C138</f>
         <v>55</v>
       </c>
       <c r="D139">
@@ -4189,6 +4197,174 @@
       <c r="E161" t="str">
         <f>VLOOKUP(A161,Balance!B:I,8,FALSE)</f>
         <v>태극 160단</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <f>VLOOKUP(A162,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D162">
+        <f>VLOOKUP(A162,Balance!B:I,7,FALSE)</f>
+        <v>6.8</v>
+      </c>
+      <c r="E162" t="str">
+        <f>VLOOKUP(A162,Balance!B:I,8,FALSE)</f>
+        <v>태극 161단</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <f>VLOOKUP(A163,Balance!B:C,2,FALSE)</f>
+        <v>1E+173</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D163">
+        <f>VLOOKUP(A163,Balance!B:I,7,FALSE)</f>
+        <v>6.88</v>
+      </c>
+      <c r="E163" t="str">
+        <f>VLOOKUP(A163,Balance!B:I,8,FALSE)</f>
+        <v>태극 162단</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <f>VLOOKUP(A164,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D164">
+        <f>VLOOKUP(A164,Balance!B:I,7,FALSE)</f>
+        <v>6.96</v>
+      </c>
+      <c r="E164" t="str">
+        <f>VLOOKUP(A164,Balance!B:I,8,FALSE)</f>
+        <v>태극 163단</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <f>VLOOKUP(A165,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D165">
+        <f>VLOOKUP(A165,Balance!B:I,7,FALSE)</f>
+        <v>7.0399999999999903</v>
+      </c>
+      <c r="E165" t="str">
+        <f>VLOOKUP(A165,Balance!B:I,8,FALSE)</f>
+        <v>태극 164단</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <f>VLOOKUP(A166,Balance!B:C,2,FALSE)</f>
+        <v>1E+176</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D166">
+        <f>VLOOKUP(A166,Balance!B:I,7,FALSE)</f>
+        <v>7.1199999999999903</v>
+      </c>
+      <c r="E166" t="str">
+        <f>VLOOKUP(A166,Balance!B:I,8,FALSE)</f>
+        <v>태극 165단</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <f>VLOOKUP(A167,Balance!B:C,2,FALSE)</f>
+        <v>1E+177</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D167">
+        <f>VLOOKUP(A167,Balance!B:I,7,FALSE)</f>
+        <v>7.1999999999999904</v>
+      </c>
+      <c r="E167" t="str">
+        <f>VLOOKUP(A167,Balance!B:I,8,FALSE)</f>
+        <v>태극 166단</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <f>VLOOKUP(A168,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D168">
+        <f>VLOOKUP(A168,Balance!B:I,7,FALSE)</f>
+        <v>7.2799999999999896</v>
+      </c>
+      <c r="E168" t="str">
+        <f>VLOOKUP(A168,Balance!B:I,8,FALSE)</f>
+        <v>태극 167단</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <f>VLOOKUP(A169,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D169">
+        <f>VLOOKUP(A169,Balance!B:I,7,FALSE)</f>
+        <v>7.3599999999999897</v>
+      </c>
+      <c r="E169" t="str">
+        <f>VLOOKUP(A169,Balance!B:I,8,FALSE)</f>
+        <v>태극 168단</v>
       </c>
     </row>
   </sheetData>
@@ -4200,10 +4376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X168"/>
+  <dimension ref="A1:X176"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4353,7 +4529,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="13" t="str">
-        <f>VLOOKUP(F9,M:P,4,FALSE)</f>
+        <f t="shared" ref="G9:G40" si="2">VLOOKUP(F9,M:P,4,FALSE)</f>
         <v>1000000000000</v>
       </c>
       <c r="H9" s="13">
@@ -4389,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="14">
-        <f t="shared" ref="C10:C66" si="2">E10*G10</f>
+        <f t="shared" ref="C10:C66" si="3">E10*G10</f>
         <v>10000000000000</v>
       </c>
       <c r="D10" s="14" t="str">
@@ -4405,14 +4581,14 @@
         <v>조</v>
       </c>
       <c r="G10" s="13" t="str">
-        <f>VLOOKUP(F10,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
       <c r="H10" s="13">
         <v>2E-3</v>
       </c>
       <c r="I10" s="13" t="str">
-        <f t="shared" ref="I10:I73" si="3">K10&amp;" "&amp;J10&amp;"단"</f>
+        <f t="shared" ref="I10:I73" si="4">K10&amp;" "&amp;J10&amp;"단"</f>
         <v>태극 2단</v>
       </c>
       <c r="J10" s="13">
@@ -4442,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100000000000000</v>
       </c>
       <c r="D11" s="14" t="str">
@@ -4450,7 +4626,7 @@
         <v>100조</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" ref="E11:E66" si="4">IF(E10=1000,1,E10*10)</f>
+        <f t="shared" ref="E11:E66" si="5">IF(E10=1000,1,E10*10)</f>
         <v>100</v>
       </c>
       <c r="F11" s="13" t="str" cm="1">
@@ -4458,18 +4634,18 @@
         <v>조</v>
       </c>
       <c r="G11" s="13" t="str">
-        <f>VLOOKUP(F11,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
       <c r="H11" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I11" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 3단</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" ref="J11:J74" si="5">J10+1</f>
+        <f t="shared" ref="J11:J74" si="6">J10+1</f>
         <v>3</v>
       </c>
       <c r="K11" s="13" t="s">
@@ -4495,7 +4671,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000000000000000</v>
       </c>
       <c r="D12" s="14" t="str">
@@ -4503,7 +4679,7 @@
         <v>1000조</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F12" s="13" t="str" cm="1">
@@ -4511,18 +4687,18 @@
         <v>조</v>
       </c>
       <c r="G12" s="13" t="str">
-        <f>VLOOKUP(F12,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
       <c r="H12" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I12" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 4단</v>
       </c>
       <c r="J12" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K12" s="13" t="s">
@@ -4539,7 +4715,7 @@
         <v>1E+20</v>
       </c>
       <c r="P12" s="14" t="str">
-        <f t="shared" ref="P12:P40" si="6">RIGHT(O12,N12)</f>
+        <f t="shared" ref="P12:P40" si="7">RIGHT(O12,N12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -4548,7 +4724,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+16</v>
       </c>
       <c r="D13" s="14" t="str">
@@ -4556,7 +4732,7 @@
         <v>1경</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F13" s="13" t="str" cm="1">
@@ -4564,18 +4740,18 @@
         <v>경</v>
       </c>
       <c r="G13" s="13" t="str">
-        <f>VLOOKUP(F13,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10000000000000000</v>
       </c>
       <c r="H13" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I13" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 5단</v>
       </c>
       <c r="J13" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K13" s="13" t="s">
@@ -4592,7 +4768,7 @@
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="P13" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -4601,7 +4777,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+17</v>
       </c>
       <c r="D14" s="14" t="str">
@@ -4609,7 +4785,7 @@
         <v>10경</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F14" s="13" t="str" cm="1">
@@ -4617,18 +4793,18 @@
         <v>경</v>
       </c>
       <c r="G14" s="13" t="str">
-        <f>VLOOKUP(F14,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10000000000000000</v>
       </c>
       <c r="H14" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I14" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 6단</v>
       </c>
       <c r="J14" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K14" s="13" t="s">
@@ -4645,7 +4821,7 @@
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="P14" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -4654,7 +4830,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+18</v>
       </c>
       <c r="D15" s="14" t="str">
@@ -4662,7 +4838,7 @@
         <v>100경</v>
       </c>
       <c r="E15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F15" s="13" t="str" cm="1">
@@ -4670,18 +4846,18 @@
         <v>경</v>
       </c>
       <c r="G15" s="13" t="str">
-        <f>VLOOKUP(F15,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10000000000000000</v>
       </c>
       <c r="H15" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I15" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 7단</v>
       </c>
       <c r="J15" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="K15" s="13" t="s">
@@ -4698,7 +4874,7 @@
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="P15" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -4707,7 +4883,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+19</v>
       </c>
       <c r="D16" s="14" t="str">
@@ -4715,7 +4891,7 @@
         <v>1000경</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F16" s="13" t="str" cm="1">
@@ -4723,18 +4899,18 @@
         <v>경</v>
       </c>
       <c r="G16" s="13" t="str">
-        <f>VLOOKUP(F16,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10000000000000000</v>
       </c>
       <c r="H16" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I16" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 8단</v>
       </c>
       <c r="J16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="K16" s="13" t="s">
@@ -4751,7 +4927,7 @@
         <v>1E+36</v>
       </c>
       <c r="P16" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -4760,7 +4936,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+20</v>
       </c>
       <c r="D17" s="14" t="str">
@@ -4768,7 +4944,7 @@
         <v>1해</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F17" s="13" t="str" cm="1">
@@ -4776,18 +4952,18 @@
         <v>해</v>
       </c>
       <c r="G17" s="13" t="str">
-        <f>VLOOKUP(F17,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+20</v>
       </c>
       <c r="H17" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I17" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 9단</v>
       </c>
       <c r="J17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="K17" s="13" t="s">
@@ -4804,7 +4980,7 @@
         <v>1E+40</v>
       </c>
       <c r="P17" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -4813,7 +4989,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+21</v>
       </c>
       <c r="D18" s="14" t="str">
@@ -4821,7 +4997,7 @@
         <v>10해</v>
       </c>
       <c r="E18" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F18" s="13" t="str" cm="1">
@@ -4829,18 +5005,18 @@
         <v>해</v>
       </c>
       <c r="G18" s="13" t="str">
-        <f>VLOOKUP(F18,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+20</v>
       </c>
       <c r="H18" s="13">
         <v>0.01</v>
       </c>
       <c r="I18" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 10단</v>
       </c>
       <c r="J18" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="K18" s="13" t="s">
@@ -4857,7 +5033,7 @@
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="P18" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -4866,7 +5042,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+22</v>
       </c>
       <c r="D19" s="14" t="str">
@@ -4874,7 +5050,7 @@
         <v>100해</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F19" s="13" t="str" cm="1">
@@ -4882,18 +5058,18 @@
         <v>해</v>
       </c>
       <c r="G19" s="13" t="str">
-        <f>VLOOKUP(F19,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+20</v>
       </c>
       <c r="H19" s="13">
         <v>1.2E-2</v>
       </c>
       <c r="I19" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 11단</v>
       </c>
       <c r="J19" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="K19" s="13" t="s">
@@ -4910,7 +5086,7 @@
         <v>1E+48</v>
       </c>
       <c r="P19" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -4919,7 +5095,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999992E+22</v>
       </c>
       <c r="D20" s="14" t="str">
@@ -4927,7 +5103,7 @@
         <v>1000해</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F20" s="13" t="str" cm="1">
@@ -4935,18 +5111,18 @@
         <v>해</v>
       </c>
       <c r="G20" s="13" t="str">
-        <f>VLOOKUP(F20,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+20</v>
       </c>
       <c r="H20" s="13">
         <v>1.4E-2</v>
       </c>
       <c r="I20" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 12단</v>
       </c>
       <c r="J20" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="K20" s="13" t="s">
@@ -4963,7 +5139,7 @@
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="P20" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -4972,7 +5148,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="D21" s="14" t="str">
@@ -4980,7 +5156,7 @@
         <v>1자</v>
       </c>
       <c r="E21" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F21" s="13" t="str" cm="1">
@@ -4988,18 +5164,18 @@
         <v>자</v>
       </c>
       <c r="G21" s="13" t="str">
-        <f>VLOOKUP(F21,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+24</v>
       </c>
       <c r="H21" s="13">
         <v>1.6E-2</v>
       </c>
       <c r="I21" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 13단</v>
       </c>
       <c r="J21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="K21" s="13" t="s">
@@ -5016,7 +5192,7 @@
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="P21" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -5025,7 +5201,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999988E+24</v>
       </c>
       <c r="D22" s="14" t="str">
@@ -5033,7 +5209,7 @@
         <v>10자</v>
       </c>
       <c r="E22" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F22" s="13" t="str" cm="1">
@@ -5041,18 +5217,18 @@
         <v>자</v>
       </c>
       <c r="G22" s="13" t="str">
-        <f>VLOOKUP(F22,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+24</v>
       </c>
       <c r="H22" s="13">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I22" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 14단</v>
       </c>
       <c r="J22" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="K22" s="13" t="s">
@@ -5069,7 +5245,7 @@
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="P22" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -5078,7 +5254,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+26</v>
       </c>
       <c r="D23" s="14" t="str">
@@ -5086,7 +5262,7 @@
         <v>100자</v>
       </c>
       <c r="E23" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F23" s="13" t="str" cm="1">
@@ -5094,18 +5270,18 @@
         <v>자</v>
       </c>
       <c r="G23" s="13" t="str">
-        <f>VLOOKUP(F23,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+24</v>
       </c>
       <c r="H23" s="13">
         <v>0.02</v>
       </c>
       <c r="I23" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 15단</v>
       </c>
       <c r="J23" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="K23" s="13" t="s">
@@ -5122,7 +5298,7 @@
         <v>1E+64</v>
       </c>
       <c r="P23" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -5131,7 +5307,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+27</v>
       </c>
       <c r="D24" s="14" t="str">
@@ -5139,7 +5315,7 @@
         <v>1000자</v>
       </c>
       <c r="E24" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F24" s="13" t="str" cm="1">
@@ -5147,18 +5323,18 @@
         <v>자</v>
       </c>
       <c r="G24" s="13" t="str">
-        <f>VLOOKUP(F24,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+24</v>
       </c>
       <c r="H24" s="13">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="I24" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 16단</v>
       </c>
       <c r="J24" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="K24" s="13" t="s">
@@ -5175,7 +5351,7 @@
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="P24" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -5184,7 +5360,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="D25" s="14" t="str">
@@ -5192,7 +5368,7 @@
         <v>1양</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F25" s="13" t="str" cm="1">
@@ -5200,18 +5376,18 @@
         <v>양</v>
       </c>
       <c r="G25" s="13" t="str">
-        <f>VLOOKUP(F25,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+28</v>
       </c>
       <c r="H25" s="13">
         <v>2.4E-2</v>
       </c>
       <c r="I25" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 17단</v>
       </c>
       <c r="J25" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="K25" s="13" t="s">
@@ -5228,7 +5404,7 @@
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="P25" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -5237,7 +5413,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999991E+28</v>
       </c>
       <c r="D26" s="14" t="str">
@@ -5245,7 +5421,7 @@
         <v>10양</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F26" s="13" t="str" cm="1">
@@ -5253,18 +5429,18 @@
         <v>양</v>
       </c>
       <c r="G26" s="13" t="str">
-        <f>VLOOKUP(F26,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+28</v>
       </c>
       <c r="H26" s="13">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I26" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 18단</v>
       </c>
       <c r="J26" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="K26" s="13" t="s">
@@ -5281,7 +5457,7 @@
         <v>1E+76</v>
       </c>
       <c r="P26" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -5290,7 +5466,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+30</v>
       </c>
       <c r="D27" s="14" t="str">
@@ -5298,7 +5474,7 @@
         <v>100양</v>
       </c>
       <c r="E27" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F27" s="13" t="str" cm="1">
@@ -5306,18 +5482,18 @@
         <v>양</v>
       </c>
       <c r="G27" s="13" t="str">
-        <f>VLOOKUP(F27,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+28</v>
       </c>
       <c r="H27" s="13">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I27" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 19단</v>
       </c>
       <c r="J27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="K27" s="13" t="s">
@@ -5334,7 +5510,7 @@
         <v>1E+80</v>
       </c>
       <c r="P27" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -5343,7 +5519,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999996E+30</v>
       </c>
       <c r="D28" s="14" t="str">
@@ -5351,7 +5527,7 @@
         <v>1000양</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F28" s="13" t="str" cm="1">
@@ -5359,18 +5535,18 @@
         <v>양</v>
       </c>
       <c r="G28" s="13" t="str">
-        <f>VLOOKUP(F28,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+28</v>
       </c>
       <c r="H28" s="13">
         <v>0.03</v>
       </c>
       <c r="I28" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 20단</v>
       </c>
       <c r="J28" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K28" s="13" t="s">
@@ -5387,7 +5563,7 @@
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="P28" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -5396,7 +5572,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="D29" s="14" t="str">
@@ -5404,7 +5580,7 @@
         <v>1구</v>
       </c>
       <c r="E29" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F29" s="13" t="str" cm="1">
@@ -5412,18 +5588,18 @@
         <v>구</v>
       </c>
       <c r="G29" s="13" t="str">
-        <f>VLOOKUP(F29,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+32</v>
       </c>
       <c r="H29" s="13">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I29" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 21단</v>
       </c>
       <c r="J29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="K29" s="13" t="s">
@@ -5440,7 +5616,7 @@
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="P29" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -5449,7 +5625,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+33</v>
       </c>
       <c r="D30" s="14" t="str">
@@ -5457,7 +5633,7 @@
         <v>10구</v>
       </c>
       <c r="E30" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F30" s="13" t="str" cm="1">
@@ -5465,18 +5641,18 @@
         <v>구</v>
       </c>
       <c r="G30" s="13" t="str">
-        <f>VLOOKUP(F30,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+32</v>
       </c>
       <c r="H30" s="13">
         <v>0.04</v>
       </c>
       <c r="I30" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 22단</v>
       </c>
       <c r="J30" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="K30" s="13" t="s">
@@ -5493,7 +5669,7 @@
         <v>1E+92</v>
       </c>
       <c r="P30" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -5502,7 +5678,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+34</v>
       </c>
       <c r="D31" s="14" t="str">
@@ -5510,7 +5686,7 @@
         <v>100구</v>
       </c>
       <c r="E31" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F31" s="13" t="str" cm="1">
@@ -5518,18 +5694,18 @@
         <v>구</v>
       </c>
       <c r="G31" s="13" t="str">
-        <f>VLOOKUP(F31,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+32</v>
       </c>
       <c r="H31" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I31" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 23단</v>
       </c>
       <c r="J31" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="K31" s="13" t="s">
@@ -5546,7 +5722,7 @@
         <v>1E+96</v>
       </c>
       <c r="P31" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -5555,7 +5731,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999997E+34</v>
       </c>
       <c r="D32" s="14" t="str">
@@ -5563,7 +5739,7 @@
         <v>1000구</v>
       </c>
       <c r="E32" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F32" s="13" t="str" cm="1">
@@ -5571,18 +5747,18 @@
         <v>구</v>
       </c>
       <c r="G32" s="13" t="str">
-        <f>VLOOKUP(F32,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+32</v>
       </c>
       <c r="H32" s="13">
         <v>0.05</v>
       </c>
       <c r="I32" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 24단</v>
       </c>
       <c r="J32" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="K32" s="13" t="s">
@@ -5599,7 +5775,7 @@
         <v>1E+100</v>
       </c>
       <c r="P32" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -5608,7 +5784,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+36</v>
       </c>
       <c r="D33" s="14" t="str">
@@ -5616,7 +5792,7 @@
         <v>1간</v>
       </c>
       <c r="E33" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F33" s="13" t="str" cm="1">
@@ -5624,18 +5800,18 @@
         <v>간</v>
       </c>
       <c r="G33" s="13" t="str">
-        <f>VLOOKUP(F33,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
       <c r="H33" s="13">
         <v>5.5E-2</v>
       </c>
       <c r="I33" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 25단</v>
       </c>
       <c r="J33" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="K33" s="13" t="s">
@@ -5652,7 +5828,7 @@
         <v>1E+104</v>
       </c>
       <c r="P33" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+104</v>
       </c>
       <c r="Q33" s="9"/>
@@ -5669,7 +5845,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+37</v>
       </c>
       <c r="D34" s="14" t="str">
@@ -5677,7 +5853,7 @@
         <v>10간</v>
       </c>
       <c r="E34" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F34" s="13" t="str" cm="1">
@@ -5685,18 +5861,18 @@
         <v>간</v>
       </c>
       <c r="G34" s="13" t="str">
-        <f>VLOOKUP(F34,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
       <c r="H34" s="13">
         <v>0.06</v>
       </c>
       <c r="I34" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 26단</v>
       </c>
       <c r="J34" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="K34" s="13" t="s">
@@ -5713,7 +5889,7 @@
         <v>1E+108</v>
       </c>
       <c r="P34" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+108</v>
       </c>
       <c r="Q34" s="9"/>
@@ -5730,7 +5906,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+37</v>
       </c>
       <c r="D35" s="14" t="str">
@@ -5738,7 +5914,7 @@
         <v>100간</v>
       </c>
       <c r="E35" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F35" s="13" t="str" cm="1">
@@ -5746,18 +5922,18 @@
         <v>간</v>
       </c>
       <c r="G35" s="13" t="str">
-        <f>VLOOKUP(F35,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
       <c r="H35" s="13">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="I35" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 27단</v>
       </c>
       <c r="J35" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="K35" s="13" t="s">
@@ -5774,7 +5950,7 @@
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="P35" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+112</v>
       </c>
       <c r="Q35" s="9"/>
@@ -5791,7 +5967,7 @@
         <v>27</v>
       </c>
       <c r="C36" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+39</v>
       </c>
       <c r="D36" s="14" t="str">
@@ -5799,7 +5975,7 @@
         <v>1000간</v>
       </c>
       <c r="E36" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F36" s="13" t="str" cm="1">
@@ -5807,18 +5983,18 @@
         <v>간</v>
       </c>
       <c r="G36" s="13" t="str">
-        <f>VLOOKUP(F36,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
       <c r="H36" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I36" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 28단</v>
       </c>
       <c r="J36" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="K36" s="13" t="s">
@@ -5835,7 +6011,7 @@
         <v>1E+116</v>
       </c>
       <c r="P36" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+116</v>
       </c>
       <c r="Q36" s="9"/>
@@ -5852,7 +6028,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+40</v>
       </c>
       <c r="D37" s="14" t="str">
@@ -5860,7 +6036,7 @@
         <v>1정</v>
       </c>
       <c r="E37" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F37" s="13" t="str" cm="1">
@@ -5868,18 +6044,18 @@
         <v>정</v>
       </c>
       <c r="G37" s="13" t="str">
-        <f>VLOOKUP(F37,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
       <c r="H37" s="13">
         <v>0.08</v>
       </c>
       <c r="I37" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 29단</v>
       </c>
       <c r="J37" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="K37" s="13" t="s">
@@ -5896,7 +6072,7 @@
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="P37" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+120</v>
       </c>
       <c r="Q37" s="9"/>
@@ -5913,7 +6089,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+41</v>
       </c>
       <c r="D38" s="14" t="str">
@@ -5921,7 +6097,7 @@
         <v>10정</v>
       </c>
       <c r="E38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F38" s="13" t="str" cm="1">
@@ -5929,18 +6105,18 @@
         <v>정</v>
       </c>
       <c r="G38" s="13" t="str">
-        <f>VLOOKUP(F38,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
       <c r="H38" s="13">
         <v>0.09</v>
       </c>
       <c r="I38" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 30단</v>
       </c>
       <c r="J38" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="K38" s="13" t="s">
@@ -5957,7 +6133,7 @@
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="P38" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+124</v>
       </c>
       <c r="Q38" s="9"/>
@@ -5974,7 +6150,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+42</v>
       </c>
       <c r="D39" s="14" t="str">
@@ -5982,7 +6158,7 @@
         <v>100정</v>
       </c>
       <c r="E39" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F39" s="13" t="str" cm="1">
@@ -5990,18 +6166,18 @@
         <v>정</v>
       </c>
       <c r="G39" s="13" t="str">
-        <f>VLOOKUP(F39,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
       <c r="H39" s="13">
         <v>0.1</v>
       </c>
       <c r="I39" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 31단</v>
       </c>
       <c r="J39" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="K39" s="13" t="s">
@@ -6018,7 +6194,7 @@
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="P39" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -6027,7 +6203,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+43</v>
       </c>
       <c r="D40" s="14" t="str">
@@ -6035,7 +6211,7 @@
         <v>1000정</v>
       </c>
       <c r="E40" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F40" s="13" t="str" cm="1">
@@ -6043,18 +6219,18 @@
         <v>정</v>
       </c>
       <c r="G40" s="13" t="str">
-        <f>VLOOKUP(F40,M:P,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
       <c r="H40" s="13">
         <v>0.11</v>
       </c>
       <c r="I40" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 32단</v>
       </c>
       <c r="J40" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K40" s="13" t="s">
@@ -6071,7 +6247,7 @@
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -6080,7 +6256,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="D41" s="14" t="str">
@@ -6088,7 +6264,7 @@
         <v>1재</v>
       </c>
       <c r="E41" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F41" s="13" t="str" cm="1">
@@ -6096,18 +6272,18 @@
         <v>재</v>
       </c>
       <c r="G41" s="13" t="str">
-        <f>VLOOKUP(F41,M:P,4,FALSE)</f>
+        <f t="shared" ref="G41:G72" si="8">VLOOKUP(F41,M:P,4,FALSE)</f>
         <v>1E+44</v>
       </c>
       <c r="H41" s="13">
         <v>0.12</v>
       </c>
       <c r="I41" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 33단</v>
       </c>
       <c r="J41" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="K41" s="13" t="s">
@@ -6120,11 +6296,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="14">
-        <f t="shared" ref="O41" si="7">POWER(10,N41)</f>
+        <f t="shared" ref="O41" si="9">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="14" t="str">
-        <f t="shared" ref="P41" si="8">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41" si="10">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
     </row>
@@ -6133,7 +6309,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+45</v>
       </c>
       <c r="D42" s="14" t="str">
@@ -6141,7 +6317,7 @@
         <v>10재</v>
       </c>
       <c r="E42" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F42" s="13" t="str" cm="1">
@@ -6149,18 +6325,18 @@
         <v>재</v>
       </c>
       <c r="G42" s="13" t="str">
-        <f>VLOOKUP(F42,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+44</v>
       </c>
       <c r="H42" s="13">
         <v>0.13</v>
       </c>
       <c r="I42" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 34단</v>
       </c>
       <c r="J42" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="K42" s="13" t="s">
@@ -6173,11 +6349,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="14">
-        <f t="shared" ref="O42" si="9">POWER(10,N42)</f>
+        <f t="shared" ref="O42" si="11">POWER(10,N42)</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="14" t="str">
-        <f t="shared" ref="P42" si="10">RIGHT(O42,N42)</f>
+        <f t="shared" ref="P42" si="12">RIGHT(O42,N42)</f>
         <v>1E+140</v>
       </c>
     </row>
@@ -6186,7 +6362,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="D43" s="14" t="str">
@@ -6194,7 +6370,7 @@
         <v>100재</v>
       </c>
       <c r="E43" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F43" s="13" t="str" cm="1">
@@ -6202,18 +6378,18 @@
         <v>재</v>
       </c>
       <c r="G43" s="13" t="str">
-        <f>VLOOKUP(F43,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+44</v>
       </c>
       <c r="H43" s="13">
         <v>0.14000000000000001</v>
       </c>
       <c r="I43" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 35단</v>
       </c>
       <c r="J43" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="K43" s="13" t="s">
@@ -6226,11 +6402,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="14">
-        <f t="shared" ref="O43" si="11">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="13">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="14" t="str">
-        <f t="shared" ref="P43" si="12">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="14">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
     </row>
@@ -6239,7 +6415,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+47</v>
       </c>
       <c r="D44" s="14" t="str">
@@ -6247,7 +6423,7 @@
         <v>1000재</v>
       </c>
       <c r="E44" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F44" s="13" t="str" cm="1">
@@ -6255,18 +6431,18 @@
         <v>재</v>
       </c>
       <c r="G44" s="13" t="str">
-        <f>VLOOKUP(F44,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+44</v>
       </c>
       <c r="H44" s="13">
         <v>0.15</v>
       </c>
       <c r="I44" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 36단</v>
       </c>
       <c r="J44" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="K44" s="13" t="s">
@@ -6279,11 +6455,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="14">
-        <f t="shared" ref="O44" si="13">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="15">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="14" t="str">
-        <f t="shared" ref="P44" si="14">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="16">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
     </row>
@@ -6292,7 +6468,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+48</v>
       </c>
       <c r="D45" s="14" t="str">
@@ -6300,7 +6476,7 @@
         <v>1극</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F45" s="13" t="str" cm="1">
@@ -6308,18 +6484,18 @@
         <v>극</v>
       </c>
       <c r="G45" s="13" t="str">
-        <f>VLOOKUP(F45,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+48</v>
       </c>
       <c r="H45" s="13">
         <v>0.16</v>
       </c>
       <c r="I45" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 37단</v>
       </c>
       <c r="J45" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="K45" s="13" t="s">
@@ -6332,11 +6508,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="14">
-        <f t="shared" ref="O45:O46" si="15">POWER(10,N45)</f>
+        <f t="shared" ref="O45:O46" si="17">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="14" t="str">
-        <f t="shared" ref="P45:P46" si="16">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45:P46" si="18">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
     </row>
@@ -6345,7 +6521,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+49</v>
       </c>
       <c r="D46" s="14" t="str">
@@ -6353,7 +6529,7 @@
         <v>10극</v>
       </c>
       <c r="E46" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F46" s="13" t="str" cm="1">
@@ -6361,18 +6537,18 @@
         <v>극</v>
       </c>
       <c r="G46" s="13" t="str">
-        <f>VLOOKUP(F46,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+48</v>
       </c>
       <c r="H46" s="13">
         <v>0.17</v>
       </c>
       <c r="I46" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 38단</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="K46" s="13" t="s">
@@ -6385,11 +6561,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+156</v>
       </c>
     </row>
@@ -6398,7 +6574,7 @@
         <v>38</v>
       </c>
       <c r="C47" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+50</v>
       </c>
       <c r="D47" s="14" t="str">
@@ -6406,7 +6582,7 @@
         <v>100극</v>
       </c>
       <c r="E47" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F47" s="13" t="str" cm="1">
@@ -6414,18 +6590,18 @@
         <v>극</v>
       </c>
       <c r="G47" s="13" t="str">
-        <f>VLOOKUP(F47,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+48</v>
       </c>
       <c r="H47" s="13">
         <v>0.18</v>
       </c>
       <c r="I47" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 39단</v>
       </c>
       <c r="J47" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="K47" s="13" t="s">
@@ -6438,11 +6614,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="14">
-        <f t="shared" ref="O47:O48" si="17">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="19">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="14" t="str">
-        <f t="shared" ref="P47:P48" si="18">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="20">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
     </row>
@@ -6451,7 +6627,7 @@
         <v>39</v>
       </c>
       <c r="C48" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999999E+50</v>
       </c>
       <c r="D48" s="14" t="str">
@@ -6459,7 +6635,7 @@
         <v>1000극</v>
       </c>
       <c r="E48" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F48" s="13" t="str" cm="1">
@@ -6467,18 +6643,18 @@
         <v>극</v>
       </c>
       <c r="G48" s="13" t="str">
-        <f>VLOOKUP(F48,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+48</v>
       </c>
       <c r="H48" s="13">
         <v>0.19</v>
       </c>
       <c r="I48" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 40단</v>
       </c>
       <c r="J48" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K48" s="13" t="s">
@@ -6491,11 +6667,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+164</v>
       </c>
       <c r="P48" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+164</v>
       </c>
     </row>
@@ -6504,7 +6680,7 @@
         <v>40</v>
       </c>
       <c r="C49" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="D49" s="14" t="str">
@@ -6512,7 +6688,7 @@
         <v>1항</v>
       </c>
       <c r="E49" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F49" s="13" t="str" cm="1">
@@ -6520,18 +6696,18 @@
         <v>항</v>
       </c>
       <c r="G49" s="13" t="str">
-        <f>VLOOKUP(F49,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+52</v>
       </c>
       <c r="H49" s="13">
         <v>0.2</v>
       </c>
       <c r="I49" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 41단</v>
       </c>
       <c r="J49" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="K49" s="13" t="s">
@@ -6544,11 +6720,11 @@
         <v>168</v>
       </c>
       <c r="O49" s="14">
-        <f t="shared" ref="O49" si="19">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="21">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="14" t="str">
-        <f t="shared" ref="P49" si="20">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="22">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
     </row>
@@ -6557,7 +6733,7 @@
         <v>41</v>
       </c>
       <c r="C50" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999999E+52</v>
       </c>
       <c r="D50" s="14" t="str">
@@ -6565,7 +6741,7 @@
         <v>10항</v>
       </c>
       <c r="E50" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F50" s="13" t="str" cm="1">
@@ -6573,22 +6749,36 @@
         <v>항</v>
       </c>
       <c r="G50" s="13" t="str">
-        <f>VLOOKUP(F50,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+52</v>
       </c>
       <c r="H50" s="13">
         <v>0.22</v>
       </c>
       <c r="I50" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 42단</v>
       </c>
       <c r="J50" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="K50" s="13" t="s">
         <v>46</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N50" s="13">
+        <v>172</v>
+      </c>
+      <c r="O50" s="14">
+        <f t="shared" ref="O50:O51" si="23">POWER(10,N50)</f>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="P50" s="14" t="str">
+        <f t="shared" ref="P50:P51" si="24">RIGHT(O50,N50)</f>
+        <v>1E+172</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
@@ -6596,7 +6786,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+54</v>
       </c>
       <c r="D51" s="14" t="str">
@@ -6604,7 +6794,7 @@
         <v>100항</v>
       </c>
       <c r="E51" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F51" s="13" t="str" cm="1">
@@ -6612,22 +6802,36 @@
         <v>항</v>
       </c>
       <c r="G51" s="13" t="str">
-        <f>VLOOKUP(F51,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+52</v>
       </c>
       <c r="H51" s="13">
         <v>0.24</v>
       </c>
       <c r="I51" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 43단</v>
       </c>
       <c r="J51" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="K51" s="13" t="s">
         <v>46</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N51" s="13">
+        <v>176</v>
+      </c>
+      <c r="O51" s="14">
+        <f t="shared" si="23"/>
+        <v>1E+176</v>
+      </c>
+      <c r="P51" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v>1E+176</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
@@ -6635,7 +6839,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+55</v>
       </c>
       <c r="D52" s="14" t="str">
@@ -6643,7 +6847,7 @@
         <v>1000항</v>
       </c>
       <c r="E52" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F52" s="13" t="str" cm="1">
@@ -6651,18 +6855,18 @@
         <v>항</v>
       </c>
       <c r="G52" s="13" t="str">
-        <f>VLOOKUP(F52,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+52</v>
       </c>
       <c r="H52" s="13">
         <v>0.26</v>
       </c>
       <c r="I52" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 44단</v>
       </c>
       <c r="J52" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="K52" s="13" t="s">
@@ -6674,7 +6878,7 @@
         <v>44</v>
       </c>
       <c r="C53" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="D53" s="14" t="str">
@@ -6682,7 +6886,7 @@
         <v>1아</v>
       </c>
       <c r="E53" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F53" s="13" t="str" cm="1">
@@ -6690,18 +6894,18 @@
         <v>아</v>
       </c>
       <c r="G53" s="13" t="str">
-        <f>VLOOKUP(F53,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+56</v>
       </c>
       <c r="H53" s="13">
         <v>0.28000000000000003</v>
       </c>
       <c r="I53" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 45단</v>
       </c>
       <c r="J53" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="K53" s="13" t="s">
@@ -6713,7 +6917,7 @@
         <v>45</v>
       </c>
       <c r="C54" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+57</v>
       </c>
       <c r="D54" s="14" t="str">
@@ -6721,7 +6925,7 @@
         <v>10아</v>
       </c>
       <c r="E54" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F54" s="13" t="str" cm="1">
@@ -6729,18 +6933,18 @@
         <v>아</v>
       </c>
       <c r="G54" s="13" t="str">
-        <f>VLOOKUP(F54,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+56</v>
       </c>
       <c r="H54" s="13">
         <v>0.3</v>
       </c>
       <c r="I54" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 46단</v>
       </c>
       <c r="J54" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="K54" s="13" t="s">
@@ -6752,7 +6956,7 @@
         <v>46</v>
       </c>
       <c r="C55" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+58</v>
       </c>
       <c r="D55" s="14" t="str">
@@ -6760,7 +6964,7 @@
         <v>100아</v>
       </c>
       <c r="E55" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F55" s="13" t="str" cm="1">
@@ -6768,18 +6972,18 @@
         <v>아</v>
       </c>
       <c r="G55" s="13" t="str">
-        <f>VLOOKUP(F55,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+56</v>
       </c>
       <c r="H55" s="13">
         <v>0.32</v>
       </c>
       <c r="I55" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 47단</v>
       </c>
       <c r="J55" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="K55" s="13" t="s">
@@ -6791,7 +6995,7 @@
         <v>47</v>
       </c>
       <c r="C56" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+59</v>
       </c>
       <c r="D56" s="14" t="str">
@@ -6799,7 +7003,7 @@
         <v>1000아</v>
       </c>
       <c r="E56" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F56" s="13" t="str" cm="1">
@@ -6807,18 +7011,18 @@
         <v>아</v>
       </c>
       <c r="G56" s="13" t="str">
-        <f>VLOOKUP(F56,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+56</v>
       </c>
       <c r="H56" s="13">
         <v>0.34</v>
       </c>
       <c r="I56" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 48단</v>
       </c>
       <c r="J56" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="K56" s="13" t="s">
@@ -6830,7 +7034,7 @@
         <v>48</v>
       </c>
       <c r="C57" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="D57" s="14" t="str">
@@ -6838,7 +7042,7 @@
         <v>1나</v>
       </c>
       <c r="E57" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F57" s="13" t="str" cm="1">
@@ -6846,18 +7050,18 @@
         <v>나</v>
       </c>
       <c r="G57" s="13" t="str">
-        <f>VLOOKUP(F57,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+60</v>
       </c>
       <c r="H57" s="13">
         <v>0.36</v>
       </c>
       <c r="I57" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 49단</v>
       </c>
       <c r="J57" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="K57" s="13" t="s">
@@ -6869,7 +7073,7 @@
         <v>49</v>
       </c>
       <c r="C58" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+60</v>
       </c>
       <c r="D58" s="14" t="str">
@@ -6877,7 +7081,7 @@
         <v>10나</v>
       </c>
       <c r="E58" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F58" s="13" t="str" cm="1">
@@ -6885,18 +7089,18 @@
         <v>나</v>
       </c>
       <c r="G58" s="13" t="str">
-        <f>VLOOKUP(F58,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+60</v>
       </c>
       <c r="H58" s="13">
         <v>0.38</v>
       </c>
       <c r="I58" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 50단</v>
       </c>
       <c r="J58" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="K58" s="13" t="s">
@@ -6908,7 +7112,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999992E+61</v>
       </c>
       <c r="D59" s="14" t="str">
@@ -6916,7 +7120,7 @@
         <v>100나</v>
       </c>
       <c r="E59" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F59" s="13" t="str" cm="1">
@@ -6924,18 +7128,18 @@
         <v>나</v>
       </c>
       <c r="G59" s="13" t="str">
-        <f>VLOOKUP(F59,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+60</v>
       </c>
       <c r="H59" s="13">
         <v>0.4</v>
       </c>
       <c r="I59" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 51단</v>
       </c>
       <c r="J59" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="K59" s="13" t="s">
@@ -6947,7 +7151,7 @@
         <v>51</v>
       </c>
       <c r="C60" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999988E+62</v>
       </c>
       <c r="D60" s="14" t="str">
@@ -6955,7 +7159,7 @@
         <v>1000나</v>
       </c>
       <c r="E60" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F60" s="13" t="str" cm="1">
@@ -6963,18 +7167,18 @@
         <v>나</v>
       </c>
       <c r="G60" s="13" t="str">
-        <f>VLOOKUP(F60,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+60</v>
       </c>
       <c r="H60" s="13">
         <v>0.42</v>
       </c>
       <c r="I60" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 52단</v>
       </c>
       <c r="J60" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="K60" s="13" t="s">
@@ -6986,7 +7190,7 @@
         <v>52</v>
       </c>
       <c r="C61" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+64</v>
       </c>
       <c r="D61" s="14" t="str">
@@ -6994,7 +7198,7 @@
         <v>1불</v>
       </c>
       <c r="E61" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F61" s="13" t="str" cm="1">
@@ -7002,18 +7206,18 @@
         <v>불</v>
       </c>
       <c r="G61" s="13" t="str">
-        <f>VLOOKUP(F61,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+64</v>
       </c>
       <c r="H61" s="13">
         <v>0.44</v>
       </c>
       <c r="I61" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 53단</v>
       </c>
       <c r="J61" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="K61" s="13" t="s">
@@ -7025,7 +7229,7 @@
         <v>53</v>
       </c>
       <c r="C62" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999999E+64</v>
       </c>
       <c r="D62" s="14" t="str">
@@ -7033,7 +7237,7 @@
         <v>10불</v>
       </c>
       <c r="E62" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F62" s="13" t="str" cm="1">
@@ -7041,18 +7245,18 @@
         <v>불</v>
       </c>
       <c r="G62" s="13" t="str">
-        <f>VLOOKUP(F62,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+64</v>
       </c>
       <c r="H62" s="13">
         <v>0.46</v>
       </c>
       <c r="I62" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 54단</v>
       </c>
       <c r="J62" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="K62" s="13" t="s">
@@ -7064,7 +7268,7 @@
         <v>54</v>
       </c>
       <c r="C63" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+65</v>
       </c>
       <c r="D63" s="14" t="str">
@@ -7072,7 +7276,7 @@
         <v>100불</v>
       </c>
       <c r="E63" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F63" s="13" t="str" cm="1">
@@ -7080,18 +7284,18 @@
         <v>불</v>
       </c>
       <c r="G63" s="13" t="str">
-        <f>VLOOKUP(F63,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+64</v>
       </c>
       <c r="H63" s="13">
         <v>0.48</v>
       </c>
       <c r="I63" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 55단</v>
       </c>
       <c r="J63" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="K63" s="13" t="s">
@@ -7103,7 +7307,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+66</v>
       </c>
       <c r="D64" s="14" t="str">
@@ -7111,7 +7315,7 @@
         <v>1000불</v>
       </c>
       <c r="E64" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F64" s="13" t="str" cm="1">
@@ -7119,18 +7323,18 @@
         <v>불</v>
       </c>
       <c r="G64" s="13" t="str">
-        <f>VLOOKUP(F64,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+64</v>
       </c>
       <c r="H64" s="13">
         <v>0.5</v>
       </c>
       <c r="I64" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 56단</v>
       </c>
       <c r="J64" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="K64" s="13" t="s">
@@ -7142,7 +7346,7 @@
         <v>56</v>
       </c>
       <c r="C65" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="D65" s="14" t="str">
@@ -7150,7 +7354,7 @@
         <v>1무</v>
       </c>
       <c r="E65" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F65" s="13" t="str" cm="1">
@@ -7158,18 +7362,18 @@
         <v>무</v>
       </c>
       <c r="G65" s="13" t="str">
-        <f>VLOOKUP(F65,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+68</v>
       </c>
       <c r="H65" s="13">
         <v>0.52</v>
       </c>
       <c r="I65" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 57단</v>
       </c>
       <c r="J65" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="K65" s="13" t="s">
@@ -7181,7 +7385,7 @@
         <v>57</v>
       </c>
       <c r="C66" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999988E+68</v>
       </c>
       <c r="D66" s="14" t="str">
@@ -7189,7 +7393,7 @@
         <v>10무</v>
       </c>
       <c r="E66" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F66" s="13" t="str" cm="1">
@@ -7197,18 +7401,18 @@
         <v>무</v>
       </c>
       <c r="G66" s="13" t="str">
-        <f>VLOOKUP(F66,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+68</v>
       </c>
       <c r="H66" s="13">
         <v>0.54</v>
       </c>
       <c r="I66" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 58단</v>
       </c>
       <c r="J66" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="K66" s="13" t="s">
@@ -7220,15 +7424,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="21">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="25">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="22">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="26">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="23">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="27">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -7236,18 +7440,18 @@
         <v>무</v>
       </c>
       <c r="G67" s="13" t="str">
-        <f>VLOOKUP(F67,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+68</v>
       </c>
       <c r="H67" s="13">
         <v>0.56000000000000005</v>
       </c>
       <c r="I67" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 59단</v>
       </c>
       <c r="J67" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="K67" s="13" t="s">
@@ -7259,15 +7463,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -7275,18 +7479,18 @@
         <v>무</v>
       </c>
       <c r="G68" s="13" t="str">
-        <f>VLOOKUP(F68,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+68</v>
       </c>
       <c r="H68" s="13">
         <v>0.57999999999999996</v>
       </c>
       <c r="I68" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 60단</v>
       </c>
       <c r="J68" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="K68" s="13" t="s">
@@ -7298,15 +7502,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -7314,18 +7518,18 @@
         <v>대</v>
       </c>
       <c r="G69" s="13" t="str">
-        <f>VLOOKUP(F69,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+72</v>
       </c>
       <c r="H69" s="13">
         <v>0.6</v>
       </c>
       <c r="I69" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 61단</v>
       </c>
       <c r="J69" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="K69" s="13" t="s">
@@ -7337,15 +7541,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -7353,18 +7557,18 @@
         <v>대</v>
       </c>
       <c r="G70" s="13" t="str">
-        <f>VLOOKUP(F70,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+72</v>
       </c>
       <c r="H70" s="13">
         <v>0.62</v>
       </c>
       <c r="I70" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 62단</v>
       </c>
       <c r="J70" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="K70" s="13" t="s">
@@ -7376,15 +7580,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -7392,18 +7596,18 @@
         <v>대</v>
       </c>
       <c r="G71" s="13" t="str">
-        <f>VLOOKUP(F71,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+72</v>
       </c>
       <c r="H71" s="13">
         <v>0.64</v>
       </c>
       <c r="I71" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 63단</v>
       </c>
       <c r="J71" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="K71" s="13" t="s">
@@ -7415,15 +7619,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -7431,18 +7635,18 @@
         <v>대</v>
       </c>
       <c r="G72" s="13" t="str">
-        <f>VLOOKUP(F72,M:P,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1E+72</v>
       </c>
       <c r="H72" s="13">
         <v>0.66</v>
       </c>
       <c r="I72" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 64단</v>
       </c>
       <c r="J72" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="K72" s="13" t="s">
@@ -7454,15 +7658,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -7470,18 +7674,18 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f>VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="28">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
         <v>0.68</v>
       </c>
       <c r="I73" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>태극 65단</v>
       </c>
       <c r="J73" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="K73" s="13" t="s">
@@ -7493,15 +7697,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -7509,18 +7713,18 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f>VLOOKUP(F74,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="24">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="29">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="K74" s="13" t="s">
@@ -7532,15 +7736,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -7548,18 +7752,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f>VLOOKUP(F75,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J168" si="25">J74+1</f>
+        <f t="shared" ref="J75:J176" si="30">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -7571,15 +7775,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -7587,18 +7791,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f>VLOOKUP(F76,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -7610,15 +7814,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -7626,18 +7830,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f>VLOOKUP(F77,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -7649,15 +7853,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -7665,18 +7869,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f>VLOOKUP(F78,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -7688,15 +7892,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -7704,18 +7908,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f>VLOOKUP(F79,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -7727,15 +7931,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -7743,18 +7947,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f>VLOOKUP(F80,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -7766,15 +7970,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -7782,18 +7986,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f>VLOOKUP(F81,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -7805,15 +8009,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -7821,18 +8025,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f>VLOOKUP(F82,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -7844,15 +8048,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -7860,18 +8064,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f>VLOOKUP(F83,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -7883,15 +8087,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -7899,18 +8103,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f>VLOOKUP(F84,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -7922,15 +8126,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -7938,18 +8142,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f>VLOOKUP(F85,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -7961,15 +8165,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -7977,18 +8181,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f>VLOOKUP(F86,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -8000,15 +8204,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -8016,18 +8220,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f>VLOOKUP(F87,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -8039,15 +8243,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -8055,18 +8259,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f>VLOOKUP(F88,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -8078,15 +8282,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -8094,18 +8298,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f>VLOOKUP(F89,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -8117,15 +8321,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -8133,18 +8337,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f>VLOOKUP(F90,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -8156,15 +8360,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -8172,18 +8376,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f>VLOOKUP(F91,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -8195,15 +8399,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -8211,18 +8415,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f>VLOOKUP(F92,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -8234,15 +8438,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -8250,18 +8454,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f>VLOOKUP(F93,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -8273,15 +8477,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -8289,18 +8493,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f>VLOOKUP(F94,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -8312,15 +8516,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -8328,18 +8532,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f>VLOOKUP(F95,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -8351,15 +8555,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -8367,18 +8571,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f>VLOOKUP(F96,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -8390,15 +8594,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -8406,18 +8610,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f>VLOOKUP(F97,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -8429,15 +8633,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -8445,18 +8649,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f>VLOOKUP(F98,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -8468,15 +8672,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -8484,18 +8688,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f>VLOOKUP(F99,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -8507,15 +8711,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -8523,18 +8727,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f>VLOOKUP(F100,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -8546,15 +8750,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -8562,18 +8766,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f>VLOOKUP(F101,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -8585,15 +8789,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -8601,18 +8805,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f>VLOOKUP(F102,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -8624,15 +8828,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -8640,18 +8844,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f>VLOOKUP(F103,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -8663,15 +8867,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -8679,18 +8883,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f>VLOOKUP(F104,M:P,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -8702,15 +8906,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -8718,18 +8922,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f>VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G136" si="31">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -8741,15 +8945,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -8757,18 +8961,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f>VLOOKUP(F106,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -8780,15 +8984,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -8796,18 +9000,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f>VLOOKUP(F107,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -8819,15 +9023,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -8835,18 +9039,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f>VLOOKUP(F108,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -8858,15 +9062,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -8874,18 +9078,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f>VLOOKUP(F109,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -8897,15 +9101,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -8913,18 +9117,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f>VLOOKUP(F110,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -8936,15 +9140,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -8952,18 +9156,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f>VLOOKUP(F111,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -8975,15 +9179,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="26">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="32">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="27">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="33">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E168" si="28">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E176" si="34">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -8991,18 +9195,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f>VLOOKUP(F112,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="29">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="35">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -9014,15 +9218,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -9030,18 +9234,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f>VLOOKUP(F113,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -9053,15 +9257,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -9069,18 +9273,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f>VLOOKUP(F114,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -9092,15 +9296,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -9108,18 +9312,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f>VLOOKUP(F115,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -9131,15 +9335,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -9147,18 +9351,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f>VLOOKUP(F116,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -9170,15 +9374,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -9186,18 +9390,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f>VLOOKUP(F117,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -9209,15 +9413,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -9225,18 +9429,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f>VLOOKUP(F118,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -9248,15 +9452,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -9264,18 +9468,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f>VLOOKUP(F119,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -9287,15 +9491,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -9303,18 +9507,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f>VLOOKUP(F120,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -9326,15 +9530,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -9342,18 +9546,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f>VLOOKUP(F121,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -9365,15 +9569,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -9381,18 +9585,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f>VLOOKUP(F122,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -9404,15 +9608,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -9420,18 +9624,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f>VLOOKUP(F123,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -9443,15 +9647,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -9459,18 +9663,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f>VLOOKUP(F124,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -9482,15 +9686,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="30">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="36">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="31">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="37">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -9498,18 +9702,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f>VLOOKUP(F125,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="32">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="38">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -9521,15 +9725,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1E+129</v>
       </c>
       <c r="D126" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>10위</v>
       </c>
       <c r="E126" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -9537,18 +9741,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f>VLOOKUP(F126,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -9560,15 +9764,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="D127" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>100위</v>
       </c>
       <c r="E127" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -9576,18 +9780,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f>VLOOKUP(F127,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -9599,15 +9803,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="D128" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1000위</v>
       </c>
       <c r="E128" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -9615,18 +9819,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f>VLOOKUP(F128,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -9638,15 +9842,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="D129" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1설</v>
       </c>
       <c r="E129" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -9654,18 +9858,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f>VLOOKUP(F129,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -9677,15 +9881,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1E+133</v>
       </c>
       <c r="D130" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>10설</v>
       </c>
       <c r="E130" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -9693,18 +9897,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f>VLOOKUP(F130,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -9716,15 +9920,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C134" si="33">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="39">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D134" si="34">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="40">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -9732,18 +9936,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f>VLOOKUP(F131,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I134" si="35">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="41">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -9755,15 +9959,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
+        <f t="shared" si="40"/>
+        <v>1000설</v>
+      </c>
+      <c r="E132" s="14">
         <f t="shared" si="34"/>
-        <v>1000설</v>
-      </c>
-      <c r="E132" s="14">
-        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -9771,18 +9975,18 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f>VLOOKUP(F132,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
@@ -9794,15 +9998,15 @@
         <v>124</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D133" s="14" t="str">
+        <f t="shared" si="40"/>
+        <v>1적</v>
+      </c>
+      <c r="E133" s="14">
         <f t="shared" si="34"/>
-        <v>1적</v>
-      </c>
-      <c r="E133" s="14">
-        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F133" s="13" t="str" cm="1">
@@ -9810,18 +10014,18 @@
         <v>적</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f>VLOOKUP(F133,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+136</v>
       </c>
       <c r="H133" s="13">
         <v>3.92</v>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>태극 125단</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>125</v>
       </c>
       <c r="K133" s="13" t="s">
@@ -9833,15 +10037,15 @@
         <v>125</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1E+137</v>
       </c>
       <c r="D134" s="14" t="str">
+        <f t="shared" si="40"/>
+        <v>10적</v>
+      </c>
+      <c r="E134" s="14">
         <f t="shared" si="34"/>
-        <v>10적</v>
-      </c>
-      <c r="E134" s="14">
-        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F134" s="13" t="str" cm="1">
@@ -9849,18 +10053,18 @@
         <v>적</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f>VLOOKUP(F134,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+136</v>
       </c>
       <c r="H134" s="13">
         <v>4</v>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>태극 126단</v>
       </c>
       <c r="J134" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>126</v>
       </c>
       <c r="K134" s="13" t="s">
@@ -9872,15 +10076,15 @@
         <v>126</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" ref="C135:C138" si="36">E135*G135</f>
+        <f t="shared" ref="C135:C138" si="42">E135*G135</f>
         <v>1E+138</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f t="shared" ref="D135:D138" si="37">E135&amp;F135</f>
+        <f t="shared" ref="D135:D138" si="43">E135&amp;F135</f>
         <v>100적</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F135" s="13" t="str" cm="1">
@@ -9888,18 +10092,18 @@
         <v>적</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f>VLOOKUP(F135,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+136</v>
       </c>
       <c r="H135" s="13">
         <v>4.08</v>
       </c>
       <c r="I135" s="13" t="str">
-        <f t="shared" ref="I135:I138" si="38">K135&amp;" "&amp;J135&amp;"단"</f>
+        <f t="shared" ref="I135:I138" si="44">K135&amp;" "&amp;J135&amp;"단"</f>
         <v>태극 127단</v>
       </c>
       <c r="J135" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>127</v>
       </c>
       <c r="K135" s="13" t="s">
@@ -9911,15 +10115,15 @@
         <v>127</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>1E+139</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>1000적</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F136" s="13" t="str" cm="1">
@@ -9927,18 +10131,18 @@
         <v>적</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f>VLOOKUP(F136,M:P,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+136</v>
       </c>
       <c r="H136" s="13">
         <v>4.16</v>
       </c>
       <c r="I136" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>태극 128단</v>
       </c>
       <c r="J136" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>128</v>
       </c>
       <c r="K136" s="13" t="s">
@@ -9950,15 +10154,15 @@
         <v>128</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D137" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>1고</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F137" s="13" t="str" cm="1">
@@ -9966,18 +10170,18 @@
         <v>고</v>
       </c>
       <c r="G137" s="13" t="str">
-        <f>VLOOKUP(F137,M:P,4,FALSE)</f>
+        <f t="shared" ref="G137:G168" si="45">VLOOKUP(F137,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H137" s="13">
         <v>4.24</v>
       </c>
       <c r="I137" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>태극 129단</v>
       </c>
       <c r="J137" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>129</v>
       </c>
       <c r="K137" s="13" t="s">
@@ -9989,15 +10193,15 @@
         <v>129</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>1E+141</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>10고</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F138" s="13" t="str" cm="1">
@@ -10005,18 +10209,18 @@
         <v>고</v>
       </c>
       <c r="G138" s="13" t="str">
-        <f>VLOOKUP(F138,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+140</v>
       </c>
       <c r="H138" s="13">
         <v>4.32</v>
       </c>
       <c r="I138" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>태극 130단</v>
       </c>
       <c r="J138" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>130</v>
       </c>
       <c r="K138" s="13" t="s">
@@ -10028,15 +10232,15 @@
         <v>130</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" ref="C139:C142" si="39">E139*G139</f>
+        <f t="shared" ref="C139:C142" si="46">E139*G139</f>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="D139" s="14" t="str">
-        <f t="shared" ref="D139:D142" si="40">E139&amp;F139</f>
+        <f t="shared" ref="D139:D142" si="47">E139&amp;F139</f>
         <v>100고</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F139" s="13" t="str" cm="1">
@@ -10044,18 +10248,18 @@
         <v>고</v>
       </c>
       <c r="G139" s="13" t="str">
-        <f>VLOOKUP(F139,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+140</v>
       </c>
       <c r="H139" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="I139" s="13" t="str">
-        <f t="shared" ref="I139:I142" si="41">K139&amp;" "&amp;J139&amp;"단"</f>
+        <f t="shared" ref="I139:I142" si="48">K139&amp;" "&amp;J139&amp;"단"</f>
         <v>태극 131단</v>
       </c>
       <c r="J139" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>131</v>
       </c>
       <c r="K139" s="13" t="s">
@@ -10067,15 +10271,15 @@
         <v>131</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>1E+143</v>
       </c>
       <c r="D140" s="14" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>1000고</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F140" s="13" t="str" cm="1">
@@ -10083,18 +10287,18 @@
         <v>고</v>
       </c>
       <c r="G140" s="13" t="str">
-        <f>VLOOKUP(F140,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+140</v>
       </c>
       <c r="H140" s="13">
         <v>4.4800000000000004</v>
       </c>
       <c r="I140" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>태극 132단</v>
       </c>
       <c r="J140" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>132</v>
       </c>
       <c r="K140" s="13" t="s">
@@ -10106,15 +10310,15 @@
         <v>132</v>
       </c>
       <c r="C141" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>1E+144</v>
       </c>
       <c r="D141" s="14" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>1화</v>
       </c>
       <c r="E141" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F141" s="13" t="str" cm="1">
@@ -10122,18 +10326,18 @@
         <v>화</v>
       </c>
       <c r="G141" s="13" t="str">
-        <f>VLOOKUP(F141,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+144</v>
       </c>
       <c r="H141" s="13">
         <v>4.5599999999999996</v>
       </c>
       <c r="I141" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>태극 133단</v>
       </c>
       <c r="J141" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>133</v>
       </c>
       <c r="K141" s="13" t="s">
@@ -10145,15 +10349,15 @@
         <v>133</v>
       </c>
       <c r="C142" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>10화</v>
       </c>
       <c r="E142" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F142" s="13" t="str" cm="1">
@@ -10161,18 +10365,18 @@
         <v>화</v>
       </c>
       <c r="G142" s="13" t="str">
-        <f>VLOOKUP(F142,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+144</v>
       </c>
       <c r="H142" s="13">
         <v>4.6399999999999997</v>
       </c>
       <c r="I142" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>태극 134단</v>
       </c>
       <c r="J142" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>134</v>
       </c>
       <c r="K142" s="13" t="s">
@@ -10184,15 +10388,15 @@
         <v>134</v>
       </c>
       <c r="C143" s="14">
-        <f t="shared" ref="C143:C146" si="42">E143*G143</f>
+        <f t="shared" ref="C143:C146" si="49">E143*G143</f>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="D143" s="14" t="str">
-        <f t="shared" ref="D143:D146" si="43">E143&amp;F143</f>
+        <f t="shared" ref="D143:D146" si="50">E143&amp;F143</f>
         <v>100화</v>
       </c>
       <c r="E143" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F143" s="13" t="str" cm="1">
@@ -10200,18 +10404,18 @@
         <v>화</v>
       </c>
       <c r="G143" s="13" t="str">
-        <f>VLOOKUP(F143,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+144</v>
       </c>
       <c r="H143" s="13">
         <v>4.72</v>
       </c>
       <c r="I143" s="13" t="str">
-        <f t="shared" ref="I143:I146" si="44">K143&amp;" "&amp;J143&amp;"단"</f>
+        <f t="shared" ref="I143:I146" si="51">K143&amp;" "&amp;J143&amp;"단"</f>
         <v>태극 135단</v>
       </c>
       <c r="J143" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>135</v>
       </c>
       <c r="K143" s="13" t="s">
@@ -10223,15 +10427,15 @@
         <v>135</v>
       </c>
       <c r="C144" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="D144" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>1000화</v>
       </c>
       <c r="E144" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F144" s="13" t="str" cm="1">
@@ -10239,18 +10443,18 @@
         <v>화</v>
       </c>
       <c r="G144" s="13" t="str">
-        <f>VLOOKUP(F144,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+144</v>
       </c>
       <c r="H144" s="13">
         <v>4.8</v>
       </c>
       <c r="I144" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>태극 136단</v>
       </c>
       <c r="J144" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>136</v>
       </c>
       <c r="K144" s="13" t="s">
@@ -10262,15 +10466,15 @@
         <v>136</v>
       </c>
       <c r="C145" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>1E+148</v>
       </c>
       <c r="D145" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>1명</v>
       </c>
       <c r="E145" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F145" s="13" t="str" cm="1">
@@ -10278,18 +10482,18 @@
         <v>명</v>
       </c>
       <c r="G145" s="13" t="str">
-        <f>VLOOKUP(F145,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+148</v>
       </c>
       <c r="H145" s="13">
         <v>4.88</v>
       </c>
       <c r="I145" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>태극 137단</v>
       </c>
       <c r="J145" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>137</v>
       </c>
       <c r="K145" s="13" t="s">
@@ -10301,15 +10505,15 @@
         <v>137</v>
       </c>
       <c r="C146" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>1E+149</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>10명</v>
       </c>
       <c r="E146" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F146" s="13" t="str" cm="1">
@@ -10317,18 +10521,18 @@
         <v>명</v>
       </c>
       <c r="G146" s="13" t="str">
-        <f>VLOOKUP(F146,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+148</v>
       </c>
       <c r="H146" s="13">
         <v>4.96</v>
       </c>
       <c r="I146" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>태극 138단</v>
       </c>
       <c r="J146" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>138</v>
       </c>
       <c r="K146" s="13" t="s">
@@ -10340,15 +10544,15 @@
         <v>138</v>
       </c>
       <c r="C147" s="14">
-        <f t="shared" ref="C147:C150" si="45">E147*G147</f>
+        <f t="shared" ref="C147:C150" si="52">E147*G147</f>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="D147" s="14" t="str">
-        <f t="shared" ref="D147:D150" si="46">E147&amp;F147</f>
+        <f t="shared" ref="D147:D150" si="53">E147&amp;F147</f>
         <v>100명</v>
       </c>
       <c r="E147" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F147" s="13" t="str" cm="1">
@@ -10356,18 +10560,18 @@
         <v>명</v>
       </c>
       <c r="G147" s="13" t="str">
-        <f>VLOOKUP(F147,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+148</v>
       </c>
       <c r="H147" s="13">
         <v>5.04</v>
       </c>
       <c r="I147" s="13" t="str">
-        <f t="shared" ref="I147:I150" si="47">K147&amp;" "&amp;J147&amp;"단"</f>
+        <f t="shared" ref="I147:I150" si="54">K147&amp;" "&amp;J147&amp;"단"</f>
         <v>태극 139단</v>
       </c>
       <c r="J147" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>139</v>
       </c>
       <c r="K147" s="13" t="s">
@@ -10379,15 +10583,15 @@
         <v>139</v>
       </c>
       <c r="C148" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1E+151</v>
       </c>
       <c r="D148" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>1000명</v>
       </c>
       <c r="E148" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F148" s="13" t="str" cm="1">
@@ -10395,18 +10599,18 @@
         <v>명</v>
       </c>
       <c r="G148" s="13" t="str">
-        <f>VLOOKUP(F148,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+148</v>
       </c>
       <c r="H148" s="13">
         <v>5.12</v>
       </c>
       <c r="I148" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>태극 140단</v>
       </c>
       <c r="J148" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>140</v>
       </c>
       <c r="K148" s="13" t="s">
@@ -10418,15 +10622,15 @@
         <v>140</v>
       </c>
       <c r="C149" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1E+152</v>
       </c>
       <c r="D149" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>1월</v>
       </c>
       <c r="E149" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F149" s="13" t="str" cm="1">
@@ -10434,18 +10638,18 @@
         <v>월</v>
       </c>
       <c r="G149" s="13" t="str">
-        <f>VLOOKUP(F149,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+152</v>
       </c>
       <c r="H149" s="13">
         <v>5.2</v>
       </c>
       <c r="I149" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>태극 141단</v>
       </c>
       <c r="J149" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>141</v>
       </c>
       <c r="K149" s="13" t="s">
@@ -10457,15 +10661,15 @@
         <v>141</v>
       </c>
       <c r="C150" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1E+153</v>
       </c>
       <c r="D150" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>10월</v>
       </c>
       <c r="E150" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F150" s="13" t="str" cm="1">
@@ -10473,18 +10677,18 @@
         <v>월</v>
       </c>
       <c r="G150" s="13" t="str">
-        <f>VLOOKUP(F150,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+152</v>
       </c>
       <c r="H150" s="13">
         <v>5.28</v>
       </c>
       <c r="I150" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>태극 142단</v>
       </c>
       <c r="J150" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>142</v>
       </c>
       <c r="K150" s="13" t="s">
@@ -10496,15 +10700,15 @@
         <v>142</v>
       </c>
       <c r="C151" s="14">
-        <f t="shared" ref="C151:C154" si="48">E151*G151</f>
+        <f t="shared" ref="C151:C154" si="55">E151*G151</f>
         <v>1E+154</v>
       </c>
       <c r="D151" s="14" t="str">
-        <f t="shared" ref="D151:D154" si="49">E151&amp;F151</f>
+        <f t="shared" ref="D151:D154" si="56">E151&amp;F151</f>
         <v>100월</v>
       </c>
       <c r="E151" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F151" s="13" t="str" cm="1">
@@ -10512,18 +10716,18 @@
         <v>월</v>
       </c>
       <c r="G151" s="13" t="str">
-        <f>VLOOKUP(F151,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+152</v>
       </c>
       <c r="H151" s="13">
         <v>5.36</v>
       </c>
       <c r="I151" s="13" t="str">
-        <f t="shared" ref="I151:I154" si="50">K151&amp;" "&amp;J151&amp;"단"</f>
+        <f t="shared" ref="I151:I154" si="57">K151&amp;" "&amp;J151&amp;"단"</f>
         <v>태극 143단</v>
       </c>
       <c r="J151" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>143</v>
       </c>
       <c r="K151" s="13" t="s">
@@ -10535,15 +10739,15 @@
         <v>143</v>
       </c>
       <c r="C152" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>1E+155</v>
       </c>
       <c r="D152" s="14" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>1000월</v>
       </c>
       <c r="E152" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F152" s="13" t="str" cm="1">
@@ -10551,18 +10755,18 @@
         <v>월</v>
       </c>
       <c r="G152" s="13" t="str">
-        <f>VLOOKUP(F152,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+152</v>
       </c>
       <c r="H152" s="13">
         <v>5.44</v>
       </c>
       <c r="I152" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>태극 144단</v>
       </c>
       <c r="J152" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>144</v>
       </c>
       <c r="K152" s="13" t="s">
@@ -10574,15 +10778,15 @@
         <v>144</v>
       </c>
       <c r="C153" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="D153" s="14" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>1후</v>
       </c>
       <c r="E153" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F153" s="13" t="str" cm="1">
@@ -10590,18 +10794,18 @@
         <v>후</v>
       </c>
       <c r="G153" s="13" t="str">
-        <f>VLOOKUP(F153,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+156</v>
       </c>
       <c r="H153" s="13">
         <v>5.52</v>
       </c>
       <c r="I153" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>태극 145단</v>
       </c>
       <c r="J153" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>145</v>
       </c>
       <c r="K153" s="13" t="s">
@@ -10613,15 +10817,15 @@
         <v>145</v>
       </c>
       <c r="C154" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="D154" s="14" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>10후</v>
       </c>
       <c r="E154" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F154" s="13" t="str" cm="1">
@@ -10629,18 +10833,18 @@
         <v>후</v>
       </c>
       <c r="G154" s="13" t="str">
-        <f>VLOOKUP(F154,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+156</v>
       </c>
       <c r="H154" s="13">
         <v>5.6</v>
       </c>
       <c r="I154" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>태극 146단</v>
       </c>
       <c r="J154" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>146</v>
       </c>
       <c r="K154" s="13" t="s">
@@ -10652,15 +10856,15 @@
         <v>146</v>
       </c>
       <c r="C155" s="14">
-        <f t="shared" ref="C155:C158" si="51">E155*G155</f>
+        <f t="shared" ref="C155:C158" si="58">E155*G155</f>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="D155" s="14" t="str">
-        <f t="shared" ref="D155:D158" si="52">E155&amp;F155</f>
+        <f t="shared" ref="D155:D158" si="59">E155&amp;F155</f>
         <v>100후</v>
       </c>
       <c r="E155" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F155" s="13" t="str" cm="1">
@@ -10668,18 +10872,18 @@
         <v>후</v>
       </c>
       <c r="G155" s="13" t="str">
-        <f>VLOOKUP(F155,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+156</v>
       </c>
       <c r="H155" s="13">
         <v>5.68</v>
       </c>
       <c r="I155" s="13" t="str">
-        <f t="shared" ref="I155:I158" si="53">K155&amp;" "&amp;J155&amp;"단"</f>
+        <f t="shared" ref="I155:I158" si="60">K155&amp;" "&amp;J155&amp;"단"</f>
         <v>태극 147단</v>
       </c>
       <c r="J155" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>147</v>
       </c>
       <c r="K155" s="13" t="s">
@@ -10691,15 +10895,15 @@
         <v>147</v>
       </c>
       <c r="C156" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="D156" s="14" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1000후</v>
       </c>
       <c r="E156" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F156" s="13" t="str" cm="1">
@@ -10707,18 +10911,18 @@
         <v>후</v>
       </c>
       <c r="G156" s="13" t="str">
-        <f>VLOOKUP(F156,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+156</v>
       </c>
       <c r="H156" s="13">
         <v>5.76</v>
       </c>
       <c r="I156" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>태극 148단</v>
       </c>
       <c r="J156" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>148</v>
       </c>
       <c r="K156" s="13" t="s">
@@ -10730,15 +10934,15 @@
         <v>148</v>
       </c>
       <c r="C157" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>1E+160</v>
       </c>
       <c r="D157" s="14" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1단</v>
       </c>
       <c r="E157" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F157" s="13" t="str" cm="1">
@@ -10746,18 +10950,18 @@
         <v>단</v>
       </c>
       <c r="G157" s="13" t="str">
-        <f>VLOOKUP(F157,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+160</v>
       </c>
       <c r="H157" s="13">
         <v>5.84</v>
       </c>
       <c r="I157" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>태극 149단</v>
       </c>
       <c r="J157" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>149</v>
       </c>
       <c r="K157" s="13" t="s">
@@ -10769,15 +10973,15 @@
         <v>149</v>
       </c>
       <c r="C158" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>1E+161</v>
       </c>
       <c r="D158" s="14" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>10단</v>
       </c>
       <c r="E158" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F158" s="13" t="str" cm="1">
@@ -10785,18 +10989,18 @@
         <v>단</v>
       </c>
       <c r="G158" s="13" t="str">
-        <f>VLOOKUP(F158,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+160</v>
       </c>
       <c r="H158" s="13">
         <v>5.92</v>
       </c>
       <c r="I158" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>태극 150단</v>
       </c>
       <c r="J158" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>150</v>
       </c>
       <c r="K158" s="13" t="s">
@@ -10808,15 +11012,15 @@
         <v>150</v>
       </c>
       <c r="C159" s="14">
-        <f t="shared" ref="C159:C162" si="54">E159*G159</f>
+        <f t="shared" ref="C159:C162" si="61">E159*G159</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="D159" s="14" t="str">
-        <f t="shared" ref="D159:D162" si="55">E159&amp;F159</f>
+        <f t="shared" ref="D159:D162" si="62">E159&amp;F159</f>
         <v>100단</v>
       </c>
       <c r="E159" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F159" s="13" t="str" cm="1">
@@ -10824,18 +11028,18 @@
         <v>단</v>
       </c>
       <c r="G159" s="13" t="str">
-        <f>VLOOKUP(F159,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+160</v>
       </c>
       <c r="H159" s="13">
         <v>6</v>
       </c>
       <c r="I159" s="13" t="str">
-        <f t="shared" ref="I159:I162" si="56">K159&amp;" "&amp;J159&amp;"단"</f>
+        <f t="shared" ref="I159:I162" si="63">K159&amp;" "&amp;J159&amp;"단"</f>
         <v>태극 151단</v>
       </c>
       <c r="J159" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>151</v>
       </c>
       <c r="K159" s="13" t="s">
@@ -10847,15 +11051,15 @@
         <v>151</v>
       </c>
       <c r="C160" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="D160" s="14" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>1000단</v>
       </c>
       <c r="E160" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F160" s="13" t="str" cm="1">
@@ -10863,18 +11067,18 @@
         <v>단</v>
       </c>
       <c r="G160" s="13" t="str">
-        <f>VLOOKUP(F160,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+160</v>
       </c>
       <c r="H160" s="13">
         <v>6.08</v>
       </c>
       <c r="I160" s="13" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>태극 152단</v>
       </c>
       <c r="J160" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>152</v>
       </c>
       <c r="K160" s="13" t="s">
@@ -10886,15 +11090,15 @@
         <v>152</v>
       </c>
       <c r="C161" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>1E+164</v>
       </c>
       <c r="D161" s="14" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>1절</v>
       </c>
       <c r="E161" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F161" s="13" t="str" cm="1">
@@ -10902,18 +11106,18 @@
         <v>절</v>
       </c>
       <c r="G161" s="13" t="str">
-        <f>VLOOKUP(F161,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+164</v>
       </c>
       <c r="H161" s="13">
         <v>6.16</v>
       </c>
       <c r="I161" s="13" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>태극 153단</v>
       </c>
       <c r="J161" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>153</v>
       </c>
       <c r="K161" s="13" t="s">
@@ -10925,15 +11129,15 @@
         <v>153</v>
       </c>
       <c r="C162" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="D162" s="14" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>10절</v>
       </c>
       <c r="E162" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F162" s="13" t="str" cm="1">
@@ -10941,18 +11145,18 @@
         <v>절</v>
       </c>
       <c r="G162" s="13" t="str">
-        <f>VLOOKUP(F162,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+164</v>
       </c>
       <c r="H162" s="13">
         <v>6.24</v>
       </c>
       <c r="I162" s="13" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>태극 154단</v>
       </c>
       <c r="J162" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>154</v>
       </c>
       <c r="K162" s="13" t="s">
@@ -10964,15 +11168,15 @@
         <v>154</v>
       </c>
       <c r="C163" s="14">
-        <f t="shared" ref="C163:C166" si="57">E163*G163</f>
+        <f t="shared" ref="C163:C166" si="64">E163*G163</f>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="D163" s="14" t="str">
-        <f t="shared" ref="D163:D166" si="58">E163&amp;F163</f>
+        <f t="shared" ref="D163:D166" si="65">E163&amp;F163</f>
         <v>100절</v>
       </c>
       <c r="E163" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F163" s="13" t="str" cm="1">
@@ -10980,18 +11184,18 @@
         <v>절</v>
       </c>
       <c r="G163" s="13" t="str">
-        <f>VLOOKUP(F163,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+164</v>
       </c>
       <c r="H163" s="13">
         <v>6.32</v>
       </c>
       <c r="I163" s="13" t="str">
-        <f t="shared" ref="I163:I166" si="59">K163&amp;" "&amp;J163&amp;"단"</f>
+        <f t="shared" ref="I163:I166" si="66">K163&amp;" "&amp;J163&amp;"단"</f>
         <v>태극 155단</v>
       </c>
       <c r="J163" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>155</v>
       </c>
       <c r="K163" s="13" t="s">
@@ -11003,15 +11207,15 @@
         <v>155</v>
       </c>
       <c r="C164" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1E+167</v>
       </c>
       <c r="D164" s="14" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1000절</v>
       </c>
       <c r="E164" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F164" s="13" t="str" cm="1">
@@ -11019,18 +11223,18 @@
         <v>절</v>
       </c>
       <c r="G164" s="13" t="str">
-        <f>VLOOKUP(F164,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+164</v>
       </c>
       <c r="H164" s="13">
         <v>6.4</v>
       </c>
       <c r="I164" s="13" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>태극 156단</v>
       </c>
       <c r="J164" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>156</v>
       </c>
       <c r="K164" s="13" t="s">
@@ -11042,15 +11246,15 @@
         <v>156</v>
       </c>
       <c r="C165" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="D165" s="14" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1격</v>
       </c>
       <c r="E165" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F165" s="13" t="str" cm="1">
@@ -11058,18 +11262,18 @@
         <v>격</v>
       </c>
       <c r="G165" s="13" t="str">
-        <f>VLOOKUP(F165,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+168</v>
       </c>
       <c r="H165" s="13">
         <v>6.48</v>
       </c>
       <c r="I165" s="13" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>태극 157단</v>
       </c>
       <c r="J165" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>157</v>
       </c>
       <c r="K165" s="13" t="s">
@@ -11081,15 +11285,15 @@
         <v>157</v>
       </c>
       <c r="C166" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="D166" s="14" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>10격</v>
       </c>
       <c r="E166" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F166" s="13" t="str" cm="1">
@@ -11097,18 +11301,18 @@
         <v>격</v>
       </c>
       <c r="G166" s="13" t="str">
-        <f>VLOOKUP(F166,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+168</v>
       </c>
       <c r="H166" s="13">
         <v>6.56</v>
       </c>
       <c r="I166" s="13" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>태극 158단</v>
       </c>
       <c r="J166" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>158</v>
       </c>
       <c r="K166" s="13" t="s">
@@ -11120,15 +11324,15 @@
         <v>158</v>
       </c>
       <c r="C167" s="14">
-        <f t="shared" ref="C167:C168" si="60">E167*G167</f>
+        <f t="shared" ref="C167:C170" si="67">E167*G167</f>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="D167" s="14" t="str">
-        <f t="shared" ref="D167:D168" si="61">E167&amp;F167</f>
+        <f t="shared" ref="D167:D170" si="68">E167&amp;F167</f>
         <v>100격</v>
       </c>
       <c r="E167" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F167" s="13" t="str" cm="1">
@@ -11136,18 +11340,18 @@
         <v>격</v>
       </c>
       <c r="G167" s="13" t="str">
-        <f>VLOOKUP(F167,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+168</v>
       </c>
       <c r="H167" s="13">
         <v>6.64</v>
       </c>
       <c r="I167" s="13" t="str">
-        <f t="shared" ref="I167:I168" si="62">K167&amp;" "&amp;J167&amp;"단"</f>
+        <f t="shared" ref="I167:I170" si="69">K167&amp;" "&amp;J167&amp;"단"</f>
         <v>태극 159단</v>
       </c>
       <c r="J167" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>159</v>
       </c>
       <c r="K167" s="13" t="s">
@@ -11159,15 +11363,15 @@
         <v>159</v>
       </c>
       <c r="C168" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="D168" s="14" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1000격</v>
       </c>
       <c r="E168" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F168" s="13" t="str" cm="1">
@@ -11175,21 +11379,333 @@
         <v>격</v>
       </c>
       <c r="G168" s="13" t="str">
-        <f>VLOOKUP(F168,M:P,4,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1E+168</v>
       </c>
       <c r="H168" s="13">
         <v>6.72</v>
       </c>
       <c r="I168" s="13" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>태극 160단</v>
       </c>
       <c r="J168" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>160</v>
       </c>
       <c r="K168" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B169" s="13">
+        <v>160</v>
+      </c>
+      <c r="C169" s="14">
+        <f t="shared" si="67"/>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="D169" s="14" t="str">
+        <f t="shared" si="68"/>
+        <v>1창</v>
+      </c>
+      <c r="E169" s="14">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="F169" s="13" t="str" cm="1">
+        <f t="array" ref="F169">IF(AND(E168&gt;100,E169&lt;100),INDEX(M:M,MATCH(F168,M:M,0)+1,0),F168)</f>
+        <v>창</v>
+      </c>
+      <c r="G169" s="13" t="str">
+        <f t="shared" ref="G169:G176" si="70">VLOOKUP(F169,M:P,4,FALSE)</f>
+        <v>1E+172</v>
+      </c>
+      <c r="H169" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="I169" s="13" t="str">
+        <f t="shared" si="69"/>
+        <v>태극 161단</v>
+      </c>
+      <c r="J169" s="13">
+        <f t="shared" si="30"/>
+        <v>161</v>
+      </c>
+      <c r="K169" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B170" s="13">
+        <v>161</v>
+      </c>
+      <c r="C170" s="14">
+        <f t="shared" si="67"/>
+        <v>1E+173</v>
+      </c>
+      <c r="D170" s="14" t="str">
+        <f t="shared" si="68"/>
+        <v>10창</v>
+      </c>
+      <c r="E170" s="14">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="F170" s="13" t="str" cm="1">
+        <f t="array" ref="F170">IF(AND(E169&gt;100,E170&lt;100),INDEX(M:M,MATCH(F169,M:M,0)+1,0),F169)</f>
+        <v>창</v>
+      </c>
+      <c r="G170" s="13" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+172</v>
+      </c>
+      <c r="H170" s="13">
+        <v>6.88</v>
+      </c>
+      <c r="I170" s="13" t="str">
+        <f t="shared" si="69"/>
+        <v>태극 162단</v>
+      </c>
+      <c r="J170" s="13">
+        <f t="shared" si="30"/>
+        <v>162</v>
+      </c>
+      <c r="K170" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B171" s="13">
+        <v>162</v>
+      </c>
+      <c r="C171" s="14">
+        <f t="shared" ref="C171:C176" si="71">E171*G171</f>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="D171" s="14" t="str">
+        <f t="shared" ref="D171:D176" si="72">E171&amp;F171</f>
+        <v>100창</v>
+      </c>
+      <c r="E171" s="14">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+      <c r="F171" s="13" t="str" cm="1">
+        <f t="array" ref="F171">IF(AND(E170&gt;100,E171&lt;100),INDEX(M:M,MATCH(F170,M:M,0)+1,0),F170)</f>
+        <v>창</v>
+      </c>
+      <c r="G171" s="13" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+172</v>
+      </c>
+      <c r="H171" s="13">
+        <v>6.96</v>
+      </c>
+      <c r="I171" s="13" t="str">
+        <f t="shared" ref="I171:I176" si="73">K171&amp;" "&amp;J171&amp;"단"</f>
+        <v>태극 163단</v>
+      </c>
+      <c r="J171" s="13">
+        <f t="shared" si="30"/>
+        <v>163</v>
+      </c>
+      <c r="K171" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B172" s="13">
+        <v>163</v>
+      </c>
+      <c r="C172" s="14">
+        <f t="shared" si="71"/>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="D172" s="14" t="str">
+        <f t="shared" si="72"/>
+        <v>1000창</v>
+      </c>
+      <c r="E172" s="14">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="F172" s="13" t="str" cm="1">
+        <f t="array" ref="F172">IF(AND(E171&gt;100,E172&lt;100),INDEX(M:M,MATCH(F171,M:M,0)+1,0),F171)</f>
+        <v>창</v>
+      </c>
+      <c r="G172" s="13" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+172</v>
+      </c>
+      <c r="H172" s="13">
+        <v>7.0399999999999903</v>
+      </c>
+      <c r="I172" s="13" t="str">
+        <f t="shared" si="73"/>
+        <v>태극 164단</v>
+      </c>
+      <c r="J172" s="13">
+        <f t="shared" si="30"/>
+        <v>164</v>
+      </c>
+      <c r="K172" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B173" s="13">
+        <v>164</v>
+      </c>
+      <c r="C173" s="14">
+        <f t="shared" si="71"/>
+        <v>1E+176</v>
+      </c>
+      <c r="D173" s="14" t="str">
+        <f t="shared" si="72"/>
+        <v>1공</v>
+      </c>
+      <c r="E173" s="14">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="F173" s="13" t="str" cm="1">
+        <f t="array" ref="F173">IF(AND(E172&gt;100,E173&lt;100),INDEX(M:M,MATCH(F172,M:M,0)+1,0),F172)</f>
+        <v>공</v>
+      </c>
+      <c r="G173" s="13" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H173" s="13">
+        <v>7.1199999999999903</v>
+      </c>
+      <c r="I173" s="13" t="str">
+        <f t="shared" si="73"/>
+        <v>태극 165단</v>
+      </c>
+      <c r="J173" s="13">
+        <f t="shared" si="30"/>
+        <v>165</v>
+      </c>
+      <c r="K173" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B174" s="13">
+        <v>165</v>
+      </c>
+      <c r="C174" s="14">
+        <f t="shared" si="71"/>
+        <v>1E+177</v>
+      </c>
+      <c r="D174" s="14" t="str">
+        <f t="shared" si="72"/>
+        <v>10공</v>
+      </c>
+      <c r="E174" s="14">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="F174" s="13" t="str" cm="1">
+        <f t="array" ref="F174">IF(AND(E173&gt;100,E174&lt;100),INDEX(M:M,MATCH(F173,M:M,0)+1,0),F173)</f>
+        <v>공</v>
+      </c>
+      <c r="G174" s="13" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H174" s="13">
+        <v>7.1999999999999904</v>
+      </c>
+      <c r="I174" s="13" t="str">
+        <f t="shared" si="73"/>
+        <v>태극 166단</v>
+      </c>
+      <c r="J174" s="13">
+        <f t="shared" si="30"/>
+        <v>166</v>
+      </c>
+      <c r="K174" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B175" s="13">
+        <v>166</v>
+      </c>
+      <c r="C175" s="14">
+        <f t="shared" si="71"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="D175" s="14" t="str">
+        <f t="shared" si="72"/>
+        <v>100공</v>
+      </c>
+      <c r="E175" s="14">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+      <c r="F175" s="13" t="str" cm="1">
+        <f t="array" ref="F175">IF(AND(E174&gt;100,E175&lt;100),INDEX(M:M,MATCH(F174,M:M,0)+1,0),F174)</f>
+        <v>공</v>
+      </c>
+      <c r="G175" s="13" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H175" s="13">
+        <v>7.2799999999999896</v>
+      </c>
+      <c r="I175" s="13" t="str">
+        <f t="shared" si="73"/>
+        <v>태극 167단</v>
+      </c>
+      <c r="J175" s="13">
+        <f t="shared" si="30"/>
+        <v>167</v>
+      </c>
+      <c r="K175" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B176" s="13">
+        <v>167</v>
+      </c>
+      <c r="C176" s="14">
+        <f t="shared" si="71"/>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="D176" s="14" t="str">
+        <f t="shared" si="72"/>
+        <v>1000공</v>
+      </c>
+      <c r="E176" s="14">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="F176" s="13" t="str" cm="1">
+        <f t="array" ref="F176">IF(AND(E175&gt;100,E176&lt;100),INDEX(M:M,MATCH(F175,M:M,0)+1,0),F175)</f>
+        <v>공</v>
+      </c>
+      <c r="G176" s="13" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H176" s="13">
+        <v>7.3599999999999897</v>
+      </c>
+      <c r="I176" s="13" t="str">
+        <f t="shared" si="73"/>
+        <v>태극 168단</v>
+      </c>
+      <c r="J176" s="13">
+        <f t="shared" si="30"/>
+        <v>168</v>
+      </c>
+      <c r="K176" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50403CA8-34D4-4422-950B-EB6A35EB1085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B425904-446E-459A-8F43-1D0F507DC09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="64">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,6 +304,14 @@
   </si>
   <si>
     <t>공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,11 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D161" sqref="D161"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3725,7 +3733,7 @@
         <v>1E+149</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C169" si="3">C138</f>
+        <f t="shared" ref="C139:C188" si="3">C138</f>
         <v>55</v>
       </c>
       <c r="D139">
@@ -4365,6 +4373,174 @@
       <c r="E169" t="str">
         <f>VLOOKUP(A169,Balance!B:I,8,FALSE)</f>
         <v>태극 168단</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <f>VLOOKUP(A170,Balance!B:C,2,FALSE)</f>
+        <v>1E+180</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D170">
+        <f>VLOOKUP(A170,Balance!B:I,7,FALSE)</f>
+        <v>7.4399999999999897</v>
+      </c>
+      <c r="E170" t="str">
+        <f>VLOOKUP(A170,Balance!B:I,8,FALSE)</f>
+        <v>태극 169단</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <f>VLOOKUP(A171,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999992E+180</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D171">
+        <f>VLOOKUP(A171,Balance!B:I,7,FALSE)</f>
+        <v>7.5199999999999898</v>
+      </c>
+      <c r="E171" t="str">
+        <f>VLOOKUP(A171,Balance!B:I,8,FALSE)</f>
+        <v>태극 170단</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <f>VLOOKUP(A172,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+182</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D172">
+        <f>VLOOKUP(A172,Balance!B:I,7,FALSE)</f>
+        <v>7.5999999999999899</v>
+      </c>
+      <c r="E172" t="str">
+        <f>VLOOKUP(A172,Balance!B:I,8,FALSE)</f>
+        <v>태극 171단</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <f>VLOOKUP(A173,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+183</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D173">
+        <f>VLOOKUP(A173,Balance!B:I,7,FALSE)</f>
+        <v>7.6799999999999899</v>
+      </c>
+      <c r="E173" t="str">
+        <f>VLOOKUP(A173,Balance!B:I,8,FALSE)</f>
+        <v>태극 172단</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <f>VLOOKUP(A174,Balance!B:C,2,FALSE)</f>
+        <v>1E+184</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D174">
+        <f>VLOOKUP(A174,Balance!B:I,7,FALSE)</f>
+        <v>7.75999999999999</v>
+      </c>
+      <c r="E174" t="str">
+        <f>VLOOKUP(A174,Balance!B:I,8,FALSE)</f>
+        <v>태극 173단</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <f>VLOOKUP(A175,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999998E+184</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D175">
+        <f>VLOOKUP(A175,Balance!B:I,7,FALSE)</f>
+        <v>7.8399999999999901</v>
+      </c>
+      <c r="E175" t="str">
+        <f>VLOOKUP(A175,Balance!B:I,8,FALSE)</f>
+        <v>태극 174단</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <f>VLOOKUP(A176,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999998E+185</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D176">
+        <f>VLOOKUP(A176,Balance!B:I,7,FALSE)</f>
+        <v>7.9199999999999902</v>
+      </c>
+      <c r="E176" t="str">
+        <f>VLOOKUP(A176,Balance!B:I,8,FALSE)</f>
+        <v>태극 175단</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <f>VLOOKUP(A177,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+187</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D177">
+        <f>VLOOKUP(A177,Balance!B:I,7,FALSE)</f>
+        <v>7.9999999999999902</v>
+      </c>
+      <c r="E177" t="str">
+        <f>VLOOKUP(A177,Balance!B:I,8,FALSE)</f>
+        <v>태극 176단</v>
       </c>
     </row>
   </sheetData>
@@ -4376,10 +4552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X176"/>
+  <dimension ref="A1:X184"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G171" sqref="G171"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6872,6 +7048,20 @@
       <c r="K52" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M52" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N52" s="13">
+        <v>180</v>
+      </c>
+      <c r="O52" s="14">
+        <f t="shared" ref="O52:O53" si="25">POWER(10,N52)</f>
+        <v>1E+180</v>
+      </c>
+      <c r="P52" s="14" t="str">
+        <f t="shared" ref="P52:P53" si="26">RIGHT(O52,N52)</f>
+        <v>1E+180</v>
+      </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="13">
@@ -6911,6 +7101,20 @@
       <c r="K53" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M53" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N53" s="13">
+        <v>184</v>
+      </c>
+      <c r="O53" s="14">
+        <f t="shared" si="25"/>
+        <v>1E+184</v>
+      </c>
+      <c r="P53" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>1E+184</v>
+      </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="13">
@@ -7424,15 +7628,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="25">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="27">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="26">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="28">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="27">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="29">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -7463,15 +7667,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -7502,15 +7706,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -7541,15 +7745,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -7580,15 +7784,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -7619,15 +7823,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -7658,15 +7862,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -7674,7 +7878,7 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="28">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="30">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
@@ -7697,15 +7901,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -7713,14 +7917,14 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="29">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="31">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
@@ -7736,15 +7940,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -7752,18 +7956,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J176" si="30">J74+1</f>
+        <f t="shared" ref="J75:J184" si="32">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -7775,15 +7979,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -7791,18 +7995,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -7814,15 +8018,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -7830,18 +8034,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -7853,15 +8057,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -7869,18 +8073,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -7892,15 +8096,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -7908,18 +8112,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -7931,15 +8135,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -7947,18 +8151,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -7970,15 +8174,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -7986,18 +8190,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -8009,15 +8213,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -8025,18 +8229,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -8048,15 +8252,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -8064,18 +8268,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -8087,15 +8291,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -8103,18 +8307,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -8126,15 +8330,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -8142,18 +8346,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -8165,15 +8369,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -8181,18 +8385,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -8204,15 +8408,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -8220,18 +8424,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -8243,15 +8447,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -8259,18 +8463,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -8282,15 +8486,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -8298,18 +8502,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -8321,15 +8525,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -8337,18 +8541,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -8360,15 +8564,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -8376,18 +8580,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -8399,15 +8603,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -8415,18 +8619,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -8438,15 +8642,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -8454,18 +8658,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -8477,15 +8681,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -8493,18 +8697,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -8516,15 +8720,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -8532,18 +8736,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -8555,15 +8759,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -8571,18 +8775,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -8594,15 +8798,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -8610,18 +8814,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -8633,15 +8837,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -8649,18 +8853,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -8672,15 +8876,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -8688,18 +8892,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -8711,15 +8915,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -8727,18 +8931,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -8750,15 +8954,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -8766,18 +8970,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -8789,15 +8993,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -8805,18 +9009,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -8828,15 +9032,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -8844,18 +9048,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -8867,15 +9071,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -8883,18 +9087,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -8906,15 +9110,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -8922,18 +9126,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G136" si="31">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G136" si="33">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -8945,15 +9149,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -8961,18 +9165,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -8984,15 +9188,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -9000,18 +9204,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -9023,15 +9227,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -9039,18 +9243,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -9062,15 +9266,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -9078,18 +9282,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -9101,15 +9305,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -9117,18 +9321,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -9140,15 +9344,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -9156,18 +9360,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -9179,15 +9383,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="32">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="34">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="33">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="35">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E176" si="34">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E184" si="36">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -9195,18 +9399,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="35">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="37">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -9218,15 +9422,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -9234,18 +9438,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -9257,15 +9461,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -9273,18 +9477,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -9296,15 +9500,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -9312,18 +9516,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -9335,15 +9539,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -9351,18 +9555,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -9374,15 +9578,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -9390,18 +9594,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -9413,15 +9617,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -9429,18 +9633,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -9452,15 +9656,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -9468,18 +9672,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -9491,15 +9695,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -9507,18 +9711,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -9530,15 +9734,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -9546,18 +9750,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -9569,15 +9773,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -9585,18 +9789,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -9608,15 +9812,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -9624,18 +9828,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -9647,15 +9851,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -9663,18 +9867,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -9686,15 +9890,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="36">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="38">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="37">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="39">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -9702,18 +9906,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="38">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="40">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -9725,15 +9929,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
+        <f t="shared" si="38"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="39"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
         <f t="shared" si="36"/>
-        <v>1E+129</v>
-      </c>
-      <c r="D126" s="14" t="str">
-        <f t="shared" si="37"/>
-        <v>10위</v>
-      </c>
-      <c r="E126" s="14">
-        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -9741,18 +9945,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -9764,15 +9968,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
+        <f t="shared" si="38"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="39"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
         <f t="shared" si="36"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="D127" s="14" t="str">
-        <f t="shared" si="37"/>
-        <v>100위</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -9780,18 +9984,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -9803,15 +10007,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
+        <f t="shared" si="38"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="39"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
         <f t="shared" si="36"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="D128" s="14" t="str">
-        <f t="shared" si="37"/>
-        <v>1000위</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -9819,18 +10023,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -9842,15 +10046,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
+        <f t="shared" si="38"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="39"/>
+        <v>1설</v>
+      </c>
+      <c r="E129" s="14">
         <f t="shared" si="36"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="D129" s="14" t="str">
-        <f t="shared" si="37"/>
-        <v>1설</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -9858,18 +10062,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -9881,15 +10085,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
+        <f t="shared" si="38"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="39"/>
+        <v>10설</v>
+      </c>
+      <c r="E130" s="14">
         <f t="shared" si="36"/>
-        <v>1E+133</v>
-      </c>
-      <c r="D130" s="14" t="str">
-        <f t="shared" si="37"/>
-        <v>10설</v>
-      </c>
-      <c r="E130" s="14">
-        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -9897,18 +10101,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -9920,15 +10124,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C134" si="39">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="41">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D134" si="40">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="42">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -9936,18 +10140,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I134" si="41">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="43">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -9959,15 +10163,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -9975,18 +10179,18 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
@@ -9998,15 +10202,15 @@
         <v>124</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D133" s="14" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1적</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F133" s="13" t="str" cm="1">
@@ -10014,18 +10218,18 @@
         <v>적</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+136</v>
       </c>
       <c r="H133" s="13">
         <v>3.92</v>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 125단</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>125</v>
       </c>
       <c r="K133" s="13" t="s">
@@ -10037,15 +10241,15 @@
         <v>125</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+137</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10적</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F134" s="13" t="str" cm="1">
@@ -10053,18 +10257,18 @@
         <v>적</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+136</v>
       </c>
       <c r="H134" s="13">
         <v>4</v>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 126단</v>
       </c>
       <c r="J134" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>126</v>
       </c>
       <c r="K134" s="13" t="s">
@@ -10076,15 +10280,15 @@
         <v>126</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" ref="C135:C138" si="42">E135*G135</f>
+        <f t="shared" ref="C135:C138" si="44">E135*G135</f>
         <v>1E+138</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f t="shared" ref="D135:D138" si="43">E135&amp;F135</f>
+        <f t="shared" ref="D135:D138" si="45">E135&amp;F135</f>
         <v>100적</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F135" s="13" t="str" cm="1">
@@ -10092,18 +10296,18 @@
         <v>적</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+136</v>
       </c>
       <c r="H135" s="13">
         <v>4.08</v>
       </c>
       <c r="I135" s="13" t="str">
-        <f t="shared" ref="I135:I138" si="44">K135&amp;" "&amp;J135&amp;"단"</f>
+        <f t="shared" ref="I135:I138" si="46">K135&amp;" "&amp;J135&amp;"단"</f>
         <v>태극 127단</v>
       </c>
       <c r="J135" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>127</v>
       </c>
       <c r="K135" s="13" t="s">
@@ -10115,15 +10319,15 @@
         <v>127</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+139</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000적</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F136" s="13" t="str" cm="1">
@@ -10131,18 +10335,18 @@
         <v>적</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+136</v>
       </c>
       <c r="H136" s="13">
         <v>4.16</v>
       </c>
       <c r="I136" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>태극 128단</v>
       </c>
       <c r="J136" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>128</v>
       </c>
       <c r="K136" s="13" t="s">
@@ -10154,15 +10358,15 @@
         <v>128</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D137" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1고</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F137" s="13" t="str" cm="1">
@@ -10170,18 +10374,18 @@
         <v>고</v>
       </c>
       <c r="G137" s="13" t="str">
-        <f t="shared" ref="G137:G168" si="45">VLOOKUP(F137,M:P,4,FALSE)</f>
+        <f t="shared" ref="G137:G168" si="47">VLOOKUP(F137,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H137" s="13">
         <v>4.24</v>
       </c>
       <c r="I137" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>태극 129단</v>
       </c>
       <c r="J137" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>129</v>
       </c>
       <c r="K137" s="13" t="s">
@@ -10193,15 +10397,15 @@
         <v>129</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+141</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10고</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F138" s="13" t="str" cm="1">
@@ -10209,18 +10413,18 @@
         <v>고</v>
       </c>
       <c r="G138" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+140</v>
       </c>
       <c r="H138" s="13">
         <v>4.32</v>
       </c>
       <c r="I138" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>태극 130단</v>
       </c>
       <c r="J138" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>130</v>
       </c>
       <c r="K138" s="13" t="s">
@@ -10232,15 +10436,15 @@
         <v>130</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" ref="C139:C142" si="46">E139*G139</f>
+        <f t="shared" ref="C139:C142" si="48">E139*G139</f>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="D139" s="14" t="str">
-        <f t="shared" ref="D139:D142" si="47">E139&amp;F139</f>
+        <f t="shared" ref="D139:D142" si="49">E139&amp;F139</f>
         <v>100고</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F139" s="13" t="str" cm="1">
@@ -10248,18 +10452,18 @@
         <v>고</v>
       </c>
       <c r="G139" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+140</v>
       </c>
       <c r="H139" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="I139" s="13" t="str">
-        <f t="shared" ref="I139:I142" si="48">K139&amp;" "&amp;J139&amp;"단"</f>
+        <f t="shared" ref="I139:I142" si="50">K139&amp;" "&amp;J139&amp;"단"</f>
         <v>태극 131단</v>
       </c>
       <c r="J139" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>131</v>
       </c>
       <c r="K139" s="13" t="s">
@@ -10271,15 +10475,15 @@
         <v>131</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+143</v>
       </c>
       <c r="D140" s="14" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000고</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F140" s="13" t="str" cm="1">
@@ -10287,18 +10491,18 @@
         <v>고</v>
       </c>
       <c r="G140" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+140</v>
       </c>
       <c r="H140" s="13">
         <v>4.4800000000000004</v>
       </c>
       <c r="I140" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>태극 132단</v>
       </c>
       <c r="J140" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>132</v>
       </c>
       <c r="K140" s="13" t="s">
@@ -10310,15 +10514,15 @@
         <v>132</v>
       </c>
       <c r="C141" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="D141" s="14" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1화</v>
       </c>
       <c r="E141" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F141" s="13" t="str" cm="1">
@@ -10326,18 +10530,18 @@
         <v>화</v>
       </c>
       <c r="G141" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+144</v>
       </c>
       <c r="H141" s="13">
         <v>4.5599999999999996</v>
       </c>
       <c r="I141" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>태극 133단</v>
       </c>
       <c r="J141" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>133</v>
       </c>
       <c r="K141" s="13" t="s">
@@ -10349,15 +10553,15 @@
         <v>133</v>
       </c>
       <c r="C142" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10화</v>
       </c>
       <c r="E142" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F142" s="13" t="str" cm="1">
@@ -10365,18 +10569,18 @@
         <v>화</v>
       </c>
       <c r="G142" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+144</v>
       </c>
       <c r="H142" s="13">
         <v>4.6399999999999997</v>
       </c>
       <c r="I142" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>태극 134단</v>
       </c>
       <c r="J142" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>134</v>
       </c>
       <c r="K142" s="13" t="s">
@@ -10388,15 +10592,15 @@
         <v>134</v>
       </c>
       <c r="C143" s="14">
-        <f t="shared" ref="C143:C146" si="49">E143*G143</f>
+        <f t="shared" ref="C143:C146" si="51">E143*G143</f>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="D143" s="14" t="str">
-        <f t="shared" ref="D143:D146" si="50">E143&amp;F143</f>
+        <f t="shared" ref="D143:D146" si="52">E143&amp;F143</f>
         <v>100화</v>
       </c>
       <c r="E143" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F143" s="13" t="str" cm="1">
@@ -10404,18 +10608,18 @@
         <v>화</v>
       </c>
       <c r="G143" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+144</v>
       </c>
       <c r="H143" s="13">
         <v>4.72</v>
       </c>
       <c r="I143" s="13" t="str">
-        <f t="shared" ref="I143:I146" si="51">K143&amp;" "&amp;J143&amp;"단"</f>
+        <f t="shared" ref="I143:I146" si="53">K143&amp;" "&amp;J143&amp;"단"</f>
         <v>태극 135단</v>
       </c>
       <c r="J143" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>135</v>
       </c>
       <c r="K143" s="13" t="s">
@@ -10427,15 +10631,15 @@
         <v>135</v>
       </c>
       <c r="C144" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="D144" s="14" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1000화</v>
       </c>
       <c r="E144" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F144" s="13" t="str" cm="1">
@@ -10443,18 +10647,18 @@
         <v>화</v>
       </c>
       <c r="G144" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+144</v>
       </c>
       <c r="H144" s="13">
         <v>4.8</v>
       </c>
       <c r="I144" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>태극 136단</v>
       </c>
       <c r="J144" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>136</v>
       </c>
       <c r="K144" s="13" t="s">
@@ -10466,15 +10670,15 @@
         <v>136</v>
       </c>
       <c r="C145" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+148</v>
       </c>
       <c r="D145" s="14" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1명</v>
       </c>
       <c r="E145" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F145" s="13" t="str" cm="1">
@@ -10482,18 +10686,18 @@
         <v>명</v>
       </c>
       <c r="G145" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+148</v>
       </c>
       <c r="H145" s="13">
         <v>4.88</v>
       </c>
       <c r="I145" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>태극 137단</v>
       </c>
       <c r="J145" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>137</v>
       </c>
       <c r="K145" s="13" t="s">
@@ -10505,15 +10709,15 @@
         <v>137</v>
       </c>
       <c r="C146" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+149</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>10명</v>
       </c>
       <c r="E146" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F146" s="13" t="str" cm="1">
@@ -10521,18 +10725,18 @@
         <v>명</v>
       </c>
       <c r="G146" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+148</v>
       </c>
       <c r="H146" s="13">
         <v>4.96</v>
       </c>
       <c r="I146" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>태극 138단</v>
       </c>
       <c r="J146" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>138</v>
       </c>
       <c r="K146" s="13" t="s">
@@ -10544,15 +10748,15 @@
         <v>138</v>
       </c>
       <c r="C147" s="14">
-        <f t="shared" ref="C147:C150" si="52">E147*G147</f>
+        <f t="shared" ref="C147:C150" si="54">E147*G147</f>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="D147" s="14" t="str">
-        <f t="shared" ref="D147:D150" si="53">E147&amp;F147</f>
+        <f t="shared" ref="D147:D150" si="55">E147&amp;F147</f>
         <v>100명</v>
       </c>
       <c r="E147" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F147" s="13" t="str" cm="1">
@@ -10560,18 +10764,18 @@
         <v>명</v>
       </c>
       <c r="G147" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+148</v>
       </c>
       <c r="H147" s="13">
         <v>5.04</v>
       </c>
       <c r="I147" s="13" t="str">
-        <f t="shared" ref="I147:I150" si="54">K147&amp;" "&amp;J147&amp;"단"</f>
+        <f t="shared" ref="I147:I150" si="56">K147&amp;" "&amp;J147&amp;"단"</f>
         <v>태극 139단</v>
       </c>
       <c r="J147" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>139</v>
       </c>
       <c r="K147" s="13" t="s">
@@ -10583,15 +10787,15 @@
         <v>139</v>
       </c>
       <c r="C148" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+151</v>
       </c>
       <c r="D148" s="14" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000명</v>
       </c>
       <c r="E148" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F148" s="13" t="str" cm="1">
@@ -10599,18 +10803,18 @@
         <v>명</v>
       </c>
       <c r="G148" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+148</v>
       </c>
       <c r="H148" s="13">
         <v>5.12</v>
       </c>
       <c r="I148" s="13" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>태극 140단</v>
       </c>
       <c r="J148" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>140</v>
       </c>
       <c r="K148" s="13" t="s">
@@ -10622,15 +10826,15 @@
         <v>140</v>
       </c>
       <c r="C149" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+152</v>
       </c>
       <c r="D149" s="14" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1월</v>
       </c>
       <c r="E149" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F149" s="13" t="str" cm="1">
@@ -10638,18 +10842,18 @@
         <v>월</v>
       </c>
       <c r="G149" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+152</v>
       </c>
       <c r="H149" s="13">
         <v>5.2</v>
       </c>
       <c r="I149" s="13" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>태극 141단</v>
       </c>
       <c r="J149" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>141</v>
       </c>
       <c r="K149" s="13" t="s">
@@ -10661,15 +10865,15 @@
         <v>141</v>
       </c>
       <c r="C150" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+153</v>
       </c>
       <c r="D150" s="14" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10월</v>
       </c>
       <c r="E150" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F150" s="13" t="str" cm="1">
@@ -10677,18 +10881,18 @@
         <v>월</v>
       </c>
       <c r="G150" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+152</v>
       </c>
       <c r="H150" s="13">
         <v>5.28</v>
       </c>
       <c r="I150" s="13" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>태극 142단</v>
       </c>
       <c r="J150" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>142</v>
       </c>
       <c r="K150" s="13" t="s">
@@ -10700,15 +10904,15 @@
         <v>142</v>
       </c>
       <c r="C151" s="14">
-        <f t="shared" ref="C151:C154" si="55">E151*G151</f>
+        <f t="shared" ref="C151:C154" si="57">E151*G151</f>
         <v>1E+154</v>
       </c>
       <c r="D151" s="14" t="str">
-        <f t="shared" ref="D151:D154" si="56">E151&amp;F151</f>
+        <f t="shared" ref="D151:D154" si="58">E151&amp;F151</f>
         <v>100월</v>
       </c>
       <c r="E151" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F151" s="13" t="str" cm="1">
@@ -10716,18 +10920,18 @@
         <v>월</v>
       </c>
       <c r="G151" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+152</v>
       </c>
       <c r="H151" s="13">
         <v>5.36</v>
       </c>
       <c r="I151" s="13" t="str">
-        <f t="shared" ref="I151:I154" si="57">K151&amp;" "&amp;J151&amp;"단"</f>
+        <f t="shared" ref="I151:I154" si="59">K151&amp;" "&amp;J151&amp;"단"</f>
         <v>태극 143단</v>
       </c>
       <c r="J151" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>143</v>
       </c>
       <c r="K151" s="13" t="s">
@@ -10739,15 +10943,15 @@
         <v>143</v>
       </c>
       <c r="C152" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+155</v>
       </c>
       <c r="D152" s="14" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1000월</v>
       </c>
       <c r="E152" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F152" s="13" t="str" cm="1">
@@ -10755,18 +10959,18 @@
         <v>월</v>
       </c>
       <c r="G152" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+152</v>
       </c>
       <c r="H152" s="13">
         <v>5.44</v>
       </c>
       <c r="I152" s="13" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>태극 144단</v>
       </c>
       <c r="J152" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>144</v>
       </c>
       <c r="K152" s="13" t="s">
@@ -10778,15 +10982,15 @@
         <v>144</v>
       </c>
       <c r="C153" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="D153" s="14" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1후</v>
       </c>
       <c r="E153" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F153" s="13" t="str" cm="1">
@@ -10794,18 +10998,18 @@
         <v>후</v>
       </c>
       <c r="G153" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+156</v>
       </c>
       <c r="H153" s="13">
         <v>5.52</v>
       </c>
       <c r="I153" s="13" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>태극 145단</v>
       </c>
       <c r="J153" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>145</v>
       </c>
       <c r="K153" s="13" t="s">
@@ -10817,15 +11021,15 @@
         <v>145</v>
       </c>
       <c r="C154" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="D154" s="14" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>10후</v>
       </c>
       <c r="E154" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F154" s="13" t="str" cm="1">
@@ -10833,18 +11037,18 @@
         <v>후</v>
       </c>
       <c r="G154" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+156</v>
       </c>
       <c r="H154" s="13">
         <v>5.6</v>
       </c>
       <c r="I154" s="13" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>태극 146단</v>
       </c>
       <c r="J154" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>146</v>
       </c>
       <c r="K154" s="13" t="s">
@@ -10856,15 +11060,15 @@
         <v>146</v>
       </c>
       <c r="C155" s="14">
-        <f t="shared" ref="C155:C158" si="58">E155*G155</f>
+        <f t="shared" ref="C155:C158" si="60">E155*G155</f>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="D155" s="14" t="str">
-        <f t="shared" ref="D155:D158" si="59">E155&amp;F155</f>
+        <f t="shared" ref="D155:D158" si="61">E155&amp;F155</f>
         <v>100후</v>
       </c>
       <c r="E155" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F155" s="13" t="str" cm="1">
@@ -10872,18 +11076,18 @@
         <v>후</v>
       </c>
       <c r="G155" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+156</v>
       </c>
       <c r="H155" s="13">
         <v>5.68</v>
       </c>
       <c r="I155" s="13" t="str">
-        <f t="shared" ref="I155:I158" si="60">K155&amp;" "&amp;J155&amp;"단"</f>
+        <f t="shared" ref="I155:I158" si="62">K155&amp;" "&amp;J155&amp;"단"</f>
         <v>태극 147단</v>
       </c>
       <c r="J155" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>147</v>
       </c>
       <c r="K155" s="13" t="s">
@@ -10895,15 +11099,15 @@
         <v>147</v>
       </c>
       <c r="C156" s="14">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="D156" s="14" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1000후</v>
       </c>
       <c r="E156" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F156" s="13" t="str" cm="1">
@@ -10911,18 +11115,18 @@
         <v>후</v>
       </c>
       <c r="G156" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+156</v>
       </c>
       <c r="H156" s="13">
         <v>5.76</v>
       </c>
       <c r="I156" s="13" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>태극 148단</v>
       </c>
       <c r="J156" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>148</v>
       </c>
       <c r="K156" s="13" t="s">
@@ -10934,15 +11138,15 @@
         <v>148</v>
       </c>
       <c r="C157" s="14">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+160</v>
       </c>
       <c r="D157" s="14" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1단</v>
       </c>
       <c r="E157" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F157" s="13" t="str" cm="1">
@@ -10950,18 +11154,18 @@
         <v>단</v>
       </c>
       <c r="G157" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+160</v>
       </c>
       <c r="H157" s="13">
         <v>5.84</v>
       </c>
       <c r="I157" s="13" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>태극 149단</v>
       </c>
       <c r="J157" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>149</v>
       </c>
       <c r="K157" s="13" t="s">
@@ -10973,15 +11177,15 @@
         <v>149</v>
       </c>
       <c r="C158" s="14">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+161</v>
       </c>
       <c r="D158" s="14" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>10단</v>
       </c>
       <c r="E158" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F158" s="13" t="str" cm="1">
@@ -10989,18 +11193,18 @@
         <v>단</v>
       </c>
       <c r="G158" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+160</v>
       </c>
       <c r="H158" s="13">
         <v>5.92</v>
       </c>
       <c r="I158" s="13" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>태극 150단</v>
       </c>
       <c r="J158" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>150</v>
       </c>
       <c r="K158" s="13" t="s">
@@ -11012,15 +11216,15 @@
         <v>150</v>
       </c>
       <c r="C159" s="14">
-        <f t="shared" ref="C159:C162" si="61">E159*G159</f>
+        <f t="shared" ref="C159:C162" si="63">E159*G159</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="D159" s="14" t="str">
-        <f t="shared" ref="D159:D162" si="62">E159&amp;F159</f>
+        <f t="shared" ref="D159:D162" si="64">E159&amp;F159</f>
         <v>100단</v>
       </c>
       <c r="E159" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F159" s="13" t="str" cm="1">
@@ -11028,18 +11232,18 @@
         <v>단</v>
       </c>
       <c r="G159" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+160</v>
       </c>
       <c r="H159" s="13">
         <v>6</v>
       </c>
       <c r="I159" s="13" t="str">
-        <f t="shared" ref="I159:I162" si="63">K159&amp;" "&amp;J159&amp;"단"</f>
+        <f t="shared" ref="I159:I162" si="65">K159&amp;" "&amp;J159&amp;"단"</f>
         <v>태극 151단</v>
       </c>
       <c r="J159" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>151</v>
       </c>
       <c r="K159" s="13" t="s">
@@ -11051,15 +11255,15 @@
         <v>151</v>
       </c>
       <c r="C160" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="D160" s="14" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1000단</v>
       </c>
       <c r="E160" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F160" s="13" t="str" cm="1">
@@ -11067,18 +11271,18 @@
         <v>단</v>
       </c>
       <c r="G160" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+160</v>
       </c>
       <c r="H160" s="13">
         <v>6.08</v>
       </c>
       <c r="I160" s="13" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>태극 152단</v>
       </c>
       <c r="J160" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>152</v>
       </c>
       <c r="K160" s="13" t="s">
@@ -11090,15 +11294,15 @@
         <v>152</v>
       </c>
       <c r="C161" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+164</v>
       </c>
       <c r="D161" s="14" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1절</v>
       </c>
       <c r="E161" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F161" s="13" t="str" cm="1">
@@ -11106,18 +11310,18 @@
         <v>절</v>
       </c>
       <c r="G161" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+164</v>
       </c>
       <c r="H161" s="13">
         <v>6.16</v>
       </c>
       <c r="I161" s="13" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>태극 153단</v>
       </c>
       <c r="J161" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>153</v>
       </c>
       <c r="K161" s="13" t="s">
@@ -11129,15 +11333,15 @@
         <v>153</v>
       </c>
       <c r="C162" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="D162" s="14" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>10절</v>
       </c>
       <c r="E162" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F162" s="13" t="str" cm="1">
@@ -11145,18 +11349,18 @@
         <v>절</v>
       </c>
       <c r="G162" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+164</v>
       </c>
       <c r="H162" s="13">
         <v>6.24</v>
       </c>
       <c r="I162" s="13" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>태극 154단</v>
       </c>
       <c r="J162" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>154</v>
       </c>
       <c r="K162" s="13" t="s">
@@ -11168,15 +11372,15 @@
         <v>154</v>
       </c>
       <c r="C163" s="14">
-        <f t="shared" ref="C163:C166" si="64">E163*G163</f>
+        <f t="shared" ref="C163:C166" si="66">E163*G163</f>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="D163" s="14" t="str">
-        <f t="shared" ref="D163:D166" si="65">E163&amp;F163</f>
+        <f t="shared" ref="D163:D166" si="67">E163&amp;F163</f>
         <v>100절</v>
       </c>
       <c r="E163" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F163" s="13" t="str" cm="1">
@@ -11184,18 +11388,18 @@
         <v>절</v>
       </c>
       <c r="G163" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+164</v>
       </c>
       <c r="H163" s="13">
         <v>6.32</v>
       </c>
       <c r="I163" s="13" t="str">
-        <f t="shared" ref="I163:I166" si="66">K163&amp;" "&amp;J163&amp;"단"</f>
+        <f t="shared" ref="I163:I166" si="68">K163&amp;" "&amp;J163&amp;"단"</f>
         <v>태극 155단</v>
       </c>
       <c r="J163" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>155</v>
       </c>
       <c r="K163" s="13" t="s">
@@ -11207,15 +11411,15 @@
         <v>155</v>
       </c>
       <c r="C164" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+167</v>
       </c>
       <c r="D164" s="14" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1000절</v>
       </c>
       <c r="E164" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F164" s="13" t="str" cm="1">
@@ -11223,18 +11427,18 @@
         <v>절</v>
       </c>
       <c r="G164" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+164</v>
       </c>
       <c r="H164" s="13">
         <v>6.4</v>
       </c>
       <c r="I164" s="13" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>태극 156단</v>
       </c>
       <c r="J164" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>156</v>
       </c>
       <c r="K164" s="13" t="s">
@@ -11246,15 +11450,15 @@
         <v>156</v>
       </c>
       <c r="C165" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="D165" s="14" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1격</v>
       </c>
       <c r="E165" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F165" s="13" t="str" cm="1">
@@ -11262,18 +11466,18 @@
         <v>격</v>
       </c>
       <c r="G165" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+168</v>
       </c>
       <c r="H165" s="13">
         <v>6.48</v>
       </c>
       <c r="I165" s="13" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>태극 157단</v>
       </c>
       <c r="J165" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>157</v>
       </c>
       <c r="K165" s="13" t="s">
@@ -11285,15 +11489,15 @@
         <v>157</v>
       </c>
       <c r="C166" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="D166" s="14" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>10격</v>
       </c>
       <c r="E166" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F166" s="13" t="str" cm="1">
@@ -11301,18 +11505,18 @@
         <v>격</v>
       </c>
       <c r="G166" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+168</v>
       </c>
       <c r="H166" s="13">
         <v>6.56</v>
       </c>
       <c r="I166" s="13" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>태극 158단</v>
       </c>
       <c r="J166" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>158</v>
       </c>
       <c r="K166" s="13" t="s">
@@ -11324,15 +11528,15 @@
         <v>158</v>
       </c>
       <c r="C167" s="14">
-        <f t="shared" ref="C167:C170" si="67">E167*G167</f>
+        <f t="shared" ref="C167:C170" si="69">E167*G167</f>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="D167" s="14" t="str">
-        <f t="shared" ref="D167:D170" si="68">E167&amp;F167</f>
+        <f t="shared" ref="D167:D170" si="70">E167&amp;F167</f>
         <v>100격</v>
       </c>
       <c r="E167" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F167" s="13" t="str" cm="1">
@@ -11340,18 +11544,18 @@
         <v>격</v>
       </c>
       <c r="G167" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+168</v>
       </c>
       <c r="H167" s="13">
         <v>6.64</v>
       </c>
       <c r="I167" s="13" t="str">
-        <f t="shared" ref="I167:I170" si="69">K167&amp;" "&amp;J167&amp;"단"</f>
+        <f t="shared" ref="I167:I170" si="71">K167&amp;" "&amp;J167&amp;"단"</f>
         <v>태극 159단</v>
       </c>
       <c r="J167" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>159</v>
       </c>
       <c r="K167" s="13" t="s">
@@ -11363,15 +11567,15 @@
         <v>159</v>
       </c>
       <c r="C168" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="D168" s="14" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1000격</v>
       </c>
       <c r="E168" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F168" s="13" t="str" cm="1">
@@ -11379,18 +11583,18 @@
         <v>격</v>
       </c>
       <c r="G168" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+168</v>
       </c>
       <c r="H168" s="13">
         <v>6.72</v>
       </c>
       <c r="I168" s="13" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>태극 160단</v>
       </c>
       <c r="J168" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>160</v>
       </c>
       <c r="K168" s="13" t="s">
@@ -11402,15 +11606,15 @@
         <v>160</v>
       </c>
       <c r="C169" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="D169" s="14" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1창</v>
       </c>
       <c r="E169" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F169" s="13" t="str" cm="1">
@@ -11418,18 +11622,18 @@
         <v>창</v>
       </c>
       <c r="G169" s="13" t="str">
-        <f t="shared" ref="G169:G176" si="70">VLOOKUP(F169,M:P,4,FALSE)</f>
+        <f t="shared" ref="G169:G176" si="72">VLOOKUP(F169,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="H169" s="13">
         <v>6.8</v>
       </c>
       <c r="I169" s="13" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>태극 161단</v>
       </c>
       <c r="J169" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>161</v>
       </c>
       <c r="K169" s="13" t="s">
@@ -11441,15 +11645,15 @@
         <v>161</v>
       </c>
       <c r="C170" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+173</v>
       </c>
       <c r="D170" s="14" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>10창</v>
       </c>
       <c r="E170" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F170" s="13" t="str" cm="1">
@@ -11457,18 +11661,18 @@
         <v>창</v>
       </c>
       <c r="G170" s="13" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+172</v>
       </c>
       <c r="H170" s="13">
         <v>6.88</v>
       </c>
       <c r="I170" s="13" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>태극 162단</v>
       </c>
       <c r="J170" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>162</v>
       </c>
       <c r="K170" s="13" t="s">
@@ -11480,15 +11684,15 @@
         <v>162</v>
       </c>
       <c r="C171" s="14">
-        <f t="shared" ref="C171:C176" si="71">E171*G171</f>
+        <f t="shared" ref="C171:C176" si="73">E171*G171</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="D171" s="14" t="str">
-        <f t="shared" ref="D171:D176" si="72">E171&amp;F171</f>
+        <f t="shared" ref="D171:D176" si="74">E171&amp;F171</f>
         <v>100창</v>
       </c>
       <c r="E171" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F171" s="13" t="str" cm="1">
@@ -11496,18 +11700,18 @@
         <v>창</v>
       </c>
       <c r="G171" s="13" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+172</v>
       </c>
       <c r="H171" s="13">
         <v>6.96</v>
       </c>
       <c r="I171" s="13" t="str">
-        <f t="shared" ref="I171:I176" si="73">K171&amp;" "&amp;J171&amp;"단"</f>
+        <f t="shared" ref="I171:I176" si="75">K171&amp;" "&amp;J171&amp;"단"</f>
         <v>태극 163단</v>
       </c>
       <c r="J171" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>163</v>
       </c>
       <c r="K171" s="13" t="s">
@@ -11519,15 +11723,15 @@
         <v>163</v>
       </c>
       <c r="C172" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1.0000000000000001E+175</v>
       </c>
       <c r="D172" s="14" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1000창</v>
       </c>
       <c r="E172" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F172" s="13" t="str" cm="1">
@@ -11535,18 +11739,18 @@
         <v>창</v>
       </c>
       <c r="G172" s="13" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+172</v>
       </c>
       <c r="H172" s="13">
         <v>7.0399999999999903</v>
       </c>
       <c r="I172" s="13" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>태극 164단</v>
       </c>
       <c r="J172" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>164</v>
       </c>
       <c r="K172" s="13" t="s">
@@ -11558,15 +11762,15 @@
         <v>164</v>
       </c>
       <c r="C173" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+176</v>
       </c>
       <c r="D173" s="14" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1공</v>
       </c>
       <c r="E173" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F173" s="13" t="str" cm="1">
@@ -11574,18 +11778,18 @@
         <v>공</v>
       </c>
       <c r="G173" s="13" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+176</v>
       </c>
       <c r="H173" s="13">
         <v>7.1199999999999903</v>
       </c>
       <c r="I173" s="13" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>태극 165단</v>
       </c>
       <c r="J173" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>165</v>
       </c>
       <c r="K173" s="13" t="s">
@@ -11597,15 +11801,15 @@
         <v>165</v>
       </c>
       <c r="C174" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+177</v>
       </c>
       <c r="D174" s="14" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>10공</v>
       </c>
       <c r="E174" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F174" s="13" t="str" cm="1">
@@ -11613,18 +11817,18 @@
         <v>공</v>
       </c>
       <c r="G174" s="13" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+176</v>
       </c>
       <c r="H174" s="13">
         <v>7.1999999999999904</v>
       </c>
       <c r="I174" s="13" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>태극 166단</v>
       </c>
       <c r="J174" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>166</v>
       </c>
       <c r="K174" s="13" t="s">
@@ -11636,15 +11840,15 @@
         <v>166</v>
       </c>
       <c r="C175" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="D175" s="14" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>100공</v>
       </c>
       <c r="E175" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F175" s="13" t="str" cm="1">
@@ -11652,18 +11856,18 @@
         <v>공</v>
       </c>
       <c r="G175" s="13" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+176</v>
       </c>
       <c r="H175" s="13">
         <v>7.2799999999999896</v>
       </c>
       <c r="I175" s="13" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>태극 167단</v>
       </c>
       <c r="J175" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>167</v>
       </c>
       <c r="K175" s="13" t="s">
@@ -11675,15 +11879,15 @@
         <v>167</v>
       </c>
       <c r="C176" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>9.9999999999999998E+178</v>
       </c>
       <c r="D176" s="14" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1000공</v>
       </c>
       <c r="E176" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F176" s="13" t="str" cm="1">
@@ -11691,21 +11895,333 @@
         <v>공</v>
       </c>
       <c r="G176" s="13" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+176</v>
       </c>
       <c r="H176" s="13">
         <v>7.3599999999999897</v>
       </c>
       <c r="I176" s="13" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>태극 168단</v>
       </c>
       <c r="J176" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>168</v>
       </c>
       <c r="K176" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B177" s="13">
+        <v>168</v>
+      </c>
+      <c r="C177" s="14">
+        <f t="shared" ref="C177:C184" si="76">E177*G177</f>
+        <v>1E+180</v>
+      </c>
+      <c r="D177" s="14" t="str">
+        <f t="shared" ref="D177:D184" si="77">E177&amp;F177</f>
+        <v>1채</v>
+      </c>
+      <c r="E177" s="14">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="F177" s="13" t="str" cm="1">
+        <f t="array" ref="F177">IF(AND(E176&gt;100,E177&lt;100),INDEX(M:M,MATCH(F176,M:M,0)+1,0),F176)</f>
+        <v>채</v>
+      </c>
+      <c r="G177" s="13" t="str">
+        <f t="shared" ref="G177:G184" si="78">VLOOKUP(F177,M:P,4,FALSE)</f>
+        <v>1E+180</v>
+      </c>
+      <c r="H177" s="13">
+        <v>7.4399999999999897</v>
+      </c>
+      <c r="I177" s="13" t="str">
+        <f t="shared" ref="I177:I184" si="79">K177&amp;" "&amp;J177&amp;"단"</f>
+        <v>태극 169단</v>
+      </c>
+      <c r="J177" s="13">
+        <f t="shared" si="32"/>
+        <v>169</v>
+      </c>
+      <c r="K177" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B178" s="13">
+        <v>169</v>
+      </c>
+      <c r="C178" s="14">
+        <f t="shared" si="76"/>
+        <v>9.9999999999999992E+180</v>
+      </c>
+      <c r="D178" s="14" t="str">
+        <f t="shared" si="77"/>
+        <v>10채</v>
+      </c>
+      <c r="E178" s="14">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="F178" s="13" t="str" cm="1">
+        <f t="array" ref="F178">IF(AND(E177&gt;100,E178&lt;100),INDEX(M:M,MATCH(F177,M:M,0)+1,0),F177)</f>
+        <v>채</v>
+      </c>
+      <c r="G178" s="13" t="str">
+        <f t="shared" si="78"/>
+        <v>1E+180</v>
+      </c>
+      <c r="H178" s="13">
+        <v>7.5199999999999898</v>
+      </c>
+      <c r="I178" s="13" t="str">
+        <f t="shared" si="79"/>
+        <v>태극 170단</v>
+      </c>
+      <c r="J178" s="13">
+        <f t="shared" si="32"/>
+        <v>170</v>
+      </c>
+      <c r="K178" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B179" s="13">
+        <v>170</v>
+      </c>
+      <c r="C179" s="14">
+        <f t="shared" si="76"/>
+        <v>1.0000000000000001E+182</v>
+      </c>
+      <c r="D179" s="14" t="str">
+        <f t="shared" si="77"/>
+        <v>100채</v>
+      </c>
+      <c r="E179" s="14">
+        <f t="shared" si="36"/>
+        <v>100</v>
+      </c>
+      <c r="F179" s="13" t="str" cm="1">
+        <f t="array" ref="F179">IF(AND(E178&gt;100,E179&lt;100),INDEX(M:M,MATCH(F178,M:M,0)+1,0),F178)</f>
+        <v>채</v>
+      </c>
+      <c r="G179" s="13" t="str">
+        <f t="shared" si="78"/>
+        <v>1E+180</v>
+      </c>
+      <c r="H179" s="13">
+        <v>7.5999999999999899</v>
+      </c>
+      <c r="I179" s="13" t="str">
+        <f t="shared" si="79"/>
+        <v>태극 171단</v>
+      </c>
+      <c r="J179" s="13">
+        <f t="shared" si="32"/>
+        <v>171</v>
+      </c>
+      <c r="K179" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B180" s="13">
+        <v>171</v>
+      </c>
+      <c r="C180" s="14">
+        <f t="shared" si="76"/>
+        <v>1.0000000000000001E+183</v>
+      </c>
+      <c r="D180" s="14" t="str">
+        <f t="shared" si="77"/>
+        <v>1000채</v>
+      </c>
+      <c r="E180" s="14">
+        <f t="shared" si="36"/>
+        <v>1000</v>
+      </c>
+      <c r="F180" s="13" t="str" cm="1">
+        <f t="array" ref="F180">IF(AND(E179&gt;100,E180&lt;100),INDEX(M:M,MATCH(F179,M:M,0)+1,0),F179)</f>
+        <v>채</v>
+      </c>
+      <c r="G180" s="13" t="str">
+        <f t="shared" si="78"/>
+        <v>1E+180</v>
+      </c>
+      <c r="H180" s="13">
+        <v>7.6799999999999899</v>
+      </c>
+      <c r="I180" s="13" t="str">
+        <f t="shared" si="79"/>
+        <v>태극 172단</v>
+      </c>
+      <c r="J180" s="13">
+        <f t="shared" si="32"/>
+        <v>172</v>
+      </c>
+      <c r="K180" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B181" s="13">
+        <v>172</v>
+      </c>
+      <c r="C181" s="14">
+        <f t="shared" si="76"/>
+        <v>1E+184</v>
+      </c>
+      <c r="D181" s="14" t="str">
+        <f t="shared" si="77"/>
+        <v>1연</v>
+      </c>
+      <c r="E181" s="14">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="F181" s="13" t="str" cm="1">
+        <f t="array" ref="F181">IF(AND(E180&gt;100,E181&lt;100),INDEX(M:M,MATCH(F180,M:M,0)+1,0),F180)</f>
+        <v>연</v>
+      </c>
+      <c r="G181" s="13" t="str">
+        <f t="shared" si="78"/>
+        <v>1E+184</v>
+      </c>
+      <c r="H181" s="13">
+        <v>7.75999999999999</v>
+      </c>
+      <c r="I181" s="13" t="str">
+        <f t="shared" si="79"/>
+        <v>태극 173단</v>
+      </c>
+      <c r="J181" s="13">
+        <f t="shared" si="32"/>
+        <v>173</v>
+      </c>
+      <c r="K181" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B182" s="13">
+        <v>173</v>
+      </c>
+      <c r="C182" s="14">
+        <f t="shared" si="76"/>
+        <v>9.9999999999999998E+184</v>
+      </c>
+      <c r="D182" s="14" t="str">
+        <f t="shared" si="77"/>
+        <v>10연</v>
+      </c>
+      <c r="E182" s="14">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="F182" s="13" t="str" cm="1">
+        <f t="array" ref="F182">IF(AND(E181&gt;100,E182&lt;100),INDEX(M:M,MATCH(F181,M:M,0)+1,0),F181)</f>
+        <v>연</v>
+      </c>
+      <c r="G182" s="13" t="str">
+        <f t="shared" si="78"/>
+        <v>1E+184</v>
+      </c>
+      <c r="H182" s="13">
+        <v>7.8399999999999901</v>
+      </c>
+      <c r="I182" s="13" t="str">
+        <f t="shared" si="79"/>
+        <v>태극 174단</v>
+      </c>
+      <c r="J182" s="13">
+        <f t="shared" si="32"/>
+        <v>174</v>
+      </c>
+      <c r="K182" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B183" s="13">
+        <v>174</v>
+      </c>
+      <c r="C183" s="14">
+        <f t="shared" si="76"/>
+        <v>9.9999999999999998E+185</v>
+      </c>
+      <c r="D183" s="14" t="str">
+        <f t="shared" si="77"/>
+        <v>100연</v>
+      </c>
+      <c r="E183" s="14">
+        <f t="shared" si="36"/>
+        <v>100</v>
+      </c>
+      <c r="F183" s="13" t="str" cm="1">
+        <f t="array" ref="F183">IF(AND(E182&gt;100,E183&lt;100),INDEX(M:M,MATCH(F182,M:M,0)+1,0),F182)</f>
+        <v>연</v>
+      </c>
+      <c r="G183" s="13" t="str">
+        <f t="shared" si="78"/>
+        <v>1E+184</v>
+      </c>
+      <c r="H183" s="13">
+        <v>7.9199999999999902</v>
+      </c>
+      <c r="I183" s="13" t="str">
+        <f t="shared" si="79"/>
+        <v>태극 175단</v>
+      </c>
+      <c r="J183" s="13">
+        <f t="shared" si="32"/>
+        <v>175</v>
+      </c>
+      <c r="K183" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B184" s="13">
+        <v>175</v>
+      </c>
+      <c r="C184" s="14">
+        <f t="shared" si="76"/>
+        <v>1.0000000000000001E+187</v>
+      </c>
+      <c r="D184" s="14" t="str">
+        <f t="shared" si="77"/>
+        <v>1000연</v>
+      </c>
+      <c r="E184" s="14">
+        <f t="shared" si="36"/>
+        <v>1000</v>
+      </c>
+      <c r="F184" s="13" t="str" cm="1">
+        <f t="array" ref="F184">IF(AND(E183&gt;100,E184&lt;100),INDEX(M:M,MATCH(F183,M:M,0)+1,0),F183)</f>
+        <v>연</v>
+      </c>
+      <c r="G184" s="13" t="str">
+        <f t="shared" si="78"/>
+        <v>1E+184</v>
+      </c>
+      <c r="H184" s="13">
+        <v>7.9999999999999902</v>
+      </c>
+      <c r="I184" s="13" t="str">
+        <f t="shared" si="79"/>
+        <v>태극 176단</v>
+      </c>
+      <c r="J184" s="13">
+        <f t="shared" si="32"/>
+        <v>176</v>
+      </c>
+      <c r="K184" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B425904-446E-459A-8F43-1D0F507DC09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB05892E-C081-4F6E-923D-9D0199A3A0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="65">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,7 +311,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연</t>
+    <t>피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,11 +821,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
+      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3733,7 +3737,7 @@
         <v>1E+149</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C188" si="3">C138</f>
+        <f t="shared" ref="C139:C181" si="3">C138</f>
         <v>55</v>
       </c>
       <c r="D139">
@@ -4541,6 +4545,90 @@
       <c r="E177" t="str">
         <f>VLOOKUP(A177,Balance!B:I,8,FALSE)</f>
         <v>태극 176단</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <f>VLOOKUP(A178,Balance!B:C,2,FALSE)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D178">
+        <f>VLOOKUP(A178,Balance!B:I,7,FALSE)</f>
+        <v>8.0799999999999894</v>
+      </c>
+      <c r="E178" t="str">
+        <f>VLOOKUP(A178,Balance!B:I,8,FALSE)</f>
+        <v>태극 177단</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <f>VLOOKUP(A179,Balance!B:C,2,FALSE)</f>
+        <v>1E+189</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D179">
+        <f>VLOOKUP(A179,Balance!B:I,7,FALSE)</f>
+        <v>8.1599999999999895</v>
+      </c>
+      <c r="E179" t="str">
+        <f>VLOOKUP(A179,Balance!B:I,8,FALSE)</f>
+        <v>태극 178단</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <f>VLOOKUP(A180,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+190</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D180">
+        <f>VLOOKUP(A180,Balance!B:I,7,FALSE)</f>
+        <v>8.2399999999999896</v>
+      </c>
+      <c r="E180" t="str">
+        <f>VLOOKUP(A180,Balance!B:I,8,FALSE)</f>
+        <v>태극 179단</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <f>VLOOKUP(A181,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+191</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D181">
+        <f>VLOOKUP(A181,Balance!B:I,7,FALSE)</f>
+        <v>8.3199999999999896</v>
+      </c>
+      <c r="E181" t="str">
+        <f>VLOOKUP(A181,Balance!B:I,8,FALSE)</f>
+        <v>태극 180단</v>
       </c>
     </row>
   </sheetData>
@@ -4552,10 +4640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X184"/>
+  <dimension ref="A1:X188"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7154,6 +7242,20 @@
       <c r="K54" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M54" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N54" s="13">
+        <v>188</v>
+      </c>
+      <c r="O54" s="14">
+        <f t="shared" ref="O54" si="27">POWER(10,N54)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="P54" s="14" t="str">
+        <f t="shared" ref="P54" si="28">RIGHT(O54,N54)</f>
+        <v>1E+188</v>
+      </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="13">
@@ -7628,15 +7730,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="27">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="29">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="28">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="30">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="29">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="31">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -7667,15 +7769,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -7706,15 +7808,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -7745,15 +7847,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -7784,15 +7886,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -7823,15 +7925,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -7862,15 +7964,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -7878,7 +7980,7 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="30">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="32">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
@@ -7901,15 +8003,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -7917,14 +8019,14 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="31">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="33">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
@@ -7940,15 +8042,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -7956,18 +8058,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J184" si="32">J74+1</f>
+        <f t="shared" ref="J75:J188" si="34">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -7979,15 +8081,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -7995,18 +8097,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -8018,15 +8120,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -8034,18 +8136,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -8057,15 +8159,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -8073,18 +8175,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -8096,15 +8198,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -8112,18 +8214,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -8135,15 +8237,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -8151,18 +8253,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -8174,15 +8276,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -8190,18 +8292,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -8213,15 +8315,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -8229,18 +8331,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -8252,15 +8354,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -8268,18 +8370,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -8291,15 +8393,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -8307,18 +8409,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -8330,15 +8432,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -8346,18 +8448,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -8369,15 +8471,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -8385,18 +8487,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -8408,15 +8510,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -8424,18 +8526,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -8447,15 +8549,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -8463,18 +8565,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -8486,15 +8588,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -8502,18 +8604,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -8525,15 +8627,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -8541,18 +8643,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -8564,15 +8666,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -8580,18 +8682,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -8603,15 +8705,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -8619,18 +8721,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -8642,15 +8744,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -8658,18 +8760,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -8681,15 +8783,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -8697,18 +8799,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -8720,15 +8822,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -8736,18 +8838,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -8759,15 +8861,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -8775,18 +8877,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -8798,15 +8900,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -8814,18 +8916,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -8837,15 +8939,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -8853,18 +8955,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -8876,15 +8978,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -8892,18 +8994,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -8915,15 +9017,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -8931,18 +9033,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -8954,15 +9056,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -8970,18 +9072,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -8993,15 +9095,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -9009,18 +9111,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -9032,15 +9134,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -9048,18 +9150,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -9071,15 +9173,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -9087,18 +9189,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -9110,15 +9212,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -9126,18 +9228,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G136" si="33">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G136" si="35">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -9149,15 +9251,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -9165,18 +9267,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -9188,15 +9290,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -9204,18 +9306,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -9227,15 +9329,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -9243,18 +9345,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -9266,15 +9368,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -9282,18 +9384,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -9305,15 +9407,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -9321,18 +9423,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -9344,15 +9446,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -9360,18 +9462,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -9383,15 +9485,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="34">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="36">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="35">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="37">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E184" si="36">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E188" si="38">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -9399,18 +9501,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="37">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="39">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -9422,15 +9524,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -9438,18 +9540,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -9461,15 +9563,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -9477,18 +9579,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -9500,15 +9602,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -9516,18 +9618,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -9539,15 +9641,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -9555,18 +9657,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -9578,15 +9680,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -9594,18 +9696,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -9617,15 +9719,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -9633,18 +9735,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -9656,15 +9758,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -9672,18 +9774,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -9695,15 +9797,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -9711,18 +9813,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -9734,15 +9836,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -9750,18 +9852,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -9773,15 +9875,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -9789,18 +9891,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -9812,15 +9914,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -9828,18 +9930,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -9851,15 +9953,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -9867,18 +9969,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -9890,15 +9992,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="38">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="40">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="39">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="41">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -9906,18 +10008,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="40">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="42">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -9929,15 +10031,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
+        <f t="shared" si="40"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="41"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
         <f t="shared" si="38"/>
-        <v>1E+129</v>
-      </c>
-      <c r="D126" s="14" t="str">
-        <f t="shared" si="39"/>
-        <v>10위</v>
-      </c>
-      <c r="E126" s="14">
-        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -9945,18 +10047,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -9968,15 +10070,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="41"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
         <f t="shared" si="38"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="D127" s="14" t="str">
-        <f t="shared" si="39"/>
-        <v>100위</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -9984,18 +10086,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -10007,15 +10109,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="41"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
         <f t="shared" si="38"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="D128" s="14" t="str">
-        <f t="shared" si="39"/>
-        <v>1000위</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -10023,18 +10125,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -10046,15 +10148,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
+        <f t="shared" si="40"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="41"/>
+        <v>1설</v>
+      </c>
+      <c r="E129" s="14">
         <f t="shared" si="38"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="D129" s="14" t="str">
-        <f t="shared" si="39"/>
-        <v>1설</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -10062,18 +10164,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -10085,15 +10187,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
+        <f t="shared" si="40"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="41"/>
+        <v>10설</v>
+      </c>
+      <c r="E130" s="14">
         <f t="shared" si="38"/>
-        <v>1E+133</v>
-      </c>
-      <c r="D130" s="14" t="str">
-        <f t="shared" si="39"/>
-        <v>10설</v>
-      </c>
-      <c r="E130" s="14">
-        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -10101,18 +10203,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -10124,15 +10226,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C134" si="41">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="43">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D134" si="42">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="44">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -10140,18 +10242,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I134" si="43">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="45">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -10163,15 +10265,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -10179,18 +10281,18 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
@@ -10202,15 +10304,15 @@
         <v>124</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D133" s="14" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1적</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F133" s="13" t="str" cm="1">
@@ -10218,18 +10320,18 @@
         <v>적</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+136</v>
       </c>
       <c r="H133" s="13">
         <v>3.92</v>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 125단</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>125</v>
       </c>
       <c r="K133" s="13" t="s">
@@ -10241,15 +10343,15 @@
         <v>125</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+137</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10적</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F134" s="13" t="str" cm="1">
@@ -10257,18 +10359,18 @@
         <v>적</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+136</v>
       </c>
       <c r="H134" s="13">
         <v>4</v>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 126단</v>
       </c>
       <c r="J134" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>126</v>
       </c>
       <c r="K134" s="13" t="s">
@@ -10280,15 +10382,15 @@
         <v>126</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" ref="C135:C138" si="44">E135*G135</f>
+        <f t="shared" ref="C135:C138" si="46">E135*G135</f>
         <v>1E+138</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f t="shared" ref="D135:D138" si="45">E135&amp;F135</f>
+        <f t="shared" ref="D135:D138" si="47">E135&amp;F135</f>
         <v>100적</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F135" s="13" t="str" cm="1">
@@ -10296,18 +10398,18 @@
         <v>적</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+136</v>
       </c>
       <c r="H135" s="13">
         <v>4.08</v>
       </c>
       <c r="I135" s="13" t="str">
-        <f t="shared" ref="I135:I138" si="46">K135&amp;" "&amp;J135&amp;"단"</f>
+        <f t="shared" ref="I135:I138" si="48">K135&amp;" "&amp;J135&amp;"단"</f>
         <v>태극 127단</v>
       </c>
       <c r="J135" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>127</v>
       </c>
       <c r="K135" s="13" t="s">
@@ -10319,15 +10421,15 @@
         <v>127</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+139</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000적</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F136" s="13" t="str" cm="1">
@@ -10335,18 +10437,18 @@
         <v>적</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+136</v>
       </c>
       <c r="H136" s="13">
         <v>4.16</v>
       </c>
       <c r="I136" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>태극 128단</v>
       </c>
       <c r="J136" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>128</v>
       </c>
       <c r="K136" s="13" t="s">
@@ -10358,15 +10460,15 @@
         <v>128</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D137" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1고</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F137" s="13" t="str" cm="1">
@@ -10374,18 +10476,18 @@
         <v>고</v>
       </c>
       <c r="G137" s="13" t="str">
-        <f t="shared" ref="G137:G168" si="47">VLOOKUP(F137,M:P,4,FALSE)</f>
+        <f t="shared" ref="G137:G168" si="49">VLOOKUP(F137,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H137" s="13">
         <v>4.24</v>
       </c>
       <c r="I137" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>태극 129단</v>
       </c>
       <c r="J137" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>129</v>
       </c>
       <c r="K137" s="13" t="s">
@@ -10397,15 +10499,15 @@
         <v>129</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+141</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10고</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F138" s="13" t="str" cm="1">
@@ -10413,18 +10515,18 @@
         <v>고</v>
       </c>
       <c r="G138" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+140</v>
       </c>
       <c r="H138" s="13">
         <v>4.32</v>
       </c>
       <c r="I138" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>태극 130단</v>
       </c>
       <c r="J138" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>130</v>
       </c>
       <c r="K138" s="13" t="s">
@@ -10436,15 +10538,15 @@
         <v>130</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" ref="C139:C142" si="48">E139*G139</f>
+        <f t="shared" ref="C139:C142" si="50">E139*G139</f>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="D139" s="14" t="str">
-        <f t="shared" ref="D139:D142" si="49">E139&amp;F139</f>
+        <f t="shared" ref="D139:D142" si="51">E139&amp;F139</f>
         <v>100고</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F139" s="13" t="str" cm="1">
@@ -10452,18 +10554,18 @@
         <v>고</v>
       </c>
       <c r="G139" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+140</v>
       </c>
       <c r="H139" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="I139" s="13" t="str">
-        <f t="shared" ref="I139:I142" si="50">K139&amp;" "&amp;J139&amp;"단"</f>
+        <f t="shared" ref="I139:I142" si="52">K139&amp;" "&amp;J139&amp;"단"</f>
         <v>태극 131단</v>
       </c>
       <c r="J139" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>131</v>
       </c>
       <c r="K139" s="13" t="s">
@@ -10475,15 +10577,15 @@
         <v>131</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+143</v>
       </c>
       <c r="D140" s="14" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000고</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F140" s="13" t="str" cm="1">
@@ -10491,18 +10593,18 @@
         <v>고</v>
       </c>
       <c r="G140" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+140</v>
       </c>
       <c r="H140" s="13">
         <v>4.4800000000000004</v>
       </c>
       <c r="I140" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>태극 132단</v>
       </c>
       <c r="J140" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>132</v>
       </c>
       <c r="K140" s="13" t="s">
@@ -10514,15 +10616,15 @@
         <v>132</v>
       </c>
       <c r="C141" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+144</v>
       </c>
       <c r="D141" s="14" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1화</v>
       </c>
       <c r="E141" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F141" s="13" t="str" cm="1">
@@ -10530,18 +10632,18 @@
         <v>화</v>
       </c>
       <c r="G141" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+144</v>
       </c>
       <c r="H141" s="13">
         <v>4.5599999999999996</v>
       </c>
       <c r="I141" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>태극 133단</v>
       </c>
       <c r="J141" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>133</v>
       </c>
       <c r="K141" s="13" t="s">
@@ -10553,15 +10655,15 @@
         <v>133</v>
       </c>
       <c r="C142" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10화</v>
       </c>
       <c r="E142" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F142" s="13" t="str" cm="1">
@@ -10569,18 +10671,18 @@
         <v>화</v>
       </c>
       <c r="G142" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+144</v>
       </c>
       <c r="H142" s="13">
         <v>4.6399999999999997</v>
       </c>
       <c r="I142" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>태극 134단</v>
       </c>
       <c r="J142" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>134</v>
       </c>
       <c r="K142" s="13" t="s">
@@ -10592,15 +10694,15 @@
         <v>134</v>
       </c>
       <c r="C143" s="14">
-        <f t="shared" ref="C143:C146" si="51">E143*G143</f>
+        <f t="shared" ref="C143:C146" si="53">E143*G143</f>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="D143" s="14" t="str">
-        <f t="shared" ref="D143:D146" si="52">E143&amp;F143</f>
+        <f t="shared" ref="D143:D146" si="54">E143&amp;F143</f>
         <v>100화</v>
       </c>
       <c r="E143" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F143" s="13" t="str" cm="1">
@@ -10608,18 +10710,18 @@
         <v>화</v>
       </c>
       <c r="G143" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+144</v>
       </c>
       <c r="H143" s="13">
         <v>4.72</v>
       </c>
       <c r="I143" s="13" t="str">
-        <f t="shared" ref="I143:I146" si="53">K143&amp;" "&amp;J143&amp;"단"</f>
+        <f t="shared" ref="I143:I146" si="55">K143&amp;" "&amp;J143&amp;"단"</f>
         <v>태극 135단</v>
       </c>
       <c r="J143" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>135</v>
       </c>
       <c r="K143" s="13" t="s">
@@ -10631,15 +10733,15 @@
         <v>135</v>
       </c>
       <c r="C144" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="D144" s="14" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1000화</v>
       </c>
       <c r="E144" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F144" s="13" t="str" cm="1">
@@ -10647,18 +10749,18 @@
         <v>화</v>
       </c>
       <c r="G144" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+144</v>
       </c>
       <c r="H144" s="13">
         <v>4.8</v>
       </c>
       <c r="I144" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>태극 136단</v>
       </c>
       <c r="J144" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>136</v>
       </c>
       <c r="K144" s="13" t="s">
@@ -10670,15 +10772,15 @@
         <v>136</v>
       </c>
       <c r="C145" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+148</v>
       </c>
       <c r="D145" s="14" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1명</v>
       </c>
       <c r="E145" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F145" s="13" t="str" cm="1">
@@ -10686,18 +10788,18 @@
         <v>명</v>
       </c>
       <c r="G145" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+148</v>
       </c>
       <c r="H145" s="13">
         <v>4.88</v>
       </c>
       <c r="I145" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>태극 137단</v>
       </c>
       <c r="J145" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>137</v>
       </c>
       <c r="K145" s="13" t="s">
@@ -10709,15 +10811,15 @@
         <v>137</v>
       </c>
       <c r="C146" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+149</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>10명</v>
       </c>
       <c r="E146" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F146" s="13" t="str" cm="1">
@@ -10725,18 +10827,18 @@
         <v>명</v>
       </c>
       <c r="G146" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+148</v>
       </c>
       <c r="H146" s="13">
         <v>4.96</v>
       </c>
       <c r="I146" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>태극 138단</v>
       </c>
       <c r="J146" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>138</v>
       </c>
       <c r="K146" s="13" t="s">
@@ -10748,15 +10850,15 @@
         <v>138</v>
       </c>
       <c r="C147" s="14">
-        <f t="shared" ref="C147:C150" si="54">E147*G147</f>
+        <f t="shared" ref="C147:C150" si="56">E147*G147</f>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="D147" s="14" t="str">
-        <f t="shared" ref="D147:D150" si="55">E147&amp;F147</f>
+        <f t="shared" ref="D147:D150" si="57">E147&amp;F147</f>
         <v>100명</v>
       </c>
       <c r="E147" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F147" s="13" t="str" cm="1">
@@ -10764,18 +10866,18 @@
         <v>명</v>
       </c>
       <c r="G147" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+148</v>
       </c>
       <c r="H147" s="13">
         <v>5.04</v>
       </c>
       <c r="I147" s="13" t="str">
-        <f t="shared" ref="I147:I150" si="56">K147&amp;" "&amp;J147&amp;"단"</f>
+        <f t="shared" ref="I147:I150" si="58">K147&amp;" "&amp;J147&amp;"단"</f>
         <v>태극 139단</v>
       </c>
       <c r="J147" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>139</v>
       </c>
       <c r="K147" s="13" t="s">
@@ -10787,15 +10889,15 @@
         <v>139</v>
       </c>
       <c r="C148" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+151</v>
       </c>
       <c r="D148" s="14" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1000명</v>
       </c>
       <c r="E148" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F148" s="13" t="str" cm="1">
@@ -10803,18 +10905,18 @@
         <v>명</v>
       </c>
       <c r="G148" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+148</v>
       </c>
       <c r="H148" s="13">
         <v>5.12</v>
       </c>
       <c r="I148" s="13" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>태극 140단</v>
       </c>
       <c r="J148" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>140</v>
       </c>
       <c r="K148" s="13" t="s">
@@ -10826,15 +10928,15 @@
         <v>140</v>
       </c>
       <c r="C149" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+152</v>
       </c>
       <c r="D149" s="14" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1월</v>
       </c>
       <c r="E149" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F149" s="13" t="str" cm="1">
@@ -10842,18 +10944,18 @@
         <v>월</v>
       </c>
       <c r="G149" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+152</v>
       </c>
       <c r="H149" s="13">
         <v>5.2</v>
       </c>
       <c r="I149" s="13" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>태극 141단</v>
       </c>
       <c r="J149" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>141</v>
       </c>
       <c r="K149" s="13" t="s">
@@ -10865,15 +10967,15 @@
         <v>141</v>
       </c>
       <c r="C150" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+153</v>
       </c>
       <c r="D150" s="14" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>10월</v>
       </c>
       <c r="E150" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F150" s="13" t="str" cm="1">
@@ -10881,18 +10983,18 @@
         <v>월</v>
       </c>
       <c r="G150" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+152</v>
       </c>
       <c r="H150" s="13">
         <v>5.28</v>
       </c>
       <c r="I150" s="13" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>태극 142단</v>
       </c>
       <c r="J150" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>142</v>
       </c>
       <c r="K150" s="13" t="s">
@@ -10904,15 +11006,15 @@
         <v>142</v>
       </c>
       <c r="C151" s="14">
-        <f t="shared" ref="C151:C154" si="57">E151*G151</f>
+        <f t="shared" ref="C151:C154" si="59">E151*G151</f>
         <v>1E+154</v>
       </c>
       <c r="D151" s="14" t="str">
-        <f t="shared" ref="D151:D154" si="58">E151&amp;F151</f>
+        <f t="shared" ref="D151:D154" si="60">E151&amp;F151</f>
         <v>100월</v>
       </c>
       <c r="E151" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F151" s="13" t="str" cm="1">
@@ -10920,18 +11022,18 @@
         <v>월</v>
       </c>
       <c r="G151" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+152</v>
       </c>
       <c r="H151" s="13">
         <v>5.36</v>
       </c>
       <c r="I151" s="13" t="str">
-        <f t="shared" ref="I151:I154" si="59">K151&amp;" "&amp;J151&amp;"단"</f>
+        <f t="shared" ref="I151:I154" si="61">K151&amp;" "&amp;J151&amp;"단"</f>
         <v>태극 143단</v>
       </c>
       <c r="J151" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>143</v>
       </c>
       <c r="K151" s="13" t="s">
@@ -10943,15 +11045,15 @@
         <v>143</v>
       </c>
       <c r="C152" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+155</v>
       </c>
       <c r="D152" s="14" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1000월</v>
       </c>
       <c r="E152" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F152" s="13" t="str" cm="1">
@@ -10959,18 +11061,18 @@
         <v>월</v>
       </c>
       <c r="G152" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+152</v>
       </c>
       <c r="H152" s="13">
         <v>5.44</v>
       </c>
       <c r="I152" s="13" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>태극 144단</v>
       </c>
       <c r="J152" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>144</v>
       </c>
       <c r="K152" s="13" t="s">
@@ -10982,15 +11084,15 @@
         <v>144</v>
       </c>
       <c r="C153" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="D153" s="14" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1후</v>
       </c>
       <c r="E153" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F153" s="13" t="str" cm="1">
@@ -10998,18 +11100,18 @@
         <v>후</v>
       </c>
       <c r="G153" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+156</v>
       </c>
       <c r="H153" s="13">
         <v>5.52</v>
       </c>
       <c r="I153" s="13" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>태극 145단</v>
       </c>
       <c r="J153" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>145</v>
       </c>
       <c r="K153" s="13" t="s">
@@ -11021,15 +11123,15 @@
         <v>145</v>
       </c>
       <c r="C154" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="D154" s="14" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>10후</v>
       </c>
       <c r="E154" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F154" s="13" t="str" cm="1">
@@ -11037,18 +11139,18 @@
         <v>후</v>
       </c>
       <c r="G154" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+156</v>
       </c>
       <c r="H154" s="13">
         <v>5.6</v>
       </c>
       <c r="I154" s="13" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>태극 146단</v>
       </c>
       <c r="J154" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>146</v>
       </c>
       <c r="K154" s="13" t="s">
@@ -11060,15 +11162,15 @@
         <v>146</v>
       </c>
       <c r="C155" s="14">
-        <f t="shared" ref="C155:C158" si="60">E155*G155</f>
+        <f t="shared" ref="C155:C158" si="62">E155*G155</f>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="D155" s="14" t="str">
-        <f t="shared" ref="D155:D158" si="61">E155&amp;F155</f>
+        <f t="shared" ref="D155:D158" si="63">E155&amp;F155</f>
         <v>100후</v>
       </c>
       <c r="E155" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F155" s="13" t="str" cm="1">
@@ -11076,18 +11178,18 @@
         <v>후</v>
       </c>
       <c r="G155" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+156</v>
       </c>
       <c r="H155" s="13">
         <v>5.68</v>
       </c>
       <c r="I155" s="13" t="str">
-        <f t="shared" ref="I155:I158" si="62">K155&amp;" "&amp;J155&amp;"단"</f>
+        <f t="shared" ref="I155:I158" si="64">K155&amp;" "&amp;J155&amp;"단"</f>
         <v>태극 147단</v>
       </c>
       <c r="J155" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>147</v>
       </c>
       <c r="K155" s="13" t="s">
@@ -11099,15 +11201,15 @@
         <v>147</v>
       </c>
       <c r="C156" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="D156" s="14" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1000후</v>
       </c>
       <c r="E156" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F156" s="13" t="str" cm="1">
@@ -11115,18 +11217,18 @@
         <v>후</v>
       </c>
       <c r="G156" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+156</v>
       </c>
       <c r="H156" s="13">
         <v>5.76</v>
       </c>
       <c r="I156" s="13" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>태극 148단</v>
       </c>
       <c r="J156" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>148</v>
       </c>
       <c r="K156" s="13" t="s">
@@ -11138,15 +11240,15 @@
         <v>148</v>
       </c>
       <c r="C157" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+160</v>
       </c>
       <c r="D157" s="14" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1단</v>
       </c>
       <c r="E157" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F157" s="13" t="str" cm="1">
@@ -11154,18 +11256,18 @@
         <v>단</v>
       </c>
       <c r="G157" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+160</v>
       </c>
       <c r="H157" s="13">
         <v>5.84</v>
       </c>
       <c r="I157" s="13" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>태극 149단</v>
       </c>
       <c r="J157" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>149</v>
       </c>
       <c r="K157" s="13" t="s">
@@ -11177,15 +11279,15 @@
         <v>149</v>
       </c>
       <c r="C158" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+161</v>
       </c>
       <c r="D158" s="14" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>10단</v>
       </c>
       <c r="E158" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F158" s="13" t="str" cm="1">
@@ -11193,18 +11295,18 @@
         <v>단</v>
       </c>
       <c r="G158" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+160</v>
       </c>
       <c r="H158" s="13">
         <v>5.92</v>
       </c>
       <c r="I158" s="13" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>태극 150단</v>
       </c>
       <c r="J158" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>150</v>
       </c>
       <c r="K158" s="13" t="s">
@@ -11216,15 +11318,15 @@
         <v>150</v>
       </c>
       <c r="C159" s="14">
-        <f t="shared" ref="C159:C162" si="63">E159*G159</f>
+        <f t="shared" ref="C159:C162" si="65">E159*G159</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="D159" s="14" t="str">
-        <f t="shared" ref="D159:D162" si="64">E159&amp;F159</f>
+        <f t="shared" ref="D159:D162" si="66">E159&amp;F159</f>
         <v>100단</v>
       </c>
       <c r="E159" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F159" s="13" t="str" cm="1">
@@ -11232,18 +11334,18 @@
         <v>단</v>
       </c>
       <c r="G159" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+160</v>
       </c>
       <c r="H159" s="13">
         <v>6</v>
       </c>
       <c r="I159" s="13" t="str">
-        <f t="shared" ref="I159:I162" si="65">K159&amp;" "&amp;J159&amp;"단"</f>
+        <f t="shared" ref="I159:I162" si="67">K159&amp;" "&amp;J159&amp;"단"</f>
         <v>태극 151단</v>
       </c>
       <c r="J159" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>151</v>
       </c>
       <c r="K159" s="13" t="s">
@@ -11255,15 +11357,15 @@
         <v>151</v>
       </c>
       <c r="C160" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="D160" s="14" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1000단</v>
       </c>
       <c r="E160" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F160" s="13" t="str" cm="1">
@@ -11271,18 +11373,18 @@
         <v>단</v>
       </c>
       <c r="G160" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+160</v>
       </c>
       <c r="H160" s="13">
         <v>6.08</v>
       </c>
       <c r="I160" s="13" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>태극 152단</v>
       </c>
       <c r="J160" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>152</v>
       </c>
       <c r="K160" s="13" t="s">
@@ -11294,15 +11396,15 @@
         <v>152</v>
       </c>
       <c r="C161" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+164</v>
       </c>
       <c r="D161" s="14" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1절</v>
       </c>
       <c r="E161" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F161" s="13" t="str" cm="1">
@@ -11310,18 +11412,18 @@
         <v>절</v>
       </c>
       <c r="G161" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+164</v>
       </c>
       <c r="H161" s="13">
         <v>6.16</v>
       </c>
       <c r="I161" s="13" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>태극 153단</v>
       </c>
       <c r="J161" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>153</v>
       </c>
       <c r="K161" s="13" t="s">
@@ -11333,15 +11435,15 @@
         <v>153</v>
       </c>
       <c r="C162" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="D162" s="14" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>10절</v>
       </c>
       <c r="E162" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F162" s="13" t="str" cm="1">
@@ -11349,18 +11451,18 @@
         <v>절</v>
       </c>
       <c r="G162" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+164</v>
       </c>
       <c r="H162" s="13">
         <v>6.24</v>
       </c>
       <c r="I162" s="13" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>태극 154단</v>
       </c>
       <c r="J162" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>154</v>
       </c>
       <c r="K162" s="13" t="s">
@@ -11372,15 +11474,15 @@
         <v>154</v>
       </c>
       <c r="C163" s="14">
-        <f t="shared" ref="C163:C166" si="66">E163*G163</f>
+        <f t="shared" ref="C163:C166" si="68">E163*G163</f>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="D163" s="14" t="str">
-        <f t="shared" ref="D163:D166" si="67">E163&amp;F163</f>
+        <f t="shared" ref="D163:D166" si="69">E163&amp;F163</f>
         <v>100절</v>
       </c>
       <c r="E163" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F163" s="13" t="str" cm="1">
@@ -11388,18 +11490,18 @@
         <v>절</v>
       </c>
       <c r="G163" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+164</v>
       </c>
       <c r="H163" s="13">
         <v>6.32</v>
       </c>
       <c r="I163" s="13" t="str">
-        <f t="shared" ref="I163:I166" si="68">K163&amp;" "&amp;J163&amp;"단"</f>
+        <f t="shared" ref="I163:I166" si="70">K163&amp;" "&amp;J163&amp;"단"</f>
         <v>태극 155단</v>
       </c>
       <c r="J163" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>155</v>
       </c>
       <c r="K163" s="13" t="s">
@@ -11411,15 +11513,15 @@
         <v>155</v>
       </c>
       <c r="C164" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+167</v>
       </c>
       <c r="D164" s="14" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1000절</v>
       </c>
       <c r="E164" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F164" s="13" t="str" cm="1">
@@ -11427,18 +11529,18 @@
         <v>절</v>
       </c>
       <c r="G164" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+164</v>
       </c>
       <c r="H164" s="13">
         <v>6.4</v>
       </c>
       <c r="I164" s="13" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>태극 156단</v>
       </c>
       <c r="J164" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>156</v>
       </c>
       <c r="K164" s="13" t="s">
@@ -11450,15 +11552,15 @@
         <v>156</v>
       </c>
       <c r="C165" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="D165" s="14" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1격</v>
       </c>
       <c r="E165" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F165" s="13" t="str" cm="1">
@@ -11466,18 +11568,18 @@
         <v>격</v>
       </c>
       <c r="G165" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+168</v>
       </c>
       <c r="H165" s="13">
         <v>6.48</v>
       </c>
       <c r="I165" s="13" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>태극 157단</v>
       </c>
       <c r="J165" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>157</v>
       </c>
       <c r="K165" s="13" t="s">
@@ -11489,15 +11591,15 @@
         <v>157</v>
       </c>
       <c r="C166" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="D166" s="14" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>10격</v>
       </c>
       <c r="E166" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F166" s="13" t="str" cm="1">
@@ -11505,18 +11607,18 @@
         <v>격</v>
       </c>
       <c r="G166" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+168</v>
       </c>
       <c r="H166" s="13">
         <v>6.56</v>
       </c>
       <c r="I166" s="13" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>태극 158단</v>
       </c>
       <c r="J166" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>158</v>
       </c>
       <c r="K166" s="13" t="s">
@@ -11528,15 +11630,15 @@
         <v>158</v>
       </c>
       <c r="C167" s="14">
-        <f t="shared" ref="C167:C170" si="69">E167*G167</f>
+        <f t="shared" ref="C167:C170" si="71">E167*G167</f>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="D167" s="14" t="str">
-        <f t="shared" ref="D167:D170" si="70">E167&amp;F167</f>
+        <f t="shared" ref="D167:D170" si="72">E167&amp;F167</f>
         <v>100격</v>
       </c>
       <c r="E167" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F167" s="13" t="str" cm="1">
@@ -11544,18 +11646,18 @@
         <v>격</v>
       </c>
       <c r="G167" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+168</v>
       </c>
       <c r="H167" s="13">
         <v>6.64</v>
       </c>
       <c r="I167" s="13" t="str">
-        <f t="shared" ref="I167:I170" si="71">K167&amp;" "&amp;J167&amp;"단"</f>
+        <f t="shared" ref="I167:I170" si="73">K167&amp;" "&amp;J167&amp;"단"</f>
         <v>태극 159단</v>
       </c>
       <c r="J167" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>159</v>
       </c>
       <c r="K167" s="13" t="s">
@@ -11567,15 +11669,15 @@
         <v>159</v>
       </c>
       <c r="C168" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="D168" s="14" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1000격</v>
       </c>
       <c r="E168" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F168" s="13" t="str" cm="1">
@@ -11583,18 +11685,18 @@
         <v>격</v>
       </c>
       <c r="G168" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+168</v>
       </c>
       <c r="H168" s="13">
         <v>6.72</v>
       </c>
       <c r="I168" s="13" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>태극 160단</v>
       </c>
       <c r="J168" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>160</v>
       </c>
       <c r="K168" s="13" t="s">
@@ -11606,15 +11708,15 @@
         <v>160</v>
       </c>
       <c r="C169" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="D169" s="14" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1창</v>
       </c>
       <c r="E169" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F169" s="13" t="str" cm="1">
@@ -11622,18 +11724,18 @@
         <v>창</v>
       </c>
       <c r="G169" s="13" t="str">
-        <f t="shared" ref="G169:G176" si="72">VLOOKUP(F169,M:P,4,FALSE)</f>
+        <f t="shared" ref="G169:G176" si="74">VLOOKUP(F169,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="H169" s="13">
         <v>6.8</v>
       </c>
       <c r="I169" s="13" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>태극 161단</v>
       </c>
       <c r="J169" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>161</v>
       </c>
       <c r="K169" s="13" t="s">
@@ -11645,15 +11747,15 @@
         <v>161</v>
       </c>
       <c r="C170" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+173</v>
       </c>
       <c r="D170" s="14" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>10창</v>
       </c>
       <c r="E170" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F170" s="13" t="str" cm="1">
@@ -11661,18 +11763,18 @@
         <v>창</v>
       </c>
       <c r="G170" s="13" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+172</v>
       </c>
       <c r="H170" s="13">
         <v>6.88</v>
       </c>
       <c r="I170" s="13" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>태극 162단</v>
       </c>
       <c r="J170" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>162</v>
       </c>
       <c r="K170" s="13" t="s">
@@ -11684,15 +11786,15 @@
         <v>162</v>
       </c>
       <c r="C171" s="14">
-        <f t="shared" ref="C171:C176" si="73">E171*G171</f>
+        <f t="shared" ref="C171:C176" si="75">E171*G171</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="D171" s="14" t="str">
-        <f t="shared" ref="D171:D176" si="74">E171&amp;F171</f>
+        <f t="shared" ref="D171:D176" si="76">E171&amp;F171</f>
         <v>100창</v>
       </c>
       <c r="E171" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F171" s="13" t="str" cm="1">
@@ -11700,18 +11802,18 @@
         <v>창</v>
       </c>
       <c r="G171" s="13" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+172</v>
       </c>
       <c r="H171" s="13">
         <v>6.96</v>
       </c>
       <c r="I171" s="13" t="str">
-        <f t="shared" ref="I171:I176" si="75">K171&amp;" "&amp;J171&amp;"단"</f>
+        <f t="shared" ref="I171:I176" si="77">K171&amp;" "&amp;J171&amp;"단"</f>
         <v>태극 163단</v>
       </c>
       <c r="J171" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>163</v>
       </c>
       <c r="K171" s="13" t="s">
@@ -11723,15 +11825,15 @@
         <v>163</v>
       </c>
       <c r="C172" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.0000000000000001E+175</v>
       </c>
       <c r="D172" s="14" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1000창</v>
       </c>
       <c r="E172" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F172" s="13" t="str" cm="1">
@@ -11739,18 +11841,18 @@
         <v>창</v>
       </c>
       <c r="G172" s="13" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+172</v>
       </c>
       <c r="H172" s="13">
         <v>7.0399999999999903</v>
       </c>
       <c r="I172" s="13" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>태극 164단</v>
       </c>
       <c r="J172" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>164</v>
       </c>
       <c r="K172" s="13" t="s">
@@ -11762,15 +11864,15 @@
         <v>164</v>
       </c>
       <c r="C173" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1E+176</v>
       </c>
       <c r="D173" s="14" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1공</v>
       </c>
       <c r="E173" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F173" s="13" t="str" cm="1">
@@ -11778,18 +11880,18 @@
         <v>공</v>
       </c>
       <c r="G173" s="13" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+176</v>
       </c>
       <c r="H173" s="13">
         <v>7.1199999999999903</v>
       </c>
       <c r="I173" s="13" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>태극 165단</v>
       </c>
       <c r="J173" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>165</v>
       </c>
       <c r="K173" s="13" t="s">
@@ -11801,15 +11903,15 @@
         <v>165</v>
       </c>
       <c r="C174" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1E+177</v>
       </c>
       <c r="D174" s="14" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>10공</v>
       </c>
       <c r="E174" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F174" s="13" t="str" cm="1">
@@ -11817,18 +11919,18 @@
         <v>공</v>
       </c>
       <c r="G174" s="13" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+176</v>
       </c>
       <c r="H174" s="13">
         <v>7.1999999999999904</v>
       </c>
       <c r="I174" s="13" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>태극 166단</v>
       </c>
       <c r="J174" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>166</v>
       </c>
       <c r="K174" s="13" t="s">
@@ -11840,15 +11942,15 @@
         <v>166</v>
       </c>
       <c r="C175" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="D175" s="14" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>100공</v>
       </c>
       <c r="E175" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F175" s="13" t="str" cm="1">
@@ -11856,18 +11958,18 @@
         <v>공</v>
       </c>
       <c r="G175" s="13" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+176</v>
       </c>
       <c r="H175" s="13">
         <v>7.2799999999999896</v>
       </c>
       <c r="I175" s="13" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>태극 167단</v>
       </c>
       <c r="J175" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>167</v>
       </c>
       <c r="K175" s="13" t="s">
@@ -11879,15 +11981,15 @@
         <v>167</v>
       </c>
       <c r="C176" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>9.9999999999999998E+178</v>
       </c>
       <c r="D176" s="14" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1000공</v>
       </c>
       <c r="E176" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F176" s="13" t="str" cm="1">
@@ -11895,18 +11997,18 @@
         <v>공</v>
       </c>
       <c r="G176" s="13" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+176</v>
       </c>
       <c r="H176" s="13">
         <v>7.3599999999999897</v>
       </c>
       <c r="I176" s="13" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>태극 168단</v>
       </c>
       <c r="J176" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>168</v>
       </c>
       <c r="K176" s="13" t="s">
@@ -11918,15 +12020,15 @@
         <v>168</v>
       </c>
       <c r="C177" s="14">
-        <f t="shared" ref="C177:C184" si="76">E177*G177</f>
+        <f t="shared" ref="C177:C184" si="78">E177*G177</f>
         <v>1E+180</v>
       </c>
       <c r="D177" s="14" t="str">
-        <f t="shared" ref="D177:D184" si="77">E177&amp;F177</f>
+        <f t="shared" ref="D177:D184" si="79">E177&amp;F177</f>
         <v>1채</v>
       </c>
       <c r="E177" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F177" s="13" t="str" cm="1">
@@ -11934,18 +12036,18 @@
         <v>채</v>
       </c>
       <c r="G177" s="13" t="str">
-        <f t="shared" ref="G177:G184" si="78">VLOOKUP(F177,M:P,4,FALSE)</f>
+        <f t="shared" ref="G177:G184" si="80">VLOOKUP(F177,M:P,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="H177" s="13">
         <v>7.4399999999999897</v>
       </c>
       <c r="I177" s="13" t="str">
-        <f t="shared" ref="I177:I184" si="79">K177&amp;" "&amp;J177&amp;"단"</f>
+        <f t="shared" ref="I177:I184" si="81">K177&amp;" "&amp;J177&amp;"단"</f>
         <v>태극 169단</v>
       </c>
       <c r="J177" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>169</v>
       </c>
       <c r="K177" s="13" t="s">
@@ -11957,15 +12059,15 @@
         <v>169</v>
       </c>
       <c r="C178" s="14">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="D178" s="14" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>10채</v>
       </c>
       <c r="E178" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F178" s="13" t="str" cm="1">
@@ -11973,18 +12075,18 @@
         <v>채</v>
       </c>
       <c r="G178" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+180</v>
       </c>
       <c r="H178" s="13">
         <v>7.5199999999999898</v>
       </c>
       <c r="I178" s="13" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>태극 170단</v>
       </c>
       <c r="J178" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>170</v>
       </c>
       <c r="K178" s="13" t="s">
@@ -11996,15 +12098,15 @@
         <v>170</v>
       </c>
       <c r="C179" s="14">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="D179" s="14" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>100채</v>
       </c>
       <c r="E179" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F179" s="13" t="str" cm="1">
@@ -12012,18 +12114,18 @@
         <v>채</v>
       </c>
       <c r="G179" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+180</v>
       </c>
       <c r="H179" s="13">
         <v>7.5999999999999899</v>
       </c>
       <c r="I179" s="13" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>태극 171단</v>
       </c>
       <c r="J179" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>171</v>
       </c>
       <c r="K179" s="13" t="s">
@@ -12035,15 +12137,15 @@
         <v>171</v>
       </c>
       <c r="C180" s="14">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="D180" s="14" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1000채</v>
       </c>
       <c r="E180" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F180" s="13" t="str" cm="1">
@@ -12051,18 +12153,18 @@
         <v>채</v>
       </c>
       <c r="G180" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+180</v>
       </c>
       <c r="H180" s="13">
         <v>7.6799999999999899</v>
       </c>
       <c r="I180" s="13" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>태극 172단</v>
       </c>
       <c r="J180" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>172</v>
       </c>
       <c r="K180" s="13" t="s">
@@ -12074,34 +12176,34 @@
         <v>172</v>
       </c>
       <c r="C181" s="14">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+184</v>
       </c>
       <c r="D181" s="14" t="str">
-        <f t="shared" si="77"/>
-        <v>1연</v>
+        <f t="shared" si="79"/>
+        <v>1피</v>
       </c>
       <c r="E181" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F181" s="13" t="str" cm="1">
         <f t="array" ref="F181">IF(AND(E180&gt;100,E181&lt;100),INDEX(M:M,MATCH(F180,M:M,0)+1,0),F180)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="G181" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+184</v>
       </c>
       <c r="H181" s="13">
         <v>7.75999999999999</v>
       </c>
       <c r="I181" s="13" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>태극 173단</v>
       </c>
       <c r="J181" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>173</v>
       </c>
       <c r="K181" s="13" t="s">
@@ -12113,34 +12215,34 @@
         <v>173</v>
       </c>
       <c r="C182" s="14">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="D182" s="14" t="str">
-        <f t="shared" si="77"/>
-        <v>10연</v>
+        <f t="shared" si="79"/>
+        <v>10피</v>
       </c>
       <c r="E182" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F182" s="13" t="str" cm="1">
         <f t="array" ref="F182">IF(AND(E181&gt;100,E182&lt;100),INDEX(M:M,MATCH(F181,M:M,0)+1,0),F181)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="G182" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+184</v>
       </c>
       <c r="H182" s="13">
         <v>7.8399999999999901</v>
       </c>
       <c r="I182" s="13" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>태극 174단</v>
       </c>
       <c r="J182" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>174</v>
       </c>
       <c r="K182" s="13" t="s">
@@ -12152,34 +12254,34 @@
         <v>174</v>
       </c>
       <c r="C183" s="14">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="D183" s="14" t="str">
-        <f t="shared" si="77"/>
-        <v>100연</v>
+        <f t="shared" si="79"/>
+        <v>100피</v>
       </c>
       <c r="E183" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F183" s="13" t="str" cm="1">
         <f t="array" ref="F183">IF(AND(E182&gt;100,E183&lt;100),INDEX(M:M,MATCH(F182,M:M,0)+1,0),F182)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="G183" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+184</v>
       </c>
       <c r="H183" s="13">
         <v>7.9199999999999902</v>
       </c>
       <c r="I183" s="13" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>태극 175단</v>
       </c>
       <c r="J183" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>175</v>
       </c>
       <c r="K183" s="13" t="s">
@@ -12191,37 +12293,193 @@
         <v>175</v>
       </c>
       <c r="C184" s="14">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="D184" s="14" t="str">
-        <f t="shared" si="77"/>
-        <v>1000연</v>
+        <f t="shared" si="79"/>
+        <v>1000피</v>
       </c>
       <c r="E184" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F184" s="13" t="str" cm="1">
         <f t="array" ref="F184">IF(AND(E183&gt;100,E184&lt;100),INDEX(M:M,MATCH(F183,M:M,0)+1,0),F183)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="G184" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+184</v>
       </c>
       <c r="H184" s="13">
         <v>7.9999999999999902</v>
       </c>
       <c r="I184" s="13" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>태극 176단</v>
       </c>
       <c r="J184" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>176</v>
       </c>
       <c r="K184" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B185" s="13">
+        <v>176</v>
+      </c>
+      <c r="C185" s="14">
+        <f t="shared" ref="C185:C188" si="82">E185*G185</f>
+        <v>1E+188</v>
+      </c>
+      <c r="D185" s="14" t="str">
+        <f t="shared" ref="D185:D188" si="83">E185&amp;F185</f>
+        <v>1동</v>
+      </c>
+      <c r="E185" s="14">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="F185" s="13" t="str" cm="1">
+        <f t="array" ref="F185">IF(AND(E184&gt;100,E185&lt;100),INDEX(M:M,MATCH(F184,M:M,0)+1,0),F184)</f>
+        <v>동</v>
+      </c>
+      <c r="G185" s="13" t="str">
+        <f t="shared" ref="G185:G188" si="84">VLOOKUP(F185,M:P,4,FALSE)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="H185" s="13">
+        <v>8.0799999999999894</v>
+      </c>
+      <c r="I185" s="13" t="str">
+        <f t="shared" ref="I185:I188" si="85">K185&amp;" "&amp;J185&amp;"단"</f>
+        <v>태극 177단</v>
+      </c>
+      <c r="J185" s="13">
+        <f t="shared" si="34"/>
+        <v>177</v>
+      </c>
+      <c r="K185" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B186" s="13">
+        <v>177</v>
+      </c>
+      <c r="C186" s="14">
+        <f t="shared" si="82"/>
+        <v>1E+189</v>
+      </c>
+      <c r="D186" s="14" t="str">
+        <f t="shared" si="83"/>
+        <v>10동</v>
+      </c>
+      <c r="E186" s="14">
+        <f t="shared" si="38"/>
+        <v>10</v>
+      </c>
+      <c r="F186" s="13" t="str" cm="1">
+        <f t="array" ref="F186">IF(AND(E185&gt;100,E186&lt;100),INDEX(M:M,MATCH(F185,M:M,0)+1,0),F185)</f>
+        <v>동</v>
+      </c>
+      <c r="G186" s="13" t="str">
+        <f t="shared" si="84"/>
+        <v>1E+188</v>
+      </c>
+      <c r="H186" s="13">
+        <v>8.1599999999999895</v>
+      </c>
+      <c r="I186" s="13" t="str">
+        <f t="shared" si="85"/>
+        <v>태극 178단</v>
+      </c>
+      <c r="J186" s="13">
+        <f t="shared" si="34"/>
+        <v>178</v>
+      </c>
+      <c r="K186" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B187" s="13">
+        <v>178</v>
+      </c>
+      <c r="C187" s="14">
+        <f t="shared" si="82"/>
+        <v>1.0000000000000001E+190</v>
+      </c>
+      <c r="D187" s="14" t="str">
+        <f t="shared" si="83"/>
+        <v>100동</v>
+      </c>
+      <c r="E187" s="14">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="F187" s="13" t="str" cm="1">
+        <f t="array" ref="F187">IF(AND(E186&gt;100,E187&lt;100),INDEX(M:M,MATCH(F186,M:M,0)+1,0),F186)</f>
+        <v>동</v>
+      </c>
+      <c r="G187" s="13" t="str">
+        <f t="shared" si="84"/>
+        <v>1E+188</v>
+      </c>
+      <c r="H187" s="13">
+        <v>8.2399999999999896</v>
+      </c>
+      <c r="I187" s="13" t="str">
+        <f t="shared" si="85"/>
+        <v>태극 179단</v>
+      </c>
+      <c r="J187" s="13">
+        <f t="shared" si="34"/>
+        <v>179</v>
+      </c>
+      <c r="K187" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B188" s="13">
+        <v>179</v>
+      </c>
+      <c r="C188" s="14">
+        <f t="shared" si="82"/>
+        <v>1.0000000000000001E+191</v>
+      </c>
+      <c r="D188" s="14" t="str">
+        <f t="shared" si="83"/>
+        <v>1000동</v>
+      </c>
+      <c r="E188" s="14">
+        <f t="shared" si="38"/>
+        <v>1000</v>
+      </c>
+      <c r="F188" s="13" t="str" cm="1">
+        <f t="array" ref="F188">IF(AND(E187&gt;100,E188&lt;100),INDEX(M:M,MATCH(F187,M:M,0)+1,0),F187)</f>
+        <v>동</v>
+      </c>
+      <c r="G188" s="13" t="str">
+        <f t="shared" si="84"/>
+        <v>1E+188</v>
+      </c>
+      <c r="H188" s="13">
+        <v>8.3199999999999896</v>
+      </c>
+      <c r="I188" s="13" t="str">
+        <f t="shared" si="85"/>
+        <v>태극 180단</v>
+      </c>
+      <c r="J188" s="13">
+        <f t="shared" si="34"/>
+        <v>180</v>
+      </c>
+      <c r="K188" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB05892E-C081-4F6E-923D-9D0199A3A0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E08D39-B634-4111-9E2D-EC0E602607D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="66">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,10 @@
   </si>
   <si>
     <t>동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,11 +825,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3737,7 +3741,7 @@
         <v>1E+149</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C181" si="3">C138</f>
+        <f t="shared" ref="C139:C185" si="3">C138</f>
         <v>55</v>
       </c>
       <c r="D139">
@@ -4629,6 +4633,90 @@
       <c r="E181" t="str">
         <f>VLOOKUP(A181,Balance!B:I,8,FALSE)</f>
         <v>태극 180단</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <f>VLOOKUP(A182,Balance!B:C,2,FALSE)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D182">
+        <f>VLOOKUP(A182,Balance!B:I,7,FALSE)</f>
+        <v>8.3999999999999897</v>
+      </c>
+      <c r="E182" t="str">
+        <f>VLOOKUP(A182,Balance!B:I,8,FALSE)</f>
+        <v>태극 181단</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <f>VLOOKUP(A183,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+193</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D183">
+        <f>VLOOKUP(A183,Balance!B:I,7,FALSE)</f>
+        <v>8.4799999999999809</v>
+      </c>
+      <c r="E183" t="str">
+        <f>VLOOKUP(A183,Balance!B:I,8,FALSE)</f>
+        <v>태극 182단</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <f>VLOOKUP(A184,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+194</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D184">
+        <f>VLOOKUP(A184,Balance!B:I,7,FALSE)</f>
+        <v>8.5599999999999792</v>
+      </c>
+      <c r="E184" t="str">
+        <f>VLOOKUP(A184,Balance!B:I,8,FALSE)</f>
+        <v>태극 183단</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <f>VLOOKUP(A185,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999998E+194</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D185">
+        <f>VLOOKUP(A185,Balance!B:I,7,FALSE)</f>
+        <v>8.6399999999999793</v>
+      </c>
+      <c r="E185" t="str">
+        <f>VLOOKUP(A185,Balance!B:I,8,FALSE)</f>
+        <v>태극 184단</v>
       </c>
     </row>
   </sheetData>
@@ -4640,10 +4728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X188"/>
+  <dimension ref="A1:X192"/>
   <sheetViews>
     <sheetView topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7295,6 +7383,20 @@
       <c r="K55" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M55" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N55" s="13">
+        <v>192</v>
+      </c>
+      <c r="O55" s="14">
+        <f t="shared" ref="O55" si="29">POWER(10,N55)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="P55" s="14" t="str">
+        <f t="shared" ref="P55" si="30">RIGHT(O55,N55)</f>
+        <v>1E+192</v>
+      </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="13">
@@ -7730,15 +7832,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="29">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="31">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="30">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="32">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="31">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="33">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -7769,15 +7871,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -7808,15 +7910,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -7847,15 +7949,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -7886,15 +7988,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -7925,15 +8027,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -7964,15 +8066,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -7980,7 +8082,7 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="32">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="34">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
@@ -8003,15 +8105,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -8019,14 +8121,14 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="33">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="35">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
@@ -8042,15 +8144,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -8058,18 +8160,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J188" si="34">J74+1</f>
+        <f t="shared" ref="J75:J192" si="36">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -8081,15 +8183,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -8097,18 +8199,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -8120,15 +8222,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -8136,18 +8238,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -8159,15 +8261,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -8175,18 +8277,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -8198,15 +8300,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -8214,18 +8316,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -8237,15 +8339,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -8253,18 +8355,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -8276,15 +8378,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -8292,18 +8394,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -8315,15 +8417,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -8331,18 +8433,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -8354,15 +8456,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -8370,18 +8472,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -8393,15 +8495,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -8409,18 +8511,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -8432,15 +8534,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -8448,18 +8550,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -8471,15 +8573,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -8487,18 +8589,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -8510,15 +8612,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -8526,18 +8628,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -8549,15 +8651,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -8565,18 +8667,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -8588,15 +8690,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -8604,18 +8706,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -8627,15 +8729,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -8643,18 +8745,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -8666,15 +8768,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -8682,18 +8784,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -8705,15 +8807,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -8721,18 +8823,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -8744,15 +8846,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -8760,18 +8862,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -8783,15 +8885,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -8799,18 +8901,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -8822,15 +8924,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -8838,18 +8940,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -8861,15 +8963,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -8877,18 +8979,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -8900,15 +9002,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -8916,18 +9018,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -8939,15 +9041,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -8955,18 +9057,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -8978,15 +9080,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -8994,18 +9096,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -9017,15 +9119,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -9033,18 +9135,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -9056,15 +9158,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -9072,18 +9174,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -9095,15 +9197,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -9111,18 +9213,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -9134,15 +9236,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -9150,18 +9252,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -9173,15 +9275,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -9189,18 +9291,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -9212,15 +9314,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -9228,18 +9330,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G136" si="35">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G136" si="37">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -9251,15 +9353,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -9267,18 +9369,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -9290,15 +9392,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -9306,18 +9408,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -9329,15 +9431,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -9345,18 +9447,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -9368,15 +9470,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -9384,18 +9486,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -9407,15 +9509,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -9423,18 +9525,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -9446,15 +9548,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -9462,18 +9564,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -9485,15 +9587,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="36">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="38">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="37">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="39">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E188" si="38">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E192" si="40">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -9501,18 +9603,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="39">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="41">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -9524,15 +9626,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -9540,18 +9642,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -9563,15 +9665,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -9579,18 +9681,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -9602,15 +9704,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -9618,18 +9720,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -9641,15 +9743,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -9657,18 +9759,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -9680,15 +9782,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -9696,18 +9798,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -9719,15 +9821,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -9735,18 +9837,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -9758,15 +9860,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -9774,18 +9876,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -9797,15 +9899,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -9813,18 +9915,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -9836,15 +9938,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -9852,18 +9954,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -9875,15 +9977,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -9891,18 +9993,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -9914,15 +10016,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -9930,18 +10032,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -9953,15 +10055,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -9969,18 +10071,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -9992,15 +10094,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="40">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="42">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="41">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="43">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -10008,18 +10110,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="42">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="44">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -10031,15 +10133,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
+        <f t="shared" si="42"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="43"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
         <f t="shared" si="40"/>
-        <v>1E+129</v>
-      </c>
-      <c r="D126" s="14" t="str">
-        <f t="shared" si="41"/>
-        <v>10위</v>
-      </c>
-      <c r="E126" s="14">
-        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -10047,18 +10149,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -10070,15 +10172,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="43"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
         <f t="shared" si="40"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="D127" s="14" t="str">
-        <f t="shared" si="41"/>
-        <v>100위</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -10086,18 +10188,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -10109,15 +10211,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="43"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
         <f t="shared" si="40"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="D128" s="14" t="str">
-        <f t="shared" si="41"/>
-        <v>1000위</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -10125,18 +10227,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -10148,15 +10250,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="43"/>
+        <v>1설</v>
+      </c>
+      <c r="E129" s="14">
         <f t="shared" si="40"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="D129" s="14" t="str">
-        <f t="shared" si="41"/>
-        <v>1설</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -10164,18 +10266,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -10187,15 +10289,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
+        <f t="shared" si="42"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="43"/>
+        <v>10설</v>
+      </c>
+      <c r="E130" s="14">
         <f t="shared" si="40"/>
-        <v>1E+133</v>
-      </c>
-      <c r="D130" s="14" t="str">
-        <f t="shared" si="41"/>
-        <v>10설</v>
-      </c>
-      <c r="E130" s="14">
-        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -10203,18 +10305,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -10226,15 +10328,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C134" si="43">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="45">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D134" si="44">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="46">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -10242,18 +10344,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I134" si="45">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="47">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -10265,15 +10367,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -10281,18 +10383,18 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
@@ -10304,15 +10406,15 @@
         <v>124</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D133" s="14" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1적</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F133" s="13" t="str" cm="1">
@@ -10320,18 +10422,18 @@
         <v>적</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+136</v>
       </c>
       <c r="H133" s="13">
         <v>3.92</v>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 125단</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>125</v>
       </c>
       <c r="K133" s="13" t="s">
@@ -10343,15 +10445,15 @@
         <v>125</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+137</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10적</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F134" s="13" t="str" cm="1">
@@ -10359,18 +10461,18 @@
         <v>적</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+136</v>
       </c>
       <c r="H134" s="13">
         <v>4</v>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 126단</v>
       </c>
       <c r="J134" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>126</v>
       </c>
       <c r="K134" s="13" t="s">
@@ -10382,15 +10484,15 @@
         <v>126</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" ref="C135:C138" si="46">E135*G135</f>
+        <f t="shared" ref="C135:C138" si="48">E135*G135</f>
         <v>1E+138</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f t="shared" ref="D135:D138" si="47">E135&amp;F135</f>
+        <f t="shared" ref="D135:D138" si="49">E135&amp;F135</f>
         <v>100적</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F135" s="13" t="str" cm="1">
@@ -10398,18 +10500,18 @@
         <v>적</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+136</v>
       </c>
       <c r="H135" s="13">
         <v>4.08</v>
       </c>
       <c r="I135" s="13" t="str">
-        <f t="shared" ref="I135:I138" si="48">K135&amp;" "&amp;J135&amp;"단"</f>
+        <f t="shared" ref="I135:I138" si="50">K135&amp;" "&amp;J135&amp;"단"</f>
         <v>태극 127단</v>
       </c>
       <c r="J135" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>127</v>
       </c>
       <c r="K135" s="13" t="s">
@@ -10421,15 +10523,15 @@
         <v>127</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+139</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000적</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F136" s="13" t="str" cm="1">
@@ -10437,18 +10539,18 @@
         <v>적</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+136</v>
       </c>
       <c r="H136" s="13">
         <v>4.16</v>
       </c>
       <c r="I136" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>태극 128단</v>
       </c>
       <c r="J136" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>128</v>
       </c>
       <c r="K136" s="13" t="s">
@@ -10460,15 +10562,15 @@
         <v>128</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D137" s="14" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1고</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F137" s="13" t="str" cm="1">
@@ -10476,18 +10578,18 @@
         <v>고</v>
       </c>
       <c r="G137" s="13" t="str">
-        <f t="shared" ref="G137:G168" si="49">VLOOKUP(F137,M:P,4,FALSE)</f>
+        <f t="shared" ref="G137:G168" si="51">VLOOKUP(F137,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H137" s="13">
         <v>4.24</v>
       </c>
       <c r="I137" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>태극 129단</v>
       </c>
       <c r="J137" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>129</v>
       </c>
       <c r="K137" s="13" t="s">
@@ -10499,15 +10601,15 @@
         <v>129</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+141</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10고</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F138" s="13" t="str" cm="1">
@@ -10515,18 +10617,18 @@
         <v>고</v>
       </c>
       <c r="G138" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+140</v>
       </c>
       <c r="H138" s="13">
         <v>4.32</v>
       </c>
       <c r="I138" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>태극 130단</v>
       </c>
       <c r="J138" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>130</v>
       </c>
       <c r="K138" s="13" t="s">
@@ -10538,15 +10640,15 @@
         <v>130</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" ref="C139:C142" si="50">E139*G139</f>
+        <f t="shared" ref="C139:C142" si="52">E139*G139</f>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="D139" s="14" t="str">
-        <f t="shared" ref="D139:D142" si="51">E139&amp;F139</f>
+        <f t="shared" ref="D139:D142" si="53">E139&amp;F139</f>
         <v>100고</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F139" s="13" t="str" cm="1">
@@ -10554,18 +10656,18 @@
         <v>고</v>
       </c>
       <c r="G139" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+140</v>
       </c>
       <c r="H139" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="I139" s="13" t="str">
-        <f t="shared" ref="I139:I142" si="52">K139&amp;" "&amp;J139&amp;"단"</f>
+        <f t="shared" ref="I139:I142" si="54">K139&amp;" "&amp;J139&amp;"단"</f>
         <v>태극 131단</v>
       </c>
       <c r="J139" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>131</v>
       </c>
       <c r="K139" s="13" t="s">
@@ -10577,15 +10679,15 @@
         <v>131</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+143</v>
       </c>
       <c r="D140" s="14" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000고</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F140" s="13" t="str" cm="1">
@@ -10593,18 +10695,18 @@
         <v>고</v>
       </c>
       <c r="G140" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+140</v>
       </c>
       <c r="H140" s="13">
         <v>4.4800000000000004</v>
       </c>
       <c r="I140" s="13" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>태극 132단</v>
       </c>
       <c r="J140" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>132</v>
       </c>
       <c r="K140" s="13" t="s">
@@ -10616,15 +10718,15 @@
         <v>132</v>
       </c>
       <c r="C141" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+144</v>
       </c>
       <c r="D141" s="14" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1화</v>
       </c>
       <c r="E141" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F141" s="13" t="str" cm="1">
@@ -10632,18 +10734,18 @@
         <v>화</v>
       </c>
       <c r="G141" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+144</v>
       </c>
       <c r="H141" s="13">
         <v>4.5599999999999996</v>
       </c>
       <c r="I141" s="13" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>태극 133단</v>
       </c>
       <c r="J141" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>133</v>
       </c>
       <c r="K141" s="13" t="s">
@@ -10655,15 +10757,15 @@
         <v>133</v>
       </c>
       <c r="C142" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10화</v>
       </c>
       <c r="E142" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F142" s="13" t="str" cm="1">
@@ -10671,18 +10773,18 @@
         <v>화</v>
       </c>
       <c r="G142" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+144</v>
       </c>
       <c r="H142" s="13">
         <v>4.6399999999999997</v>
       </c>
       <c r="I142" s="13" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>태극 134단</v>
       </c>
       <c r="J142" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>134</v>
       </c>
       <c r="K142" s="13" t="s">
@@ -10694,15 +10796,15 @@
         <v>134</v>
       </c>
       <c r="C143" s="14">
-        <f t="shared" ref="C143:C146" si="53">E143*G143</f>
+        <f t="shared" ref="C143:C146" si="55">E143*G143</f>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="D143" s="14" t="str">
-        <f t="shared" ref="D143:D146" si="54">E143&amp;F143</f>
+        <f t="shared" ref="D143:D146" si="56">E143&amp;F143</f>
         <v>100화</v>
       </c>
       <c r="E143" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F143" s="13" t="str" cm="1">
@@ -10710,18 +10812,18 @@
         <v>화</v>
       </c>
       <c r="G143" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+144</v>
       </c>
       <c r="H143" s="13">
         <v>4.72</v>
       </c>
       <c r="I143" s="13" t="str">
-        <f t="shared" ref="I143:I146" si="55">K143&amp;" "&amp;J143&amp;"단"</f>
+        <f t="shared" ref="I143:I146" si="57">K143&amp;" "&amp;J143&amp;"단"</f>
         <v>태극 135단</v>
       </c>
       <c r="J143" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>135</v>
       </c>
       <c r="K143" s="13" t="s">
@@ -10733,15 +10835,15 @@
         <v>135</v>
       </c>
       <c r="C144" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="D144" s="14" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1000화</v>
       </c>
       <c r="E144" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F144" s="13" t="str" cm="1">
@@ -10749,18 +10851,18 @@
         <v>화</v>
       </c>
       <c r="G144" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+144</v>
       </c>
       <c r="H144" s="13">
         <v>4.8</v>
       </c>
       <c r="I144" s="13" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>태극 136단</v>
       </c>
       <c r="J144" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>136</v>
       </c>
       <c r="K144" s="13" t="s">
@@ -10772,15 +10874,15 @@
         <v>136</v>
       </c>
       <c r="C145" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+148</v>
       </c>
       <c r="D145" s="14" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1명</v>
       </c>
       <c r="E145" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F145" s="13" t="str" cm="1">
@@ -10788,18 +10890,18 @@
         <v>명</v>
       </c>
       <c r="G145" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+148</v>
       </c>
       <c r="H145" s="13">
         <v>4.88</v>
       </c>
       <c r="I145" s="13" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>태극 137단</v>
       </c>
       <c r="J145" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>137</v>
       </c>
       <c r="K145" s="13" t="s">
@@ -10811,15 +10913,15 @@
         <v>137</v>
       </c>
       <c r="C146" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+149</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>10명</v>
       </c>
       <c r="E146" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F146" s="13" t="str" cm="1">
@@ -10827,18 +10929,18 @@
         <v>명</v>
       </c>
       <c r="G146" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+148</v>
       </c>
       <c r="H146" s="13">
         <v>4.96</v>
       </c>
       <c r="I146" s="13" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>태극 138단</v>
       </c>
       <c r="J146" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>138</v>
       </c>
       <c r="K146" s="13" t="s">
@@ -10850,15 +10952,15 @@
         <v>138</v>
       </c>
       <c r="C147" s="14">
-        <f t="shared" ref="C147:C150" si="56">E147*G147</f>
+        <f t="shared" ref="C147:C150" si="58">E147*G147</f>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="D147" s="14" t="str">
-        <f t="shared" ref="D147:D150" si="57">E147&amp;F147</f>
+        <f t="shared" ref="D147:D150" si="59">E147&amp;F147</f>
         <v>100명</v>
       </c>
       <c r="E147" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F147" s="13" t="str" cm="1">
@@ -10866,18 +10968,18 @@
         <v>명</v>
       </c>
       <c r="G147" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+148</v>
       </c>
       <c r="H147" s="13">
         <v>5.04</v>
       </c>
       <c r="I147" s="13" t="str">
-        <f t="shared" ref="I147:I150" si="58">K147&amp;" "&amp;J147&amp;"단"</f>
+        <f t="shared" ref="I147:I150" si="60">K147&amp;" "&amp;J147&amp;"단"</f>
         <v>태극 139단</v>
       </c>
       <c r="J147" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>139</v>
       </c>
       <c r="K147" s="13" t="s">
@@ -10889,15 +10991,15 @@
         <v>139</v>
       </c>
       <c r="C148" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+151</v>
       </c>
       <c r="D148" s="14" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1000명</v>
       </c>
       <c r="E148" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F148" s="13" t="str" cm="1">
@@ -10905,18 +11007,18 @@
         <v>명</v>
       </c>
       <c r="G148" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+148</v>
       </c>
       <c r="H148" s="13">
         <v>5.12</v>
       </c>
       <c r="I148" s="13" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>태극 140단</v>
       </c>
       <c r="J148" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>140</v>
       </c>
       <c r="K148" s="13" t="s">
@@ -10928,15 +11030,15 @@
         <v>140</v>
       </c>
       <c r="C149" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+152</v>
       </c>
       <c r="D149" s="14" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1월</v>
       </c>
       <c r="E149" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F149" s="13" t="str" cm="1">
@@ -10944,18 +11046,18 @@
         <v>월</v>
       </c>
       <c r="G149" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+152</v>
       </c>
       <c r="H149" s="13">
         <v>5.2</v>
       </c>
       <c r="I149" s="13" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>태극 141단</v>
       </c>
       <c r="J149" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>141</v>
       </c>
       <c r="K149" s="13" t="s">
@@ -10967,15 +11069,15 @@
         <v>141</v>
       </c>
       <c r="C150" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+153</v>
       </c>
       <c r="D150" s="14" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>10월</v>
       </c>
       <c r="E150" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F150" s="13" t="str" cm="1">
@@ -10983,18 +11085,18 @@
         <v>월</v>
       </c>
       <c r="G150" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+152</v>
       </c>
       <c r="H150" s="13">
         <v>5.28</v>
       </c>
       <c r="I150" s="13" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>태극 142단</v>
       </c>
       <c r="J150" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>142</v>
       </c>
       <c r="K150" s="13" t="s">
@@ -11006,15 +11108,15 @@
         <v>142</v>
       </c>
       <c r="C151" s="14">
-        <f t="shared" ref="C151:C154" si="59">E151*G151</f>
+        <f t="shared" ref="C151:C154" si="61">E151*G151</f>
         <v>1E+154</v>
       </c>
       <c r="D151" s="14" t="str">
-        <f t="shared" ref="D151:D154" si="60">E151&amp;F151</f>
+        <f t="shared" ref="D151:D154" si="62">E151&amp;F151</f>
         <v>100월</v>
       </c>
       <c r="E151" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F151" s="13" t="str" cm="1">
@@ -11022,18 +11124,18 @@
         <v>월</v>
       </c>
       <c r="G151" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+152</v>
       </c>
       <c r="H151" s="13">
         <v>5.36</v>
       </c>
       <c r="I151" s="13" t="str">
-        <f t="shared" ref="I151:I154" si="61">K151&amp;" "&amp;J151&amp;"단"</f>
+        <f t="shared" ref="I151:I154" si="63">K151&amp;" "&amp;J151&amp;"단"</f>
         <v>태극 143단</v>
       </c>
       <c r="J151" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>143</v>
       </c>
       <c r="K151" s="13" t="s">
@@ -11045,15 +11147,15 @@
         <v>143</v>
       </c>
       <c r="C152" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+155</v>
       </c>
       <c r="D152" s="14" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1000월</v>
       </c>
       <c r="E152" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F152" s="13" t="str" cm="1">
@@ -11061,18 +11163,18 @@
         <v>월</v>
       </c>
       <c r="G152" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+152</v>
       </c>
       <c r="H152" s="13">
         <v>5.44</v>
       </c>
       <c r="I152" s="13" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>태극 144단</v>
       </c>
       <c r="J152" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>144</v>
       </c>
       <c r="K152" s="13" t="s">
@@ -11084,15 +11186,15 @@
         <v>144</v>
       </c>
       <c r="C153" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="D153" s="14" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1후</v>
       </c>
       <c r="E153" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F153" s="13" t="str" cm="1">
@@ -11100,18 +11202,18 @@
         <v>후</v>
       </c>
       <c r="G153" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+156</v>
       </c>
       <c r="H153" s="13">
         <v>5.52</v>
       </c>
       <c r="I153" s="13" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>태극 145단</v>
       </c>
       <c r="J153" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>145</v>
       </c>
       <c r="K153" s="13" t="s">
@@ -11123,15 +11225,15 @@
         <v>145</v>
       </c>
       <c r="C154" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="D154" s="14" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>10후</v>
       </c>
       <c r="E154" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F154" s="13" t="str" cm="1">
@@ -11139,18 +11241,18 @@
         <v>후</v>
       </c>
       <c r="G154" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+156</v>
       </c>
       <c r="H154" s="13">
         <v>5.6</v>
       </c>
       <c r="I154" s="13" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>태극 146단</v>
       </c>
       <c r="J154" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>146</v>
       </c>
       <c r="K154" s="13" t="s">
@@ -11162,15 +11264,15 @@
         <v>146</v>
       </c>
       <c r="C155" s="14">
-        <f t="shared" ref="C155:C158" si="62">E155*G155</f>
+        <f t="shared" ref="C155:C158" si="64">E155*G155</f>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="D155" s="14" t="str">
-        <f t="shared" ref="D155:D158" si="63">E155&amp;F155</f>
+        <f t="shared" ref="D155:D158" si="65">E155&amp;F155</f>
         <v>100후</v>
       </c>
       <c r="E155" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F155" s="13" t="str" cm="1">
@@ -11178,18 +11280,18 @@
         <v>후</v>
       </c>
       <c r="G155" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+156</v>
       </c>
       <c r="H155" s="13">
         <v>5.68</v>
       </c>
       <c r="I155" s="13" t="str">
-        <f t="shared" ref="I155:I158" si="64">K155&amp;" "&amp;J155&amp;"단"</f>
+        <f t="shared" ref="I155:I158" si="66">K155&amp;" "&amp;J155&amp;"단"</f>
         <v>태극 147단</v>
       </c>
       <c r="J155" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>147</v>
       </c>
       <c r="K155" s="13" t="s">
@@ -11201,15 +11303,15 @@
         <v>147</v>
       </c>
       <c r="C156" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="D156" s="14" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1000후</v>
       </c>
       <c r="E156" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F156" s="13" t="str" cm="1">
@@ -11217,18 +11319,18 @@
         <v>후</v>
       </c>
       <c r="G156" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+156</v>
       </c>
       <c r="H156" s="13">
         <v>5.76</v>
       </c>
       <c r="I156" s="13" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>태극 148단</v>
       </c>
       <c r="J156" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>148</v>
       </c>
       <c r="K156" s="13" t="s">
@@ -11240,15 +11342,15 @@
         <v>148</v>
       </c>
       <c r="C157" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+160</v>
       </c>
       <c r="D157" s="14" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1단</v>
       </c>
       <c r="E157" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F157" s="13" t="str" cm="1">
@@ -11256,18 +11358,18 @@
         <v>단</v>
       </c>
       <c r="G157" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+160</v>
       </c>
       <c r="H157" s="13">
         <v>5.84</v>
       </c>
       <c r="I157" s="13" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>태극 149단</v>
       </c>
       <c r="J157" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>149</v>
       </c>
       <c r="K157" s="13" t="s">
@@ -11279,15 +11381,15 @@
         <v>149</v>
       </c>
       <c r="C158" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+161</v>
       </c>
       <c r="D158" s="14" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10단</v>
       </c>
       <c r="E158" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F158" s="13" t="str" cm="1">
@@ -11295,18 +11397,18 @@
         <v>단</v>
       </c>
       <c r="G158" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+160</v>
       </c>
       <c r="H158" s="13">
         <v>5.92</v>
       </c>
       <c r="I158" s="13" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>태극 150단</v>
       </c>
       <c r="J158" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>150</v>
       </c>
       <c r="K158" s="13" t="s">
@@ -11318,15 +11420,15 @@
         <v>150</v>
       </c>
       <c r="C159" s="14">
-        <f t="shared" ref="C159:C162" si="65">E159*G159</f>
+        <f t="shared" ref="C159:C162" si="67">E159*G159</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="D159" s="14" t="str">
-        <f t="shared" ref="D159:D162" si="66">E159&amp;F159</f>
+        <f t="shared" ref="D159:D162" si="68">E159&amp;F159</f>
         <v>100단</v>
       </c>
       <c r="E159" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F159" s="13" t="str" cm="1">
@@ -11334,18 +11436,18 @@
         <v>단</v>
       </c>
       <c r="G159" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+160</v>
       </c>
       <c r="H159" s="13">
         <v>6</v>
       </c>
       <c r="I159" s="13" t="str">
-        <f t="shared" ref="I159:I162" si="67">K159&amp;" "&amp;J159&amp;"단"</f>
+        <f t="shared" ref="I159:I162" si="69">K159&amp;" "&amp;J159&amp;"단"</f>
         <v>태극 151단</v>
       </c>
       <c r="J159" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>151</v>
       </c>
       <c r="K159" s="13" t="s">
@@ -11357,15 +11459,15 @@
         <v>151</v>
       </c>
       <c r="C160" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="D160" s="14" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1000단</v>
       </c>
       <c r="E160" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F160" s="13" t="str" cm="1">
@@ -11373,18 +11475,18 @@
         <v>단</v>
       </c>
       <c r="G160" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+160</v>
       </c>
       <c r="H160" s="13">
         <v>6.08</v>
       </c>
       <c r="I160" s="13" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>태극 152단</v>
       </c>
       <c r="J160" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>152</v>
       </c>
       <c r="K160" s="13" t="s">
@@ -11396,15 +11498,15 @@
         <v>152</v>
       </c>
       <c r="C161" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+164</v>
       </c>
       <c r="D161" s="14" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1절</v>
       </c>
       <c r="E161" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F161" s="13" t="str" cm="1">
@@ -11412,18 +11514,18 @@
         <v>절</v>
       </c>
       <c r="G161" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+164</v>
       </c>
       <c r="H161" s="13">
         <v>6.16</v>
       </c>
       <c r="I161" s="13" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>태극 153단</v>
       </c>
       <c r="J161" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>153</v>
       </c>
       <c r="K161" s="13" t="s">
@@ -11435,15 +11537,15 @@
         <v>153</v>
       </c>
       <c r="C162" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="D162" s="14" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>10절</v>
       </c>
       <c r="E162" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F162" s="13" t="str" cm="1">
@@ -11451,18 +11553,18 @@
         <v>절</v>
       </c>
       <c r="G162" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+164</v>
       </c>
       <c r="H162" s="13">
         <v>6.24</v>
       </c>
       <c r="I162" s="13" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>태극 154단</v>
       </c>
       <c r="J162" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>154</v>
       </c>
       <c r="K162" s="13" t="s">
@@ -11474,15 +11576,15 @@
         <v>154</v>
       </c>
       <c r="C163" s="14">
-        <f t="shared" ref="C163:C166" si="68">E163*G163</f>
+        <f t="shared" ref="C163:C166" si="70">E163*G163</f>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="D163" s="14" t="str">
-        <f t="shared" ref="D163:D166" si="69">E163&amp;F163</f>
+        <f t="shared" ref="D163:D166" si="71">E163&amp;F163</f>
         <v>100절</v>
       </c>
       <c r="E163" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F163" s="13" t="str" cm="1">
@@ -11490,18 +11592,18 @@
         <v>절</v>
       </c>
       <c r="G163" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+164</v>
       </c>
       <c r="H163" s="13">
         <v>6.32</v>
       </c>
       <c r="I163" s="13" t="str">
-        <f t="shared" ref="I163:I166" si="70">K163&amp;" "&amp;J163&amp;"단"</f>
+        <f t="shared" ref="I163:I166" si="72">K163&amp;" "&amp;J163&amp;"단"</f>
         <v>태극 155단</v>
       </c>
       <c r="J163" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>155</v>
       </c>
       <c r="K163" s="13" t="s">
@@ -11513,15 +11615,15 @@
         <v>155</v>
       </c>
       <c r="C164" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+167</v>
       </c>
       <c r="D164" s="14" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1000절</v>
       </c>
       <c r="E164" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F164" s="13" t="str" cm="1">
@@ -11529,18 +11631,18 @@
         <v>절</v>
       </c>
       <c r="G164" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+164</v>
       </c>
       <c r="H164" s="13">
         <v>6.4</v>
       </c>
       <c r="I164" s="13" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>태극 156단</v>
       </c>
       <c r="J164" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>156</v>
       </c>
       <c r="K164" s="13" t="s">
@@ -11552,15 +11654,15 @@
         <v>156</v>
       </c>
       <c r="C165" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="D165" s="14" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1격</v>
       </c>
       <c r="E165" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F165" s="13" t="str" cm="1">
@@ -11568,18 +11670,18 @@
         <v>격</v>
       </c>
       <c r="G165" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+168</v>
       </c>
       <c r="H165" s="13">
         <v>6.48</v>
       </c>
       <c r="I165" s="13" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>태극 157단</v>
       </c>
       <c r="J165" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>157</v>
       </c>
       <c r="K165" s="13" t="s">
@@ -11591,15 +11693,15 @@
         <v>157</v>
       </c>
       <c r="C166" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="D166" s="14" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>10격</v>
       </c>
       <c r="E166" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F166" s="13" t="str" cm="1">
@@ -11607,18 +11709,18 @@
         <v>격</v>
       </c>
       <c r="G166" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+168</v>
       </c>
       <c r="H166" s="13">
         <v>6.56</v>
       </c>
       <c r="I166" s="13" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>태극 158단</v>
       </c>
       <c r="J166" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>158</v>
       </c>
       <c r="K166" s="13" t="s">
@@ -11630,15 +11732,15 @@
         <v>158</v>
       </c>
       <c r="C167" s="14">
-        <f t="shared" ref="C167:C170" si="71">E167*G167</f>
+        <f t="shared" ref="C167:C170" si="73">E167*G167</f>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="D167" s="14" t="str">
-        <f t="shared" ref="D167:D170" si="72">E167&amp;F167</f>
+        <f t="shared" ref="D167:D170" si="74">E167&amp;F167</f>
         <v>100격</v>
       </c>
       <c r="E167" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F167" s="13" t="str" cm="1">
@@ -11646,18 +11748,18 @@
         <v>격</v>
       </c>
       <c r="G167" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+168</v>
       </c>
       <c r="H167" s="13">
         <v>6.64</v>
       </c>
       <c r="I167" s="13" t="str">
-        <f t="shared" ref="I167:I170" si="73">K167&amp;" "&amp;J167&amp;"단"</f>
+        <f t="shared" ref="I167:I170" si="75">K167&amp;" "&amp;J167&amp;"단"</f>
         <v>태극 159단</v>
       </c>
       <c r="J167" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>159</v>
       </c>
       <c r="K167" s="13" t="s">
@@ -11669,15 +11771,15 @@
         <v>159</v>
       </c>
       <c r="C168" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="D168" s="14" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1000격</v>
       </c>
       <c r="E168" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F168" s="13" t="str" cm="1">
@@ -11685,18 +11787,18 @@
         <v>격</v>
       </c>
       <c r="G168" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+168</v>
       </c>
       <c r="H168" s="13">
         <v>6.72</v>
       </c>
       <c r="I168" s="13" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>태극 160단</v>
       </c>
       <c r="J168" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>160</v>
       </c>
       <c r="K168" s="13" t="s">
@@ -11708,15 +11810,15 @@
         <v>160</v>
       </c>
       <c r="C169" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="D169" s="14" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1창</v>
       </c>
       <c r="E169" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F169" s="13" t="str" cm="1">
@@ -11724,18 +11826,18 @@
         <v>창</v>
       </c>
       <c r="G169" s="13" t="str">
-        <f t="shared" ref="G169:G176" si="74">VLOOKUP(F169,M:P,4,FALSE)</f>
+        <f t="shared" ref="G169:G176" si="76">VLOOKUP(F169,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="H169" s="13">
         <v>6.8</v>
       </c>
       <c r="I169" s="13" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>태극 161단</v>
       </c>
       <c r="J169" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>161</v>
       </c>
       <c r="K169" s="13" t="s">
@@ -11747,15 +11849,15 @@
         <v>161</v>
       </c>
       <c r="C170" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+173</v>
       </c>
       <c r="D170" s="14" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>10창</v>
       </c>
       <c r="E170" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F170" s="13" t="str" cm="1">
@@ -11763,18 +11865,18 @@
         <v>창</v>
       </c>
       <c r="G170" s="13" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+172</v>
       </c>
       <c r="H170" s="13">
         <v>6.88</v>
       </c>
       <c r="I170" s="13" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>태극 162단</v>
       </c>
       <c r="J170" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>162</v>
       </c>
       <c r="K170" s="13" t="s">
@@ -11786,15 +11888,15 @@
         <v>162</v>
       </c>
       <c r="C171" s="14">
-        <f t="shared" ref="C171:C176" si="75">E171*G171</f>
+        <f t="shared" ref="C171:C176" si="77">E171*G171</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="D171" s="14" t="str">
-        <f t="shared" ref="D171:D176" si="76">E171&amp;F171</f>
+        <f t="shared" ref="D171:D176" si="78">E171&amp;F171</f>
         <v>100창</v>
       </c>
       <c r="E171" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F171" s="13" t="str" cm="1">
@@ -11802,18 +11904,18 @@
         <v>창</v>
       </c>
       <c r="G171" s="13" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+172</v>
       </c>
       <c r="H171" s="13">
         <v>6.96</v>
       </c>
       <c r="I171" s="13" t="str">
-        <f t="shared" ref="I171:I176" si="77">K171&amp;" "&amp;J171&amp;"단"</f>
+        <f t="shared" ref="I171:I176" si="79">K171&amp;" "&amp;J171&amp;"단"</f>
         <v>태극 163단</v>
       </c>
       <c r="J171" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>163</v>
       </c>
       <c r="K171" s="13" t="s">
@@ -11825,15 +11927,15 @@
         <v>163</v>
       </c>
       <c r="C172" s="14">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0000000000000001E+175</v>
       </c>
       <c r="D172" s="14" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1000창</v>
       </c>
       <c r="E172" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F172" s="13" t="str" cm="1">
@@ -11841,18 +11943,18 @@
         <v>창</v>
       </c>
       <c r="G172" s="13" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+172</v>
       </c>
       <c r="H172" s="13">
         <v>7.0399999999999903</v>
       </c>
       <c r="I172" s="13" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>태극 164단</v>
       </c>
       <c r="J172" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>164</v>
       </c>
       <c r="K172" s="13" t="s">
@@ -11864,15 +11966,15 @@
         <v>164</v>
       </c>
       <c r="C173" s="14">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+176</v>
       </c>
       <c r="D173" s="14" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1공</v>
       </c>
       <c r="E173" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F173" s="13" t="str" cm="1">
@@ -11880,18 +11982,18 @@
         <v>공</v>
       </c>
       <c r="G173" s="13" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+176</v>
       </c>
       <c r="H173" s="13">
         <v>7.1199999999999903</v>
       </c>
       <c r="I173" s="13" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>태극 165단</v>
       </c>
       <c r="J173" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>165</v>
       </c>
       <c r="K173" s="13" t="s">
@@ -11903,15 +12005,15 @@
         <v>165</v>
       </c>
       <c r="C174" s="14">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+177</v>
       </c>
       <c r="D174" s="14" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>10공</v>
       </c>
       <c r="E174" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F174" s="13" t="str" cm="1">
@@ -11919,18 +12021,18 @@
         <v>공</v>
       </c>
       <c r="G174" s="13" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+176</v>
       </c>
       <c r="H174" s="13">
         <v>7.1999999999999904</v>
       </c>
       <c r="I174" s="13" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>태극 166단</v>
       </c>
       <c r="J174" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>166</v>
       </c>
       <c r="K174" s="13" t="s">
@@ -11942,15 +12044,15 @@
         <v>166</v>
       </c>
       <c r="C175" s="14">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="D175" s="14" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>100공</v>
       </c>
       <c r="E175" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F175" s="13" t="str" cm="1">
@@ -11958,18 +12060,18 @@
         <v>공</v>
       </c>
       <c r="G175" s="13" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+176</v>
       </c>
       <c r="H175" s="13">
         <v>7.2799999999999896</v>
       </c>
       <c r="I175" s="13" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>태극 167단</v>
       </c>
       <c r="J175" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>167</v>
       </c>
       <c r="K175" s="13" t="s">
@@ -11981,15 +12083,15 @@
         <v>167</v>
       </c>
       <c r="C176" s="14">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>9.9999999999999998E+178</v>
       </c>
       <c r="D176" s="14" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1000공</v>
       </c>
       <c r="E176" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F176" s="13" t="str" cm="1">
@@ -11997,18 +12099,18 @@
         <v>공</v>
       </c>
       <c r="G176" s="13" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+176</v>
       </c>
       <c r="H176" s="13">
         <v>7.3599999999999897</v>
       </c>
       <c r="I176" s="13" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>태극 168단</v>
       </c>
       <c r="J176" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>168</v>
       </c>
       <c r="K176" s="13" t="s">
@@ -12020,15 +12122,15 @@
         <v>168</v>
       </c>
       <c r="C177" s="14">
-        <f t="shared" ref="C177:C184" si="78">E177*G177</f>
+        <f t="shared" ref="C177:C184" si="80">E177*G177</f>
         <v>1E+180</v>
       </c>
       <c r="D177" s="14" t="str">
-        <f t="shared" ref="D177:D184" si="79">E177&amp;F177</f>
+        <f t="shared" ref="D177:D184" si="81">E177&amp;F177</f>
         <v>1채</v>
       </c>
       <c r="E177" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F177" s="13" t="str" cm="1">
@@ -12036,18 +12138,18 @@
         <v>채</v>
       </c>
       <c r="G177" s="13" t="str">
-        <f t="shared" ref="G177:G184" si="80">VLOOKUP(F177,M:P,4,FALSE)</f>
+        <f t="shared" ref="G177:G184" si="82">VLOOKUP(F177,M:P,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="H177" s="13">
         <v>7.4399999999999897</v>
       </c>
       <c r="I177" s="13" t="str">
-        <f t="shared" ref="I177:I184" si="81">K177&amp;" "&amp;J177&amp;"단"</f>
+        <f t="shared" ref="I177:I184" si="83">K177&amp;" "&amp;J177&amp;"단"</f>
         <v>태극 169단</v>
       </c>
       <c r="J177" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>169</v>
       </c>
       <c r="K177" s="13" t="s">
@@ -12059,15 +12161,15 @@
         <v>169</v>
       </c>
       <c r="C178" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="D178" s="14" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>10채</v>
       </c>
       <c r="E178" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F178" s="13" t="str" cm="1">
@@ -12075,18 +12177,18 @@
         <v>채</v>
       </c>
       <c r="G178" s="13" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+180</v>
       </c>
       <c r="H178" s="13">
         <v>7.5199999999999898</v>
       </c>
       <c r="I178" s="13" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>태극 170단</v>
       </c>
       <c r="J178" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>170</v>
       </c>
       <c r="K178" s="13" t="s">
@@ -12098,15 +12200,15 @@
         <v>170</v>
       </c>
       <c r="C179" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="D179" s="14" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>100채</v>
       </c>
       <c r="E179" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F179" s="13" t="str" cm="1">
@@ -12114,18 +12216,18 @@
         <v>채</v>
       </c>
       <c r="G179" s="13" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+180</v>
       </c>
       <c r="H179" s="13">
         <v>7.5999999999999899</v>
       </c>
       <c r="I179" s="13" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>태극 171단</v>
       </c>
       <c r="J179" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>171</v>
       </c>
       <c r="K179" s="13" t="s">
@@ -12137,15 +12239,15 @@
         <v>171</v>
       </c>
       <c r="C180" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="D180" s="14" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1000채</v>
       </c>
       <c r="E180" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F180" s="13" t="str" cm="1">
@@ -12153,18 +12255,18 @@
         <v>채</v>
       </c>
       <c r="G180" s="13" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+180</v>
       </c>
       <c r="H180" s="13">
         <v>7.6799999999999899</v>
       </c>
       <c r="I180" s="13" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>태극 172단</v>
       </c>
       <c r="J180" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>172</v>
       </c>
       <c r="K180" s="13" t="s">
@@ -12176,15 +12278,15 @@
         <v>172</v>
       </c>
       <c r="C181" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+184</v>
       </c>
       <c r="D181" s="14" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1피</v>
       </c>
       <c r="E181" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F181" s="13" t="str" cm="1">
@@ -12192,18 +12294,18 @@
         <v>피</v>
       </c>
       <c r="G181" s="13" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+184</v>
       </c>
       <c r="H181" s="13">
         <v>7.75999999999999</v>
       </c>
       <c r="I181" s="13" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>태극 173단</v>
       </c>
       <c r="J181" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>173</v>
       </c>
       <c r="K181" s="13" t="s">
@@ -12215,15 +12317,15 @@
         <v>173</v>
       </c>
       <c r="C182" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="D182" s="14" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>10피</v>
       </c>
       <c r="E182" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F182" s="13" t="str" cm="1">
@@ -12231,18 +12333,18 @@
         <v>피</v>
       </c>
       <c r="G182" s="13" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+184</v>
       </c>
       <c r="H182" s="13">
         <v>7.8399999999999901</v>
       </c>
       <c r="I182" s="13" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>태극 174단</v>
       </c>
       <c r="J182" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>174</v>
       </c>
       <c r="K182" s="13" t="s">
@@ -12254,15 +12356,15 @@
         <v>174</v>
       </c>
       <c r="C183" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="D183" s="14" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>100피</v>
       </c>
       <c r="E183" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F183" s="13" t="str" cm="1">
@@ -12270,18 +12372,18 @@
         <v>피</v>
       </c>
       <c r="G183" s="13" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+184</v>
       </c>
       <c r="H183" s="13">
         <v>7.9199999999999902</v>
       </c>
       <c r="I183" s="13" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>태극 175단</v>
       </c>
       <c r="J183" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>175</v>
       </c>
       <c r="K183" s="13" t="s">
@@ -12293,15 +12395,15 @@
         <v>175</v>
       </c>
       <c r="C184" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="D184" s="14" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1000피</v>
       </c>
       <c r="E184" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F184" s="13" t="str" cm="1">
@@ -12309,18 +12411,18 @@
         <v>피</v>
       </c>
       <c r="G184" s="13" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+184</v>
       </c>
       <c r="H184" s="13">
         <v>7.9999999999999902</v>
       </c>
       <c r="I184" s="13" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>태극 176단</v>
       </c>
       <c r="J184" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>176</v>
       </c>
       <c r="K184" s="13" t="s">
@@ -12332,15 +12434,15 @@
         <v>176</v>
       </c>
       <c r="C185" s="14">
-        <f t="shared" ref="C185:C188" si="82">E185*G185</f>
+        <f t="shared" ref="C185:C189" si="84">E185*G185</f>
         <v>1E+188</v>
       </c>
       <c r="D185" s="14" t="str">
-        <f t="shared" ref="D185:D188" si="83">E185&amp;F185</f>
+        <f t="shared" ref="D185:D189" si="85">E185&amp;F185</f>
         <v>1동</v>
       </c>
       <c r="E185" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F185" s="13" t="str" cm="1">
@@ -12348,18 +12450,18 @@
         <v>동</v>
       </c>
       <c r="G185" s="13" t="str">
-        <f t="shared" ref="G185:G188" si="84">VLOOKUP(F185,M:P,4,FALSE)</f>
+        <f t="shared" ref="G185:G189" si="86">VLOOKUP(F185,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="H185" s="13">
         <v>8.0799999999999894</v>
       </c>
       <c r="I185" s="13" t="str">
-        <f t="shared" ref="I185:I188" si="85">K185&amp;" "&amp;J185&amp;"단"</f>
+        <f t="shared" ref="I185:I189" si="87">K185&amp;" "&amp;J185&amp;"단"</f>
         <v>태극 177단</v>
       </c>
       <c r="J185" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>177</v>
       </c>
       <c r="K185" s="13" t="s">
@@ -12371,15 +12473,15 @@
         <v>177</v>
       </c>
       <c r="C186" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+189</v>
       </c>
       <c r="D186" s="14" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>10동</v>
       </c>
       <c r="E186" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F186" s="13" t="str" cm="1">
@@ -12387,18 +12489,18 @@
         <v>동</v>
       </c>
       <c r="G186" s="13" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+188</v>
       </c>
       <c r="H186" s="13">
         <v>8.1599999999999895</v>
       </c>
       <c r="I186" s="13" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>태극 178단</v>
       </c>
       <c r="J186" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>178</v>
       </c>
       <c r="K186" s="13" t="s">
@@ -12410,15 +12512,15 @@
         <v>178</v>
       </c>
       <c r="C187" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="D187" s="14" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>100동</v>
       </c>
       <c r="E187" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F187" s="13" t="str" cm="1">
@@ -12426,18 +12528,18 @@
         <v>동</v>
       </c>
       <c r="G187" s="13" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+188</v>
       </c>
       <c r="H187" s="13">
         <v>8.2399999999999896</v>
       </c>
       <c r="I187" s="13" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>태극 179단</v>
       </c>
       <c r="J187" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>179</v>
       </c>
       <c r="K187" s="13" t="s">
@@ -12449,15 +12551,15 @@
         <v>179</v>
       </c>
       <c r="C188" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="D188" s="14" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1000동</v>
       </c>
       <c r="E188" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F188" s="13" t="str" cm="1">
@@ -12465,21 +12567,177 @@
         <v>동</v>
       </c>
       <c r="G188" s="13" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+188</v>
       </c>
       <c r="H188" s="13">
         <v>8.3199999999999896</v>
       </c>
       <c r="I188" s="13" t="str">
+        <f t="shared" si="87"/>
+        <v>태극 180단</v>
+      </c>
+      <c r="J188" s="13">
+        <f t="shared" si="36"/>
+        <v>180</v>
+      </c>
+      <c r="K188" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B189" s="13">
+        <v>180</v>
+      </c>
+      <c r="C189" s="14">
+        <f t="shared" si="84"/>
+        <v>1E+192</v>
+      </c>
+      <c r="D189" s="14" t="str">
         <f t="shared" si="85"/>
-        <v>태극 180단</v>
-      </c>
-      <c r="J188" s="13">
-        <f t="shared" si="34"/>
-        <v>180</v>
-      </c>
-      <c r="K188" s="13" t="s">
+        <v>1멸</v>
+      </c>
+      <c r="E189" s="14">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="F189" s="13" t="str" cm="1">
+        <f t="array" ref="F189">IF(AND(E188&gt;100,E189&lt;100),INDEX(M:M,MATCH(F188,M:M,0)+1,0),F188)</f>
+        <v>멸</v>
+      </c>
+      <c r="G189" s="13" t="str">
+        <f t="shared" si="86"/>
+        <v>1E+192</v>
+      </c>
+      <c r="H189" s="13">
+        <v>8.3999999999999897</v>
+      </c>
+      <c r="I189" s="13" t="str">
+        <f t="shared" si="87"/>
+        <v>태극 181단</v>
+      </c>
+      <c r="J189" s="13">
+        <f t="shared" si="36"/>
+        <v>181</v>
+      </c>
+      <c r="K189" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B190" s="13">
+        <v>181</v>
+      </c>
+      <c r="C190" s="14">
+        <f t="shared" ref="C190:C192" si="88">E190*G190</f>
+        <v>1.0000000000000001E+193</v>
+      </c>
+      <c r="D190" s="14" t="str">
+        <f t="shared" ref="D190:D192" si="89">E190&amp;F190</f>
+        <v>10멸</v>
+      </c>
+      <c r="E190" s="14">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="F190" s="13" t="str" cm="1">
+        <f t="array" ref="F190">IF(AND(E189&gt;100,E190&lt;100),INDEX(M:M,MATCH(F189,M:M,0)+1,0),F189)</f>
+        <v>멸</v>
+      </c>
+      <c r="G190" s="13" t="str">
+        <f t="shared" ref="G190:G192" si="90">VLOOKUP(F190,M:P,4,FALSE)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="H190" s="13">
+        <v>8.4799999999999809</v>
+      </c>
+      <c r="I190" s="13" t="str">
+        <f t="shared" ref="I190:I192" si="91">K190&amp;" "&amp;J190&amp;"단"</f>
+        <v>태극 182단</v>
+      </c>
+      <c r="J190" s="13">
+        <f t="shared" si="36"/>
+        <v>182</v>
+      </c>
+      <c r="K190" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B191" s="13">
+        <v>182</v>
+      </c>
+      <c r="C191" s="14">
+        <f t="shared" si="88"/>
+        <v>1.0000000000000001E+194</v>
+      </c>
+      <c r="D191" s="14" t="str">
+        <f t="shared" si="89"/>
+        <v>100멸</v>
+      </c>
+      <c r="E191" s="14">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="F191" s="13" t="str" cm="1">
+        <f t="array" ref="F191">IF(AND(E190&gt;100,E191&lt;100),INDEX(M:M,MATCH(F190,M:M,0)+1,0),F190)</f>
+        <v>멸</v>
+      </c>
+      <c r="G191" s="13" t="str">
+        <f t="shared" si="90"/>
+        <v>1E+192</v>
+      </c>
+      <c r="H191" s="13">
+        <v>8.5599999999999792</v>
+      </c>
+      <c r="I191" s="13" t="str">
+        <f t="shared" si="91"/>
+        <v>태극 183단</v>
+      </c>
+      <c r="J191" s="13">
+        <f t="shared" si="36"/>
+        <v>183</v>
+      </c>
+      <c r="K191" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B192" s="13">
+        <v>183</v>
+      </c>
+      <c r="C192" s="14">
+        <f t="shared" si="88"/>
+        <v>9.9999999999999998E+194</v>
+      </c>
+      <c r="D192" s="14" t="str">
+        <f t="shared" si="89"/>
+        <v>1000멸</v>
+      </c>
+      <c r="E192" s="14">
+        <f t="shared" si="40"/>
+        <v>1000</v>
+      </c>
+      <c r="F192" s="13" t="str" cm="1">
+        <f t="array" ref="F192">IF(AND(E191&gt;100,E192&lt;100),INDEX(M:M,MATCH(F191,M:M,0)+1,0),F191)</f>
+        <v>멸</v>
+      </c>
+      <c r="G192" s="13" t="str">
+        <f t="shared" si="90"/>
+        <v>1E+192</v>
+      </c>
+      <c r="H192" s="13">
+        <v>8.6399999999999793</v>
+      </c>
+      <c r="I192" s="13" t="str">
+        <f t="shared" si="91"/>
+        <v>태극 184단</v>
+      </c>
+      <c r="J192" s="13">
+        <f t="shared" si="36"/>
+        <v>184</v>
+      </c>
+      <c r="K192" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E08D39-B634-4111-9E2D-EC0E602607D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11769DA2-A141-41FA-AFBB-7058EC98634F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukTitle" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="68">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,14 @@
   </si>
   <si>
     <t>멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3741,7 +3749,7 @@
         <v>1E+149</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C185" si="3">C138</f>
+        <f t="shared" ref="C139:C193" si="3">C138</f>
         <v>55</v>
       </c>
       <c r="D139">
@@ -4717,6 +4725,174 @@
       <c r="E185" t="str">
         <f>VLOOKUP(A185,Balance!B:I,8,FALSE)</f>
         <v>태극 184단</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <f>VLOOKUP(A186,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D186">
+        <f>VLOOKUP(A186,Balance!B:I,7,FALSE)</f>
+        <v>8.7199999999999491</v>
+      </c>
+      <c r="E186" t="str">
+        <f>VLOOKUP(A186,Balance!B:I,8,FALSE)</f>
+        <v>태극 185단</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <f>VLOOKUP(A187,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999995E+196</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D187">
+        <f>VLOOKUP(A187,Balance!B:I,7,FALSE)</f>
+        <v>8.7999999999999492</v>
+      </c>
+      <c r="E187" t="str">
+        <f>VLOOKUP(A187,Balance!B:I,8,FALSE)</f>
+        <v>태극 186단</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <f>VLOOKUP(A188,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D188">
+        <f>VLOOKUP(A188,Balance!B:I,7,FALSE)</f>
+        <v>8.8799999999999404</v>
+      </c>
+      <c r="E188" t="str">
+        <f>VLOOKUP(A188,Balance!B:I,8,FALSE)</f>
+        <v>태극 187단</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <f>VLOOKUP(A189,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999988E+198</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D189">
+        <f>VLOOKUP(A189,Balance!B:I,7,FALSE)</f>
+        <v>8.9599999999999298</v>
+      </c>
+      <c r="E189" t="str">
+        <f>VLOOKUP(A189,Balance!B:I,8,FALSE)</f>
+        <v>태극 188단</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <f>VLOOKUP(A190,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D190">
+        <f>VLOOKUP(A190,Balance!B:I,7,FALSE)</f>
+        <v>9.0399999999999192</v>
+      </c>
+      <c r="E190" t="str">
+        <f>VLOOKUP(A190,Balance!B:I,8,FALSE)</f>
+        <v>태극 189단</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <f>VLOOKUP(A191,Balance!B:C,2,FALSE)</f>
+        <v>9.999999999999999E+200</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D191">
+        <f>VLOOKUP(A191,Balance!B:I,7,FALSE)</f>
+        <v>9.1199999999999104</v>
+      </c>
+      <c r="E191" t="str">
+        <f>VLOOKUP(A191,Balance!B:I,8,FALSE)</f>
+        <v>태극 190단</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <f>VLOOKUP(A192,Balance!B:C,2,FALSE)</f>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D192">
+        <f>VLOOKUP(A192,Balance!B:I,7,FALSE)</f>
+        <v>9.1999999999998998</v>
+      </c>
+      <c r="E192" t="str">
+        <f>VLOOKUP(A192,Balance!B:I,8,FALSE)</f>
+        <v>태극 191단</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <f>VLOOKUP(A193,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999999E+202</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D193">
+        <f>VLOOKUP(A193,Balance!B:I,7,FALSE)</f>
+        <v>9.2799999999998892</v>
+      </c>
+      <c r="E193" t="str">
+        <f>VLOOKUP(A193,Balance!B:I,8,FALSE)</f>
+        <v>태극 192단</v>
       </c>
     </row>
   </sheetData>
@@ -4728,10 +4904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X192"/>
+  <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7436,6 +7612,20 @@
       <c r="K56" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M56" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N56" s="13">
+        <v>196</v>
+      </c>
+      <c r="O56" s="14">
+        <f t="shared" ref="O56:O57" si="31">POWER(10,N56)</f>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="P56" s="14" t="str">
+        <f t="shared" ref="P56:P57" si="32">RIGHT(O56,N56)</f>
+        <v>1E+196</v>
+      </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="13">
@@ -7475,6 +7665,20 @@
       <c r="K57" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M57" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N57" s="13">
+        <v>200</v>
+      </c>
+      <c r="O57" s="14">
+        <f t="shared" si="31"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="P57" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+200</v>
+      </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="13">
@@ -7832,15 +8036,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="31">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="33">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="32">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="34">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="33">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="35">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -7871,15 +8075,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -7910,15 +8114,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -7949,15 +8153,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -7988,15 +8192,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -8027,15 +8231,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -8066,15 +8270,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -8082,7 +8286,7 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="34">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="36">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
@@ -8105,15 +8309,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -8121,14 +8325,14 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="35">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="37">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
@@ -8144,15 +8348,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -8160,18 +8364,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J192" si="36">J74+1</f>
+        <f t="shared" ref="J75:J200" si="38">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -8183,15 +8387,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -8199,18 +8403,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -8222,15 +8426,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -8238,18 +8442,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -8261,15 +8465,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -8277,18 +8481,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -8300,15 +8504,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -8316,18 +8520,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -8339,15 +8543,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -8355,18 +8559,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -8378,15 +8582,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -8394,18 +8598,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -8417,15 +8621,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -8433,18 +8637,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -8456,15 +8660,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -8472,18 +8676,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -8495,15 +8699,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -8511,18 +8715,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -8534,15 +8738,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -8550,18 +8754,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -8573,15 +8777,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -8589,18 +8793,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -8612,15 +8816,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -8628,18 +8832,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -8651,15 +8855,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -8667,18 +8871,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -8690,15 +8894,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -8706,18 +8910,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -8729,15 +8933,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -8745,18 +8949,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -8768,15 +8972,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -8784,18 +8988,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -8807,15 +9011,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -8823,18 +9027,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -8846,15 +9050,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -8862,18 +9066,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -8885,15 +9089,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -8901,18 +9105,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -8924,15 +9128,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -8940,18 +9144,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -8963,15 +9167,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -8979,18 +9183,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -9002,15 +9206,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -9018,18 +9222,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -9041,15 +9245,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -9057,18 +9261,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -9080,15 +9284,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -9096,18 +9300,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -9119,15 +9323,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -9135,18 +9339,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -9158,15 +9362,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -9174,18 +9378,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -9197,15 +9401,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -9213,18 +9417,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -9236,15 +9440,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -9252,18 +9456,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -9275,15 +9479,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -9291,18 +9495,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -9314,15 +9518,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -9330,18 +9534,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G136" si="37">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G136" si="39">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -9353,15 +9557,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -9369,18 +9573,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -9392,15 +9596,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -9408,18 +9612,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -9431,15 +9635,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -9447,18 +9651,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -9470,15 +9674,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -9486,18 +9690,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -9509,15 +9713,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -9525,18 +9729,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -9548,15 +9752,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -9564,18 +9768,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -9587,15 +9791,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="38">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="40">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="39">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="41">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E192" si="40">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E200" si="42">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -9603,18 +9807,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="41">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="43">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -9626,15 +9830,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -9642,18 +9846,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -9665,15 +9869,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -9681,18 +9885,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -9704,15 +9908,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -9720,18 +9924,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -9743,15 +9947,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -9759,18 +9963,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -9782,15 +9986,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -9798,18 +10002,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -9821,15 +10025,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -9837,18 +10041,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -9860,15 +10064,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -9876,18 +10080,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -9899,15 +10103,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -9915,18 +10119,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -9938,15 +10142,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -9954,18 +10158,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -9977,15 +10181,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -9993,18 +10197,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -10016,15 +10220,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -10032,18 +10236,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -10055,15 +10259,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -10071,18 +10275,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -10094,15 +10298,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="42">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="44">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="43">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="45">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -10110,18 +10314,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="44">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="46">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -10133,15 +10337,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
+        <f t="shared" si="44"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="45"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
         <f t="shared" si="42"/>
-        <v>1E+129</v>
-      </c>
-      <c r="D126" s="14" t="str">
-        <f t="shared" si="43"/>
-        <v>10위</v>
-      </c>
-      <c r="E126" s="14">
-        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -10149,18 +10353,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -10172,15 +10376,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="45"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
         <f t="shared" si="42"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="D127" s="14" t="str">
-        <f t="shared" si="43"/>
-        <v>100위</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -10188,18 +10392,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -10211,15 +10415,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="45"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
         <f t="shared" si="42"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="D128" s="14" t="str">
-        <f t="shared" si="43"/>
-        <v>1000위</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -10227,18 +10431,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -10250,15 +10454,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
+        <f t="shared" si="44"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="45"/>
+        <v>1설</v>
+      </c>
+      <c r="E129" s="14">
         <f t="shared" si="42"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="D129" s="14" t="str">
-        <f t="shared" si="43"/>
-        <v>1설</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -10266,18 +10470,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -10289,15 +10493,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
+        <f t="shared" si="44"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="45"/>
+        <v>10설</v>
+      </c>
+      <c r="E130" s="14">
         <f t="shared" si="42"/>
-        <v>1E+133</v>
-      </c>
-      <c r="D130" s="14" t="str">
-        <f t="shared" si="43"/>
-        <v>10설</v>
-      </c>
-      <c r="E130" s="14">
-        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -10305,18 +10509,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -10328,15 +10532,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C134" si="45">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="47">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D134" si="46">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="48">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -10344,18 +10548,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I134" si="47">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="49">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -10367,15 +10571,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -10383,18 +10587,18 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
@@ -10406,15 +10610,15 @@
         <v>124</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D133" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1적</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F133" s="13" t="str" cm="1">
@@ -10422,18 +10626,18 @@
         <v>적</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
       <c r="H133" s="13">
         <v>3.92</v>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>태극 125단</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>125</v>
       </c>
       <c r="K133" s="13" t="s">
@@ -10445,15 +10649,15 @@
         <v>125</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+137</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10적</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F134" s="13" t="str" cm="1">
@@ -10461,18 +10665,18 @@
         <v>적</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
       <c r="H134" s="13">
         <v>4</v>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>태극 126단</v>
       </c>
       <c r="J134" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>126</v>
       </c>
       <c r="K134" s="13" t="s">
@@ -10484,15 +10688,15 @@
         <v>126</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" ref="C135:C138" si="48">E135*G135</f>
+        <f t="shared" ref="C135:C138" si="50">E135*G135</f>
         <v>1E+138</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f t="shared" ref="D135:D138" si="49">E135&amp;F135</f>
+        <f t="shared" ref="D135:D138" si="51">E135&amp;F135</f>
         <v>100적</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F135" s="13" t="str" cm="1">
@@ -10500,18 +10704,18 @@
         <v>적</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
       <c r="H135" s="13">
         <v>4.08</v>
       </c>
       <c r="I135" s="13" t="str">
-        <f t="shared" ref="I135:I138" si="50">K135&amp;" "&amp;J135&amp;"단"</f>
+        <f t="shared" ref="I135:I138" si="52">K135&amp;" "&amp;J135&amp;"단"</f>
         <v>태극 127단</v>
       </c>
       <c r="J135" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>127</v>
       </c>
       <c r="K135" s="13" t="s">
@@ -10523,15 +10727,15 @@
         <v>127</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+139</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000적</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F136" s="13" t="str" cm="1">
@@ -10539,18 +10743,18 @@
         <v>적</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
       <c r="H136" s="13">
         <v>4.16</v>
       </c>
       <c r="I136" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>태극 128단</v>
       </c>
       <c r="J136" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>128</v>
       </c>
       <c r="K136" s="13" t="s">
@@ -10562,15 +10766,15 @@
         <v>128</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D137" s="14" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1고</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F137" s="13" t="str" cm="1">
@@ -10578,18 +10782,18 @@
         <v>고</v>
       </c>
       <c r="G137" s="13" t="str">
-        <f t="shared" ref="G137:G168" si="51">VLOOKUP(F137,M:P,4,FALSE)</f>
+        <f t="shared" ref="G137:G168" si="53">VLOOKUP(F137,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H137" s="13">
         <v>4.24</v>
       </c>
       <c r="I137" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>태극 129단</v>
       </c>
       <c r="J137" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>129</v>
       </c>
       <c r="K137" s="13" t="s">
@@ -10601,15 +10805,15 @@
         <v>129</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+141</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10고</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F138" s="13" t="str" cm="1">
@@ -10617,18 +10821,18 @@
         <v>고</v>
       </c>
       <c r="G138" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+140</v>
       </c>
       <c r="H138" s="13">
         <v>4.32</v>
       </c>
       <c r="I138" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>태극 130단</v>
       </c>
       <c r="J138" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>130</v>
       </c>
       <c r="K138" s="13" t="s">
@@ -10640,15 +10844,15 @@
         <v>130</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" ref="C139:C142" si="52">E139*G139</f>
+        <f t="shared" ref="C139:C142" si="54">E139*G139</f>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="D139" s="14" t="str">
-        <f t="shared" ref="D139:D142" si="53">E139&amp;F139</f>
+        <f t="shared" ref="D139:D142" si="55">E139&amp;F139</f>
         <v>100고</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F139" s="13" t="str" cm="1">
@@ -10656,18 +10860,18 @@
         <v>고</v>
       </c>
       <c r="G139" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+140</v>
       </c>
       <c r="H139" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="I139" s="13" t="str">
-        <f t="shared" ref="I139:I142" si="54">K139&amp;" "&amp;J139&amp;"단"</f>
+        <f t="shared" ref="I139:I142" si="56">K139&amp;" "&amp;J139&amp;"단"</f>
         <v>태극 131단</v>
       </c>
       <c r="J139" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>131</v>
       </c>
       <c r="K139" s="13" t="s">
@@ -10679,15 +10883,15 @@
         <v>131</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+143</v>
       </c>
       <c r="D140" s="14" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000고</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F140" s="13" t="str" cm="1">
@@ -10695,18 +10899,18 @@
         <v>고</v>
       </c>
       <c r="G140" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+140</v>
       </c>
       <c r="H140" s="13">
         <v>4.4800000000000004</v>
       </c>
       <c r="I140" s="13" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>태극 132단</v>
       </c>
       <c r="J140" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>132</v>
       </c>
       <c r="K140" s="13" t="s">
@@ -10718,15 +10922,15 @@
         <v>132</v>
       </c>
       <c r="C141" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+144</v>
       </c>
       <c r="D141" s="14" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1화</v>
       </c>
       <c r="E141" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F141" s="13" t="str" cm="1">
@@ -10734,18 +10938,18 @@
         <v>화</v>
       </c>
       <c r="G141" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+144</v>
       </c>
       <c r="H141" s="13">
         <v>4.5599999999999996</v>
       </c>
       <c r="I141" s="13" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>태극 133단</v>
       </c>
       <c r="J141" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>133</v>
       </c>
       <c r="K141" s="13" t="s">
@@ -10757,15 +10961,15 @@
         <v>133</v>
       </c>
       <c r="C142" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10화</v>
       </c>
       <c r="E142" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F142" s="13" t="str" cm="1">
@@ -10773,18 +10977,18 @@
         <v>화</v>
       </c>
       <c r="G142" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+144</v>
       </c>
       <c r="H142" s="13">
         <v>4.6399999999999997</v>
       </c>
       <c r="I142" s="13" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>태극 134단</v>
       </c>
       <c r="J142" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>134</v>
       </c>
       <c r="K142" s="13" t="s">
@@ -10796,15 +11000,15 @@
         <v>134</v>
       </c>
       <c r="C143" s="14">
-        <f t="shared" ref="C143:C146" si="55">E143*G143</f>
+        <f t="shared" ref="C143:C146" si="57">E143*G143</f>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="D143" s="14" t="str">
-        <f t="shared" ref="D143:D146" si="56">E143&amp;F143</f>
+        <f t="shared" ref="D143:D146" si="58">E143&amp;F143</f>
         <v>100화</v>
       </c>
       <c r="E143" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F143" s="13" t="str" cm="1">
@@ -10812,18 +11016,18 @@
         <v>화</v>
       </c>
       <c r="G143" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+144</v>
       </c>
       <c r="H143" s="13">
         <v>4.72</v>
       </c>
       <c r="I143" s="13" t="str">
-        <f t="shared" ref="I143:I146" si="57">K143&amp;" "&amp;J143&amp;"단"</f>
+        <f t="shared" ref="I143:I146" si="59">K143&amp;" "&amp;J143&amp;"단"</f>
         <v>태극 135단</v>
       </c>
       <c r="J143" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>135</v>
       </c>
       <c r="K143" s="13" t="s">
@@ -10835,15 +11039,15 @@
         <v>135</v>
       </c>
       <c r="C144" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="D144" s="14" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1000화</v>
       </c>
       <c r="E144" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F144" s="13" t="str" cm="1">
@@ -10851,18 +11055,18 @@
         <v>화</v>
       </c>
       <c r="G144" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+144</v>
       </c>
       <c r="H144" s="13">
         <v>4.8</v>
       </c>
       <c r="I144" s="13" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>태극 136단</v>
       </c>
       <c r="J144" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>136</v>
       </c>
       <c r="K144" s="13" t="s">
@@ -10874,15 +11078,15 @@
         <v>136</v>
       </c>
       <c r="C145" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+148</v>
       </c>
       <c r="D145" s="14" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1명</v>
       </c>
       <c r="E145" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F145" s="13" t="str" cm="1">
@@ -10890,18 +11094,18 @@
         <v>명</v>
       </c>
       <c r="G145" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+148</v>
       </c>
       <c r="H145" s="13">
         <v>4.88</v>
       </c>
       <c r="I145" s="13" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>태극 137단</v>
       </c>
       <c r="J145" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>137</v>
       </c>
       <c r="K145" s="13" t="s">
@@ -10913,15 +11117,15 @@
         <v>137</v>
       </c>
       <c r="C146" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+149</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>10명</v>
       </c>
       <c r="E146" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F146" s="13" t="str" cm="1">
@@ -10929,18 +11133,18 @@
         <v>명</v>
       </c>
       <c r="G146" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+148</v>
       </c>
       <c r="H146" s="13">
         <v>4.96</v>
       </c>
       <c r="I146" s="13" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>태극 138단</v>
       </c>
       <c r="J146" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>138</v>
       </c>
       <c r="K146" s="13" t="s">
@@ -10952,15 +11156,15 @@
         <v>138</v>
       </c>
       <c r="C147" s="14">
-        <f t="shared" ref="C147:C150" si="58">E147*G147</f>
+        <f t="shared" ref="C147:C150" si="60">E147*G147</f>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="D147" s="14" t="str">
-        <f t="shared" ref="D147:D150" si="59">E147&amp;F147</f>
+        <f t="shared" ref="D147:D150" si="61">E147&amp;F147</f>
         <v>100명</v>
       </c>
       <c r="E147" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F147" s="13" t="str" cm="1">
@@ -10968,18 +11172,18 @@
         <v>명</v>
       </c>
       <c r="G147" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+148</v>
       </c>
       <c r="H147" s="13">
         <v>5.04</v>
       </c>
       <c r="I147" s="13" t="str">
-        <f t="shared" ref="I147:I150" si="60">K147&amp;" "&amp;J147&amp;"단"</f>
+        <f t="shared" ref="I147:I150" si="62">K147&amp;" "&amp;J147&amp;"단"</f>
         <v>태극 139단</v>
       </c>
       <c r="J147" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>139</v>
       </c>
       <c r="K147" s="13" t="s">
@@ -10991,15 +11195,15 @@
         <v>139</v>
       </c>
       <c r="C148" s="14">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+151</v>
       </c>
       <c r="D148" s="14" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1000명</v>
       </c>
       <c r="E148" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F148" s="13" t="str" cm="1">
@@ -11007,18 +11211,18 @@
         <v>명</v>
       </c>
       <c r="G148" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+148</v>
       </c>
       <c r="H148" s="13">
         <v>5.12</v>
       </c>
       <c r="I148" s="13" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>태극 140단</v>
       </c>
       <c r="J148" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>140</v>
       </c>
       <c r="K148" s="13" t="s">
@@ -11030,15 +11234,15 @@
         <v>140</v>
       </c>
       <c r="C149" s="14">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+152</v>
       </c>
       <c r="D149" s="14" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1월</v>
       </c>
       <c r="E149" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F149" s="13" t="str" cm="1">
@@ -11046,18 +11250,18 @@
         <v>월</v>
       </c>
       <c r="G149" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+152</v>
       </c>
       <c r="H149" s="13">
         <v>5.2</v>
       </c>
       <c r="I149" s="13" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>태극 141단</v>
       </c>
       <c r="J149" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>141</v>
       </c>
       <c r="K149" s="13" t="s">
@@ -11069,15 +11273,15 @@
         <v>141</v>
       </c>
       <c r="C150" s="14">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+153</v>
       </c>
       <c r="D150" s="14" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>10월</v>
       </c>
       <c r="E150" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F150" s="13" t="str" cm="1">
@@ -11085,18 +11289,18 @@
         <v>월</v>
       </c>
       <c r="G150" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+152</v>
       </c>
       <c r="H150" s="13">
         <v>5.28</v>
       </c>
       <c r="I150" s="13" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>태극 142단</v>
       </c>
       <c r="J150" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>142</v>
       </c>
       <c r="K150" s="13" t="s">
@@ -11108,15 +11312,15 @@
         <v>142</v>
       </c>
       <c r="C151" s="14">
-        <f t="shared" ref="C151:C154" si="61">E151*G151</f>
+        <f t="shared" ref="C151:C154" si="63">E151*G151</f>
         <v>1E+154</v>
       </c>
       <c r="D151" s="14" t="str">
-        <f t="shared" ref="D151:D154" si="62">E151&amp;F151</f>
+        <f t="shared" ref="D151:D154" si="64">E151&amp;F151</f>
         <v>100월</v>
       </c>
       <c r="E151" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F151" s="13" t="str" cm="1">
@@ -11124,18 +11328,18 @@
         <v>월</v>
       </c>
       <c r="G151" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+152</v>
       </c>
       <c r="H151" s="13">
         <v>5.36</v>
       </c>
       <c r="I151" s="13" t="str">
-        <f t="shared" ref="I151:I154" si="63">K151&amp;" "&amp;J151&amp;"단"</f>
+        <f t="shared" ref="I151:I154" si="65">K151&amp;" "&amp;J151&amp;"단"</f>
         <v>태극 143단</v>
       </c>
       <c r="J151" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>143</v>
       </c>
       <c r="K151" s="13" t="s">
@@ -11147,15 +11351,15 @@
         <v>143</v>
       </c>
       <c r="C152" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+155</v>
       </c>
       <c r="D152" s="14" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1000월</v>
       </c>
       <c r="E152" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F152" s="13" t="str" cm="1">
@@ -11163,18 +11367,18 @@
         <v>월</v>
       </c>
       <c r="G152" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+152</v>
       </c>
       <c r="H152" s="13">
         <v>5.44</v>
       </c>
       <c r="I152" s="13" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>태극 144단</v>
       </c>
       <c r="J152" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>144</v>
       </c>
       <c r="K152" s="13" t="s">
@@ -11186,15 +11390,15 @@
         <v>144</v>
       </c>
       <c r="C153" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="D153" s="14" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1후</v>
       </c>
       <c r="E153" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F153" s="13" t="str" cm="1">
@@ -11202,18 +11406,18 @@
         <v>후</v>
       </c>
       <c r="G153" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+156</v>
       </c>
       <c r="H153" s="13">
         <v>5.52</v>
       </c>
       <c r="I153" s="13" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>태극 145단</v>
       </c>
       <c r="J153" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>145</v>
       </c>
       <c r="K153" s="13" t="s">
@@ -11225,15 +11429,15 @@
         <v>145</v>
       </c>
       <c r="C154" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="D154" s="14" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>10후</v>
       </c>
       <c r="E154" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F154" s="13" t="str" cm="1">
@@ -11241,18 +11445,18 @@
         <v>후</v>
       </c>
       <c r="G154" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+156</v>
       </c>
       <c r="H154" s="13">
         <v>5.6</v>
       </c>
       <c r="I154" s="13" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>태극 146단</v>
       </c>
       <c r="J154" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>146</v>
       </c>
       <c r="K154" s="13" t="s">
@@ -11264,15 +11468,15 @@
         <v>146</v>
       </c>
       <c r="C155" s="14">
-        <f t="shared" ref="C155:C158" si="64">E155*G155</f>
+        <f t="shared" ref="C155:C158" si="66">E155*G155</f>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="D155" s="14" t="str">
-        <f t="shared" ref="D155:D158" si="65">E155&amp;F155</f>
+        <f t="shared" ref="D155:D158" si="67">E155&amp;F155</f>
         <v>100후</v>
       </c>
       <c r="E155" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F155" s="13" t="str" cm="1">
@@ -11280,18 +11484,18 @@
         <v>후</v>
       </c>
       <c r="G155" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+156</v>
       </c>
       <c r="H155" s="13">
         <v>5.68</v>
       </c>
       <c r="I155" s="13" t="str">
-        <f t="shared" ref="I155:I158" si="66">K155&amp;" "&amp;J155&amp;"단"</f>
+        <f t="shared" ref="I155:I158" si="68">K155&amp;" "&amp;J155&amp;"단"</f>
         <v>태극 147단</v>
       </c>
       <c r="J155" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>147</v>
       </c>
       <c r="K155" s="13" t="s">
@@ -11303,15 +11507,15 @@
         <v>147</v>
       </c>
       <c r="C156" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="D156" s="14" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1000후</v>
       </c>
       <c r="E156" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F156" s="13" t="str" cm="1">
@@ -11319,18 +11523,18 @@
         <v>후</v>
       </c>
       <c r="G156" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+156</v>
       </c>
       <c r="H156" s="13">
         <v>5.76</v>
       </c>
       <c r="I156" s="13" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>태극 148단</v>
       </c>
       <c r="J156" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>148</v>
       </c>
       <c r="K156" s="13" t="s">
@@ -11342,15 +11546,15 @@
         <v>148</v>
       </c>
       <c r="C157" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+160</v>
       </c>
       <c r="D157" s="14" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1단</v>
       </c>
       <c r="E157" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F157" s="13" t="str" cm="1">
@@ -11358,18 +11562,18 @@
         <v>단</v>
       </c>
       <c r="G157" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+160</v>
       </c>
       <c r="H157" s="13">
         <v>5.84</v>
       </c>
       <c r="I157" s="13" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>태극 149단</v>
       </c>
       <c r="J157" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>149</v>
       </c>
       <c r="K157" s="13" t="s">
@@ -11381,15 +11585,15 @@
         <v>149</v>
       </c>
       <c r="C158" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+161</v>
       </c>
       <c r="D158" s="14" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>10단</v>
       </c>
       <c r="E158" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F158" s="13" t="str" cm="1">
@@ -11397,18 +11601,18 @@
         <v>단</v>
       </c>
       <c r="G158" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+160</v>
       </c>
       <c r="H158" s="13">
         <v>5.92</v>
       </c>
       <c r="I158" s="13" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>태극 150단</v>
       </c>
       <c r="J158" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>150</v>
       </c>
       <c r="K158" s="13" t="s">
@@ -11420,15 +11624,15 @@
         <v>150</v>
       </c>
       <c r="C159" s="14">
-        <f t="shared" ref="C159:C162" si="67">E159*G159</f>
+        <f t="shared" ref="C159:C162" si="69">E159*G159</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="D159" s="14" t="str">
-        <f t="shared" ref="D159:D162" si="68">E159&amp;F159</f>
+        <f t="shared" ref="D159:D162" si="70">E159&amp;F159</f>
         <v>100단</v>
       </c>
       <c r="E159" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F159" s="13" t="str" cm="1">
@@ -11436,18 +11640,18 @@
         <v>단</v>
       </c>
       <c r="G159" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+160</v>
       </c>
       <c r="H159" s="13">
         <v>6</v>
       </c>
       <c r="I159" s="13" t="str">
-        <f t="shared" ref="I159:I162" si="69">K159&amp;" "&amp;J159&amp;"단"</f>
+        <f t="shared" ref="I159:I162" si="71">K159&amp;" "&amp;J159&amp;"단"</f>
         <v>태극 151단</v>
       </c>
       <c r="J159" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>151</v>
       </c>
       <c r="K159" s="13" t="s">
@@ -11459,15 +11663,15 @@
         <v>151</v>
       </c>
       <c r="C160" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="D160" s="14" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1000단</v>
       </c>
       <c r="E160" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F160" s="13" t="str" cm="1">
@@ -11475,18 +11679,18 @@
         <v>단</v>
       </c>
       <c r="G160" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+160</v>
       </c>
       <c r="H160" s="13">
         <v>6.08</v>
       </c>
       <c r="I160" s="13" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>태극 152단</v>
       </c>
       <c r="J160" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>152</v>
       </c>
       <c r="K160" s="13" t="s">
@@ -11498,15 +11702,15 @@
         <v>152</v>
       </c>
       <c r="C161" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+164</v>
       </c>
       <c r="D161" s="14" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1절</v>
       </c>
       <c r="E161" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F161" s="13" t="str" cm="1">
@@ -11514,18 +11718,18 @@
         <v>절</v>
       </c>
       <c r="G161" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+164</v>
       </c>
       <c r="H161" s="13">
         <v>6.16</v>
       </c>
       <c r="I161" s="13" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>태극 153단</v>
       </c>
       <c r="J161" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>153</v>
       </c>
       <c r="K161" s="13" t="s">
@@ -11537,15 +11741,15 @@
         <v>153</v>
       </c>
       <c r="C162" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="D162" s="14" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>10절</v>
       </c>
       <c r="E162" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F162" s="13" t="str" cm="1">
@@ -11553,18 +11757,18 @@
         <v>절</v>
       </c>
       <c r="G162" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+164</v>
       </c>
       <c r="H162" s="13">
         <v>6.24</v>
       </c>
       <c r="I162" s="13" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>태극 154단</v>
       </c>
       <c r="J162" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>154</v>
       </c>
       <c r="K162" s="13" t="s">
@@ -11576,15 +11780,15 @@
         <v>154</v>
       </c>
       <c r="C163" s="14">
-        <f t="shared" ref="C163:C166" si="70">E163*G163</f>
+        <f t="shared" ref="C163:C166" si="72">E163*G163</f>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="D163" s="14" t="str">
-        <f t="shared" ref="D163:D166" si="71">E163&amp;F163</f>
+        <f t="shared" ref="D163:D166" si="73">E163&amp;F163</f>
         <v>100절</v>
       </c>
       <c r="E163" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F163" s="13" t="str" cm="1">
@@ -11592,18 +11796,18 @@
         <v>절</v>
       </c>
       <c r="G163" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+164</v>
       </c>
       <c r="H163" s="13">
         <v>6.32</v>
       </c>
       <c r="I163" s="13" t="str">
-        <f t="shared" ref="I163:I166" si="72">K163&amp;" "&amp;J163&amp;"단"</f>
+        <f t="shared" ref="I163:I166" si="74">K163&amp;" "&amp;J163&amp;"단"</f>
         <v>태극 155단</v>
       </c>
       <c r="J163" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>155</v>
       </c>
       <c r="K163" s="13" t="s">
@@ -11615,15 +11819,15 @@
         <v>155</v>
       </c>
       <c r="C164" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+167</v>
       </c>
       <c r="D164" s="14" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1000절</v>
       </c>
       <c r="E164" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F164" s="13" t="str" cm="1">
@@ -11631,18 +11835,18 @@
         <v>절</v>
       </c>
       <c r="G164" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+164</v>
       </c>
       <c r="H164" s="13">
         <v>6.4</v>
       </c>
       <c r="I164" s="13" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>태극 156단</v>
       </c>
       <c r="J164" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>156</v>
       </c>
       <c r="K164" s="13" t="s">
@@ -11654,15 +11858,15 @@
         <v>156</v>
       </c>
       <c r="C165" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="D165" s="14" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1격</v>
       </c>
       <c r="E165" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F165" s="13" t="str" cm="1">
@@ -11670,18 +11874,18 @@
         <v>격</v>
       </c>
       <c r="G165" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+168</v>
       </c>
       <c r="H165" s="13">
         <v>6.48</v>
       </c>
       <c r="I165" s="13" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>태극 157단</v>
       </c>
       <c r="J165" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>157</v>
       </c>
       <c r="K165" s="13" t="s">
@@ -11693,15 +11897,15 @@
         <v>157</v>
       </c>
       <c r="C166" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="D166" s="14" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>10격</v>
       </c>
       <c r="E166" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F166" s="13" t="str" cm="1">
@@ -11709,18 +11913,18 @@
         <v>격</v>
       </c>
       <c r="G166" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+168</v>
       </c>
       <c r="H166" s="13">
         <v>6.56</v>
       </c>
       <c r="I166" s="13" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>태극 158단</v>
       </c>
       <c r="J166" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>158</v>
       </c>
       <c r="K166" s="13" t="s">
@@ -11732,15 +11936,15 @@
         <v>158</v>
       </c>
       <c r="C167" s="14">
-        <f t="shared" ref="C167:C170" si="73">E167*G167</f>
+        <f t="shared" ref="C167:C170" si="75">E167*G167</f>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="D167" s="14" t="str">
-        <f t="shared" ref="D167:D170" si="74">E167&amp;F167</f>
+        <f t="shared" ref="D167:D170" si="76">E167&amp;F167</f>
         <v>100격</v>
       </c>
       <c r="E167" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F167" s="13" t="str" cm="1">
@@ -11748,18 +11952,18 @@
         <v>격</v>
       </c>
       <c r="G167" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+168</v>
       </c>
       <c r="H167" s="13">
         <v>6.64</v>
       </c>
       <c r="I167" s="13" t="str">
-        <f t="shared" ref="I167:I170" si="75">K167&amp;" "&amp;J167&amp;"단"</f>
+        <f t="shared" ref="I167:I170" si="77">K167&amp;" "&amp;J167&amp;"단"</f>
         <v>태극 159단</v>
       </c>
       <c r="J167" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>159</v>
       </c>
       <c r="K167" s="13" t="s">
@@ -11771,15 +11975,15 @@
         <v>159</v>
       </c>
       <c r="C168" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="D168" s="14" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1000격</v>
       </c>
       <c r="E168" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F168" s="13" t="str" cm="1">
@@ -11787,18 +11991,18 @@
         <v>격</v>
       </c>
       <c r="G168" s="13" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+168</v>
       </c>
       <c r="H168" s="13">
         <v>6.72</v>
       </c>
       <c r="I168" s="13" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>태극 160단</v>
       </c>
       <c r="J168" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>160</v>
       </c>
       <c r="K168" s="13" t="s">
@@ -11810,15 +12014,15 @@
         <v>160</v>
       </c>
       <c r="C169" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="D169" s="14" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1창</v>
       </c>
       <c r="E169" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F169" s="13" t="str" cm="1">
@@ -11826,18 +12030,18 @@
         <v>창</v>
       </c>
       <c r="G169" s="13" t="str">
-        <f t="shared" ref="G169:G176" si="76">VLOOKUP(F169,M:P,4,FALSE)</f>
+        <f t="shared" ref="G169:G176" si="78">VLOOKUP(F169,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="H169" s="13">
         <v>6.8</v>
       </c>
       <c r="I169" s="13" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>태극 161단</v>
       </c>
       <c r="J169" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>161</v>
       </c>
       <c r="K169" s="13" t="s">
@@ -11849,15 +12053,15 @@
         <v>161</v>
       </c>
       <c r="C170" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1E+173</v>
       </c>
       <c r="D170" s="14" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>10창</v>
       </c>
       <c r="E170" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F170" s="13" t="str" cm="1">
@@ -11865,18 +12069,18 @@
         <v>창</v>
       </c>
       <c r="G170" s="13" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+172</v>
       </c>
       <c r="H170" s="13">
         <v>6.88</v>
       </c>
       <c r="I170" s="13" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>태극 162단</v>
       </c>
       <c r="J170" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>162</v>
       </c>
       <c r="K170" s="13" t="s">
@@ -11888,15 +12092,15 @@
         <v>162</v>
       </c>
       <c r="C171" s="14">
-        <f t="shared" ref="C171:C176" si="77">E171*G171</f>
+        <f t="shared" ref="C171:C176" si="79">E171*G171</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="D171" s="14" t="str">
-        <f t="shared" ref="D171:D176" si="78">E171&amp;F171</f>
+        <f t="shared" ref="D171:D176" si="80">E171&amp;F171</f>
         <v>100창</v>
       </c>
       <c r="E171" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F171" s="13" t="str" cm="1">
@@ -11904,18 +12108,18 @@
         <v>창</v>
       </c>
       <c r="G171" s="13" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+172</v>
       </c>
       <c r="H171" s="13">
         <v>6.96</v>
       </c>
       <c r="I171" s="13" t="str">
-        <f t="shared" ref="I171:I176" si="79">K171&amp;" "&amp;J171&amp;"단"</f>
+        <f t="shared" ref="I171:I176" si="81">K171&amp;" "&amp;J171&amp;"단"</f>
         <v>태극 163단</v>
       </c>
       <c r="J171" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>163</v>
       </c>
       <c r="K171" s="13" t="s">
@@ -11927,15 +12131,15 @@
         <v>163</v>
       </c>
       <c r="C172" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.0000000000000001E+175</v>
       </c>
       <c r="D172" s="14" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1000창</v>
       </c>
       <c r="E172" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F172" s="13" t="str" cm="1">
@@ -11943,18 +12147,18 @@
         <v>창</v>
       </c>
       <c r="G172" s="13" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+172</v>
       </c>
       <c r="H172" s="13">
         <v>7.0399999999999903</v>
       </c>
       <c r="I172" s="13" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>태극 164단</v>
       </c>
       <c r="J172" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>164</v>
       </c>
       <c r="K172" s="13" t="s">
@@ -11966,15 +12170,15 @@
         <v>164</v>
       </c>
       <c r="C173" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1E+176</v>
       </c>
       <c r="D173" s="14" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1공</v>
       </c>
       <c r="E173" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F173" s="13" t="str" cm="1">
@@ -11982,18 +12186,18 @@
         <v>공</v>
       </c>
       <c r="G173" s="13" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+176</v>
       </c>
       <c r="H173" s="13">
         <v>7.1199999999999903</v>
       </c>
       <c r="I173" s="13" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>태극 165단</v>
       </c>
       <c r="J173" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>165</v>
       </c>
       <c r="K173" s="13" t="s">
@@ -12005,15 +12209,15 @@
         <v>165</v>
       </c>
       <c r="C174" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1E+177</v>
       </c>
       <c r="D174" s="14" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>10공</v>
       </c>
       <c r="E174" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F174" s="13" t="str" cm="1">
@@ -12021,18 +12225,18 @@
         <v>공</v>
       </c>
       <c r="G174" s="13" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+176</v>
       </c>
       <c r="H174" s="13">
         <v>7.1999999999999904</v>
       </c>
       <c r="I174" s="13" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>태극 166단</v>
       </c>
       <c r="J174" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>166</v>
       </c>
       <c r="K174" s="13" t="s">
@@ -12044,15 +12248,15 @@
         <v>166</v>
       </c>
       <c r="C175" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="D175" s="14" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>100공</v>
       </c>
       <c r="E175" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F175" s="13" t="str" cm="1">
@@ -12060,18 +12264,18 @@
         <v>공</v>
       </c>
       <c r="G175" s="13" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+176</v>
       </c>
       <c r="H175" s="13">
         <v>7.2799999999999896</v>
       </c>
       <c r="I175" s="13" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>태극 167단</v>
       </c>
       <c r="J175" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>167</v>
       </c>
       <c r="K175" s="13" t="s">
@@ -12083,15 +12287,15 @@
         <v>167</v>
       </c>
       <c r="C176" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9.9999999999999998E+178</v>
       </c>
       <c r="D176" s="14" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1000공</v>
       </c>
       <c r="E176" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F176" s="13" t="str" cm="1">
@@ -12099,18 +12303,18 @@
         <v>공</v>
       </c>
       <c r="G176" s="13" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+176</v>
       </c>
       <c r="H176" s="13">
         <v>7.3599999999999897</v>
       </c>
       <c r="I176" s="13" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>태극 168단</v>
       </c>
       <c r="J176" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>168</v>
       </c>
       <c r="K176" s="13" t="s">
@@ -12122,15 +12326,15 @@
         <v>168</v>
       </c>
       <c r="C177" s="14">
-        <f t="shared" ref="C177:C184" si="80">E177*G177</f>
+        <f t="shared" ref="C177:C184" si="82">E177*G177</f>
         <v>1E+180</v>
       </c>
       <c r="D177" s="14" t="str">
-        <f t="shared" ref="D177:D184" si="81">E177&amp;F177</f>
+        <f t="shared" ref="D177:D184" si="83">E177&amp;F177</f>
         <v>1채</v>
       </c>
       <c r="E177" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F177" s="13" t="str" cm="1">
@@ -12138,18 +12342,18 @@
         <v>채</v>
       </c>
       <c r="G177" s="13" t="str">
-        <f t="shared" ref="G177:G184" si="82">VLOOKUP(F177,M:P,4,FALSE)</f>
+        <f t="shared" ref="G177:G184" si="84">VLOOKUP(F177,M:P,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="H177" s="13">
         <v>7.4399999999999897</v>
       </c>
       <c r="I177" s="13" t="str">
-        <f t="shared" ref="I177:I184" si="83">K177&amp;" "&amp;J177&amp;"단"</f>
+        <f t="shared" ref="I177:I184" si="85">K177&amp;" "&amp;J177&amp;"단"</f>
         <v>태극 169단</v>
       </c>
       <c r="J177" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>169</v>
       </c>
       <c r="K177" s="13" t="s">
@@ -12161,15 +12365,15 @@
         <v>169</v>
       </c>
       <c r="C178" s="14">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="D178" s="14" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>10채</v>
       </c>
       <c r="E178" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F178" s="13" t="str" cm="1">
@@ -12177,18 +12381,18 @@
         <v>채</v>
       </c>
       <c r="G178" s="13" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+180</v>
       </c>
       <c r="H178" s="13">
         <v>7.5199999999999898</v>
       </c>
       <c r="I178" s="13" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>태극 170단</v>
       </c>
       <c r="J178" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>170</v>
       </c>
       <c r="K178" s="13" t="s">
@@ -12200,15 +12404,15 @@
         <v>170</v>
       </c>
       <c r="C179" s="14">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="D179" s="14" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>100채</v>
       </c>
       <c r="E179" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F179" s="13" t="str" cm="1">
@@ -12216,18 +12420,18 @@
         <v>채</v>
       </c>
       <c r="G179" s="13" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+180</v>
       </c>
       <c r="H179" s="13">
         <v>7.5999999999999899</v>
       </c>
       <c r="I179" s="13" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>태극 171단</v>
       </c>
       <c r="J179" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>171</v>
       </c>
       <c r="K179" s="13" t="s">
@@ -12239,15 +12443,15 @@
         <v>171</v>
       </c>
       <c r="C180" s="14">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="D180" s="14" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1000채</v>
       </c>
       <c r="E180" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F180" s="13" t="str" cm="1">
@@ -12255,18 +12459,18 @@
         <v>채</v>
       </c>
       <c r="G180" s="13" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+180</v>
       </c>
       <c r="H180" s="13">
         <v>7.6799999999999899</v>
       </c>
       <c r="I180" s="13" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>태극 172단</v>
       </c>
       <c r="J180" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>172</v>
       </c>
       <c r="K180" s="13" t="s">
@@ -12278,15 +12482,15 @@
         <v>172</v>
       </c>
       <c r="C181" s="14">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+184</v>
       </c>
       <c r="D181" s="14" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1피</v>
       </c>
       <c r="E181" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F181" s="13" t="str" cm="1">
@@ -12294,18 +12498,18 @@
         <v>피</v>
       </c>
       <c r="G181" s="13" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+184</v>
       </c>
       <c r="H181" s="13">
         <v>7.75999999999999</v>
       </c>
       <c r="I181" s="13" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>태극 173단</v>
       </c>
       <c r="J181" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>173</v>
       </c>
       <c r="K181" s="13" t="s">
@@ -12317,15 +12521,15 @@
         <v>173</v>
       </c>
       <c r="C182" s="14">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="D182" s="14" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>10피</v>
       </c>
       <c r="E182" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F182" s="13" t="str" cm="1">
@@ -12333,18 +12537,18 @@
         <v>피</v>
       </c>
       <c r="G182" s="13" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+184</v>
       </c>
       <c r="H182" s="13">
         <v>7.8399999999999901</v>
       </c>
       <c r="I182" s="13" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>태극 174단</v>
       </c>
       <c r="J182" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>174</v>
       </c>
       <c r="K182" s="13" t="s">
@@ -12356,15 +12560,15 @@
         <v>174</v>
       </c>
       <c r="C183" s="14">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="D183" s="14" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>100피</v>
       </c>
       <c r="E183" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F183" s="13" t="str" cm="1">
@@ -12372,18 +12576,18 @@
         <v>피</v>
       </c>
       <c r="G183" s="13" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+184</v>
       </c>
       <c r="H183" s="13">
         <v>7.9199999999999902</v>
       </c>
       <c r="I183" s="13" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>태극 175단</v>
       </c>
       <c r="J183" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>175</v>
       </c>
       <c r="K183" s="13" t="s">
@@ -12395,15 +12599,15 @@
         <v>175</v>
       </c>
       <c r="C184" s="14">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="D184" s="14" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1000피</v>
       </c>
       <c r="E184" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F184" s="13" t="str" cm="1">
@@ -12411,18 +12615,18 @@
         <v>피</v>
       </c>
       <c r="G184" s="13" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+184</v>
       </c>
       <c r="H184" s="13">
         <v>7.9999999999999902</v>
       </c>
       <c r="I184" s="13" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>태극 176단</v>
       </c>
       <c r="J184" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>176</v>
       </c>
       <c r="K184" s="13" t="s">
@@ -12434,15 +12638,15 @@
         <v>176</v>
       </c>
       <c r="C185" s="14">
-        <f t="shared" ref="C185:C189" si="84">E185*G185</f>
+        <f t="shared" ref="C185:C189" si="86">E185*G185</f>
         <v>1E+188</v>
       </c>
       <c r="D185" s="14" t="str">
-        <f t="shared" ref="D185:D189" si="85">E185&amp;F185</f>
+        <f t="shared" ref="D185:D189" si="87">E185&amp;F185</f>
         <v>1동</v>
       </c>
       <c r="E185" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F185" s="13" t="str" cm="1">
@@ -12450,18 +12654,18 @@
         <v>동</v>
       </c>
       <c r="G185" s="13" t="str">
-        <f t="shared" ref="G185:G189" si="86">VLOOKUP(F185,M:P,4,FALSE)</f>
+        <f t="shared" ref="G185:G189" si="88">VLOOKUP(F185,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="H185" s="13">
         <v>8.0799999999999894</v>
       </c>
       <c r="I185" s="13" t="str">
-        <f t="shared" ref="I185:I189" si="87">K185&amp;" "&amp;J185&amp;"단"</f>
+        <f t="shared" ref="I185:I189" si="89">K185&amp;" "&amp;J185&amp;"단"</f>
         <v>태극 177단</v>
       </c>
       <c r="J185" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>177</v>
       </c>
       <c r="K185" s="13" t="s">
@@ -12473,15 +12677,15 @@
         <v>177</v>
       </c>
       <c r="C186" s="14">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+189</v>
       </c>
       <c r="D186" s="14" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>10동</v>
       </c>
       <c r="E186" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F186" s="13" t="str" cm="1">
@@ -12489,18 +12693,18 @@
         <v>동</v>
       </c>
       <c r="G186" s="13" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+188</v>
       </c>
       <c r="H186" s="13">
         <v>8.1599999999999895</v>
       </c>
       <c r="I186" s="13" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>태극 178단</v>
       </c>
       <c r="J186" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>178</v>
       </c>
       <c r="K186" s="13" t="s">
@@ -12512,15 +12716,15 @@
         <v>178</v>
       </c>
       <c r="C187" s="14">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="D187" s="14" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>100동</v>
       </c>
       <c r="E187" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F187" s="13" t="str" cm="1">
@@ -12528,18 +12732,18 @@
         <v>동</v>
       </c>
       <c r="G187" s="13" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+188</v>
       </c>
       <c r="H187" s="13">
         <v>8.2399999999999896</v>
       </c>
       <c r="I187" s="13" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>태극 179단</v>
       </c>
       <c r="J187" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>179</v>
       </c>
       <c r="K187" s="13" t="s">
@@ -12551,15 +12755,15 @@
         <v>179</v>
       </c>
       <c r="C188" s="14">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="D188" s="14" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1000동</v>
       </c>
       <c r="E188" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F188" s="13" t="str" cm="1">
@@ -12567,18 +12771,18 @@
         <v>동</v>
       </c>
       <c r="G188" s="13" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+188</v>
       </c>
       <c r="H188" s="13">
         <v>8.3199999999999896</v>
       </c>
       <c r="I188" s="13" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>태극 180단</v>
       </c>
       <c r="J188" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>180</v>
       </c>
       <c r="K188" s="13" t="s">
@@ -12590,15 +12794,15 @@
         <v>180</v>
       </c>
       <c r="C189" s="14">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+192</v>
       </c>
       <c r="D189" s="14" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1멸</v>
       </c>
       <c r="E189" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F189" s="13" t="str" cm="1">
@@ -12606,18 +12810,18 @@
         <v>멸</v>
       </c>
       <c r="G189" s="13" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+192</v>
       </c>
       <c r="H189" s="13">
         <v>8.3999999999999897</v>
       </c>
       <c r="I189" s="13" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>태극 181단</v>
       </c>
       <c r="J189" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>181</v>
       </c>
       <c r="K189" s="13" t="s">
@@ -12629,15 +12833,15 @@
         <v>181</v>
       </c>
       <c r="C190" s="14">
-        <f t="shared" ref="C190:C192" si="88">E190*G190</f>
+        <f t="shared" ref="C190:C193" si="90">E190*G190</f>
         <v>1.0000000000000001E+193</v>
       </c>
       <c r="D190" s="14" t="str">
-        <f t="shared" ref="D190:D192" si="89">E190&amp;F190</f>
+        <f t="shared" ref="D190:D193" si="91">E190&amp;F190</f>
         <v>10멸</v>
       </c>
       <c r="E190" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F190" s="13" t="str" cm="1">
@@ -12645,18 +12849,18 @@
         <v>멸</v>
       </c>
       <c r="G190" s="13" t="str">
-        <f t="shared" ref="G190:G192" si="90">VLOOKUP(F190,M:P,4,FALSE)</f>
+        <f t="shared" ref="G190:G193" si="92">VLOOKUP(F190,M:P,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="H190" s="13">
         <v>8.4799999999999809</v>
       </c>
       <c r="I190" s="13" t="str">
-        <f t="shared" ref="I190:I192" si="91">K190&amp;" "&amp;J190&amp;"단"</f>
+        <f t="shared" ref="I190:I193" si="93">K190&amp;" "&amp;J190&amp;"단"</f>
         <v>태극 182단</v>
       </c>
       <c r="J190" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>182</v>
       </c>
       <c r="K190" s="13" t="s">
@@ -12668,15 +12872,15 @@
         <v>182</v>
       </c>
       <c r="C191" s="14">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="D191" s="14" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>100멸</v>
       </c>
       <c r="E191" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F191" s="13" t="str" cm="1">
@@ -12684,18 +12888,18 @@
         <v>멸</v>
       </c>
       <c r="G191" s="13" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+192</v>
       </c>
       <c r="H191" s="13">
         <v>8.5599999999999792</v>
       </c>
       <c r="I191" s="13" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>태극 183단</v>
       </c>
       <c r="J191" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>183</v>
       </c>
       <c r="K191" s="13" t="s">
@@ -12707,15 +12911,15 @@
         <v>183</v>
       </c>
       <c r="C192" s="14">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>9.9999999999999998E+194</v>
       </c>
       <c r="D192" s="14" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1000멸</v>
       </c>
       <c r="E192" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F192" s="13" t="str" cm="1">
@@ -12723,21 +12927,333 @@
         <v>멸</v>
       </c>
       <c r="G192" s="13" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+192</v>
       </c>
       <c r="H192" s="13">
         <v>8.6399999999999793</v>
       </c>
       <c r="I192" s="13" t="str">
+        <f t="shared" si="93"/>
+        <v>태극 184단</v>
+      </c>
+      <c r="J192" s="13">
+        <f t="shared" si="38"/>
+        <v>184</v>
+      </c>
+      <c r="K192" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B193" s="13">
+        <v>184</v>
+      </c>
+      <c r="C193" s="14">
+        <f t="shared" si="90"/>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="D193" s="14" t="str">
         <f t="shared" si="91"/>
-        <v>태극 184단</v>
-      </c>
-      <c r="J192" s="13">
-        <f t="shared" si="36"/>
-        <v>184</v>
-      </c>
-      <c r="K192" s="13" t="s">
+        <v>1향</v>
+      </c>
+      <c r="E193" s="14">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="F193" s="13" t="str" cm="1">
+        <f t="array" ref="F193">IF(AND(E192&gt;100,E193&lt;100),INDEX(M:M,MATCH(F192,M:M,0)+1,0),F192)</f>
+        <v>향</v>
+      </c>
+      <c r="G193" s="13" t="str">
+        <f t="shared" si="92"/>
+        <v>1E+196</v>
+      </c>
+      <c r="H193" s="13">
+        <v>8.7199999999999491</v>
+      </c>
+      <c r="I193" s="13" t="str">
+        <f t="shared" si="93"/>
+        <v>태극 185단</v>
+      </c>
+      <c r="J193" s="13">
+        <f t="shared" si="38"/>
+        <v>185</v>
+      </c>
+      <c r="K193" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B194" s="13">
+        <v>185</v>
+      </c>
+      <c r="C194" s="14">
+        <f t="shared" ref="C194:C200" si="94">E194*G194</f>
+        <v>9.9999999999999995E+196</v>
+      </c>
+      <c r="D194" s="14" t="str">
+        <f t="shared" ref="D194:D200" si="95">E194&amp;F194</f>
+        <v>10향</v>
+      </c>
+      <c r="E194" s="14">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="F194" s="13" t="str" cm="1">
+        <f t="array" ref="F194">IF(AND(E193&gt;100,E194&lt;100),INDEX(M:M,MATCH(F193,M:M,0)+1,0),F193)</f>
+        <v>향</v>
+      </c>
+      <c r="G194" s="13" t="str">
+        <f t="shared" ref="G194:G200" si="96">VLOOKUP(F194,M:P,4,FALSE)</f>
+        <v>1E+196</v>
+      </c>
+      <c r="H194" s="13">
+        <v>8.7999999999999492</v>
+      </c>
+      <c r="I194" s="13" t="str">
+        <f t="shared" ref="I194:I200" si="97">K194&amp;" "&amp;J194&amp;"단"</f>
+        <v>태극 186단</v>
+      </c>
+      <c r="J194" s="13">
+        <f t="shared" si="38"/>
+        <v>186</v>
+      </c>
+      <c r="K194" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B195" s="13">
+        <v>186</v>
+      </c>
+      <c r="C195" s="14">
+        <f t="shared" si="94"/>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="D195" s="14" t="str">
+        <f t="shared" si="95"/>
+        <v>100향</v>
+      </c>
+      <c r="E195" s="14">
+        <f t="shared" si="42"/>
+        <v>100</v>
+      </c>
+      <c r="F195" s="13" t="str" cm="1">
+        <f t="array" ref="F195">IF(AND(E194&gt;100,E195&lt;100),INDEX(M:M,MATCH(F194,M:M,0)+1,0),F194)</f>
+        <v>향</v>
+      </c>
+      <c r="G195" s="13" t="str">
+        <f t="shared" si="96"/>
+        <v>1E+196</v>
+      </c>
+      <c r="H195" s="13">
+        <v>8.8799999999999404</v>
+      </c>
+      <c r="I195" s="13" t="str">
+        <f t="shared" si="97"/>
+        <v>태극 187단</v>
+      </c>
+      <c r="J195" s="13">
+        <f t="shared" si="38"/>
+        <v>187</v>
+      </c>
+      <c r="K195" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B196" s="13">
+        <v>187</v>
+      </c>
+      <c r="C196" s="14">
+        <f t="shared" si="94"/>
+        <v>9.9999999999999988E+198</v>
+      </c>
+      <c r="D196" s="14" t="str">
+        <f t="shared" si="95"/>
+        <v>1000향</v>
+      </c>
+      <c r="E196" s="14">
+        <f t="shared" si="42"/>
+        <v>1000</v>
+      </c>
+      <c r="F196" s="13" t="str" cm="1">
+        <f t="array" ref="F196">IF(AND(E195&gt;100,E196&lt;100),INDEX(M:M,MATCH(F195,M:M,0)+1,0),F195)</f>
+        <v>향</v>
+      </c>
+      <c r="G196" s="13" t="str">
+        <f t="shared" si="96"/>
+        <v>1E+196</v>
+      </c>
+      <c r="H196" s="13">
+        <v>8.9599999999999298</v>
+      </c>
+      <c r="I196" s="13" t="str">
+        <f t="shared" si="97"/>
+        <v>태극 188단</v>
+      </c>
+      <c r="J196" s="13">
+        <f t="shared" si="38"/>
+        <v>188</v>
+      </c>
+      <c r="K196" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B197" s="13">
+        <v>188</v>
+      </c>
+      <c r="C197" s="14">
+        <f t="shared" si="94"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="D197" s="14" t="str">
+        <f t="shared" si="95"/>
+        <v>1증</v>
+      </c>
+      <c r="E197" s="14">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="F197" s="13" t="str" cm="1">
+        <f t="array" ref="F197">IF(AND(E196&gt;100,E197&lt;100),INDEX(M:M,MATCH(F196,M:M,0)+1,0),F196)</f>
+        <v>증</v>
+      </c>
+      <c r="G197" s="13" t="str">
+        <f t="shared" si="96"/>
+        <v>1E+200</v>
+      </c>
+      <c r="H197" s="13">
+        <v>9.0399999999999192</v>
+      </c>
+      <c r="I197" s="13" t="str">
+        <f t="shared" si="97"/>
+        <v>태극 189단</v>
+      </c>
+      <c r="J197" s="13">
+        <f t="shared" si="38"/>
+        <v>189</v>
+      </c>
+      <c r="K197" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B198" s="13">
+        <v>189</v>
+      </c>
+      <c r="C198" s="14">
+        <f t="shared" si="94"/>
+        <v>9.999999999999999E+200</v>
+      </c>
+      <c r="D198" s="14" t="str">
+        <f t="shared" si="95"/>
+        <v>10증</v>
+      </c>
+      <c r="E198" s="14">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="F198" s="13" t="str" cm="1">
+        <f t="array" ref="F198">IF(AND(E197&gt;100,E198&lt;100),INDEX(M:M,MATCH(F197,M:M,0)+1,0),F197)</f>
+        <v>증</v>
+      </c>
+      <c r="G198" s="13" t="str">
+        <f t="shared" si="96"/>
+        <v>1E+200</v>
+      </c>
+      <c r="H198" s="13">
+        <v>9.1199999999999104</v>
+      </c>
+      <c r="I198" s="13" t="str">
+        <f t="shared" si="97"/>
+        <v>태극 190단</v>
+      </c>
+      <c r="J198" s="13">
+        <f t="shared" si="38"/>
+        <v>190</v>
+      </c>
+      <c r="K198" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B199" s="13">
+        <v>190</v>
+      </c>
+      <c r="C199" s="14">
+        <f t="shared" si="94"/>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="D199" s="14" t="str">
+        <f t="shared" si="95"/>
+        <v>100증</v>
+      </c>
+      <c r="E199" s="14">
+        <f t="shared" si="42"/>
+        <v>100</v>
+      </c>
+      <c r="F199" s="13" t="str" cm="1">
+        <f t="array" ref="F199">IF(AND(E198&gt;100,E199&lt;100),INDEX(M:M,MATCH(F198,M:M,0)+1,0),F198)</f>
+        <v>증</v>
+      </c>
+      <c r="G199" s="13" t="str">
+        <f t="shared" si="96"/>
+        <v>1E+200</v>
+      </c>
+      <c r="H199" s="13">
+        <v>9.1999999999998998</v>
+      </c>
+      <c r="I199" s="13" t="str">
+        <f t="shared" si="97"/>
+        <v>태극 191단</v>
+      </c>
+      <c r="J199" s="13">
+        <f t="shared" si="38"/>
+        <v>191</v>
+      </c>
+      <c r="K199" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B200" s="13">
+        <v>191</v>
+      </c>
+      <c r="C200" s="14">
+        <f t="shared" si="94"/>
+        <v>9.9999999999999999E+202</v>
+      </c>
+      <c r="D200" s="14" t="str">
+        <f t="shared" si="95"/>
+        <v>1000증</v>
+      </c>
+      <c r="E200" s="14">
+        <f t="shared" si="42"/>
+        <v>1000</v>
+      </c>
+      <c r="F200" s="13" t="str" cm="1">
+        <f t="array" ref="F200">IF(AND(E199&gt;100,E200&lt;100),INDEX(M:M,MATCH(F199,M:M,0)+1,0),F199)</f>
+        <v>증</v>
+      </c>
+      <c r="G200" s="13" t="str">
+        <f t="shared" si="96"/>
+        <v>1E+200</v>
+      </c>
+      <c r="H200" s="13">
+        <v>9.2799999999998892</v>
+      </c>
+      <c r="I200" s="13" t="str">
+        <f t="shared" si="97"/>
+        <v>태극 192단</v>
+      </c>
+      <c r="J200" s="13">
+        <f t="shared" si="38"/>
+        <v>192</v>
+      </c>
+      <c r="K200" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11769DA2-A141-41FA-AFBB-7058EC98634F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53072A60-0AAF-42B1-99C7-2E953FA4FB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukTitle" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="70">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,14 @@
   </si>
   <si>
     <t>증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,11 +841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3749,7 +3757,7 @@
         <v>1E+149</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C193" si="3">C138</f>
+        <f t="shared" ref="C139:C201" si="3">C138</f>
         <v>55</v>
       </c>
       <c r="D139">
@@ -4893,6 +4901,90 @@
       <c r="E193" t="str">
         <f>VLOOKUP(A193,Balance!B:I,8,FALSE)</f>
         <v>태극 192단</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <f>VLOOKUP(A194,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D194">
+        <f>VLOOKUP(A194,Balance!B:I,7,FALSE)</f>
+        <v>9.3599999999998804</v>
+      </c>
+      <c r="E194" t="str">
+        <f>VLOOKUP(A194,Balance!B:I,8,FALSE)</f>
+        <v>태극 193단</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <f>VLOOKUP(A195,Balance!B:C,2,FALSE)</f>
+        <v>1E+205</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D195">
+        <f>VLOOKUP(A195,Balance!B:I,7,FALSE)</f>
+        <v>9.4399999999998805</v>
+      </c>
+      <c r="E195" t="str">
+        <f>VLOOKUP(A195,Balance!B:I,8,FALSE)</f>
+        <v>태극 194단</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <f>VLOOKUP(A196,Balance!B:C,2,FALSE)</f>
+        <v>1E+206</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D196">
+        <f>VLOOKUP(A196,Balance!B:I,7,FALSE)</f>
+        <v>9.5199999999998699</v>
+      </c>
+      <c r="E196" t="str">
+        <f>VLOOKUP(A196,Balance!B:I,8,FALSE)</f>
+        <v>태극 195단</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <f>VLOOKUP(A197,Balance!B:C,2,FALSE)</f>
+        <v>1E+207</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D197">
+        <f>VLOOKUP(A197,Balance!B:I,7,FALSE)</f>
+        <v>9.5999999999998593</v>
+      </c>
+      <c r="E197" t="str">
+        <f>VLOOKUP(A197,Balance!B:I,8,FALSE)</f>
+        <v>태극 196단</v>
       </c>
     </row>
   </sheetData>
@@ -4904,10 +4996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X200"/>
+  <dimension ref="A1:X204"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="G196" sqref="G196"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7718,6 +7810,20 @@
       <c r="K58" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M58" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N58" s="13">
+        <v>204</v>
+      </c>
+      <c r="O58" s="14">
+        <f t="shared" ref="O58:O59" si="33">POWER(10,N58)</f>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="P58" s="14" t="str">
+        <f t="shared" ref="P58:P59" si="34">RIGHT(O58,N58)</f>
+        <v>1E+204</v>
+      </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="13">
@@ -7757,6 +7863,20 @@
       <c r="K59" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M59" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N59" s="13">
+        <v>208</v>
+      </c>
+      <c r="O59" s="14">
+        <f t="shared" si="33"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="P59" s="14" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+208</v>
+      </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" s="13">
@@ -8036,15 +8156,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="33">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="35">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="34">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="36">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="35">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="37">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -8075,15 +8195,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -8114,15 +8234,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -8153,15 +8273,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -8192,15 +8312,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -8231,15 +8351,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -8270,15 +8390,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -8286,7 +8406,7 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="36">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="38">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
@@ -8309,15 +8429,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -8325,14 +8445,14 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="37">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="39">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
@@ -8348,15 +8468,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -8364,18 +8484,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J200" si="38">J74+1</f>
+        <f t="shared" ref="J75:J204" si="40">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -8387,15 +8507,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -8403,18 +8523,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -8426,15 +8546,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -8442,18 +8562,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -8465,15 +8585,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -8481,18 +8601,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -8504,15 +8624,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -8520,18 +8640,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -8543,15 +8663,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -8559,18 +8679,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -8582,15 +8702,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -8598,18 +8718,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -8621,15 +8741,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -8637,18 +8757,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -8660,15 +8780,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -8676,18 +8796,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -8699,15 +8819,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -8715,18 +8835,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -8738,15 +8858,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -8754,18 +8874,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -8777,15 +8897,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -8793,18 +8913,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -8816,15 +8936,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -8832,18 +8952,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -8855,15 +8975,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -8871,18 +8991,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -8894,15 +9014,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -8910,18 +9030,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -8933,15 +9053,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -8949,18 +9069,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -8972,15 +9092,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -8988,18 +9108,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -9011,15 +9131,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -9027,18 +9147,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -9050,15 +9170,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -9066,18 +9186,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -9089,15 +9209,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -9105,18 +9225,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -9128,15 +9248,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -9144,18 +9264,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -9167,15 +9287,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -9183,18 +9303,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -9206,15 +9326,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -9222,18 +9342,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -9245,15 +9365,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -9261,18 +9381,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -9284,15 +9404,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -9300,18 +9420,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -9323,15 +9443,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -9339,18 +9459,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -9362,15 +9482,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -9378,18 +9498,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -9401,15 +9521,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -9417,18 +9537,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -9440,15 +9560,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -9456,18 +9576,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -9479,15 +9599,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -9495,18 +9615,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -9518,15 +9638,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -9534,18 +9654,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G136" si="39">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G136" si="41">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -9557,15 +9677,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -9573,18 +9693,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -9596,15 +9716,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -9612,18 +9732,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -9635,15 +9755,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -9651,18 +9771,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -9674,15 +9794,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -9690,18 +9810,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -9713,15 +9833,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -9729,18 +9849,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -9752,15 +9872,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -9768,18 +9888,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -9791,15 +9911,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="40">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="42">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="41">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="43">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E200" si="42">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E204" si="44">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -9807,18 +9927,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="43">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="45">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -9830,15 +9950,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -9846,18 +9966,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -9869,15 +9989,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -9885,18 +10005,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -9908,15 +10028,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -9924,18 +10044,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -9947,15 +10067,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -9963,18 +10083,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -9986,15 +10106,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -10002,18 +10122,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -10025,15 +10145,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -10041,18 +10161,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -10064,15 +10184,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -10080,18 +10200,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -10103,15 +10223,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -10119,18 +10239,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -10142,15 +10262,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -10158,18 +10278,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -10181,15 +10301,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -10197,18 +10317,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -10220,15 +10340,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -10236,18 +10356,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -10259,15 +10379,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -10275,18 +10395,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -10298,15 +10418,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="44">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="46">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="45">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="47">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -10314,18 +10434,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="46">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="48">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -10337,15 +10457,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
+        <f t="shared" si="46"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="47"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
         <f t="shared" si="44"/>
-        <v>1E+129</v>
-      </c>
-      <c r="D126" s="14" t="str">
-        <f t="shared" si="45"/>
-        <v>10위</v>
-      </c>
-      <c r="E126" s="14">
-        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -10353,18 +10473,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -10376,15 +10496,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
+        <f t="shared" si="46"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="47"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
         <f t="shared" si="44"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="D127" s="14" t="str">
-        <f t="shared" si="45"/>
-        <v>100위</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -10392,18 +10512,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -10415,15 +10535,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
+        <f t="shared" si="46"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="47"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
         <f t="shared" si="44"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="D128" s="14" t="str">
-        <f t="shared" si="45"/>
-        <v>1000위</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -10431,18 +10551,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -10454,15 +10574,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
+        <f t="shared" si="46"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="47"/>
+        <v>1설</v>
+      </c>
+      <c r="E129" s="14">
         <f t="shared" si="44"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="D129" s="14" t="str">
-        <f t="shared" si="45"/>
-        <v>1설</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -10470,18 +10590,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -10493,15 +10613,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
+        <f t="shared" si="46"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="47"/>
+        <v>10설</v>
+      </c>
+      <c r="E130" s="14">
         <f t="shared" si="44"/>
-        <v>1E+133</v>
-      </c>
-      <c r="D130" s="14" t="str">
-        <f t="shared" si="45"/>
-        <v>10설</v>
-      </c>
-      <c r="E130" s="14">
-        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -10509,18 +10629,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+132</v>
       </c>
       <c r="H130" s="13">
         <v>3.68</v>
       </c>
       <c r="I130" s="13" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>태극 122단</v>
       </c>
       <c r="J130" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>122</v>
       </c>
       <c r="K130" s="13" t="s">
@@ -10532,15 +10652,15 @@
         <v>122</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" ref="C131:C134" si="47">E131*G131</f>
+        <f t="shared" ref="C131:C134" si="49">E131*G131</f>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f t="shared" ref="D131:D134" si="48">E131&amp;F131</f>
+        <f t="shared" ref="D131:D134" si="50">E131&amp;F131</f>
         <v>100설</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F131" s="13" t="str" cm="1">
@@ -10548,18 +10668,18 @@
         <v>설</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+132</v>
       </c>
       <c r="H131" s="13">
         <v>3.76</v>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" ref="I131:I134" si="49">K131&amp;" "&amp;J131&amp;"단"</f>
+        <f t="shared" ref="I131:I134" si="51">K131&amp;" "&amp;J131&amp;"단"</f>
         <v>태극 123단</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>123</v>
       </c>
       <c r="K131" s="13" t="s">
@@ -10571,15 +10691,15 @@
         <v>123</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F132" s="13" t="str" cm="1">
@@ -10587,18 +10707,18 @@
         <v>설</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+132</v>
       </c>
       <c r="H132" s="13">
         <v>3.84</v>
       </c>
       <c r="I132" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>태극 124단</v>
       </c>
       <c r="J132" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>124</v>
       </c>
       <c r="K132" s="13" t="s">
@@ -10610,15 +10730,15 @@
         <v>124</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D133" s="14" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1적</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F133" s="13" t="str" cm="1">
@@ -10626,18 +10746,18 @@
         <v>적</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+136</v>
       </c>
       <c r="H133" s="13">
         <v>3.92</v>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>태극 125단</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>125</v>
       </c>
       <c r="K133" s="13" t="s">
@@ -10649,15 +10769,15 @@
         <v>125</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+137</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>10적</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F134" s="13" t="str" cm="1">
@@ -10665,18 +10785,18 @@
         <v>적</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+136</v>
       </c>
       <c r="H134" s="13">
         <v>4</v>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>태극 126단</v>
       </c>
       <c r="J134" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>126</v>
       </c>
       <c r="K134" s="13" t="s">
@@ -10688,15 +10808,15 @@
         <v>126</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" ref="C135:C138" si="50">E135*G135</f>
+        <f t="shared" ref="C135:C138" si="52">E135*G135</f>
         <v>1E+138</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f t="shared" ref="D135:D138" si="51">E135&amp;F135</f>
+        <f t="shared" ref="D135:D138" si="53">E135&amp;F135</f>
         <v>100적</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F135" s="13" t="str" cm="1">
@@ -10704,18 +10824,18 @@
         <v>적</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+136</v>
       </c>
       <c r="H135" s="13">
         <v>4.08</v>
       </c>
       <c r="I135" s="13" t="str">
-        <f t="shared" ref="I135:I138" si="52">K135&amp;" "&amp;J135&amp;"단"</f>
+        <f t="shared" ref="I135:I138" si="54">K135&amp;" "&amp;J135&amp;"단"</f>
         <v>태극 127단</v>
       </c>
       <c r="J135" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>127</v>
       </c>
       <c r="K135" s="13" t="s">
@@ -10727,15 +10847,15 @@
         <v>127</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+139</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000적</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F136" s="13" t="str" cm="1">
@@ -10743,18 +10863,18 @@
         <v>적</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+136</v>
       </c>
       <c r="H136" s="13">
         <v>4.16</v>
       </c>
       <c r="I136" s="13" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>태극 128단</v>
       </c>
       <c r="J136" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>128</v>
       </c>
       <c r="K136" s="13" t="s">
@@ -10766,15 +10886,15 @@
         <v>128</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D137" s="14" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1고</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F137" s="13" t="str" cm="1">
@@ -10782,18 +10902,18 @@
         <v>고</v>
       </c>
       <c r="G137" s="13" t="str">
-        <f t="shared" ref="G137:G168" si="53">VLOOKUP(F137,M:P,4,FALSE)</f>
+        <f t="shared" ref="G137:G168" si="55">VLOOKUP(F137,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="H137" s="13">
         <v>4.24</v>
       </c>
       <c r="I137" s="13" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>태극 129단</v>
       </c>
       <c r="J137" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>129</v>
       </c>
       <c r="K137" s="13" t="s">
@@ -10805,15 +10925,15 @@
         <v>129</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+141</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10고</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F138" s="13" t="str" cm="1">
@@ -10821,18 +10941,18 @@
         <v>고</v>
       </c>
       <c r="G138" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+140</v>
       </c>
       <c r="H138" s="13">
         <v>4.32</v>
       </c>
       <c r="I138" s="13" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>태극 130단</v>
       </c>
       <c r="J138" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>130</v>
       </c>
       <c r="K138" s="13" t="s">
@@ -10844,15 +10964,15 @@
         <v>130</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" ref="C139:C142" si="54">E139*G139</f>
+        <f t="shared" ref="C139:C142" si="56">E139*G139</f>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="D139" s="14" t="str">
-        <f t="shared" ref="D139:D142" si="55">E139&amp;F139</f>
+        <f t="shared" ref="D139:D142" si="57">E139&amp;F139</f>
         <v>100고</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F139" s="13" t="str" cm="1">
@@ -10860,18 +10980,18 @@
         <v>고</v>
       </c>
       <c r="G139" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+140</v>
       </c>
       <c r="H139" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="I139" s="13" t="str">
-        <f t="shared" ref="I139:I142" si="56">K139&amp;" "&amp;J139&amp;"단"</f>
+        <f t="shared" ref="I139:I142" si="58">K139&amp;" "&amp;J139&amp;"단"</f>
         <v>태극 131단</v>
       </c>
       <c r="J139" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>131</v>
       </c>
       <c r="K139" s="13" t="s">
@@ -10883,15 +11003,15 @@
         <v>131</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+143</v>
       </c>
       <c r="D140" s="14" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1000고</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F140" s="13" t="str" cm="1">
@@ -10899,18 +11019,18 @@
         <v>고</v>
       </c>
       <c r="G140" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+140</v>
       </c>
       <c r="H140" s="13">
         <v>4.4800000000000004</v>
       </c>
       <c r="I140" s="13" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>태극 132단</v>
       </c>
       <c r="J140" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>132</v>
       </c>
       <c r="K140" s="13" t="s">
@@ -10922,15 +11042,15 @@
         <v>132</v>
       </c>
       <c r="C141" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
       <c r="D141" s="14" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1화</v>
       </c>
       <c r="E141" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F141" s="13" t="str" cm="1">
@@ -10938,18 +11058,18 @@
         <v>화</v>
       </c>
       <c r="G141" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+144</v>
       </c>
       <c r="H141" s="13">
         <v>4.5599999999999996</v>
       </c>
       <c r="I141" s="13" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>태극 133단</v>
       </c>
       <c r="J141" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>133</v>
       </c>
       <c r="K141" s="13" t="s">
@@ -10961,15 +11081,15 @@
         <v>133</v>
       </c>
       <c r="C142" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>10화</v>
       </c>
       <c r="E142" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F142" s="13" t="str" cm="1">
@@ -10977,18 +11097,18 @@
         <v>화</v>
       </c>
       <c r="G142" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+144</v>
       </c>
       <c r="H142" s="13">
         <v>4.6399999999999997</v>
       </c>
       <c r="I142" s="13" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>태극 134단</v>
       </c>
       <c r="J142" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>134</v>
       </c>
       <c r="K142" s="13" t="s">
@@ -11000,15 +11120,15 @@
         <v>134</v>
       </c>
       <c r="C143" s="14">
-        <f t="shared" ref="C143:C146" si="57">E143*G143</f>
+        <f t="shared" ref="C143:C146" si="59">E143*G143</f>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="D143" s="14" t="str">
-        <f t="shared" ref="D143:D146" si="58">E143&amp;F143</f>
+        <f t="shared" ref="D143:D146" si="60">E143&amp;F143</f>
         <v>100화</v>
       </c>
       <c r="E143" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F143" s="13" t="str" cm="1">
@@ -11016,18 +11136,18 @@
         <v>화</v>
       </c>
       <c r="G143" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+144</v>
       </c>
       <c r="H143" s="13">
         <v>4.72</v>
       </c>
       <c r="I143" s="13" t="str">
-        <f t="shared" ref="I143:I146" si="59">K143&amp;" "&amp;J143&amp;"단"</f>
+        <f t="shared" ref="I143:I146" si="61">K143&amp;" "&amp;J143&amp;"단"</f>
         <v>태극 135단</v>
       </c>
       <c r="J143" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>135</v>
       </c>
       <c r="K143" s="13" t="s">
@@ -11039,15 +11159,15 @@
         <v>135</v>
       </c>
       <c r="C144" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="D144" s="14" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1000화</v>
       </c>
       <c r="E144" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F144" s="13" t="str" cm="1">
@@ -11055,18 +11175,18 @@
         <v>화</v>
       </c>
       <c r="G144" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+144</v>
       </c>
       <c r="H144" s="13">
         <v>4.8</v>
       </c>
       <c r="I144" s="13" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>태극 136단</v>
       </c>
       <c r="J144" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>136</v>
       </c>
       <c r="K144" s="13" t="s">
@@ -11078,15 +11198,15 @@
         <v>136</v>
       </c>
       <c r="C145" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+148</v>
       </c>
       <c r="D145" s="14" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1명</v>
       </c>
       <c r="E145" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F145" s="13" t="str" cm="1">
@@ -11094,18 +11214,18 @@
         <v>명</v>
       </c>
       <c r="G145" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+148</v>
       </c>
       <c r="H145" s="13">
         <v>4.88</v>
       </c>
       <c r="I145" s="13" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>태극 137단</v>
       </c>
       <c r="J145" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>137</v>
       </c>
       <c r="K145" s="13" t="s">
@@ -11117,15 +11237,15 @@
         <v>137</v>
       </c>
       <c r="C146" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+149</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>10명</v>
       </c>
       <c r="E146" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F146" s="13" t="str" cm="1">
@@ -11133,18 +11253,18 @@
         <v>명</v>
       </c>
       <c r="G146" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+148</v>
       </c>
       <c r="H146" s="13">
         <v>4.96</v>
       </c>
       <c r="I146" s="13" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>태극 138단</v>
       </c>
       <c r="J146" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>138</v>
       </c>
       <c r="K146" s="13" t="s">
@@ -11156,15 +11276,15 @@
         <v>138</v>
       </c>
       <c r="C147" s="14">
-        <f t="shared" ref="C147:C150" si="60">E147*G147</f>
+        <f t="shared" ref="C147:C150" si="62">E147*G147</f>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="D147" s="14" t="str">
-        <f t="shared" ref="D147:D150" si="61">E147&amp;F147</f>
+        <f t="shared" ref="D147:D150" si="63">E147&amp;F147</f>
         <v>100명</v>
       </c>
       <c r="E147" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F147" s="13" t="str" cm="1">
@@ -11172,18 +11292,18 @@
         <v>명</v>
       </c>
       <c r="G147" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+148</v>
       </c>
       <c r="H147" s="13">
         <v>5.04</v>
       </c>
       <c r="I147" s="13" t="str">
-        <f t="shared" ref="I147:I150" si="62">K147&amp;" "&amp;J147&amp;"단"</f>
+        <f t="shared" ref="I147:I150" si="64">K147&amp;" "&amp;J147&amp;"단"</f>
         <v>태극 139단</v>
       </c>
       <c r="J147" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>139</v>
       </c>
       <c r="K147" s="13" t="s">
@@ -11195,15 +11315,15 @@
         <v>139</v>
       </c>
       <c r="C148" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+151</v>
       </c>
       <c r="D148" s="14" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1000명</v>
       </c>
       <c r="E148" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F148" s="13" t="str" cm="1">
@@ -11211,18 +11331,18 @@
         <v>명</v>
       </c>
       <c r="G148" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+148</v>
       </c>
       <c r="H148" s="13">
         <v>5.12</v>
       </c>
       <c r="I148" s="13" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>태극 140단</v>
       </c>
       <c r="J148" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>140</v>
       </c>
       <c r="K148" s="13" t="s">
@@ -11234,15 +11354,15 @@
         <v>140</v>
       </c>
       <c r="C149" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+152</v>
       </c>
       <c r="D149" s="14" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1월</v>
       </c>
       <c r="E149" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F149" s="13" t="str" cm="1">
@@ -11250,18 +11370,18 @@
         <v>월</v>
       </c>
       <c r="G149" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+152</v>
       </c>
       <c r="H149" s="13">
         <v>5.2</v>
       </c>
       <c r="I149" s="13" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>태극 141단</v>
       </c>
       <c r="J149" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>141</v>
       </c>
       <c r="K149" s="13" t="s">
@@ -11273,15 +11393,15 @@
         <v>141</v>
       </c>
       <c r="C150" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+153</v>
       </c>
       <c r="D150" s="14" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>10월</v>
       </c>
       <c r="E150" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F150" s="13" t="str" cm="1">
@@ -11289,18 +11409,18 @@
         <v>월</v>
       </c>
       <c r="G150" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+152</v>
       </c>
       <c r="H150" s="13">
         <v>5.28</v>
       </c>
       <c r="I150" s="13" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>태극 142단</v>
       </c>
       <c r="J150" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>142</v>
       </c>
       <c r="K150" s="13" t="s">
@@ -11312,15 +11432,15 @@
         <v>142</v>
       </c>
       <c r="C151" s="14">
-        <f t="shared" ref="C151:C154" si="63">E151*G151</f>
+        <f t="shared" ref="C151:C154" si="65">E151*G151</f>
         <v>1E+154</v>
       </c>
       <c r="D151" s="14" t="str">
-        <f t="shared" ref="D151:D154" si="64">E151&amp;F151</f>
+        <f t="shared" ref="D151:D154" si="66">E151&amp;F151</f>
         <v>100월</v>
       </c>
       <c r="E151" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F151" s="13" t="str" cm="1">
@@ -11328,18 +11448,18 @@
         <v>월</v>
       </c>
       <c r="G151" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+152</v>
       </c>
       <c r="H151" s="13">
         <v>5.36</v>
       </c>
       <c r="I151" s="13" t="str">
-        <f t="shared" ref="I151:I154" si="65">K151&amp;" "&amp;J151&amp;"단"</f>
+        <f t="shared" ref="I151:I154" si="67">K151&amp;" "&amp;J151&amp;"단"</f>
         <v>태극 143단</v>
       </c>
       <c r="J151" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>143</v>
       </c>
       <c r="K151" s="13" t="s">
@@ -11351,15 +11471,15 @@
         <v>143</v>
       </c>
       <c r="C152" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+155</v>
       </c>
       <c r="D152" s="14" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1000월</v>
       </c>
       <c r="E152" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F152" s="13" t="str" cm="1">
@@ -11367,18 +11487,18 @@
         <v>월</v>
       </c>
       <c r="G152" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+152</v>
       </c>
       <c r="H152" s="13">
         <v>5.44</v>
       </c>
       <c r="I152" s="13" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>태극 144단</v>
       </c>
       <c r="J152" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>144</v>
       </c>
       <c r="K152" s="13" t="s">
@@ -11390,15 +11510,15 @@
         <v>144</v>
       </c>
       <c r="C153" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="D153" s="14" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1후</v>
       </c>
       <c r="E153" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F153" s="13" t="str" cm="1">
@@ -11406,18 +11526,18 @@
         <v>후</v>
       </c>
       <c r="G153" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+156</v>
       </c>
       <c r="H153" s="13">
         <v>5.52</v>
       </c>
       <c r="I153" s="13" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>태극 145단</v>
       </c>
       <c r="J153" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>145</v>
       </c>
       <c r="K153" s="13" t="s">
@@ -11429,15 +11549,15 @@
         <v>145</v>
       </c>
       <c r="C154" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="D154" s="14" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>10후</v>
       </c>
       <c r="E154" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F154" s="13" t="str" cm="1">
@@ -11445,18 +11565,18 @@
         <v>후</v>
       </c>
       <c r="G154" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+156</v>
       </c>
       <c r="H154" s="13">
         <v>5.6</v>
       </c>
       <c r="I154" s="13" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>태극 146단</v>
       </c>
       <c r="J154" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>146</v>
       </c>
       <c r="K154" s="13" t="s">
@@ -11468,15 +11588,15 @@
         <v>146</v>
       </c>
       <c r="C155" s="14">
-        <f t="shared" ref="C155:C158" si="66">E155*G155</f>
+        <f t="shared" ref="C155:C158" si="68">E155*G155</f>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="D155" s="14" t="str">
-        <f t="shared" ref="D155:D158" si="67">E155&amp;F155</f>
+        <f t="shared" ref="D155:D158" si="69">E155&amp;F155</f>
         <v>100후</v>
       </c>
       <c r="E155" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F155" s="13" t="str" cm="1">
@@ -11484,18 +11604,18 @@
         <v>후</v>
       </c>
       <c r="G155" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+156</v>
       </c>
       <c r="H155" s="13">
         <v>5.68</v>
       </c>
       <c r="I155" s="13" t="str">
-        <f t="shared" ref="I155:I158" si="68">K155&amp;" "&amp;J155&amp;"단"</f>
+        <f t="shared" ref="I155:I158" si="70">K155&amp;" "&amp;J155&amp;"단"</f>
         <v>태극 147단</v>
       </c>
       <c r="J155" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>147</v>
       </c>
       <c r="K155" s="13" t="s">
@@ -11507,15 +11627,15 @@
         <v>147</v>
       </c>
       <c r="C156" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="D156" s="14" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1000후</v>
       </c>
       <c r="E156" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F156" s="13" t="str" cm="1">
@@ -11523,18 +11643,18 @@
         <v>후</v>
       </c>
       <c r="G156" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+156</v>
       </c>
       <c r="H156" s="13">
         <v>5.76</v>
       </c>
       <c r="I156" s="13" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>태극 148단</v>
       </c>
       <c r="J156" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>148</v>
       </c>
       <c r="K156" s="13" t="s">
@@ -11546,15 +11666,15 @@
         <v>148</v>
       </c>
       <c r="C157" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+160</v>
       </c>
       <c r="D157" s="14" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1단</v>
       </c>
       <c r="E157" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F157" s="13" t="str" cm="1">
@@ -11562,18 +11682,18 @@
         <v>단</v>
       </c>
       <c r="G157" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+160</v>
       </c>
       <c r="H157" s="13">
         <v>5.84</v>
       </c>
       <c r="I157" s="13" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>태극 149단</v>
       </c>
       <c r="J157" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>149</v>
       </c>
       <c r="K157" s="13" t="s">
@@ -11585,15 +11705,15 @@
         <v>149</v>
       </c>
       <c r="C158" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+161</v>
       </c>
       <c r="D158" s="14" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>10단</v>
       </c>
       <c r="E158" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F158" s="13" t="str" cm="1">
@@ -11601,18 +11721,18 @@
         <v>단</v>
       </c>
       <c r="G158" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+160</v>
       </c>
       <c r="H158" s="13">
         <v>5.92</v>
       </c>
       <c r="I158" s="13" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>태극 150단</v>
       </c>
       <c r="J158" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>150</v>
       </c>
       <c r="K158" s="13" t="s">
@@ -11624,15 +11744,15 @@
         <v>150</v>
       </c>
       <c r="C159" s="14">
-        <f t="shared" ref="C159:C162" si="69">E159*G159</f>
+        <f t="shared" ref="C159:C162" si="71">E159*G159</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="D159" s="14" t="str">
-        <f t="shared" ref="D159:D162" si="70">E159&amp;F159</f>
+        <f t="shared" ref="D159:D162" si="72">E159&amp;F159</f>
         <v>100단</v>
       </c>
       <c r="E159" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F159" s="13" t="str" cm="1">
@@ -11640,18 +11760,18 @@
         <v>단</v>
       </c>
       <c r="G159" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+160</v>
       </c>
       <c r="H159" s="13">
         <v>6</v>
       </c>
       <c r="I159" s="13" t="str">
-        <f t="shared" ref="I159:I162" si="71">K159&amp;" "&amp;J159&amp;"단"</f>
+        <f t="shared" ref="I159:I162" si="73">K159&amp;" "&amp;J159&amp;"단"</f>
         <v>태극 151단</v>
       </c>
       <c r="J159" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>151</v>
       </c>
       <c r="K159" s="13" t="s">
@@ -11663,15 +11783,15 @@
         <v>151</v>
       </c>
       <c r="C160" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="D160" s="14" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1000단</v>
       </c>
       <c r="E160" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F160" s="13" t="str" cm="1">
@@ -11679,18 +11799,18 @@
         <v>단</v>
       </c>
       <c r="G160" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+160</v>
       </c>
       <c r="H160" s="13">
         <v>6.08</v>
       </c>
       <c r="I160" s="13" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>태극 152단</v>
       </c>
       <c r="J160" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>152</v>
       </c>
       <c r="K160" s="13" t="s">
@@ -11702,15 +11822,15 @@
         <v>152</v>
       </c>
       <c r="C161" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+164</v>
       </c>
       <c r="D161" s="14" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1절</v>
       </c>
       <c r="E161" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F161" s="13" t="str" cm="1">
@@ -11718,18 +11838,18 @@
         <v>절</v>
       </c>
       <c r="G161" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+164</v>
       </c>
       <c r="H161" s="13">
         <v>6.16</v>
       </c>
       <c r="I161" s="13" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>태극 153단</v>
       </c>
       <c r="J161" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>153</v>
       </c>
       <c r="K161" s="13" t="s">
@@ -11741,15 +11861,15 @@
         <v>153</v>
       </c>
       <c r="C162" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="D162" s="14" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>10절</v>
       </c>
       <c r="E162" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F162" s="13" t="str" cm="1">
@@ -11757,18 +11877,18 @@
         <v>절</v>
       </c>
       <c r="G162" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+164</v>
       </c>
       <c r="H162" s="13">
         <v>6.24</v>
       </c>
       <c r="I162" s="13" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>태극 154단</v>
       </c>
       <c r="J162" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>154</v>
       </c>
       <c r="K162" s="13" t="s">
@@ -11780,15 +11900,15 @@
         <v>154</v>
       </c>
       <c r="C163" s="14">
-        <f t="shared" ref="C163:C166" si="72">E163*G163</f>
+        <f t="shared" ref="C163:C166" si="74">E163*G163</f>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="D163" s="14" t="str">
-        <f t="shared" ref="D163:D166" si="73">E163&amp;F163</f>
+        <f t="shared" ref="D163:D166" si="75">E163&amp;F163</f>
         <v>100절</v>
       </c>
       <c r="E163" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F163" s="13" t="str" cm="1">
@@ -11796,18 +11916,18 @@
         <v>절</v>
       </c>
       <c r="G163" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+164</v>
       </c>
       <c r="H163" s="13">
         <v>6.32</v>
       </c>
       <c r="I163" s="13" t="str">
-        <f t="shared" ref="I163:I166" si="74">K163&amp;" "&amp;J163&amp;"단"</f>
+        <f t="shared" ref="I163:I166" si="76">K163&amp;" "&amp;J163&amp;"단"</f>
         <v>태극 155단</v>
       </c>
       <c r="J163" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>155</v>
       </c>
       <c r="K163" s="13" t="s">
@@ -11819,15 +11939,15 @@
         <v>155</v>
       </c>
       <c r="C164" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+167</v>
       </c>
       <c r="D164" s="14" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1000절</v>
       </c>
       <c r="E164" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F164" s="13" t="str" cm="1">
@@ -11835,18 +11955,18 @@
         <v>절</v>
       </c>
       <c r="G164" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+164</v>
       </c>
       <c r="H164" s="13">
         <v>6.4</v>
       </c>
       <c r="I164" s="13" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>태극 156단</v>
       </c>
       <c r="J164" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>156</v>
       </c>
       <c r="K164" s="13" t="s">
@@ -11858,15 +11978,15 @@
         <v>156</v>
       </c>
       <c r="C165" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="D165" s="14" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1격</v>
       </c>
       <c r="E165" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F165" s="13" t="str" cm="1">
@@ -11874,18 +11994,18 @@
         <v>격</v>
       </c>
       <c r="G165" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+168</v>
       </c>
       <c r="H165" s="13">
         <v>6.48</v>
       </c>
       <c r="I165" s="13" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>태극 157단</v>
       </c>
       <c r="J165" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>157</v>
       </c>
       <c r="K165" s="13" t="s">
@@ -11897,15 +12017,15 @@
         <v>157</v>
       </c>
       <c r="C166" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="D166" s="14" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>10격</v>
       </c>
       <c r="E166" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F166" s="13" t="str" cm="1">
@@ -11913,18 +12033,18 @@
         <v>격</v>
       </c>
       <c r="G166" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+168</v>
       </c>
       <c r="H166" s="13">
         <v>6.56</v>
       </c>
       <c r="I166" s="13" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>태극 158단</v>
       </c>
       <c r="J166" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>158</v>
       </c>
       <c r="K166" s="13" t="s">
@@ -11936,15 +12056,15 @@
         <v>158</v>
       </c>
       <c r="C167" s="14">
-        <f t="shared" ref="C167:C170" si="75">E167*G167</f>
+        <f t="shared" ref="C167:C170" si="77">E167*G167</f>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="D167" s="14" t="str">
-        <f t="shared" ref="D167:D170" si="76">E167&amp;F167</f>
+        <f t="shared" ref="D167:D170" si="78">E167&amp;F167</f>
         <v>100격</v>
       </c>
       <c r="E167" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F167" s="13" t="str" cm="1">
@@ -11952,18 +12072,18 @@
         <v>격</v>
       </c>
       <c r="G167" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+168</v>
       </c>
       <c r="H167" s="13">
         <v>6.64</v>
       </c>
       <c r="I167" s="13" t="str">
-        <f t="shared" ref="I167:I170" si="77">K167&amp;" "&amp;J167&amp;"단"</f>
+        <f t="shared" ref="I167:I170" si="79">K167&amp;" "&amp;J167&amp;"단"</f>
         <v>태극 159단</v>
       </c>
       <c r="J167" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>159</v>
       </c>
       <c r="K167" s="13" t="s">
@@ -11975,15 +12095,15 @@
         <v>159</v>
       </c>
       <c r="C168" s="14">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="D168" s="14" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1000격</v>
       </c>
       <c r="E168" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F168" s="13" t="str" cm="1">
@@ -11991,18 +12111,18 @@
         <v>격</v>
       </c>
       <c r="G168" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+168</v>
       </c>
       <c r="H168" s="13">
         <v>6.72</v>
       </c>
       <c r="I168" s="13" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>태극 160단</v>
       </c>
       <c r="J168" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>160</v>
       </c>
       <c r="K168" s="13" t="s">
@@ -12014,15 +12134,15 @@
         <v>160</v>
       </c>
       <c r="C169" s="14">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="D169" s="14" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1창</v>
       </c>
       <c r="E169" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F169" s="13" t="str" cm="1">
@@ -12030,18 +12150,18 @@
         <v>창</v>
       </c>
       <c r="G169" s="13" t="str">
-        <f t="shared" ref="G169:G176" si="78">VLOOKUP(F169,M:P,4,FALSE)</f>
+        <f t="shared" ref="G169:G176" si="80">VLOOKUP(F169,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="H169" s="13">
         <v>6.8</v>
       </c>
       <c r="I169" s="13" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>태극 161단</v>
       </c>
       <c r="J169" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>161</v>
       </c>
       <c r="K169" s="13" t="s">
@@ -12053,15 +12173,15 @@
         <v>161</v>
       </c>
       <c r="C170" s="14">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+173</v>
       </c>
       <c r="D170" s="14" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>10창</v>
       </c>
       <c r="E170" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F170" s="13" t="str" cm="1">
@@ -12069,18 +12189,18 @@
         <v>창</v>
       </c>
       <c r="G170" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+172</v>
       </c>
       <c r="H170" s="13">
         <v>6.88</v>
       </c>
       <c r="I170" s="13" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>태극 162단</v>
       </c>
       <c r="J170" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>162</v>
       </c>
       <c r="K170" s="13" t="s">
@@ -12092,15 +12212,15 @@
         <v>162</v>
       </c>
       <c r="C171" s="14">
-        <f t="shared" ref="C171:C176" si="79">E171*G171</f>
+        <f t="shared" ref="C171:C176" si="81">E171*G171</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="D171" s="14" t="str">
-        <f t="shared" ref="D171:D176" si="80">E171&amp;F171</f>
+        <f t="shared" ref="D171:D176" si="82">E171&amp;F171</f>
         <v>100창</v>
       </c>
       <c r="E171" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F171" s="13" t="str" cm="1">
@@ -12108,18 +12228,18 @@
         <v>창</v>
       </c>
       <c r="G171" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+172</v>
       </c>
       <c r="H171" s="13">
         <v>6.96</v>
       </c>
       <c r="I171" s="13" t="str">
-        <f t="shared" ref="I171:I176" si="81">K171&amp;" "&amp;J171&amp;"단"</f>
+        <f t="shared" ref="I171:I176" si="83">K171&amp;" "&amp;J171&amp;"단"</f>
         <v>태극 163단</v>
       </c>
       <c r="J171" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>163</v>
       </c>
       <c r="K171" s="13" t="s">
@@ -12131,15 +12251,15 @@
         <v>163</v>
       </c>
       <c r="C172" s="14">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1.0000000000000001E+175</v>
       </c>
       <c r="D172" s="14" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1000창</v>
       </c>
       <c r="E172" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F172" s="13" t="str" cm="1">
@@ -12147,18 +12267,18 @@
         <v>창</v>
       </c>
       <c r="G172" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+172</v>
       </c>
       <c r="H172" s="13">
         <v>7.0399999999999903</v>
       </c>
       <c r="I172" s="13" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>태극 164단</v>
       </c>
       <c r="J172" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>164</v>
       </c>
       <c r="K172" s="13" t="s">
@@ -12170,15 +12290,15 @@
         <v>164</v>
       </c>
       <c r="C173" s="14">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+176</v>
       </c>
       <c r="D173" s="14" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1공</v>
       </c>
       <c r="E173" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F173" s="13" t="str" cm="1">
@@ -12186,18 +12306,18 @@
         <v>공</v>
       </c>
       <c r="G173" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+176</v>
       </c>
       <c r="H173" s="13">
         <v>7.1199999999999903</v>
       </c>
       <c r="I173" s="13" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>태극 165단</v>
       </c>
       <c r="J173" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>165</v>
       </c>
       <c r="K173" s="13" t="s">
@@ -12209,15 +12329,15 @@
         <v>165</v>
       </c>
       <c r="C174" s="14">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+177</v>
       </c>
       <c r="D174" s="14" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>10공</v>
       </c>
       <c r="E174" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F174" s="13" t="str" cm="1">
@@ -12225,18 +12345,18 @@
         <v>공</v>
       </c>
       <c r="G174" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+176</v>
       </c>
       <c r="H174" s="13">
         <v>7.1999999999999904</v>
       </c>
       <c r="I174" s="13" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>태극 166단</v>
       </c>
       <c r="J174" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>166</v>
       </c>
       <c r="K174" s="13" t="s">
@@ -12248,15 +12368,15 @@
         <v>166</v>
       </c>
       <c r="C175" s="14">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="D175" s="14" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>100공</v>
       </c>
       <c r="E175" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F175" s="13" t="str" cm="1">
@@ -12264,18 +12384,18 @@
         <v>공</v>
       </c>
       <c r="G175" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+176</v>
       </c>
       <c r="H175" s="13">
         <v>7.2799999999999896</v>
       </c>
       <c r="I175" s="13" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>태극 167단</v>
       </c>
       <c r="J175" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>167</v>
       </c>
       <c r="K175" s="13" t="s">
@@ -12287,15 +12407,15 @@
         <v>167</v>
       </c>
       <c r="C176" s="14">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>9.9999999999999998E+178</v>
       </c>
       <c r="D176" s="14" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1000공</v>
       </c>
       <c r="E176" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F176" s="13" t="str" cm="1">
@@ -12303,18 +12423,18 @@
         <v>공</v>
       </c>
       <c r="G176" s="13" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+176</v>
       </c>
       <c r="H176" s="13">
         <v>7.3599999999999897</v>
       </c>
       <c r="I176" s="13" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>태극 168단</v>
       </c>
       <c r="J176" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>168</v>
       </c>
       <c r="K176" s="13" t="s">
@@ -12326,15 +12446,15 @@
         <v>168</v>
       </c>
       <c r="C177" s="14">
-        <f t="shared" ref="C177:C184" si="82">E177*G177</f>
+        <f t="shared" ref="C177:C184" si="84">E177*G177</f>
         <v>1E+180</v>
       </c>
       <c r="D177" s="14" t="str">
-        <f t="shared" ref="D177:D184" si="83">E177&amp;F177</f>
+        <f t="shared" ref="D177:D184" si="85">E177&amp;F177</f>
         <v>1채</v>
       </c>
       <c r="E177" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F177" s="13" t="str" cm="1">
@@ -12342,18 +12462,18 @@
         <v>채</v>
       </c>
       <c r="G177" s="13" t="str">
-        <f t="shared" ref="G177:G184" si="84">VLOOKUP(F177,M:P,4,FALSE)</f>
+        <f t="shared" ref="G177:G184" si="86">VLOOKUP(F177,M:P,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="H177" s="13">
         <v>7.4399999999999897</v>
       </c>
       <c r="I177" s="13" t="str">
-        <f t="shared" ref="I177:I184" si="85">K177&amp;" "&amp;J177&amp;"단"</f>
+        <f t="shared" ref="I177:I184" si="87">K177&amp;" "&amp;J177&amp;"단"</f>
         <v>태극 169단</v>
       </c>
       <c r="J177" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>169</v>
       </c>
       <c r="K177" s="13" t="s">
@@ -12365,15 +12485,15 @@
         <v>169</v>
       </c>
       <c r="C178" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="D178" s="14" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>10채</v>
       </c>
       <c r="E178" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F178" s="13" t="str" cm="1">
@@ -12381,18 +12501,18 @@
         <v>채</v>
       </c>
       <c r="G178" s="13" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+180</v>
       </c>
       <c r="H178" s="13">
         <v>7.5199999999999898</v>
       </c>
       <c r="I178" s="13" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>태극 170단</v>
       </c>
       <c r="J178" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>170</v>
       </c>
       <c r="K178" s="13" t="s">
@@ -12404,15 +12524,15 @@
         <v>170</v>
       </c>
       <c r="C179" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="D179" s="14" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>100채</v>
       </c>
       <c r="E179" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F179" s="13" t="str" cm="1">
@@ -12420,18 +12540,18 @@
         <v>채</v>
       </c>
       <c r="G179" s="13" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+180</v>
       </c>
       <c r="H179" s="13">
         <v>7.5999999999999899</v>
       </c>
       <c r="I179" s="13" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>태극 171단</v>
       </c>
       <c r="J179" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>171</v>
       </c>
       <c r="K179" s="13" t="s">
@@ -12443,15 +12563,15 @@
         <v>171</v>
       </c>
       <c r="C180" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="D180" s="14" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1000채</v>
       </c>
       <c r="E180" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F180" s="13" t="str" cm="1">
@@ -12459,18 +12579,18 @@
         <v>채</v>
       </c>
       <c r="G180" s="13" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+180</v>
       </c>
       <c r="H180" s="13">
         <v>7.6799999999999899</v>
       </c>
       <c r="I180" s="13" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>태극 172단</v>
       </c>
       <c r="J180" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>172</v>
       </c>
       <c r="K180" s="13" t="s">
@@ -12482,15 +12602,15 @@
         <v>172</v>
       </c>
       <c r="C181" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+184</v>
       </c>
       <c r="D181" s="14" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1피</v>
       </c>
       <c r="E181" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F181" s="13" t="str" cm="1">
@@ -12498,18 +12618,18 @@
         <v>피</v>
       </c>
       <c r="G181" s="13" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+184</v>
       </c>
       <c r="H181" s="13">
         <v>7.75999999999999</v>
       </c>
       <c r="I181" s="13" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>태극 173단</v>
       </c>
       <c r="J181" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>173</v>
       </c>
       <c r="K181" s="13" t="s">
@@ -12521,15 +12641,15 @@
         <v>173</v>
       </c>
       <c r="C182" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="D182" s="14" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>10피</v>
       </c>
       <c r="E182" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F182" s="13" t="str" cm="1">
@@ -12537,18 +12657,18 @@
         <v>피</v>
       </c>
       <c r="G182" s="13" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+184</v>
       </c>
       <c r="H182" s="13">
         <v>7.8399999999999901</v>
       </c>
       <c r="I182" s="13" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>태극 174단</v>
       </c>
       <c r="J182" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>174</v>
       </c>
       <c r="K182" s="13" t="s">
@@ -12560,15 +12680,15 @@
         <v>174</v>
       </c>
       <c r="C183" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="D183" s="14" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>100피</v>
       </c>
       <c r="E183" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F183" s="13" t="str" cm="1">
@@ -12576,18 +12696,18 @@
         <v>피</v>
       </c>
       <c r="G183" s="13" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+184</v>
       </c>
       <c r="H183" s="13">
         <v>7.9199999999999902</v>
       </c>
       <c r="I183" s="13" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>태극 175단</v>
       </c>
       <c r="J183" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>175</v>
       </c>
       <c r="K183" s="13" t="s">
@@ -12599,15 +12719,15 @@
         <v>175</v>
       </c>
       <c r="C184" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="D184" s="14" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1000피</v>
       </c>
       <c r="E184" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F184" s="13" t="str" cm="1">
@@ -12615,18 +12735,18 @@
         <v>피</v>
       </c>
       <c r="G184" s="13" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+184</v>
       </c>
       <c r="H184" s="13">
         <v>7.9999999999999902</v>
       </c>
       <c r="I184" s="13" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>태극 176단</v>
       </c>
       <c r="J184" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>176</v>
       </c>
       <c r="K184" s="13" t="s">
@@ -12638,15 +12758,15 @@
         <v>176</v>
       </c>
       <c r="C185" s="14">
-        <f t="shared" ref="C185:C189" si="86">E185*G185</f>
+        <f t="shared" ref="C185:C189" si="88">E185*G185</f>
         <v>1E+188</v>
       </c>
       <c r="D185" s="14" t="str">
-        <f t="shared" ref="D185:D189" si="87">E185&amp;F185</f>
+        <f t="shared" ref="D185:D189" si="89">E185&amp;F185</f>
         <v>1동</v>
       </c>
       <c r="E185" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F185" s="13" t="str" cm="1">
@@ -12654,18 +12774,18 @@
         <v>동</v>
       </c>
       <c r="G185" s="13" t="str">
-        <f t="shared" ref="G185:G189" si="88">VLOOKUP(F185,M:P,4,FALSE)</f>
+        <f t="shared" ref="G185:G189" si="90">VLOOKUP(F185,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="H185" s="13">
         <v>8.0799999999999894</v>
       </c>
       <c r="I185" s="13" t="str">
-        <f t="shared" ref="I185:I189" si="89">K185&amp;" "&amp;J185&amp;"단"</f>
+        <f t="shared" ref="I185:I189" si="91">K185&amp;" "&amp;J185&amp;"단"</f>
         <v>태극 177단</v>
       </c>
       <c r="J185" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>177</v>
       </c>
       <c r="K185" s="13" t="s">
@@ -12677,15 +12797,15 @@
         <v>177</v>
       </c>
       <c r="C186" s="14">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+189</v>
       </c>
       <c r="D186" s="14" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>10동</v>
       </c>
       <c r="E186" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F186" s="13" t="str" cm="1">
@@ -12693,18 +12813,18 @@
         <v>동</v>
       </c>
       <c r="G186" s="13" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+188</v>
       </c>
       <c r="H186" s="13">
         <v>8.1599999999999895</v>
       </c>
       <c r="I186" s="13" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>태극 178단</v>
       </c>
       <c r="J186" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>178</v>
       </c>
       <c r="K186" s="13" t="s">
@@ -12716,15 +12836,15 @@
         <v>178</v>
       </c>
       <c r="C187" s="14">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="D187" s="14" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>100동</v>
       </c>
       <c r="E187" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F187" s="13" t="str" cm="1">
@@ -12732,18 +12852,18 @@
         <v>동</v>
       </c>
       <c r="G187" s="13" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+188</v>
       </c>
       <c r="H187" s="13">
         <v>8.2399999999999896</v>
       </c>
       <c r="I187" s="13" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>태극 179단</v>
       </c>
       <c r="J187" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>179</v>
       </c>
       <c r="K187" s="13" t="s">
@@ -12755,15 +12875,15 @@
         <v>179</v>
       </c>
       <c r="C188" s="14">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="D188" s="14" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1000동</v>
       </c>
       <c r="E188" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F188" s="13" t="str" cm="1">
@@ -12771,18 +12891,18 @@
         <v>동</v>
       </c>
       <c r="G188" s="13" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+188</v>
       </c>
       <c r="H188" s="13">
         <v>8.3199999999999896</v>
       </c>
       <c r="I188" s="13" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>태극 180단</v>
       </c>
       <c r="J188" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>180</v>
       </c>
       <c r="K188" s="13" t="s">
@@ -12794,15 +12914,15 @@
         <v>180</v>
       </c>
       <c r="C189" s="14">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+192</v>
       </c>
       <c r="D189" s="14" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1멸</v>
       </c>
       <c r="E189" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F189" s="13" t="str" cm="1">
@@ -12810,18 +12930,18 @@
         <v>멸</v>
       </c>
       <c r="G189" s="13" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+192</v>
       </c>
       <c r="H189" s="13">
         <v>8.3999999999999897</v>
       </c>
       <c r="I189" s="13" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>태극 181단</v>
       </c>
       <c r="J189" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>181</v>
       </c>
       <c r="K189" s="13" t="s">
@@ -12833,15 +12953,15 @@
         <v>181</v>
       </c>
       <c r="C190" s="14">
-        <f t="shared" ref="C190:C193" si="90">E190*G190</f>
+        <f t="shared" ref="C190:C193" si="92">E190*G190</f>
         <v>1.0000000000000001E+193</v>
       </c>
       <c r="D190" s="14" t="str">
-        <f t="shared" ref="D190:D193" si="91">E190&amp;F190</f>
+        <f t="shared" ref="D190:D193" si="93">E190&amp;F190</f>
         <v>10멸</v>
       </c>
       <c r="E190" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F190" s="13" t="str" cm="1">
@@ -12849,18 +12969,18 @@
         <v>멸</v>
       </c>
       <c r="G190" s="13" t="str">
-        <f t="shared" ref="G190:G193" si="92">VLOOKUP(F190,M:P,4,FALSE)</f>
+        <f t="shared" ref="G190:G193" si="94">VLOOKUP(F190,M:P,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="H190" s="13">
         <v>8.4799999999999809</v>
       </c>
       <c r="I190" s="13" t="str">
-        <f t="shared" ref="I190:I193" si="93">K190&amp;" "&amp;J190&amp;"단"</f>
+        <f t="shared" ref="I190:I193" si="95">K190&amp;" "&amp;J190&amp;"단"</f>
         <v>태극 182단</v>
       </c>
       <c r="J190" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>182</v>
       </c>
       <c r="K190" s="13" t="s">
@@ -12872,15 +12992,15 @@
         <v>182</v>
       </c>
       <c r="C191" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="D191" s="14" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>100멸</v>
       </c>
       <c r="E191" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F191" s="13" t="str" cm="1">
@@ -12888,18 +13008,18 @@
         <v>멸</v>
       </c>
       <c r="G191" s="13" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+192</v>
       </c>
       <c r="H191" s="13">
         <v>8.5599999999999792</v>
       </c>
       <c r="I191" s="13" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>태극 183단</v>
       </c>
       <c r="J191" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>183</v>
       </c>
       <c r="K191" s="13" t="s">
@@ -12911,15 +13031,15 @@
         <v>183</v>
       </c>
       <c r="C192" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>9.9999999999999998E+194</v>
       </c>
       <c r="D192" s="14" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1000멸</v>
       </c>
       <c r="E192" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F192" s="13" t="str" cm="1">
@@ -12927,18 +13047,18 @@
         <v>멸</v>
       </c>
       <c r="G192" s="13" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+192</v>
       </c>
       <c r="H192" s="13">
         <v>8.6399999999999793</v>
       </c>
       <c r="I192" s="13" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>태극 184단</v>
       </c>
       <c r="J192" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>184</v>
       </c>
       <c r="K192" s="13" t="s">
@@ -12950,15 +13070,15 @@
         <v>184</v>
       </c>
       <c r="C193" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="D193" s="14" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1향</v>
       </c>
       <c r="E193" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F193" s="13" t="str" cm="1">
@@ -12966,18 +13086,18 @@
         <v>향</v>
       </c>
       <c r="G193" s="13" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+196</v>
       </c>
       <c r="H193" s="13">
         <v>8.7199999999999491</v>
       </c>
       <c r="I193" s="13" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>태극 185단</v>
       </c>
       <c r="J193" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>185</v>
       </c>
       <c r="K193" s="13" t="s">
@@ -12989,15 +13109,15 @@
         <v>185</v>
       </c>
       <c r="C194" s="14">
-        <f t="shared" ref="C194:C200" si="94">E194*G194</f>
+        <f t="shared" ref="C194:C200" si="96">E194*G194</f>
         <v>9.9999999999999995E+196</v>
       </c>
       <c r="D194" s="14" t="str">
-        <f t="shared" ref="D194:D200" si="95">E194&amp;F194</f>
+        <f t="shared" ref="D194:D200" si="97">E194&amp;F194</f>
         <v>10향</v>
       </c>
       <c r="E194" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F194" s="13" t="str" cm="1">
@@ -13005,18 +13125,18 @@
         <v>향</v>
       </c>
       <c r="G194" s="13" t="str">
-        <f t="shared" ref="G194:G200" si="96">VLOOKUP(F194,M:P,4,FALSE)</f>
+        <f t="shared" ref="G194:G200" si="98">VLOOKUP(F194,M:P,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="H194" s="13">
         <v>8.7999999999999492</v>
       </c>
       <c r="I194" s="13" t="str">
-        <f t="shared" ref="I194:I200" si="97">K194&amp;" "&amp;J194&amp;"단"</f>
+        <f t="shared" ref="I194:I200" si="99">K194&amp;" "&amp;J194&amp;"단"</f>
         <v>태극 186단</v>
       </c>
       <c r="J194" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>186</v>
       </c>
       <c r="K194" s="13" t="s">
@@ -13028,15 +13148,15 @@
         <v>186</v>
       </c>
       <c r="C195" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="D195" s="14" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>100향</v>
       </c>
       <c r="E195" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F195" s="13" t="str" cm="1">
@@ -13044,18 +13164,18 @@
         <v>향</v>
       </c>
       <c r="G195" s="13" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+196</v>
       </c>
       <c r="H195" s="13">
         <v>8.8799999999999404</v>
       </c>
       <c r="I195" s="13" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>태극 187단</v>
       </c>
       <c r="J195" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>187</v>
       </c>
       <c r="K195" s="13" t="s">
@@ -13067,15 +13187,15 @@
         <v>187</v>
       </c>
       <c r="C196" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>9.9999999999999988E+198</v>
       </c>
       <c r="D196" s="14" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1000향</v>
       </c>
       <c r="E196" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F196" s="13" t="str" cm="1">
@@ -13083,18 +13203,18 @@
         <v>향</v>
       </c>
       <c r="G196" s="13" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+196</v>
       </c>
       <c r="H196" s="13">
         <v>8.9599999999999298</v>
       </c>
       <c r="I196" s="13" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>태극 188단</v>
       </c>
       <c r="J196" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>188</v>
       </c>
       <c r="K196" s="13" t="s">
@@ -13106,15 +13226,15 @@
         <v>188</v>
       </c>
       <c r="C197" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="D197" s="14" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1증</v>
       </c>
       <c r="E197" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F197" s="13" t="str" cm="1">
@@ -13122,18 +13242,18 @@
         <v>증</v>
       </c>
       <c r="G197" s="13" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+200</v>
       </c>
       <c r="H197" s="13">
         <v>9.0399999999999192</v>
       </c>
       <c r="I197" s="13" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>태극 189단</v>
       </c>
       <c r="J197" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>189</v>
       </c>
       <c r="K197" s="13" t="s">
@@ -13145,15 +13265,15 @@
         <v>189</v>
       </c>
       <c r="C198" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>9.999999999999999E+200</v>
       </c>
       <c r="D198" s="14" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>10증</v>
       </c>
       <c r="E198" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F198" s="13" t="str" cm="1">
@@ -13161,18 +13281,18 @@
         <v>증</v>
       </c>
       <c r="G198" s="13" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+200</v>
       </c>
       <c r="H198" s="13">
         <v>9.1199999999999104</v>
       </c>
       <c r="I198" s="13" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>태극 190단</v>
       </c>
       <c r="J198" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>190</v>
       </c>
       <c r="K198" s="13" t="s">
@@ -13184,15 +13304,15 @@
         <v>190</v>
       </c>
       <c r="C199" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="D199" s="14" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>100증</v>
       </c>
       <c r="E199" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F199" s="13" t="str" cm="1">
@@ -13200,18 +13320,18 @@
         <v>증</v>
       </c>
       <c r="G199" s="13" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+200</v>
       </c>
       <c r="H199" s="13">
         <v>9.1999999999998998</v>
       </c>
       <c r="I199" s="13" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>태극 191단</v>
       </c>
       <c r="J199" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>191</v>
       </c>
       <c r="K199" s="13" t="s">
@@ -13223,15 +13343,15 @@
         <v>191</v>
       </c>
       <c r="C200" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>9.9999999999999999E+202</v>
       </c>
       <c r="D200" s="14" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1000증</v>
       </c>
       <c r="E200" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F200" s="13" t="str" cm="1">
@@ -13239,21 +13359,177 @@
         <v>증</v>
       </c>
       <c r="G200" s="13" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+200</v>
       </c>
       <c r="H200" s="13">
         <v>9.2799999999998892</v>
       </c>
       <c r="I200" s="13" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>태극 192단</v>
       </c>
       <c r="J200" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>192</v>
       </c>
       <c r="K200" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B201" s="13">
+        <v>192</v>
+      </c>
+      <c r="C201" s="14">
+        <f t="shared" ref="C201:C204" si="100">E201*G201</f>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="D201" s="14" t="str">
+        <f t="shared" ref="D201:D204" si="101">E201&amp;F201</f>
+        <v>1쾌</v>
+      </c>
+      <c r="E201" s="14">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="F201" s="13" t="str" cm="1">
+        <f t="array" ref="F201">IF(AND(E200&gt;100,E201&lt;100),INDEX(M:M,MATCH(F200,M:M,0)+1,0),F200)</f>
+        <v>쾌</v>
+      </c>
+      <c r="G201" s="13" t="str">
+        <f t="shared" ref="G201:G204" si="102">VLOOKUP(F201,M:P,4,FALSE)</f>
+        <v>1E+204</v>
+      </c>
+      <c r="H201" s="13">
+        <v>9.3599999999998804</v>
+      </c>
+      <c r="I201" s="13" t="str">
+        <f t="shared" ref="I201:I204" si="103">K201&amp;" "&amp;J201&amp;"단"</f>
+        <v>태극 193단</v>
+      </c>
+      <c r="J201" s="13">
+        <f t="shared" si="40"/>
+        <v>193</v>
+      </c>
+      <c r="K201" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B202" s="13">
+        <v>193</v>
+      </c>
+      <c r="C202" s="14">
+        <f t="shared" si="100"/>
+        <v>1E+205</v>
+      </c>
+      <c r="D202" s="14" t="str">
+        <f t="shared" si="101"/>
+        <v>10쾌</v>
+      </c>
+      <c r="E202" s="14">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="F202" s="13" t="str" cm="1">
+        <f t="array" ref="F202">IF(AND(E201&gt;100,E202&lt;100),INDEX(M:M,MATCH(F201,M:M,0)+1,0),F201)</f>
+        <v>쾌</v>
+      </c>
+      <c r="G202" s="13" t="str">
+        <f t="shared" si="102"/>
+        <v>1E+204</v>
+      </c>
+      <c r="H202" s="13">
+        <v>9.4399999999998805</v>
+      </c>
+      <c r="I202" s="13" t="str">
+        <f t="shared" si="103"/>
+        <v>태극 194단</v>
+      </c>
+      <c r="J202" s="13">
+        <f t="shared" si="40"/>
+        <v>194</v>
+      </c>
+      <c r="K202" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B203" s="13">
+        <v>194</v>
+      </c>
+      <c r="C203" s="14">
+        <f t="shared" si="100"/>
+        <v>1E+206</v>
+      </c>
+      <c r="D203" s="14" t="str">
+        <f t="shared" si="101"/>
+        <v>100쾌</v>
+      </c>
+      <c r="E203" s="14">
+        <f t="shared" si="44"/>
+        <v>100</v>
+      </c>
+      <c r="F203" s="13" t="str" cm="1">
+        <f t="array" ref="F203">IF(AND(E202&gt;100,E203&lt;100),INDEX(M:M,MATCH(F202,M:M,0)+1,0),F202)</f>
+        <v>쾌</v>
+      </c>
+      <c r="G203" s="13" t="str">
+        <f t="shared" si="102"/>
+        <v>1E+204</v>
+      </c>
+      <c r="H203" s="13">
+        <v>9.5199999999998699</v>
+      </c>
+      <c r="I203" s="13" t="str">
+        <f t="shared" si="103"/>
+        <v>태극 195단</v>
+      </c>
+      <c r="J203" s="13">
+        <f t="shared" si="40"/>
+        <v>195</v>
+      </c>
+      <c r="K203" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B204" s="13">
+        <v>195</v>
+      </c>
+      <c r="C204" s="14">
+        <f t="shared" si="100"/>
+        <v>1E+207</v>
+      </c>
+      <c r="D204" s="14" t="str">
+        <f t="shared" si="101"/>
+        <v>1000쾌</v>
+      </c>
+      <c r="E204" s="14">
+        <f t="shared" si="44"/>
+        <v>1000</v>
+      </c>
+      <c r="F204" s="13" t="str" cm="1">
+        <f t="array" ref="F204">IF(AND(E203&gt;100,E204&lt;100),INDEX(M:M,MATCH(F203,M:M,0)+1,0),F203)</f>
+        <v>쾌</v>
+      </c>
+      <c r="G204" s="13" t="str">
+        <f t="shared" si="102"/>
+        <v>1E+204</v>
+      </c>
+      <c r="H204" s="13">
+        <v>9.5999999999998593</v>
+      </c>
+      <c r="I204" s="13" t="str">
+        <f t="shared" si="103"/>
+        <v>태극 196단</v>
+      </c>
+      <c r="J204" s="13">
+        <f t="shared" si="40"/>
+        <v>196</v>
+      </c>
+      <c r="K204" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53072A60-0AAF-42B1-99C7-2E953FA4FB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9148DB4-7C76-4EFA-ADCA-F70B75021B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="71">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,10 @@
   </si>
   <si>
     <t>우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,11 +845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E197"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C195" sqref="C195"/>
+      <selection pane="bottomLeft" activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4987,6 +4991,90 @@
         <v>태극 196단</v>
       </c>
     </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <f>VLOOKUP(A198,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D198">
+        <f>VLOOKUP(A198,Balance!B:I,7,FALSE)</f>
+        <v>9.6799999999998807</v>
+      </c>
+      <c r="E198" t="str">
+        <f>VLOOKUP(A198,Balance!B:I,8,FALSE)</f>
+        <v>태극 197단</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <f>VLOOKUP(A199,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+209</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D199">
+        <f>VLOOKUP(A199,Balance!B:I,7,FALSE)</f>
+        <v>9.7599999999998808</v>
+      </c>
+      <c r="E199" t="str">
+        <f>VLOOKUP(A199,Balance!B:I,8,FALSE)</f>
+        <v>태극 198단</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <f>VLOOKUP(A200,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999993E+209</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D200">
+        <f>VLOOKUP(A200,Balance!B:I,7,FALSE)</f>
+        <v>9.8399999999998808</v>
+      </c>
+      <c r="E200" t="str">
+        <f>VLOOKUP(A200,Balance!B:I,8,FALSE)</f>
+        <v>태극 199단</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <f>VLOOKUP(A201,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999996E+210</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D201">
+        <f>VLOOKUP(A201,Balance!B:I,7,FALSE)</f>
+        <v>9.9199999999998791</v>
+      </c>
+      <c r="E201" t="str">
+        <f>VLOOKUP(A201,Balance!B:I,8,FALSE)</f>
+        <v>태극 200단</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4996,10 +5084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X204"/>
+  <dimension ref="A1:X208"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="G200" sqref="G200"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7916,6 +8004,20 @@
       <c r="K60" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M60" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N60" s="13">
+        <v>212</v>
+      </c>
+      <c r="O60" s="14">
+        <f t="shared" ref="O60" si="35">POWER(10,N60)</f>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="P60" s="14" t="str">
+        <f t="shared" ref="P60" si="36">RIGHT(O60,N60)</f>
+        <v>1E+212</v>
+      </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="13">
@@ -8156,15 +8258,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="35">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="37">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="36">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="38">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="37">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="39">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -8195,15 +8297,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000무</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -8234,15 +8336,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1대</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -8273,15 +8375,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10대</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -8312,15 +8414,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100대</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -8351,15 +8453,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000대</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -8390,15 +8492,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+76</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1겁</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -8406,7 +8508,7 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="38">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f t="shared" ref="G73:G104" si="40">VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
@@ -8429,15 +8531,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10겁</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -8445,14 +8547,14 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="39">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="41">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
@@ -8468,15 +8570,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+78</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100겁</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -8484,18 +8586,18 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J204" si="40">J74+1</f>
+        <f t="shared" ref="J75:J208" si="42">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
@@ -8507,15 +8609,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000겁</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -8523,18 +8625,18 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -8546,15 +8648,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+80</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1업</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -8562,18 +8664,18 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -8585,15 +8687,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10업</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -8601,18 +8703,18 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
@@ -8624,15 +8726,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100업</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -8640,18 +8742,18 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
@@ -8663,15 +8765,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+83</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000업</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -8679,18 +8781,18 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
@@ -8702,15 +8804,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1긍</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -8718,18 +8820,18 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -8741,15 +8843,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+85</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10긍</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -8757,18 +8859,18 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -8780,15 +8882,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+86</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100긍</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -8796,18 +8898,18 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
@@ -8819,15 +8921,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000긍</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -8835,18 +8937,18 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -8858,15 +8960,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1갈</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -8874,18 +8976,18 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
@@ -8897,15 +8999,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10갈</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -8913,18 +9015,18 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -8936,15 +9038,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100갈</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -8952,18 +9054,18 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -8975,15 +9077,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000갈</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -8991,18 +9093,18 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -9014,15 +9116,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+92</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1라</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -9030,18 +9132,18 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
@@ -9053,15 +9155,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+93</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10라</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -9069,18 +9171,18 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -9092,15 +9194,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+94</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100라</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -9108,18 +9210,18 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
@@ -9131,15 +9233,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+95</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000라</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -9147,18 +9249,18 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
@@ -9170,15 +9272,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+96</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1가</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -9186,18 +9288,18 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
@@ -9209,15 +9311,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10가</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -9225,18 +9327,18 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
@@ -9248,15 +9350,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+98</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100가</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -9264,18 +9366,18 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
@@ -9287,15 +9389,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000가</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -9303,18 +9405,18 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
@@ -9326,15 +9428,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+100</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1언</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -9342,18 +9444,18 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
@@ -9365,15 +9467,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10언</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -9381,18 +9483,18 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
@@ -9404,15 +9506,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100언</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -9420,18 +9522,18 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
@@ -9443,15 +9545,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+103</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000언</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -9459,18 +9561,18 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
@@ -9482,15 +9584,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+104</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1승</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -9498,18 +9600,18 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
@@ -9521,15 +9623,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10승</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -9537,18 +9639,18 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -9560,15 +9662,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100승</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -9576,18 +9678,18 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
@@ -9599,15 +9701,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000승</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -9615,18 +9717,18 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
@@ -9638,15 +9740,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+108</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1마</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -9654,18 +9756,18 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G136" si="41">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f t="shared" ref="G105:G136" si="43">VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
@@ -9677,15 +9779,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10마</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -9693,18 +9795,18 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
@@ -9716,15 +9818,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+110</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100마</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -9732,18 +9834,18 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
@@ -9755,15 +9857,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000마</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -9771,18 +9873,18 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -9794,15 +9896,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1살</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -9810,18 +9912,18 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
@@ -9833,15 +9935,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+113</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10살</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -9849,18 +9951,18 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
@@ -9872,15 +9974,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100살</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -9888,18 +9990,18 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
@@ -9911,15 +10013,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="42">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="44">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="43">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="45">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E204" si="44">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E208" si="46">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -9927,18 +10029,18 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="45">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="47">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
@@ -9950,15 +10052,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -9966,18 +10068,18 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
@@ -9989,15 +10091,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -10005,18 +10107,18 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -10028,15 +10130,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -10044,18 +10146,18 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
@@ -10067,15 +10169,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -10083,18 +10185,18 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -10106,15 +10208,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -10122,18 +10224,18 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
@@ -10145,15 +10247,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -10161,18 +10263,18 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
@@ -10184,15 +10286,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -10200,18 +10302,18 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
@@ -10223,15 +10325,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -10239,18 +10341,18 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
@@ -10262,15 +10364,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -10278,18 +10380,18 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
@@ -10301,15 +10403,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -10317,18 +10419,18 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
@@ -10340,15 +10442,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -10356,18 +10458,18 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
@@ -10379,15 +10481,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -10395,18 +10497,18 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>태극 116단</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
@@ -10418,15 +10520,15 @@
         <v>116</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" ref="C125:C130" si="46">E125*G125</f>
+        <f t="shared" ref="C125:C130" si="48">E125*G125</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f t="shared" ref="D125:D130" si="47">E125&amp;F125</f>
+        <f t="shared" ref="D125:D130" si="49">E125&amp;F125</f>
         <v>1위</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="F125" s="13" t="str" cm="1">
@@ -10434,18 +10536,18 @@
         <v>위</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+128</v>
       </c>
       <c r="H125" s="13">
         <v>3.28</v>
       </c>
       <c r="I125" s="13" t="str">
-        <f t="shared" ref="I125:I130" si="48">K125&amp;" "&amp;J125&amp;"단"</f>
+        <f t="shared" ref="I125:I130" si="50">K125&amp;" "&amp;J125&amp;"단"</f>
         <v>태극 117단</v>
       </c>
       <c r="J125" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>117</v>
       </c>
       <c r="K125" s="13" t="s">
@@ -10457,15 +10559,15 @@
         <v>117</v>
       </c>
       <c r="C126" s="14">
+        <f t="shared" si="48"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="49"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
         <f t="shared" si="46"/>
-        <v>1E+129</v>
-      </c>
-      <c r="D126" s="14" t="str">
-        <f t="shared" si="47"/>
-        <v>10위</v>
-      </c>
-      <c r="E126" s="14">
-        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F126" s="13" t="str" cm="1">
@@ -10473,18 +10575,18 @@
         <v>위</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+128</v>
       </c>
       <c r="H126" s="13">
         <v>3.36</v>
       </c>
       <c r="I126" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>태극 118단</v>
       </c>
       <c r="J126" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>118</v>
       </c>
       <c r="K126" s="13" t="s">
@@ -10496,15 +10598,15 @@
         <v>118</v>
       </c>
       <c r="C127" s="14">
+        <f t="shared" si="48"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="49"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
         <f t="shared" si="46"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="D127" s="14" t="str">
-        <f t="shared" si="47"/>
-        <v>100위</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F127" s="13" t="str" cm="1">
@@ -10512,18 +10614,18 @@
         <v>위</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+128</v>
       </c>
       <c r="H127" s="13">
         <v>3.44</v>
       </c>
       <c r="I127" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>태극 119단</v>
       </c>
       <c r="J127" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>119</v>
       </c>
       <c r="K127" s="13" t="s">
@@ -10535,15 +10637,15 @@
         <v>119</v>
       </c>
       <c r="C128" s="14">
+        <f t="shared" si="48"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="49"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
         <f t="shared" si="46"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="D128" s="14" t="str">
-        <f t="shared" si="47"/>
-        <v>1000위</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="F128" s="13" t="str" cm="1">
@@ -10551,18 +10653,18 @@
         <v>위</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+128</v>
       </c>
       <c r="H128" s="13">
         <v>3.52</v>
       </c>
       <c r="I128" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>태극 120단</v>
       </c>
       <c r="J128" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>120</v>
       </c>
       <c r="K128" s="13" t="s">
@@ -10574,15 +10676,15 @@
         <v>120</v>
       </c>
       <c r="C129" s="14">
+        <f t="shared" si="48"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="49"/>
+        <v>1설</v>
+      </c>
+      <c r="E129" s="14">
         <f t="shared" si="46"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="D129" s="14" t="str">
-        <f t="shared" si="47"/>
-        <v>1설</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="F129" s="13" t="str" cm="1">
@@ -10590,18 +10692,18 @@
         <v>설</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+132</v>
       </c>
       <c r="H129" s="13">
         <v>3.6</v>
       </c>
       <c r="I129" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>태극 121단</v>
       </c>
       <c r="J129" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>121</v>
       </c>
       <c r="K129" s="13" t="s">
@@ -10613,15 +10715,15 @@
         <v>121</v>
       </c>
       <c r="C130" s="14">
+        <f t="shared" si="48"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="49"/>
+        <v>10설</v>
+      </c>
+      <c r="E130" s="14">
         <f t="shared" si="46"/>
-        <v>1E+133</v>
-      </c>
-      <c r="D130" s="14" t="str">
-        <f t="shared" si="47"/>
-        <v>10설</v>
-      </c>
-      <c r="E130" s="14">
-        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F130" s="13" t="str" cm="1">
@@ -10629,18 +10731,18 @@
         <v>설</v>
       </c>
       <c r="G130" s="13" t="s